--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -2257,7 +2257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H74"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
@@ -3208,8 +3208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6980,17 +6980,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="M68:O68"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="M90:O90"/>
@@ -7007,6 +6996,17 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="M68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8808,7 +8808,7 @@
   <dimension ref="B1:K45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9459,8 +9459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9515,46 +9515,46 @@
       </c>
       <c r="C4" s="12">
         <f>Raw!D2</f>
-        <v>11997</v>
+        <v>11372</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71">
         <f>C4</f>
-        <v>11997</v>
+        <v>11372</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>35991</v>
+        <v>34116</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>107973</v>
+        <v>102348</v>
       </c>
       <c r="I4" s="93">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>38995</v>
+        <v>35454</v>
       </c>
       <c r="J4" s="93">
         <f>C32</f>
-        <v>109996</v>
+        <v>110798</v>
       </c>
       <c r="K4" s="11">
         <f>I4-G4</f>
-        <v>3004</v>
+        <v>1338</v>
       </c>
       <c r="L4" s="94">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>7.7035517374022255E-2</v>
+        <v>3.7739042139109835E-2</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" ref="M4:M11" si="2">J4-H4</f>
-        <v>2023</v>
+        <v>8450</v>
       </c>
       <c r="N4" s="69">
         <f>1-(H4/J4)</f>
-        <v>1.8391577875559117E-2</v>
+        <v>7.626491452914308E-2</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -10096,7 +10096,7 @@
       </c>
       <c r="C18" s="20">
         <f>Raw!D28</f>
-        <v>38995</v>
+        <v>35454</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="C32" s="20">
         <f>Raw!D54</f>
-        <v>109996</v>
+        <v>110798</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -10334,8 +10334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="A1:D68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10347,7 +10347,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2">
-        <v>11997</v>
+        <v>11372</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10477,7 +10477,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28">
-        <v>38995</v>
+        <v>35454</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10607,7 +10607,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54">
-        <v>109996</v>
+        <v>110798</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="241">
   <si>
     <t>Ardonite</t>
   </si>
@@ -644,6 +644,108 @@
   </si>
   <si>
     <t>Rune Do Terre</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>3681</t>
+  </si>
+  <si>
+    <t>5900</t>
+  </si>
+  <si>
+    <t>14850</t>
+  </si>
+  <si>
+    <t>16997</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>28000</t>
+  </si>
+  <si>
+    <t>38983</t>
+  </si>
+  <si>
+    <t>99995</t>
+  </si>
+  <si>
+    <t>120990</t>
+  </si>
+  <si>
+    <t>111759</t>
+  </si>
+  <si>
+    <t>76608</t>
+  </si>
+  <si>
+    <t>35454</t>
+  </si>
+  <si>
+    <t>27989</t>
+  </si>
+  <si>
+    <t>12489</t>
+  </si>
+  <si>
+    <t>25436</t>
+  </si>
+  <si>
+    <t>58999</t>
+  </si>
+  <si>
+    <t>53925</t>
+  </si>
+  <si>
+    <t>38785</t>
+  </si>
+  <si>
+    <t>92089</t>
+  </si>
+  <si>
+    <t>129899</t>
+  </si>
+  <si>
+    <t>336813</t>
+  </si>
+  <si>
+    <t>419973</t>
+  </si>
+  <si>
+    <t>238993</t>
+  </si>
+  <si>
+    <t>228999</t>
+  </si>
+  <si>
+    <t>110798</t>
+  </si>
+  <si>
+    <t>94645</t>
+  </si>
+  <si>
+    <t>37354</t>
+  </si>
+  <si>
+    <t>77982</t>
+  </si>
+  <si>
+    <t>148680</t>
+  </si>
+  <si>
+    <t>169159</t>
+  </si>
+  <si>
+    <t>98967</t>
+  </si>
+  <si>
+    <t>200000</t>
   </si>
 </sst>
 </file>
@@ -6980,6 +7082,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="M68:O68"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="M90:O90"/>
@@ -6996,17 +7109,6 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="M68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9459,8 +9561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9513,336 +9615,336 @@
       <c r="B4" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>11372</v>
+        <v>9999</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>11372</v>
+        <v>9999</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>34116</v>
+        <v>29997</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>102348</v>
-      </c>
-      <c r="I4" s="93">
+        <v>89991</v>
+      </c>
+      <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
         <v>35454</v>
       </c>
-      <c r="J4" s="93">
+      <c r="J4" s="93" t="str">
         <f>C32</f>
         <v>110798</v>
       </c>
       <c r="K4" s="11">
         <f>I4-G4</f>
-        <v>1338</v>
+        <v>5457</v>
       </c>
       <c r="L4" s="94">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>3.7739042139109835E-2</v>
+        <v>0.15391775258080898</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" ref="M4:M11" si="2">J4-H4</f>
-        <v>8450</v>
+        <v>20807</v>
       </c>
       <c r="N4" s="69">
         <f>1-(H4/J4)</f>
-        <v>7.626491452914308E-2</v>
+        <v>0.18779219841513384</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>6100</v>
+        <v>9000</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>6100</v>
+        <v>9000</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="3">F5*3</f>
-        <v>18300</v>
+        <v>27000</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="3"/>
-        <v>54900</v>
-      </c>
-      <c r="I5" s="91">
+        <v>81000</v>
+      </c>
+      <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>23317</v>
-      </c>
-      <c r="J5" s="91">
+        <v>27989</v>
+      </c>
+      <c r="J5" s="91" t="str">
         <f t="shared" ref="J5:J11" si="4">C33</f>
-        <v>56999</v>
+        <v>94645</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K16" si="5">I5-G5</f>
-        <v>5017</v>
+        <v>989</v>
       </c>
       <c r="L5" s="92">
         <f t="shared" si="1"/>
-        <v>0.21516490114508724</v>
+        <v>3.5335310300475209E-2</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="2"/>
-        <v>2099</v>
+        <v>13645</v>
       </c>
       <c r="N5" s="70">
         <f t="shared" ref="N5:N11" si="6">1-(H5/J5)</f>
-        <v>3.6825207459780018E-2</v>
+        <v>0.14417032067198476</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>14749</v>
+        <v>3681</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="7">C6</f>
-        <v>14749</v>
+        <v>3681</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="3"/>
-        <v>44247</v>
+        <v>11043</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="3"/>
-        <v>132741</v>
-      </c>
-      <c r="I6" s="91">
+        <v>33129</v>
+      </c>
+      <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>61897</v>
-      </c>
-      <c r="J6" s="91">
+        <v>12489</v>
+      </c>
+      <c r="J6" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>70887</v>
+        <v>37354</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="5"/>
-        <v>17650</v>
+        <v>1446</v>
       </c>
       <c r="L6" s="92">
         <f t="shared" si="1"/>
-        <v>0.28515113818117199</v>
+        <v>0.11578188806149414</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="2"/>
-        <v>-61854</v>
+        <v>4225</v>
       </c>
       <c r="N6" s="70">
         <f t="shared" si="6"/>
-        <v>-0.87257183968851826</v>
+        <v>0.11310703003694389</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>7478</v>
+        <v>5900</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>7478</v>
+        <v>5900</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="3"/>
-        <v>22434</v>
+        <v>17700</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="3"/>
-        <v>67302</v>
-      </c>
-      <c r="I7" s="91">
+        <v>53100</v>
+      </c>
+      <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>32528</v>
-      </c>
-      <c r="J7" s="91">
+        <v>25436</v>
+      </c>
+      <c r="J7" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>78776</v>
+        <v>77982</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="5"/>
-        <v>10094</v>
+        <v>7736</v>
       </c>
       <c r="L7" s="92">
         <f t="shared" si="1"/>
-        <v>0.31031726512543045</v>
+        <v>0.30413587041987733</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="2"/>
-        <v>11474</v>
+        <v>24882</v>
       </c>
       <c r="N7" s="70">
         <f t="shared" si="6"/>
-        <v>0.14565349852747034</v>
+        <v>0.31907363237670228</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>6900</v>
+        <v>14850</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>6900</v>
+        <v>14850</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="3"/>
-        <v>20700</v>
+        <v>44550</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="3"/>
-        <v>62100</v>
-      </c>
-      <c r="I8" s="91">
+        <v>133650</v>
+      </c>
+      <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>33898</v>
-      </c>
-      <c r="J8" s="91">
+        <v>58999</v>
+      </c>
+      <c r="J8" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>100000</v>
+        <v>148680</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="5"/>
-        <v>13198</v>
+        <v>14449</v>
       </c>
       <c r="L8" s="92">
         <f t="shared" si="1"/>
-        <v>0.38934450410053689</v>
+        <v>0.24490245597383009</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>37900</v>
+        <v>15030</v>
       </c>
       <c r="N8" s="70">
         <f t="shared" si="6"/>
-        <v>0.379</v>
+        <v>0.10108958837772397</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>19998</v>
+        <v>16997</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>19998</v>
+        <v>16997</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="3"/>
-        <v>59994</v>
+        <v>50991</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="3"/>
-        <v>179982</v>
-      </c>
-      <c r="I9" s="91">
+        <v>152973</v>
+      </c>
+      <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>72149</v>
-      </c>
-      <c r="J9" s="91">
+        <v>53925</v>
+      </c>
+      <c r="J9" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>180000</v>
+        <v>169159</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="5"/>
-        <v>12155</v>
+        <v>2934</v>
       </c>
       <c r="L9" s="92">
         <f t="shared" si="1"/>
-        <v>0.16847080347613963</v>
+        <v>5.4408901251738473E-2</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16186</v>
       </c>
       <c r="N9" s="70">
         <f t="shared" si="6"/>
-        <v>9.9999999999988987E-5</v>
+        <v>9.5685124646043063E-2</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="96" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>10997</v>
+        <v>11000</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>10997</v>
+        <v>11000</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="3"/>
-        <v>32991</v>
+        <v>33000</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="3"/>
-        <v>98973</v>
-      </c>
-      <c r="I10" s="91">
+        <v>99000</v>
+      </c>
+      <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>50492</v>
-      </c>
-      <c r="J10" s="91">
+        <v>38785</v>
+      </c>
+      <c r="J10" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>96998</v>
+        <v>98967</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="5"/>
-        <v>17501</v>
+        <v>5785</v>
       </c>
       <c r="L10" s="92">
         <f t="shared" si="1"/>
-        <v>0.34660936385962138</v>
+        <v>0.14915560139229078</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="2"/>
-        <v>-1975</v>
+        <v>-33</v>
       </c>
       <c r="N10" s="70">
         <f t="shared" si="6"/>
-        <v>-2.0361244561743597E-2</v>
+        <v>-3.3344448149374983E-4</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -9867,9 +9969,9 @@
         <f t="shared" si="3"/>
         <v>494901</v>
       </c>
-      <c r="I11" s="91">
+      <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>169996</v>
+        <v>92089</v>
       </c>
       <c r="J11" s="91">
         <f t="shared" si="4"/>
@@ -9877,11 +9979,11 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="5"/>
-        <v>5029</v>
+        <v>-72878</v>
       </c>
       <c r="L11" s="92">
         <f t="shared" si="1"/>
-        <v>2.9583049012917972E-2</v>
+        <v>-0.79138659340420681</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="2"/>
@@ -9896,37 +9998,37 @@
       <c r="B12" s="96" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>124992</v>
+        <v>38983</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>124992</v>
+        <v>38983</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="3"/>
-        <v>374976</v>
+        <v>116949</v>
       </c>
       <c r="H12" s="74">
         <f t="shared" si="3"/>
-        <v>1124928</v>
-      </c>
-      <c r="I12" s="91">
+        <v>350847</v>
+      </c>
+      <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>319990</v>
+        <v>129899</v>
       </c>
       <c r="J12" s="91"/>
       <c r="K12" s="2">
         <f t="shared" si="5"/>
-        <v>-54986</v>
+        <v>12950</v>
       </c>
       <c r="L12" s="92">
         <f t="shared" si="1"/>
-        <v>-0.17183661989437171</v>
+        <v>9.9692838282049889E-2</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="70"/>
@@ -9935,37 +10037,37 @@
       <c r="B13" s="96" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>117996</v>
+        <v>99995</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>117996</v>
+        <v>99995</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="3"/>
-        <v>353988</v>
+        <v>299985</v>
       </c>
       <c r="H13" s="74">
         <f t="shared" si="3"/>
-        <v>1061964</v>
-      </c>
-      <c r="I13" s="91">
+        <v>899955</v>
+      </c>
+      <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="8">C27</f>
-        <v>240000</v>
+        <v>336813</v>
       </c>
       <c r="J13" s="91"/>
       <c r="K13" s="2">
         <f t="shared" si="5"/>
-        <v>-113988</v>
+        <v>36828</v>
       </c>
       <c r="L13" s="92">
         <f t="shared" si="1"/>
-        <v>-0.47494999999999998</v>
+        <v>0.10934257288168803</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
@@ -9974,37 +10076,37 @@
       <c r="B14" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>107772</v>
+        <v>120990</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>107772</v>
+        <v>120990</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="3"/>
-        <v>323316</v>
+        <v>362970</v>
       </c>
       <c r="H14" s="74">
         <f t="shared" si="3"/>
-        <v>969948</v>
-      </c>
-      <c r="I14" s="91">
+        <v>1088910</v>
+      </c>
+      <c r="I14" s="91" t="str">
         <f t="shared" si="8"/>
-        <v>289994</v>
+        <v>419973</v>
       </c>
       <c r="J14" s="91"/>
       <c r="K14" s="2">
         <f t="shared" si="5"/>
-        <v>-33322</v>
+        <v>57003</v>
       </c>
       <c r="L14" s="92">
         <f t="shared" si="1"/>
-        <v>-0.11490582563777174</v>
+        <v>0.13573015408133382</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
@@ -10013,37 +10115,37 @@
       <c r="B15" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>57190</v>
+        <v>111759</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>57190</v>
+        <v>111759</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="3"/>
-        <v>171570</v>
+        <v>335277</v>
       </c>
       <c r="H15" s="74">
         <f t="shared" si="3"/>
-        <v>514710</v>
-      </c>
-      <c r="I15" s="91">
+        <v>1005831</v>
+      </c>
+      <c r="I15" s="91" t="str">
         <f t="shared" si="8"/>
-        <v>299995</v>
+        <v>238993</v>
       </c>
       <c r="J15" s="91"/>
       <c r="K15" s="2">
         <f t="shared" si="5"/>
-        <v>128425</v>
+        <v>-96284</v>
       </c>
       <c r="L15" s="92">
         <f>1-(G15/I15)</f>
-        <v>0.42809046817446961</v>
+        <v>-0.40287372433502244</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
@@ -10052,37 +10154,37 @@
       <c r="B16" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>118394</v>
+        <v>76608</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>118394</v>
+        <v>76608</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="3"/>
-        <v>355182</v>
+        <v>229824</v>
       </c>
       <c r="H16" s="74">
         <f t="shared" si="3"/>
-        <v>1065546</v>
-      </c>
-      <c r="I16" s="91">
+        <v>689472</v>
+      </c>
+      <c r="I16" s="91" t="str">
         <f t="shared" si="8"/>
-        <v>329994</v>
+        <v>228999</v>
       </c>
       <c r="J16" s="91"/>
       <c r="K16" s="2">
         <f t="shared" si="5"/>
-        <v>-25188</v>
+        <v>-825</v>
       </c>
       <c r="L16" s="92">
         <f>1-(G16/I16)</f>
-        <v>-7.6328660521100433E-2</v>
+        <v>-3.60263581937037E-3</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
@@ -10094,7 +10196,7 @@
       <c r="B18" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
         <v>35454</v>
       </c>
@@ -10103,108 +10205,108 @@
       <c r="B19" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>23317</v>
+        <v>27989</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>61897</v>
+        <v>12489</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>32528</v>
+        <v>25436</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>33898</v>
+        <v>58999</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>72149</v>
+        <v>53925</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>50492</v>
+        <v>38785</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>169996</v>
+        <v>92089</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>319990</v>
+        <v>129899</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B27" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>240000</v>
+        <v>336813</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>289994</v>
+        <v>419973</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B29" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>299995</v>
+        <v>238993</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>329994</v>
+        <v>228999</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10214,7 +10316,7 @@
       <c r="B32" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
         <v>110798</v>
       </c>
@@ -10223,54 +10325,54 @@
       <c r="B33" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>56999</v>
+        <v>94645</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>70887</v>
+        <v>37354</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>78776</v>
+        <v>77982</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>100000</v>
+        <v>148680</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>180000</v>
+        <v>169159</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>96998</v>
+        <v>98967</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10334,11 +10436,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K67" sqref="K67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -10346,8 +10451,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>11372</v>
+      <c r="D2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10356,8 +10461,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>6100</v>
+      <c r="D4" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10366,8 +10471,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>14749</v>
+      <c r="D6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10376,8 +10481,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>7478</v>
+      <c r="D8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10386,8 +10491,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>6900</v>
+      <c r="D10" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -10396,8 +10501,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>19998</v>
+      <c r="D12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -10406,8 +10511,8 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>10997</v>
+      <c r="D14" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -10416,8 +10521,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>54985</v>
+      <c r="D16" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10426,8 +10531,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>124992</v>
+      <c r="D18" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10436,8 +10541,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>117996</v>
+      <c r="D20" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10446,8 +10551,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>107772</v>
+      <c r="D22" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -10456,8 +10561,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>57190</v>
+      <c r="D24" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10466,8 +10571,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>118394</v>
+      <c r="D26" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10476,8 +10581,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>35454</v>
+      <c r="D28" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10486,8 +10591,8 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>23317</v>
+      <c r="D30" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10496,8 +10601,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>61897</v>
+      <c r="D32" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10506,8 +10611,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>32528</v>
+      <c r="D34" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10516,8 +10621,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <v>33898</v>
+      <c r="D36" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10526,8 +10631,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <v>72149</v>
+      <c r="D38" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10536,8 +10641,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>50492</v>
+      <c r="D40" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -10546,8 +10651,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <v>169996</v>
+      <c r="D42" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10556,8 +10661,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D44">
-        <v>319990</v>
+      <c r="D44" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10566,8 +10671,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D46">
-        <v>240000</v>
+      <c r="D46" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10576,8 +10681,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D48">
-        <v>289994</v>
+      <c r="D48" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10586,8 +10691,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>299995</v>
+      <c r="D50" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10596,8 +10701,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D52">
-        <v>329994</v>
+      <c r="D52" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10606,8 +10711,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D54">
-        <v>110798</v>
+      <c r="D54" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -10616,8 +10721,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D56">
-        <v>56999</v>
+      <c r="D56" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -10626,8 +10731,8 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D58">
-        <v>70887</v>
+      <c r="D58" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -10636,8 +10741,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D60">
-        <v>78776</v>
+      <c r="D60" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10646,8 +10751,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D62">
-        <v>100000</v>
+      <c r="D62" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -10656,8 +10761,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D64">
-        <v>180000</v>
+      <c r="D64" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -10666,8 +10771,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D66">
-        <v>96998</v>
+      <c r="D66" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -10676,8 +10781,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D68">
-        <v>529988</v>
+      <c r="D68" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="240">
   <si>
     <t>Ardonite</t>
   </si>
@@ -646,106 +646,103 @@
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>3681</t>
-  </si>
-  <si>
-    <t>5900</t>
-  </si>
-  <si>
-    <t>14850</t>
-  </si>
-  <si>
-    <t>16997</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
-    <t>28000</t>
-  </si>
-  <si>
-    <t>38983</t>
-  </si>
-  <si>
-    <t>99995</t>
-  </si>
-  <si>
-    <t>120990</t>
-  </si>
-  <si>
-    <t>111759</t>
-  </si>
-  <si>
-    <t>76608</t>
-  </si>
-  <si>
-    <t>35454</t>
-  </si>
-  <si>
-    <t>27989</t>
-  </si>
-  <si>
-    <t>12489</t>
-  </si>
-  <si>
-    <t>25436</t>
-  </si>
-  <si>
-    <t>58999</t>
-  </si>
-  <si>
-    <t>53925</t>
-  </si>
-  <si>
-    <t>38785</t>
-  </si>
-  <si>
-    <t>92089</t>
-  </si>
-  <si>
-    <t>129899</t>
-  </si>
-  <si>
-    <t>336813</t>
-  </si>
-  <si>
-    <t>419973</t>
-  </si>
-  <si>
-    <t>238993</t>
+    <t>210998</t>
+  </si>
+  <si>
+    <t>11196</t>
+  </si>
+  <si>
+    <t>9893</t>
+  </si>
+  <si>
+    <t>3770</t>
+  </si>
+  <si>
+    <t>7493</t>
+  </si>
+  <si>
+    <t>14993</t>
+  </si>
+  <si>
+    <t>17977</t>
+  </si>
+  <si>
+    <t>11991</t>
+  </si>
+  <si>
+    <t>27597</t>
+  </si>
+  <si>
+    <t>37996</t>
+  </si>
+  <si>
+    <t>99996</t>
+  </si>
+  <si>
+    <t>129757</t>
+  </si>
+  <si>
+    <t>92571</t>
+  </si>
+  <si>
+    <t>76654</t>
+  </si>
+  <si>
+    <t>39980</t>
+  </si>
+  <si>
+    <t>28761</t>
+  </si>
+  <si>
+    <t>12595</t>
+  </si>
+  <si>
+    <t>25299</t>
+  </si>
+  <si>
+    <t>56437</t>
+  </si>
+  <si>
+    <t>54453</t>
+  </si>
+  <si>
+    <t>38897</t>
+  </si>
+  <si>
+    <t>92985</t>
+  </si>
+  <si>
+    <t>129788</t>
+  </si>
+  <si>
+    <t>335997</t>
+  </si>
+  <si>
+    <t>399982</t>
+  </si>
+  <si>
+    <t>338973</t>
   </si>
   <si>
     <t>228999</t>
   </si>
   <si>
-    <t>110798</t>
-  </si>
-  <si>
-    <t>94645</t>
-  </si>
-  <si>
-    <t>37354</t>
-  </si>
-  <si>
-    <t>77982</t>
-  </si>
-  <si>
-    <t>148680</t>
-  </si>
-  <si>
-    <t>169159</t>
-  </si>
-  <si>
-    <t>98967</t>
-  </si>
-  <si>
-    <t>200000</t>
+    <t>110797</t>
+  </si>
+  <si>
+    <t>37333</t>
+  </si>
+  <si>
+    <t>77788</t>
+  </si>
+  <si>
+    <t>147880</t>
+  </si>
+  <si>
+    <t>156996</t>
+  </si>
+  <si>
+    <t>97495</t>
   </si>
 </sst>
 </file>
@@ -9562,7 +9559,7 @@
   <dimension ref="B1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9570,6 +9567,7 @@
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -9617,46 +9615,46 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>9999</v>
+        <v>11196</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>9999</v>
+        <v>11196</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>29997</v>
+        <v>33588</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>89991</v>
+        <v>100764</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>35454</v>
+        <v>39980</v>
       </c>
       <c r="J4" s="93" t="str">
         <f>C32</f>
-        <v>110798</v>
+        <v>110797</v>
       </c>
       <c r="K4" s="11">
         <f>I4-G4</f>
-        <v>5457</v>
+        <v>6392</v>
       </c>
       <c r="L4" s="94">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.15391775258080898</v>
+        <v>0.15987993996998495</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" ref="M4:M11" si="2">J4-H4</f>
-        <v>20807</v>
+        <v>10033</v>
       </c>
       <c r="N4" s="69">
         <f>1-(H4/J4)</f>
-        <v>0.18779219841513384</v>
+        <v>9.0552993312093322E-2</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -9665,46 +9663,46 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>9000</v>
+        <v>9893</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>9000</v>
+        <v>9893</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="3">F5*3</f>
-        <v>27000</v>
+        <v>29679</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="3"/>
-        <v>81000</v>
+        <v>89037</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>27989</v>
-      </c>
-      <c r="J5" s="91" t="str">
+        <v>28761</v>
+      </c>
+      <c r="J5" s="91">
         <f t="shared" ref="J5:J11" si="4">C33</f>
-        <v>94645</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K16" si="5">I5-G5</f>
-        <v>989</v>
+        <v>-918</v>
       </c>
       <c r="L5" s="92">
         <f t="shared" si="1"/>
-        <v>3.5335310300475209E-2</v>
+        <v>-3.1918222593094736E-2</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="2"/>
-        <v>13645</v>
+        <v>-89036</v>
       </c>
       <c r="N5" s="70">
         <f t="shared" ref="N5:N11" si="6">1-(H5/J5)</f>
-        <v>0.14417032067198476</v>
+        <v>-89036</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -9713,46 +9711,46 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>3681</v>
+        <v>3770</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="7">C6</f>
-        <v>3681</v>
+        <v>3770</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="3"/>
-        <v>11043</v>
+        <v>11310</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="3"/>
-        <v>33129</v>
+        <v>33930</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>12489</v>
+        <v>12595</v>
       </c>
       <c r="J6" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>37354</v>
+        <v>37333</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="5"/>
-        <v>1446</v>
+        <v>1285</v>
       </c>
       <c r="L6" s="92">
         <f t="shared" si="1"/>
-        <v>0.11578188806149414</v>
+        <v>0.10202461294164356</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="2"/>
-        <v>4225</v>
+        <v>3403</v>
       </c>
       <c r="N6" s="70">
         <f t="shared" si="6"/>
-        <v>0.11310703003694389</v>
+        <v>9.1152599576781901E-2</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -9761,46 +9759,46 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>5900</v>
+        <v>7493</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>5900</v>
+        <v>7493</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="3"/>
-        <v>17700</v>
+        <v>22479</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="3"/>
-        <v>53100</v>
+        <v>67437</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>25436</v>
+        <v>25299</v>
       </c>
       <c r="J7" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>77982</v>
+        <v>77788</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="5"/>
-        <v>7736</v>
+        <v>2820</v>
       </c>
       <c r="L7" s="92">
         <f t="shared" si="1"/>
-        <v>0.30413587041987733</v>
+        <v>0.1114668563974861</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="2"/>
-        <v>24882</v>
+        <v>10351</v>
       </c>
       <c r="N7" s="70">
         <f t="shared" si="6"/>
-        <v>0.31907363237670228</v>
+        <v>0.13306679693525991</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -9809,46 +9807,46 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>14850</v>
+        <v>14993</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>14850</v>
+        <v>14993</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="3"/>
-        <v>44550</v>
+        <v>44979</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="3"/>
-        <v>133650</v>
+        <v>134937</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>58999</v>
+        <v>56437</v>
       </c>
       <c r="J8" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>148680</v>
+        <v>147880</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="5"/>
-        <v>14449</v>
+        <v>11458</v>
       </c>
       <c r="L8" s="92">
         <f t="shared" si="1"/>
-        <v>0.24490245597383009</v>
+        <v>0.20302283962648615</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>15030</v>
+        <v>12943</v>
       </c>
       <c r="N8" s="70">
         <f t="shared" si="6"/>
-        <v>0.10108958837772397</v>
+        <v>8.7523667838788177E-2</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -9857,46 +9855,46 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>16997</v>
+        <v>17977</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>16997</v>
+        <v>17977</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="3"/>
-        <v>50991</v>
+        <v>53931</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="3"/>
-        <v>152973</v>
+        <v>161793</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>53925</v>
+        <v>54453</v>
       </c>
       <c r="J9" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>169159</v>
+        <v>156996</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="5"/>
-        <v>2934</v>
+        <v>522</v>
       </c>
       <c r="L9" s="92">
         <f t="shared" si="1"/>
-        <v>5.4408901251738473E-2</v>
+        <v>9.5862486915321288E-3</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="2"/>
-        <v>16186</v>
+        <v>-4797</v>
       </c>
       <c r="N9" s="70">
         <f t="shared" si="6"/>
-        <v>9.5685124646043063E-2</v>
+        <v>-3.0554918596652048E-2</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -9905,46 +9903,46 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>11000</v>
+        <v>11991</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>11000</v>
+        <v>11991</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="3"/>
-        <v>33000</v>
+        <v>35973</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="3"/>
-        <v>99000</v>
+        <v>107919</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>38785</v>
+        <v>38897</v>
       </c>
       <c r="J10" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>98967</v>
+        <v>97495</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="5"/>
-        <v>5785</v>
+        <v>2924</v>
       </c>
       <c r="L10" s="92">
         <f t="shared" si="1"/>
-        <v>0.14915560139229078</v>
+        <v>7.5172892510990574E-2</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="2"/>
-        <v>-33</v>
+        <v>-10424</v>
       </c>
       <c r="N10" s="70">
         <f t="shared" si="6"/>
-        <v>-3.3344448149374983E-4</v>
+        <v>-0.10691830350274367</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -9971,7 +9969,7 @@
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>92089</v>
+        <v>92985</v>
       </c>
       <c r="J11" s="91">
         <f t="shared" si="4"/>
@@ -9979,11 +9977,11 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="5"/>
-        <v>-72878</v>
+        <v>-71982</v>
       </c>
       <c r="L11" s="92">
         <f t="shared" si="1"/>
-        <v>-0.79138659340420681</v>
+        <v>-0.77412485884820126</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="2"/>
@@ -10000,35 +9998,35 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>38983</v>
+        <v>37996</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>200</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>38983</v>
+        <v>37996</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="3"/>
-        <v>116949</v>
+        <v>113988</v>
       </c>
       <c r="H12" s="74">
         <f t="shared" si="3"/>
-        <v>350847</v>
+        <v>341964</v>
       </c>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>129899</v>
+        <v>129788</v>
       </c>
       <c r="J12" s="91"/>
       <c r="K12" s="2">
         <f t="shared" si="5"/>
-        <v>12950</v>
+        <v>15800</v>
       </c>
       <c r="L12" s="92">
         <f t="shared" si="1"/>
-        <v>9.9692838282049889E-2</v>
+        <v>0.12173698647024378</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="70"/>
@@ -10039,35 +10037,35 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>99995</v>
+        <v>99996</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>99995</v>
+        <v>99996</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="3"/>
-        <v>299985</v>
+        <v>299988</v>
       </c>
       <c r="H13" s="74">
         <f t="shared" si="3"/>
-        <v>899955</v>
+        <v>899964</v>
       </c>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="8">C27</f>
-        <v>336813</v>
+        <v>335997</v>
       </c>
       <c r="J13" s="91"/>
       <c r="K13" s="2">
         <f t="shared" si="5"/>
-        <v>36828</v>
+        <v>36009</v>
       </c>
       <c r="L13" s="92">
         <f t="shared" si="1"/>
-        <v>0.10934257288168803</v>
+        <v>0.10717059973749765</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
@@ -10078,35 +10076,35 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>120990</v>
+        <v>129757</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>120990</v>
+        <v>129757</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="3"/>
-        <v>362970</v>
+        <v>389271</v>
       </c>
       <c r="H14" s="74">
         <f t="shared" si="3"/>
-        <v>1088910</v>
+        <v>1167813</v>
       </c>
       <c r="I14" s="91" t="str">
         <f t="shared" si="8"/>
-        <v>419973</v>
+        <v>399982</v>
       </c>
       <c r="J14" s="91"/>
       <c r="K14" s="2">
         <f t="shared" si="5"/>
-        <v>57003</v>
+        <v>10711</v>
       </c>
       <c r="L14" s="92">
         <f t="shared" si="1"/>
-        <v>0.13573015408133382</v>
+        <v>2.6778705041726858E-2</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
@@ -10117,35 +10115,35 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>111759</v>
+        <v>92571</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>111759</v>
+        <v>92571</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="3"/>
-        <v>335277</v>
+        <v>277713</v>
       </c>
       <c r="H15" s="74">
         <f t="shared" si="3"/>
-        <v>1005831</v>
+        <v>833139</v>
       </c>
       <c r="I15" s="91" t="str">
         <f t="shared" si="8"/>
-        <v>238993</v>
+        <v>338973</v>
       </c>
       <c r="J15" s="91"/>
       <c r="K15" s="2">
         <f t="shared" si="5"/>
-        <v>-96284</v>
+        <v>61260</v>
       </c>
       <c r="L15" s="92">
         <f>1-(G15/I15)</f>
-        <v>-0.40287372433502244</v>
+        <v>0.18072235841792705</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
@@ -10156,22 +10154,22 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>76608</v>
+        <v>76654</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>76608</v>
+        <v>76654</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="3"/>
-        <v>229824</v>
+        <v>229962</v>
       </c>
       <c r="H16" s="74">
         <f t="shared" si="3"/>
-        <v>689472</v>
+        <v>689886</v>
       </c>
       <c r="I16" s="91" t="str">
         <f t="shared" si="8"/>
@@ -10180,11 +10178,11 @@
       <c r="J16" s="91"/>
       <c r="K16" s="2">
         <f t="shared" si="5"/>
-        <v>-825</v>
+        <v>-963</v>
       </c>
       <c r="L16" s="92">
         <f>1-(G16/I16)</f>
-        <v>-3.60263581937037E-3</v>
+        <v>-4.2052585382468255E-3</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
@@ -10198,7 +10196,7 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>35454</v>
+        <v>39980</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -10207,7 +10205,7 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>27989</v>
+        <v>28761</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -10216,7 +10214,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>12489</v>
+        <v>12595</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -10225,7 +10223,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>25436</v>
+        <v>25299</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -10234,7 +10232,7 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>58999</v>
+        <v>56437</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -10243,7 +10241,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>53925</v>
+        <v>54453</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -10252,7 +10250,7 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>38785</v>
+        <v>38897</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -10261,7 +10259,7 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>92089</v>
+        <v>92985</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -10270,7 +10268,7 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>129899</v>
+        <v>129788</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -10279,7 +10277,7 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>336813</v>
+        <v>335997</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -10288,7 +10286,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>419973</v>
+        <v>399982</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -10297,7 +10295,7 @@
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>238993</v>
+        <v>338973</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10318,16 +10316,16 @@
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>110798</v>
+        <v>110797</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" s="21">
         <f>Raw!D56</f>
-        <v>94645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -10336,7 +10334,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>37354</v>
+        <v>37333</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -10345,7 +10343,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>77982</v>
+        <v>77788</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -10354,7 +10352,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>148680</v>
+        <v>147880</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -10363,7 +10361,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>169159</v>
+        <v>156996</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -10372,7 +10370,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>98967</v>
+        <v>97495</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10437,7 +10435,7 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10452,7 +10450,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10462,7 +10460,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10472,7 +10470,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10482,7 +10480,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10492,7 +10490,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -10502,7 +10500,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -10512,7 +10510,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -10522,7 +10520,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10532,7 +10530,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10542,7 +10540,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10552,7 +10550,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -10562,7 +10560,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10572,7 +10570,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10582,7 +10580,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10592,7 +10590,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10602,7 +10600,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10612,7 +10610,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10622,7 +10620,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10632,7 +10630,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10642,7 +10640,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -10652,7 +10650,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10662,7 +10660,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10672,7 +10670,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10682,7 +10680,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10692,7 +10690,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10702,7 +10700,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10712,7 +10710,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -10721,8 +10719,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>234</v>
+      <c r="D56">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -10782,7 +10780,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -646,106 +646,106 @@
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>9999</t>
-  </si>
-  <si>
-    <t>9000</t>
-  </si>
-  <si>
-    <t>3681</t>
-  </si>
-  <si>
-    <t>5900</t>
-  </si>
-  <si>
-    <t>14850</t>
-  </si>
-  <si>
-    <t>16997</t>
-  </si>
-  <si>
-    <t>11000</t>
-  </si>
-  <si>
     <t>28000</t>
   </si>
   <si>
-    <t>38983</t>
-  </si>
-  <si>
-    <t>99995</t>
-  </si>
-  <si>
-    <t>120990</t>
-  </si>
-  <si>
-    <t>111759</t>
-  </si>
-  <si>
-    <t>76608</t>
-  </si>
-  <si>
-    <t>35454</t>
-  </si>
-  <si>
-    <t>27989</t>
-  </si>
-  <si>
-    <t>12489</t>
-  </si>
-  <si>
-    <t>25436</t>
-  </si>
-  <si>
-    <t>58999</t>
-  </si>
-  <si>
-    <t>53925</t>
-  </si>
-  <si>
-    <t>38785</t>
-  </si>
-  <si>
-    <t>92089</t>
-  </si>
-  <si>
-    <t>129899</t>
-  </si>
-  <si>
-    <t>336813</t>
-  </si>
-  <si>
-    <t>419973</t>
-  </si>
-  <si>
-    <t>238993</t>
-  </si>
-  <si>
     <t>228999</t>
   </si>
   <si>
-    <t>110798</t>
-  </si>
-  <si>
-    <t>94645</t>
-  </si>
-  <si>
-    <t>37354</t>
-  </si>
-  <si>
-    <t>77982</t>
-  </si>
-  <si>
-    <t>148680</t>
-  </si>
-  <si>
-    <t>169159</t>
-  </si>
-  <si>
-    <t>98967</t>
-  </si>
-  <si>
-    <t>200000</t>
+    <t>11494</t>
+  </si>
+  <si>
+    <t>9788</t>
+  </si>
+  <si>
+    <t>3498</t>
+  </si>
+  <si>
+    <t>7484</t>
+  </si>
+  <si>
+    <t>9996</t>
+  </si>
+  <si>
+    <t>16972</t>
+  </si>
+  <si>
+    <t>10985</t>
+  </si>
+  <si>
+    <t>37996</t>
+  </si>
+  <si>
+    <t>100694</t>
+  </si>
+  <si>
+    <t>129742</t>
+  </si>
+  <si>
+    <t>92563</t>
+  </si>
+  <si>
+    <t>76649</t>
+  </si>
+  <si>
+    <t>39973</t>
+  </si>
+  <si>
+    <t>24998</t>
+  </si>
+  <si>
+    <t>12586</t>
+  </si>
+  <si>
+    <t>25382</t>
+  </si>
+  <si>
+    <t>56431</t>
+  </si>
+  <si>
+    <t>62465</t>
+  </si>
+  <si>
+    <t>38997</t>
+  </si>
+  <si>
+    <t>92985</t>
+  </si>
+  <si>
+    <t>129788</t>
+  </si>
+  <si>
+    <t>335995</t>
+  </si>
+  <si>
+    <t>399989</t>
+  </si>
+  <si>
+    <t>338965</t>
+  </si>
+  <si>
+    <t>110894</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>37300</t>
+  </si>
+  <si>
+    <t>77800</t>
+  </si>
+  <si>
+    <t>147878</t>
+  </si>
+  <si>
+    <t>156998</t>
+  </si>
+  <si>
+    <t>97497</t>
+  </si>
+  <si>
+    <t>210998</t>
   </si>
 </sst>
 </file>
@@ -7082,17 +7082,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="M68:O68"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="M90:O90"/>
@@ -7109,6 +7098,17 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="M68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9562,7 +9562,7 @@
   <dimension ref="B1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9617,46 +9617,46 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>9999</v>
+        <v>11494</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>9999</v>
+        <v>11494</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>29997</v>
+        <v>34482</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>89991</v>
+        <v>103446</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>35454</v>
+        <v>39973</v>
       </c>
       <c r="J4" s="93" t="str">
         <f>C32</f>
-        <v>110798</v>
+        <v>110894</v>
       </c>
       <c r="K4" s="11">
         <f>I4-G4</f>
-        <v>5457</v>
+        <v>5491</v>
       </c>
       <c r="L4" s="94">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.15391775258080898</v>
+        <v>0.13736772321316892</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" ref="M4:M11" si="2">J4-H4</f>
-        <v>20807</v>
+        <v>7448</v>
       </c>
       <c r="N4" s="69">
         <f>1-(H4/J4)</f>
-        <v>0.18779219841513384</v>
+        <v>6.7163236965029682E-2</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
@@ -9665,46 +9665,46 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>9000</v>
+        <v>9788</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>9000</v>
+        <v>9788</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="3">F5*3</f>
-        <v>27000</v>
+        <v>29364</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="3"/>
-        <v>81000</v>
+        <v>88092</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>27989</v>
+        <v>24998</v>
       </c>
       <c r="J5" s="91" t="str">
         <f t="shared" ref="J5:J11" si="4">C33</f>
-        <v>94645</v>
+        <v>100000</v>
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:K16" si="5">I5-G5</f>
-        <v>989</v>
+        <v>-4366</v>
       </c>
       <c r="L5" s="92">
         <f t="shared" si="1"/>
-        <v>3.5335310300475209E-2</v>
+        <v>-0.17465397231778534</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="2"/>
-        <v>13645</v>
+        <v>11908</v>
       </c>
       <c r="N5" s="70">
         <f t="shared" ref="N5:N11" si="6">1-(H5/J5)</f>
-        <v>0.14417032067198476</v>
+        <v>0.11907999999999996</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -9713,46 +9713,46 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>3681</v>
+        <v>3498</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="7">C6</f>
-        <v>3681</v>
+        <v>3498</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="3"/>
-        <v>11043</v>
+        <v>10494</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="3"/>
-        <v>33129</v>
+        <v>31482</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>12489</v>
+        <v>12586</v>
       </c>
       <c r="J6" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>37354</v>
+        <v>37300</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="5"/>
-        <v>1446</v>
+        <v>2092</v>
       </c>
       <c r="L6" s="92">
         <f t="shared" si="1"/>
-        <v>0.11578188806149414</v>
+        <v>0.16621643095502936</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="2"/>
-        <v>4225</v>
+        <v>5818</v>
       </c>
       <c r="N6" s="70">
         <f t="shared" si="6"/>
-        <v>0.11310703003694389</v>
+        <v>0.1559785522788204</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -9761,46 +9761,46 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>5900</v>
+        <v>7484</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>5900</v>
+        <v>7484</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="3"/>
-        <v>17700</v>
+        <v>22452</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="3"/>
-        <v>53100</v>
+        <v>67356</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>25436</v>
+        <v>25382</v>
       </c>
       <c r="J7" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>77982</v>
+        <v>77800</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" si="5"/>
-        <v>7736</v>
+        <v>2930</v>
       </c>
       <c r="L7" s="92">
         <f t="shared" si="1"/>
-        <v>0.30413587041987733</v>
+        <v>0.11543613584429913</v>
       </c>
       <c r="M7" s="2">
         <f t="shared" si="2"/>
-        <v>24882</v>
+        <v>10444</v>
       </c>
       <c r="N7" s="70">
         <f t="shared" si="6"/>
-        <v>0.31907363237670228</v>
+        <v>0.13424164524421589</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -9809,46 +9809,46 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>14850</v>
+        <v>9996</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>14850</v>
+        <v>9996</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="3"/>
-        <v>44550</v>
+        <v>29988</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="3"/>
-        <v>133650</v>
+        <v>89964</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>58999</v>
+        <v>56431</v>
       </c>
       <c r="J8" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>148680</v>
+        <v>147878</v>
       </c>
       <c r="K8" s="2">
         <f t="shared" si="5"/>
-        <v>14449</v>
+        <v>26443</v>
       </c>
       <c r="L8" s="92">
         <f t="shared" si="1"/>
-        <v>0.24490245597383009</v>
+        <v>0.46858995941946802</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="2"/>
-        <v>15030</v>
+        <v>57914</v>
       </c>
       <c r="N8" s="70">
         <f t="shared" si="6"/>
-        <v>0.10108958837772397</v>
+        <v>0.39163364394974232</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -9857,46 +9857,46 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>16997</v>
+        <v>16972</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>16997</v>
+        <v>16972</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="3"/>
-        <v>50991</v>
+        <v>50916</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="3"/>
-        <v>152973</v>
+        <v>152748</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>53925</v>
+        <v>62465</v>
       </c>
       <c r="J9" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>169159</v>
+        <v>156998</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="5"/>
-        <v>2934</v>
+        <v>11549</v>
       </c>
       <c r="L9" s="92">
         <f t="shared" si="1"/>
-        <v>5.4408901251738473E-2</v>
+        <v>0.18488753702073157</v>
       </c>
       <c r="M9" s="2">
         <f t="shared" si="2"/>
-        <v>16186</v>
+        <v>4250</v>
       </c>
       <c r="N9" s="70">
         <f t="shared" si="6"/>
-        <v>9.5685124646043063E-2</v>
+        <v>2.7070408540236235E-2</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -9905,46 +9905,46 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>11000</v>
+        <v>10985</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>11000</v>
+        <v>10985</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="3"/>
-        <v>33000</v>
+        <v>32955</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="3"/>
-        <v>99000</v>
+        <v>98865</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>38785</v>
+        <v>38997</v>
       </c>
       <c r="J10" s="91" t="str">
         <f t="shared" si="4"/>
-        <v>98967</v>
+        <v>97497</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="5"/>
-        <v>5785</v>
+        <v>6042</v>
       </c>
       <c r="L10" s="92">
         <f t="shared" si="1"/>
-        <v>0.14915560139229078</v>
+        <v>0.15493499499961538</v>
       </c>
       <c r="M10" s="2">
         <f t="shared" si="2"/>
-        <v>-33</v>
+        <v>-1368</v>
       </c>
       <c r="N10" s="70">
         <f t="shared" si="6"/>
-        <v>-3.3344448149374983E-4</v>
+        <v>-1.4031200960029633E-2</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -9971,7 +9971,7 @@
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>92089</v>
+        <v>92985</v>
       </c>
       <c r="J11" s="91">
         <f t="shared" si="4"/>
@@ -9979,11 +9979,11 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="5"/>
-        <v>-72878</v>
+        <v>-71982</v>
       </c>
       <c r="L11" s="92">
         <f t="shared" si="1"/>
-        <v>-0.79138659340420681</v>
+        <v>-0.77412485884820126</v>
       </c>
       <c r="M11" s="2">
         <f t="shared" si="2"/>
@@ -10000,35 +10000,35 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>38983</v>
+        <v>37996</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>200</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>38983</v>
+        <v>37996</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="3"/>
-        <v>116949</v>
+        <v>113988</v>
       </c>
       <c r="H12" s="74">
         <f t="shared" si="3"/>
-        <v>350847</v>
+        <v>341964</v>
       </c>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>129899</v>
+        <v>129788</v>
       </c>
       <c r="J12" s="91"/>
       <c r="K12" s="2">
         <f t="shared" si="5"/>
-        <v>12950</v>
+        <v>15800</v>
       </c>
       <c r="L12" s="92">
         <f t="shared" si="1"/>
-        <v>9.9692838282049889E-2</v>
+        <v>0.12173698647024378</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="70"/>
@@ -10039,35 +10039,35 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>99995</v>
+        <v>100694</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>99995</v>
+        <v>100694</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="3"/>
-        <v>299985</v>
+        <v>302082</v>
       </c>
       <c r="H13" s="74">
         <f t="shared" si="3"/>
-        <v>899955</v>
+        <v>906246</v>
       </c>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="8">C27</f>
-        <v>336813</v>
+        <v>335995</v>
       </c>
       <c r="J13" s="91"/>
       <c r="K13" s="2">
         <f t="shared" si="5"/>
-        <v>36828</v>
+        <v>33913</v>
       </c>
       <c r="L13" s="92">
         <f t="shared" si="1"/>
-        <v>0.10934257288168803</v>
+        <v>0.10093304959895233</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="3"/>
@@ -10078,35 +10078,35 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>120990</v>
+        <v>129742</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>120990</v>
+        <v>129742</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="3"/>
-        <v>362970</v>
+        <v>389226</v>
       </c>
       <c r="H14" s="74">
         <f t="shared" si="3"/>
-        <v>1088910</v>
+        <v>1167678</v>
       </c>
       <c r="I14" s="91" t="str">
         <f t="shared" si="8"/>
-        <v>419973</v>
+        <v>399989</v>
       </c>
       <c r="J14" s="91"/>
       <c r="K14" s="2">
         <f t="shared" si="5"/>
-        <v>57003</v>
+        <v>10763</v>
       </c>
       <c r="L14" s="92">
         <f t="shared" si="1"/>
-        <v>0.13573015408133382</v>
+        <v>2.6908239976599302E-2</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="3"/>
@@ -10117,35 +10117,35 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>111759</v>
+        <v>92563</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>111759</v>
+        <v>92563</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="3"/>
-        <v>335277</v>
+        <v>277689</v>
       </c>
       <c r="H15" s="74">
         <f t="shared" si="3"/>
-        <v>1005831</v>
+        <v>833067</v>
       </c>
       <c r="I15" s="91" t="str">
         <f t="shared" si="8"/>
-        <v>238993</v>
+        <v>338965</v>
       </c>
       <c r="J15" s="91"/>
       <c r="K15" s="2">
         <f t="shared" si="5"/>
-        <v>-96284</v>
+        <v>61276</v>
       </c>
       <c r="L15" s="92">
         <f>1-(G15/I15)</f>
-        <v>-0.40287372433502244</v>
+        <v>0.18077382620624549</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="3"/>
@@ -10156,22 +10156,22 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>76608</v>
+        <v>76649</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="7"/>
-        <v>76608</v>
+        <v>76649</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="3"/>
-        <v>229824</v>
+        <v>229947</v>
       </c>
       <c r="H16" s="74">
         <f t="shared" si="3"/>
-        <v>689472</v>
+        <v>689841</v>
       </c>
       <c r="I16" s="91" t="str">
         <f t="shared" si="8"/>
@@ -10180,11 +10180,11 @@
       <c r="J16" s="91"/>
       <c r="K16" s="2">
         <f t="shared" si="5"/>
-        <v>-825</v>
+        <v>-948</v>
       </c>
       <c r="L16" s="92">
         <f>1-(G16/I16)</f>
-        <v>-3.60263581937037E-3</v>
+        <v>-4.1397560688039015E-3</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="3"/>
@@ -10198,7 +10198,7 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>35454</v>
+        <v>39973</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -10207,7 +10207,7 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>27989</v>
+        <v>24998</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -10216,7 +10216,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>12489</v>
+        <v>12586</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -10225,7 +10225,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>25436</v>
+        <v>25382</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>58999</v>
+        <v>56431</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>53925</v>
+        <v>62465</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -10252,7 +10252,7 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>38785</v>
+        <v>38997</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -10261,7 +10261,7 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>92089</v>
+        <v>92985</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>129899</v>
+        <v>129788</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -10279,7 +10279,7 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>336813</v>
+        <v>335995</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -10288,7 +10288,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>419973</v>
+        <v>399989</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -10297,7 +10297,7 @@
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>238993</v>
+        <v>338965</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10318,7 +10318,7 @@
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>110798</v>
+        <v>110894</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -10327,7 +10327,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>94645</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -10336,7 +10336,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>37354</v>
+        <v>37300</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -10345,7 +10345,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>77982</v>
+        <v>77800</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -10354,7 +10354,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>148680</v>
+        <v>147878</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -10363,7 +10363,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>169159</v>
+        <v>156998</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -10372,7 +10372,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>98967</v>
+        <v>97497</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10437,7 +10437,7 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10452,7 +10452,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10462,7 +10462,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10472,7 +10472,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10482,7 +10482,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10492,7 +10492,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -10502,7 +10502,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -10512,7 +10512,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -10522,7 +10522,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10532,7 +10532,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10542,7 +10542,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10552,7 +10552,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -10562,7 +10562,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10572,7 +10572,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10582,7 +10582,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10592,7 +10592,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10602,7 +10602,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10612,7 +10612,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10622,7 +10622,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10632,7 +10632,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10642,7 +10642,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -10652,7 +10652,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10662,7 +10662,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10672,7 +10672,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10682,7 +10682,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10692,7 +10692,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10702,7 +10702,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="240">
   <si>
     <t>Ardonite</t>
   </si>
@@ -646,106 +646,103 @@
     <t>Rune Do Terre</t>
   </si>
   <si>
-    <t>28000</t>
-  </si>
-  <si>
-    <t>228999</t>
-  </si>
-  <si>
-    <t>11494</t>
-  </si>
-  <si>
-    <t>9788</t>
-  </si>
-  <si>
-    <t>3498</t>
-  </si>
-  <si>
-    <t>7484</t>
-  </si>
-  <si>
-    <t>9996</t>
-  </si>
-  <si>
-    <t>16972</t>
-  </si>
-  <si>
-    <t>10985</t>
-  </si>
-  <si>
-    <t>37996</t>
-  </si>
-  <si>
-    <t>100694</t>
-  </si>
-  <si>
-    <t>129742</t>
-  </si>
-  <si>
-    <t>92563</t>
-  </si>
-  <si>
-    <t>76649</t>
-  </si>
-  <si>
-    <t>39973</t>
-  </si>
-  <si>
-    <t>24998</t>
-  </si>
-  <si>
-    <t>12586</t>
-  </si>
-  <si>
-    <t>25382</t>
-  </si>
-  <si>
-    <t>56431</t>
-  </si>
-  <si>
-    <t>62465</t>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>147800</t>
+  </si>
+  <si>
+    <t>13394</t>
+  </si>
+  <si>
+    <t>37592</t>
+  </si>
+  <si>
+    <t>100599</t>
+  </si>
+  <si>
+    <t>108800</t>
+  </si>
+  <si>
+    <t>24997</t>
+  </si>
+  <si>
+    <t>56400</t>
   </si>
   <si>
     <t>38997</t>
   </si>
   <si>
-    <t>92985</t>
-  </si>
-  <si>
-    <t>129788</t>
-  </si>
-  <si>
-    <t>335995</t>
-  </si>
-  <si>
-    <t>399989</t>
-  </si>
-  <si>
-    <t>338965</t>
-  </si>
-  <si>
-    <t>110894</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>37300</t>
-  </si>
-  <si>
-    <t>77800</t>
-  </si>
-  <si>
-    <t>147878</t>
-  </si>
-  <si>
-    <t>156998</t>
-  </si>
-  <si>
-    <t>97497</t>
-  </si>
-  <si>
-    <t>210998</t>
+    <t>129600</t>
+  </si>
+  <si>
+    <t>335800</t>
+  </si>
+  <si>
+    <t>389886</t>
+  </si>
+  <si>
+    <t>319792</t>
+  </si>
+  <si>
+    <t>228995</t>
+  </si>
+  <si>
+    <t>119996</t>
+  </si>
+  <si>
+    <t>76499</t>
+  </si>
+  <si>
+    <t>98948</t>
+  </si>
+  <si>
+    <t>16998</t>
+  </si>
+  <si>
+    <t>9686</t>
+  </si>
+  <si>
+    <t>3979</t>
+  </si>
+  <si>
+    <t>7533</t>
+  </si>
+  <si>
+    <t>15491</t>
+  </si>
+  <si>
+    <t>19859</t>
+  </si>
+  <si>
+    <t>27890</t>
+  </si>
+  <si>
+    <t>92296</t>
+  </si>
+  <si>
+    <t>68997</t>
+  </si>
+  <si>
+    <t>36994</t>
+  </si>
+  <si>
+    <t>31995</t>
+  </si>
+  <si>
+    <t>12579</t>
+  </si>
+  <si>
+    <t>58986</t>
+  </si>
+  <si>
+    <t>92882</t>
+  </si>
+  <si>
+    <t>37365</t>
+  </si>
+  <si>
+    <t>168997</t>
   </si>
 </sst>
 </file>
@@ -850,7 +847,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1453,11 +1450,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1738,9 +1761,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1748,6 +1768,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1766,11 +1796,126 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1818,26 +1963,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3297,7 +3422,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3310,8 +3435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41:B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3353,7 +3478,7 @@
         <v>183</v>
       </c>
       <c r="C3" s="85">
-        <v>37500</v>
+        <v>10165</v>
       </c>
       <c r="D3" s="2">
         <v>40500</v>
@@ -3362,7 +3487,7 @@
         <v>81100</v>
       </c>
       <c r="F3" s="2">
-        <v>289920</v>
+        <v>64334</v>
       </c>
       <c r="G3" s="2">
         <v>68999</v>
@@ -3384,31 +3509,31 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7">
         <f>D3-C3</f>
-        <v>3000</v>
+        <v>30335</v>
       </c>
       <c r="E4" s="7">
         <f>E3-C3*2</f>
-        <v>6100</v>
+        <v>60770</v>
       </c>
       <c r="F4" s="7">
         <f>F3-C3*5</f>
-        <v>102420</v>
+        <v>13509</v>
       </c>
       <c r="G4" s="7">
         <f>G3-5*C3</f>
-        <v>-118501</v>
+        <v>18174</v>
       </c>
       <c r="H4" s="7">
         <f>H3-C3*10</f>
-        <v>-10013</v>
+        <v>263337</v>
       </c>
       <c r="I4" s="7">
         <f>I3-C3/10</f>
-        <v>227</v>
+        <v>2960.5</v>
       </c>
       <c r="J4" s="4">
         <f>J3-C3</f>
-        <v>2499</v>
+        <v>29834</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -3416,31 +3541,31 @@
       <c r="C5" s="47"/>
       <c r="D5" s="84">
         <f t="shared" ref="D5:I5" si="0">(D4/D3)</f>
-        <v>7.407407407407407E-2</v>
+        <v>0.74901234567901231</v>
       </c>
       <c r="E5" s="84">
         <f t="shared" si="0"/>
-        <v>7.52157829839704E-2</v>
+        <v>0.74932182490752153</v>
       </c>
       <c r="F5" s="84">
         <f t="shared" si="0"/>
-        <v>0.35326986754966888</v>
+        <v>0.20998227997637331</v>
       </c>
       <c r="G5" s="84">
         <f t="shared" si="0"/>
-        <v>-1.7174306874012666</v>
+        <v>0.26339512166842999</v>
       </c>
       <c r="H5" s="84">
         <f t="shared" si="0"/>
-        <v>-2.7433853808491809E-2</v>
+        <v>0.72149693002764481</v>
       </c>
       <c r="I5" s="84">
         <f t="shared" si="0"/>
-        <v>5.7078199647975864E-2</v>
+        <v>0.7444053306512447</v>
       </c>
       <c r="J5" s="84">
         <f>(J4/J3)</f>
-        <v>6.2476561914047851E-2</v>
+        <v>0.74586864671616793</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -3449,7 +3574,7 @@
       </c>
       <c r="C6" s="47">
         <f>C3/100</f>
-        <v>375</v>
+        <v>101.65</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
@@ -3501,10 +3626,10 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="86">
-        <v>27384</v>
+        <v>25874</v>
       </c>
       <c r="D9" s="18">
-        <v>274996</v>
+        <v>268998</v>
       </c>
       <c r="E9" s="18">
         <v>695000</v>
@@ -3528,27 +3653,27 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7">
         <f>D9-10*C9</f>
-        <v>1156</v>
+        <v>10258</v>
       </c>
       <c r="E10" s="7">
         <f>E9-50*C9</f>
-        <v>-674200</v>
+        <v>-598700</v>
       </c>
       <c r="F10" s="7">
         <f>F9-50*C9</f>
-        <v>-82235</v>
+        <v>-6735</v>
       </c>
       <c r="G10" s="7">
         <f>G9-50*C9</f>
-        <v>-169202</v>
+        <v>-93702</v>
       </c>
       <c r="H10" s="7">
         <f>H9-50*C9</f>
-        <v>-70201</v>
+        <v>5299</v>
       </c>
       <c r="I10" s="4">
         <f>I9-200*C9</f>
-        <v>23200</v>
+        <v>325200</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -3585,29 +3710,29 @@
         <f>Comparatifs!B27</f>
         <v>0</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
       <c r="G2" s="8">
         <f>Comparatifs!B28+B10</f>
         <v>0</v>
       </c>
-      <c r="H2" s="98" t="s">
+      <c r="H2" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
       <c r="L2" s="8">
         <f>Comparatifs!B29+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="98" t="s">
+      <c r="M2" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="98"/>
-      <c r="O2" s="99"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -3974,29 +4099,29 @@
         <f>Comparatifs!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="99"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
       <c r="G13" s="8">
         <f>Comparatifs!B14+B21</f>
         <v>0</v>
       </c>
-      <c r="H13" s="98" t="s">
+      <c r="H13" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="98"/>
-      <c r="J13" s="99"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="102"/>
       <c r="L13" s="8">
         <f>Comparatifs!B13+G20</f>
         <v>0</v>
       </c>
-      <c r="M13" s="98" t="s">
+      <c r="M13" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="98"/>
-      <c r="O13" s="99"/>
+      <c r="N13" s="101"/>
+      <c r="O13" s="102"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
@@ -4363,29 +4488,29 @@
         <f>Comparatifs!B15</f>
         <v>5</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="98"/>
-      <c r="E24" s="99"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
       <c r="G24" s="8">
         <f>Comparatifs!B16+B32</f>
         <v>5</v>
       </c>
-      <c r="H24" s="98" t="s">
+      <c r="H24" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="98"/>
-      <c r="J24" s="99"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="102"/>
       <c r="L24" s="8">
         <f>Comparatifs!B17+G31</f>
         <v>5</v>
       </c>
-      <c r="M24" s="98" t="s">
+      <c r="M24" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="98"/>
-      <c r="O24" s="99"/>
+      <c r="N24" s="101"/>
+      <c r="O24" s="102"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -4752,29 +4877,29 @@
         <f>Comparatifs!B18</f>
         <v>0</v>
       </c>
-      <c r="C35" s="98" t="s">
+      <c r="C35" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="98"/>
-      <c r="E35" s="99"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="102"/>
       <c r="G35" s="8">
         <f>Comparatifs!B19+B43</f>
         <v>0</v>
       </c>
-      <c r="H35" s="98" t="s">
+      <c r="H35" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="98"/>
-      <c r="J35" s="99"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="102"/>
       <c r="L35" s="8">
         <f>Comparatifs!B20+G42</f>
         <v>0</v>
       </c>
-      <c r="M35" s="98" t="s">
+      <c r="M35" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="98"/>
-      <c r="O35" s="99"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="102"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
@@ -5141,29 +5266,29 @@
         <f>Comparatifs!B21</f>
         <v>0</v>
       </c>
-      <c r="C46" s="98" t="s">
+      <c r="C46" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="98"/>
-      <c r="E46" s="99"/>
+      <c r="D46" s="101"/>
+      <c r="E46" s="102"/>
       <c r="G46" s="8">
         <f>Comparatifs!B22+B54</f>
         <v>0</v>
       </c>
-      <c r="H46" s="98" t="s">
+      <c r="H46" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="98"/>
-      <c r="J46" s="99"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="102"/>
       <c r="L46" s="8">
         <f>Comparatifs!B23+G53</f>
         <v>0</v>
       </c>
-      <c r="M46" s="98" t="s">
+      <c r="M46" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="98"/>
-      <c r="O46" s="99"/>
+      <c r="N46" s="101"/>
+      <c r="O46" s="102"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
@@ -5530,29 +5655,29 @@
         <f>Comparatifs!B24</f>
         <v>5</v>
       </c>
-      <c r="C57" s="98" t="s">
+      <c r="C57" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="98"/>
-      <c r="E57" s="99"/>
+      <c r="D57" s="101"/>
+      <c r="E57" s="102"/>
       <c r="G57" s="8">
         <f>Comparatifs!B25+B65</f>
         <v>5</v>
       </c>
-      <c r="H57" s="98" t="s">
+      <c r="H57" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="98"/>
-      <c r="J57" s="99"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="102"/>
       <c r="L57" s="8">
         <f>Comparatifs!B26+G64</f>
         <v>5</v>
       </c>
-      <c r="M57" s="98" t="s">
+      <c r="M57" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="N57" s="98"/>
-      <c r="O57" s="99"/>
+      <c r="N57" s="101"/>
+      <c r="O57" s="102"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -5919,29 +6044,29 @@
         <f>Comparatifs!B30</f>
         <v>5</v>
       </c>
-      <c r="C68" s="98" t="s">
+      <c r="C68" s="101" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="98"/>
-      <c r="E68" s="99"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="102"/>
       <c r="G68" s="8">
         <f>Comparatifs!B31+B76</f>
         <v>5</v>
       </c>
-      <c r="H68" s="98" t="s">
+      <c r="H68" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="I68" s="98"/>
-      <c r="J68" s="99"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="102"/>
       <c r="L68" s="8">
         <f>Comparatifs!B32+G75</f>
         <v>5</v>
       </c>
-      <c r="M68" s="98" t="s">
+      <c r="M68" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="N68" s="98"/>
-      <c r="O68" s="99"/>
+      <c r="N68" s="101"/>
+      <c r="O68" s="102"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
@@ -6308,29 +6433,29 @@
         <f>Comparatifs!B33</f>
         <v>5</v>
       </c>
-      <c r="C79" s="98" t="s">
+      <c r="C79" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="98"/>
-      <c r="E79" s="99"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="102"/>
       <c r="G79" s="8">
         <f>Comparatifs!B34+B87</f>
         <v>5</v>
       </c>
-      <c r="H79" s="98" t="s">
+      <c r="H79" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="I79" s="98"/>
-      <c r="J79" s="99"/>
+      <c r="I79" s="101"/>
+      <c r="J79" s="102"/>
       <c r="L79" s="8">
         <f>Comparatifs!B35+G86</f>
         <v>5</v>
       </c>
-      <c r="M79" s="98" t="s">
+      <c r="M79" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="N79" s="98"/>
-      <c r="O79" s="99"/>
+      <c r="N79" s="101"/>
+      <c r="O79" s="102"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
@@ -6697,29 +6822,29 @@
         <f>Comparatifs!B36</f>
         <v>0</v>
       </c>
-      <c r="C90" s="98" t="s">
+      <c r="C90" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="98"/>
-      <c r="E90" s="99"/>
+      <c r="D90" s="101"/>
+      <c r="E90" s="102"/>
       <c r="G90" s="8">
         <f>Comparatifs!B37+B98</f>
         <v>0</v>
       </c>
-      <c r="H90" s="98" t="s">
+      <c r="H90" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="98"/>
-      <c r="J90" s="99"/>
+      <c r="I90" s="101"/>
+      <c r="J90" s="102"/>
       <c r="L90" s="8">
         <f>Comparatifs!B38+G97</f>
         <v>0</v>
       </c>
-      <c r="M90" s="98" t="s">
+      <c r="M90" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="N90" s="98"/>
-      <c r="O90" s="99"/>
+      <c r="N90" s="101"/>
+      <c r="O90" s="102"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
@@ -7082,6 +7207,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="M68:O68"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="M90:O90"/>
@@ -7098,17 +7234,6 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="M68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7182,16 +7307,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -8165,28 +8290,28 @@
     <mergeCell ref="B8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10 G12:G1048576">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 H12:H1048576">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 G12:G1048576">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
       <formula>500000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G7 G9:G1048576">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="2" operator="between">
       <formula>300000</formula>
       <formula>499999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H7 H9:H1048576">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="between">
       <formula>20</formula>
       <formula>39.99</formula>
     </cfRule>
@@ -8378,7 +8503,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8414,25 +8539,25 @@
         <f>'Comparatifs Idoles'!B12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
       <c r="G2" s="8">
         <f>'Comparatifs Idoles'!B13</f>
         <v>0</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="99"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="102"/>
       <c r="L2" s="8">
         <f>Comparatifs!B13+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="99"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="102"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -8756,16 +8881,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="103" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -8862,40 +8987,40 @@
     <mergeCell ref="B8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10 G12:G1048576">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 H12:H1048576">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 G12:G1048576">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
       <formula>500000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 G10:G1048576">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="4" operator="between">
       <formula>300000</formula>
       <formula>499999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H6 H10:H1048576">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="3" operator="between">
       <formula>20</formula>
       <formula>39.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G9">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="between">
       <formula>300000</formula>
       <formula>499999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H9">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="between">
       <formula>20</formula>
       <formula>39.99</formula>
     </cfRule>
@@ -8982,11 +9107,11 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="98"/>
-      <c r="E9" s="103"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="48"/>
       <c r="H9" t="s">
         <v>8</v>
@@ -9191,11 +9316,11 @@
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="C20" s="98" t="s">
+      <c r="C20" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="103"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="106"/>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -9536,19 +9661,19 @@
     <mergeCell ref="C20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G7">
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="between">
       <formula>300000</formula>
       <formula>499999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H7">
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="between">
       <formula>20</formula>
       <formula>39.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C45">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9559,10 +9684,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N39"/>
+  <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9572,8 +9697,15 @@
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" s="98">
+        <v>77534</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="78" t="s">
         <v>8</v>
       </c>
@@ -9581,7 +9713,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="8"/>
       <c r="F3" s="87" t="s">
         <v>178</v>
@@ -9604,351 +9736,409 @@
       <c r="L3" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="90" t="s">
+      <c r="M3" s="99"/>
+      <c r="N3" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="N3" s="89" t="s">
+      <c r="O3" s="99"/>
+      <c r="P3" s="89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="94" t="s">
         <v>133</v>
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>11494</v>
+        <v>16998</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>11494</v>
+        <v>16998</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>34482</v>
+        <v>50994</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>103446</v>
+        <v>152982</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>39973</v>
-      </c>
-      <c r="J4" s="93" t="str">
+        <v>36994</v>
+      </c>
+      <c r="J4" s="107" t="str">
         <f>C32</f>
-        <v>110894</v>
-      </c>
-      <c r="K4" s="11">
-        <f>I4-G4</f>
-        <v>5491</v>
-      </c>
-      <c r="L4" s="94">
+        <v>119996</v>
+      </c>
+      <c r="K4" s="20">
+        <f>I4-G4-(I4*0.01)</f>
+        <v>-14369.94</v>
+      </c>
+      <c r="L4" s="109">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.13736772321316892</v>
-      </c>
-      <c r="M4" s="11">
-        <f t="shared" ref="M4:M11" si="2">J4-H4</f>
-        <v>7448</v>
-      </c>
-      <c r="N4" s="69">
+        <v>-0.37843974698599769</v>
+      </c>
+      <c r="M4" s="111">
+        <f>K4/G4</f>
+        <v>-0.28179668196258384</v>
+      </c>
+      <c r="N4" s="20">
+        <f>J4-H4-(J4*0.01)</f>
+        <v>-34185.96</v>
+      </c>
+      <c r="O4" s="109">
+        <f>N4/H4</f>
+        <v>-0.22346393693375691</v>
+      </c>
+      <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>6.7163236965029682E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="96" t="s">
+        <v>-0.27489249641654712</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="95" t="s">
         <v>132</v>
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>9788</v>
+        <v>9686</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>9788</v>
+        <v>9686</v>
       </c>
       <c r="G5" s="74">
-        <f t="shared" ref="G5:H16" si="3">F5*3</f>
-        <v>29364</v>
+        <f t="shared" ref="G5:H16" si="2">F5*3</f>
+        <v>29058</v>
       </c>
       <c r="H5" s="74">
-        <f t="shared" si="3"/>
-        <v>88092</v>
+        <f t="shared" si="2"/>
+        <v>87174</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>24998</v>
-      </c>
-      <c r="J5" s="91" t="str">
-        <f t="shared" ref="J5:J11" si="4">C33</f>
+        <v>31995</v>
+      </c>
+      <c r="J5" s="108">
+        <f t="shared" ref="J5:J11" si="3">C33</f>
         <v>100000</v>
       </c>
-      <c r="K5" s="2">
-        <f t="shared" ref="K5:K16" si="5">I5-G5</f>
-        <v>-4366</v>
-      </c>
-      <c r="L5" s="92">
+      <c r="K5" s="21">
+        <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
+        <v>2617.0500000000002</v>
+      </c>
+      <c r="L5" s="110">
         <f t="shared" si="1"/>
-        <v>-0.17465397231778534</v>
-      </c>
-      <c r="M5" s="2">
-        <f t="shared" si="2"/>
-        <v>11908</v>
-      </c>
-      <c r="N5" s="70">
-        <f t="shared" ref="N5:N11" si="6">1-(H5/J5)</f>
-        <v>0.11907999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="96" t="s">
+        <v>9.1795593061415826E-2</v>
+      </c>
+      <c r="M5" s="112">
+        <f t="shared" ref="M5:M7" si="5">K5/G5</f>
+        <v>9.0062977493289287E-2</v>
+      </c>
+      <c r="N5" s="21">
+        <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
+        <v>11826</v>
+      </c>
+      <c r="O5" s="109">
+        <f t="shared" ref="O5:O11" si="7">N5/H5</f>
+        <v>0.13565971505265331</v>
+      </c>
+      <c r="P5" s="70">
+        <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
+        <v>0.12826000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="95" t="s">
         <v>134</v>
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>3498</v>
+        <v>3979</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
-        <f t="shared" ref="F6:F16" si="7">C6</f>
-        <v>3498</v>
+        <f t="shared" ref="F6:F16" si="9">C6</f>
+        <v>3979</v>
       </c>
       <c r="G6" s="74">
-        <f t="shared" si="3"/>
-        <v>10494</v>
+        <f t="shared" si="2"/>
+        <v>11937</v>
       </c>
       <c r="H6" s="74">
-        <f t="shared" si="3"/>
-        <v>31482</v>
+        <f t="shared" si="2"/>
+        <v>35811</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>12586</v>
-      </c>
-      <c r="J6" s="91" t="str">
+        <v>12579</v>
+      </c>
+      <c r="J6" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v>37365</v>
+      </c>
+      <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>37300</v>
-      </c>
-      <c r="K6" s="2">
+        <v>516.21</v>
+      </c>
+      <c r="L6" s="110">
+        <f t="shared" si="1"/>
+        <v>5.1037443357977552E-2</v>
+      </c>
+      <c r="M6" s="112">
         <f t="shared" si="5"/>
-        <v>2092</v>
-      </c>
-      <c r="L6" s="92">
-        <f t="shared" si="1"/>
-        <v>0.16621643095502936</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" si="2"/>
-        <v>5818</v>
-      </c>
-      <c r="N6" s="70">
+        <v>4.3244533802462931E-2</v>
+      </c>
+      <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>0.1559785522788204</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="96" t="s">
+        <v>1180.3499999999999</v>
+      </c>
+      <c r="O6" s="109">
+        <f t="shared" si="7"/>
+        <v>3.2960542849962297E-2</v>
+      </c>
+      <c r="P6" s="70">
+        <f t="shared" si="8"/>
+        <v>4.1589723002810164E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="95" t="s">
         <v>135</v>
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>7484</v>
+        <v>7533</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>7484</v>
+        <f t="shared" si="9"/>
+        <v>7533</v>
       </c>
       <c r="G7" s="74">
-        <f t="shared" si="3"/>
-        <v>22452</v>
+        <f t="shared" si="2"/>
+        <v>22599</v>
       </c>
       <c r="H7" s="74">
-        <f t="shared" si="3"/>
-        <v>67356</v>
+        <f t="shared" si="2"/>
+        <v>67797</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>25382</v>
-      </c>
-      <c r="J7" s="91" t="str">
+        <v>24997</v>
+      </c>
+      <c r="J7" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v>76499</v>
+      </c>
+      <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>77800</v>
-      </c>
-      <c r="K7" s="2">
+        <v>2148.0300000000002</v>
+      </c>
+      <c r="L7" s="110">
+        <f t="shared" si="1"/>
+        <v>9.5931511781413792E-2</v>
+      </c>
+      <c r="M7" s="112">
         <f t="shared" si="5"/>
-        <v>2930</v>
-      </c>
-      <c r="L7" s="92">
-        <f t="shared" si="1"/>
-        <v>0.11543613584429913</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="2"/>
-        <v>10444</v>
-      </c>
-      <c r="N7" s="70">
+        <v>9.5049780963759462E-2</v>
+      </c>
+      <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>0.13424164524421589</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="96" t="s">
+        <v>7937.01</v>
+      </c>
+      <c r="O7" s="109">
+        <f t="shared" si="7"/>
+        <v>0.11707022434621001</v>
+      </c>
+      <c r="P7" s="70">
+        <f t="shared" si="8"/>
+        <v>0.11375312095582946</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="95" t="s">
         <v>136</v>
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>9996</v>
+        <v>15491</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>9996</v>
+        <f t="shared" si="9"/>
+        <v>15491</v>
       </c>
       <c r="G8" s="74">
-        <f t="shared" si="3"/>
-        <v>29988</v>
+        <f t="shared" si="2"/>
+        <v>46473</v>
       </c>
       <c r="H8" s="74">
-        <f t="shared" si="3"/>
-        <v>89964</v>
+        <f t="shared" si="2"/>
+        <v>139419</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>56431</v>
-      </c>
-      <c r="J8" s="91" t="str">
+        <v>56400</v>
+      </c>
+      <c r="J8" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v>147800</v>
+      </c>
+      <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>147878</v>
-      </c>
-      <c r="K8" s="2">
-        <f t="shared" si="5"/>
-        <v>26443</v>
-      </c>
-      <c r="L8" s="92">
+        <v>9363</v>
+      </c>
+      <c r="L8" s="110">
         <f t="shared" si="1"/>
-        <v>0.46858995941946802</v>
-      </c>
-      <c r="M8" s="2">
-        <f t="shared" si="2"/>
-        <v>57914</v>
-      </c>
-      <c r="N8" s="70">
+        <v>0.17601063829787233</v>
+      </c>
+      <c r="M8" s="112">
+        <f>K8/G8</f>
+        <v>0.20147182234846039</v>
+      </c>
+      <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>0.39163364394974232</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="96" t="s">
+        <v>6903</v>
+      </c>
+      <c r="O8" s="109">
+        <f t="shared" si="7"/>
+        <v>4.951262023110193E-2</v>
+      </c>
+      <c r="P8" s="70">
+        <f t="shared" si="8"/>
+        <v>5.6705006765899846E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="95" t="s">
         <v>137</v>
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>16972</v>
+        <v>19859</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>16972</v>
+        <f t="shared" si="9"/>
+        <v>19859</v>
       </c>
       <c r="G9" s="74">
-        <f t="shared" si="3"/>
-        <v>50916</v>
+        <f t="shared" si="2"/>
+        <v>59577</v>
       </c>
       <c r="H9" s="74">
-        <f t="shared" si="3"/>
-        <v>152748</v>
+        <f t="shared" si="2"/>
+        <v>178731</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>62465</v>
-      </c>
-      <c r="J9" s="91" t="str">
+        <v>58986</v>
+      </c>
+      <c r="J9" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v>168997</v>
+      </c>
+      <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>156998</v>
-      </c>
-      <c r="K9" s="2">
-        <f t="shared" si="5"/>
-        <v>11549</v>
-      </c>
-      <c r="L9" s="92">
+        <v>-1180.8600000000001</v>
+      </c>
+      <c r="L9" s="110">
         <f t="shared" si="1"/>
-        <v>0.18488753702073157</v>
-      </c>
-      <c r="M9" s="2">
-        <f t="shared" si="2"/>
-        <v>4250</v>
-      </c>
-      <c r="N9" s="70">
+        <v>-1.0019326619875812E-2</v>
+      </c>
+      <c r="M9" s="112">
+        <f>K9/G9</f>
+        <v>-1.9820736190140492E-2</v>
+      </c>
+      <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>2.7070408540236235E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="96" t="s">
+        <v>-11423.97</v>
+      </c>
+      <c r="O9" s="109">
+        <f t="shared" si="7"/>
+        <v>-6.3917115665441351E-2</v>
+      </c>
+      <c r="P9" s="70">
+        <f t="shared" si="8"/>
+        <v>-5.7598655597436599E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="95" t="s">
         <v>138</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>10985</v>
+        <v>13394</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>10985</v>
+        <f t="shared" si="9"/>
+        <v>13394</v>
       </c>
       <c r="G10" s="74">
-        <f t="shared" si="3"/>
-        <v>32955</v>
+        <f t="shared" si="2"/>
+        <v>40182</v>
       </c>
       <c r="H10" s="74">
-        <f t="shared" si="3"/>
-        <v>98865</v>
+        <f t="shared" si="2"/>
+        <v>120546</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
         <v>38997</v>
       </c>
-      <c r="J10" s="91" t="str">
+      <c r="J10" s="108" t="str">
+        <f t="shared" si="3"/>
+        <v>98948</v>
+      </c>
+      <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>97497</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="5"/>
-        <v>6042</v>
-      </c>
-      <c r="L10" s="92">
+        <v>-1574.97</v>
+      </c>
+      <c r="L10" s="110">
         <f t="shared" si="1"/>
-        <v>0.15493499499961538</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="2"/>
-        <v>-1368</v>
-      </c>
-      <c r="N10" s="70">
+        <v>-3.0386952842526238E-2</v>
+      </c>
+      <c r="M10" s="112">
+        <f t="shared" ref="M10:M16" si="10">K10/G10</f>
+        <v>-3.9195908615798122E-2</v>
+      </c>
+      <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-1.4031200960029633E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="96" t="s">
+        <v>-22587.48</v>
+      </c>
+      <c r="O10" s="109">
+        <f t="shared" si="7"/>
+        <v>-0.18737643721069136</v>
+      </c>
+      <c r="P10" s="70">
+        <f t="shared" si="8"/>
+        <v>-0.21827626632170438</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="95" t="s">
         <v>139</v>
       </c>
       <c r="C11" s="3">
@@ -9958,236 +10148,269 @@
         <v>171</v>
       </c>
       <c r="F11" s="73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>54989</v>
       </c>
       <c r="G11" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>164967</v>
       </c>
       <c r="H11" s="74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>494901</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>92985</v>
-      </c>
-      <c r="J11" s="91">
+        <v>92882</v>
+      </c>
+      <c r="J11" s="108">
+        <f t="shared" si="3"/>
+        <v>519750</v>
+      </c>
+      <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>519750</v>
-      </c>
-      <c r="K11" s="2">
-        <f t="shared" si="5"/>
-        <v>-71982</v>
-      </c>
-      <c r="L11" s="92">
+        <v>-73013.820000000007</v>
+      </c>
+      <c r="L11" s="110">
         <f t="shared" si="1"/>
-        <v>-0.77412485884820126</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" si="2"/>
-        <v>24849</v>
-      </c>
-      <c r="N11" s="70">
+        <v>-0.77609224607566585</v>
+      </c>
+      <c r="M11" s="112">
+        <f t="shared" si="10"/>
+        <v>-0.44259651930386079</v>
+      </c>
+      <c r="N11" s="22">
         <f t="shared" si="6"/>
+        <v>19651.5</v>
+      </c>
+      <c r="O11" s="109">
+        <f t="shared" si="7"/>
+        <v>3.9707941588317662E-2</v>
+      </c>
+      <c r="P11" s="70">
+        <f t="shared" si="8"/>
         <v>4.7809523809523857E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="96" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="95" t="s">
         <v>202</v>
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>37996</v>
+        <v>37592</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>200</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>37996</v>
+        <v>37592</v>
       </c>
       <c r="G12" s="74">
-        <f t="shared" si="3"/>
-        <v>113988</v>
+        <f t="shared" si="2"/>
+        <v>112776</v>
       </c>
       <c r="H12" s="74">
-        <f t="shared" si="3"/>
-        <v>341964</v>
+        <f t="shared" si="2"/>
+        <v>338328</v>
       </c>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>129788</v>
-      </c>
-      <c r="J12" s="91"/>
-      <c r="K12" s="2">
-        <f t="shared" si="5"/>
-        <v>15800</v>
-      </c>
-      <c r="L12" s="92">
+        <v>129600</v>
+      </c>
+      <c r="J12" s="108"/>
+      <c r="K12" s="21">
+        <f t="shared" si="4"/>
+        <v>15528</v>
+      </c>
+      <c r="L12" s="110">
         <f t="shared" si="1"/>
-        <v>0.12173698647024378</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="70"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="96" t="s">
+        <v>0.12981481481481483</v>
+      </c>
+      <c r="M12" s="92">
+        <f t="shared" si="10"/>
+        <v>0.13768886997233454</v>
+      </c>
+      <c r="N12" s="18"/>
+      <c r="O12" s="100"/>
+      <c r="P12" s="70"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="95" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>100694</v>
+        <v>100599</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>100694</v>
+        <f t="shared" si="9"/>
+        <v>100599</v>
       </c>
       <c r="G13" s="74">
-        <f t="shared" si="3"/>
-        <v>302082</v>
+        <f t="shared" si="2"/>
+        <v>301797</v>
       </c>
       <c r="H13" s="74">
-        <f t="shared" si="3"/>
-        <v>906246</v>
+        <f t="shared" si="2"/>
+        <v>905391</v>
       </c>
       <c r="I13" s="91" t="str">
-        <f t="shared" ref="I13:I16" si="8">C27</f>
-        <v>335995</v>
-      </c>
-      <c r="J13" s="91"/>
-      <c r="K13" s="2">
-        <f t="shared" si="5"/>
-        <v>33913</v>
-      </c>
-      <c r="L13" s="92">
+        <f t="shared" ref="I13:I16" si="11">C27</f>
+        <v>335800</v>
+      </c>
+      <c r="J13" s="108"/>
+      <c r="K13" s="21">
+        <f t="shared" si="4"/>
+        <v>30645</v>
+      </c>
+      <c r="L13" s="110">
         <f t="shared" si="1"/>
-        <v>0.10093304959895233</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="96" t="s">
+        <v>0.10125967837998806</v>
+      </c>
+      <c r="M13" s="92">
+        <f t="shared" si="10"/>
+        <v>0.10154176482867623</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="100"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="95" t="s">
         <v>141</v>
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>129742</v>
+        <v>108800</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>129742</v>
+        <f t="shared" si="9"/>
+        <v>108800</v>
       </c>
       <c r="G14" s="74">
-        <f t="shared" si="3"/>
-        <v>389226</v>
+        <f t="shared" si="2"/>
+        <v>326400</v>
       </c>
       <c r="H14" s="74">
-        <f t="shared" si="3"/>
-        <v>1167678</v>
+        <f t="shared" si="2"/>
+        <v>979200</v>
       </c>
       <c r="I14" s="91" t="str">
-        <f t="shared" si="8"/>
-        <v>399989</v>
-      </c>
-      <c r="J14" s="91"/>
-      <c r="K14" s="2">
-        <f t="shared" si="5"/>
-        <v>10763</v>
-      </c>
-      <c r="L14" s="92">
+        <f t="shared" si="11"/>
+        <v>389886</v>
+      </c>
+      <c r="J14" s="108"/>
+      <c r="K14" s="21">
+        <f t="shared" si="4"/>
+        <v>59587.14</v>
+      </c>
+      <c r="L14" s="110">
         <f t="shared" si="1"/>
-        <v>2.6908239976599302E-2</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="96" t="s">
+        <v>0.16283221249288249</v>
+      </c>
+      <c r="M14" s="92">
+        <f t="shared" si="10"/>
+        <v>0.18255863970588235</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="100"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="95" t="s">
         <v>142</v>
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>92563</v>
+        <v>92296</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>92563</v>
+        <f t="shared" si="9"/>
+        <v>92296</v>
       </c>
       <c r="G15" s="74">
-        <f t="shared" si="3"/>
-        <v>277689</v>
+        <f t="shared" si="2"/>
+        <v>276888</v>
       </c>
       <c r="H15" s="74">
-        <f t="shared" si="3"/>
-        <v>833067</v>
+        <f t="shared" si="2"/>
+        <v>830664</v>
       </c>
       <c r="I15" s="91" t="str">
-        <f t="shared" si="8"/>
-        <v>338965</v>
-      </c>
-      <c r="J15" s="91"/>
-      <c r="K15" s="2">
-        <f t="shared" si="5"/>
-        <v>61276</v>
-      </c>
-      <c r="L15" s="92">
+        <f t="shared" si="11"/>
+        <v>319792</v>
+      </c>
+      <c r="J15" s="108"/>
+      <c r="K15" s="21">
+        <f t="shared" si="4"/>
+        <v>39706.080000000002</v>
+      </c>
+      <c r="L15" s="110">
         <f>1-(G15/I15)</f>
-        <v>0.18077382620624549</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="97" t="s">
+        <v>0.13416220543353174</v>
+      </c>
+      <c r="M15" s="92">
+        <f t="shared" si="10"/>
+        <v>0.14340123082257086</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="100"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="96" t="s">
         <v>143</v>
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>76649</v>
+        <v>68997</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
-        <f t="shared" si="7"/>
-        <v>76649</v>
+        <f t="shared" si="9"/>
+        <v>68997</v>
       </c>
       <c r="G16" s="74">
-        <f t="shared" si="3"/>
-        <v>229947</v>
+        <f t="shared" si="2"/>
+        <v>206991</v>
       </c>
       <c r="H16" s="74">
-        <f t="shared" si="3"/>
-        <v>689841</v>
+        <f t="shared" si="2"/>
+        <v>620973</v>
       </c>
       <c r="I16" s="91" t="str">
-        <f t="shared" si="8"/>
-        <v>228999</v>
-      </c>
-      <c r="J16" s="91"/>
-      <c r="K16" s="2">
-        <f t="shared" si="5"/>
-        <v>-948</v>
-      </c>
-      <c r="L16" s="92">
+        <f t="shared" si="11"/>
+        <v>228995</v>
+      </c>
+      <c r="J16" s="108"/>
+      <c r="K16" s="22">
+        <f t="shared" si="4"/>
+        <v>19714.05</v>
+      </c>
+      <c r="L16" s="110">
         <f>1-(G16/I16)</f>
-        <v>-4.1397560688039015E-3</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
+        <v>9.6089434267123686E-2</v>
+      </c>
+      <c r="M16" s="92">
+        <f t="shared" si="10"/>
+        <v>9.5241097439019082E-2</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="100"/>
+      <c r="P16" s="3"/>
     </row>
     <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="68"/>
@@ -10198,7 +10421,7 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>39973</v>
+        <v>36994</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -10207,7 +10430,7 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>24998</v>
+        <v>31995</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -10216,7 +10439,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>12586</v>
+        <v>12579</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -10225,7 +10448,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>25382</v>
+        <v>24997</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -10234,7 +10457,7 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>56431</v>
+        <v>56400</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -10243,7 +10466,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>62465</v>
+        <v>58986</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -10261,7 +10484,7 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>92985</v>
+        <v>92882</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -10270,7 +10493,7 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>129788</v>
+        <v>129600</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -10279,7 +10502,7 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>335995</v>
+        <v>335800</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -10288,7 +10511,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>399989</v>
+        <v>389886</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -10297,7 +10520,7 @@
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>338965</v>
+        <v>319792</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10306,7 +10529,7 @@
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>228999</v>
+        <v>228995</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10318,14 +10541,14 @@
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>110894</v>
+        <v>119996</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" s="21">
         <f>Raw!D56</f>
         <v>100000</v>
       </c>
@@ -10336,7 +10559,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>37300</v>
+        <v>37365</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -10345,7 +10568,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>77800</v>
+        <v>76499</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -10354,7 +10577,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>147878</v>
+        <v>147800</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -10363,7 +10586,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>156998</v>
+        <v>168997</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -10372,7 +10595,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>97497</v>
+        <v>98948</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10385,44 +10608,61 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K4:K16">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M12">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+  <conditionalFormatting sqref="N12:O12 N4:N11">
+    <cfRule type="cellIs" dxfId="18" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:N12">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="P4:P12">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="7" operator="between">
       <formula>0.15</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:L16">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+  <conditionalFormatting sqref="L4:M16">
+    <cfRule type="cellIs" dxfId="12" priority="8" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="between">
+      <formula>0.15</formula>
+      <formula>0.25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G16">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
+      <formula>$F$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:O11">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+      <formula>0.0001</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+      <formula>0.25</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
       <formula>0.15</formula>
       <formula>0.25</formula>
     </cfRule>
@@ -10436,8 +10676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10452,7 +10692,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -10462,7 +10702,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -10472,7 +10712,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -10482,7 +10722,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -10492,7 +10732,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -10502,7 +10742,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -10512,7 +10752,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -10522,7 +10762,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -10532,7 +10772,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -10542,7 +10782,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -10552,7 +10792,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -10562,7 +10802,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -10572,7 +10812,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -10582,7 +10822,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -10592,7 +10832,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -10602,7 +10842,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10612,7 +10852,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10622,7 +10862,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10632,7 +10872,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10642,7 +10882,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -10652,7 +10892,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10662,7 +10902,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10672,7 +10912,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10682,7 +10922,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10692,7 +10932,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10702,7 +10942,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10712,7 +10952,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -10721,8 +10961,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>234</v>
+      <c r="D56">
+        <v>100000</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -10732,7 +10972,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -10742,7 +10982,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10752,7 +10992,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>237</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -10762,7 +11002,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -10772,7 +11012,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -10781,8 +11021,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>240</v>
+      <c r="D68">
+        <v>220000</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -1780,22 +1780,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1814,71 +1798,27 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <font>
         <color rgb="FF9C6500"/>
@@ -1963,6 +1903,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3422,7 +3382,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="35" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3710,29 +3670,29 @@
         <f>Comparatifs!B27</f>
         <v>0</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="107" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="G2" s="8">
         <f>Comparatifs!B28+B10</f>
         <v>0</v>
       </c>
-      <c r="H2" s="101" t="s">
+      <c r="H2" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
       <c r="L2" s="8">
         <f>Comparatifs!B29+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="101" t="s">
+      <c r="M2" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="101"/>
-      <c r="O2" s="102"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="108"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -4099,29 +4059,29 @@
         <f>Comparatifs!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
       <c r="G13" s="8">
         <f>Comparatifs!B14+B21</f>
         <v>0</v>
       </c>
-      <c r="H13" s="101" t="s">
+      <c r="H13" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="108"/>
       <c r="L13" s="8">
         <f>Comparatifs!B13+G20</f>
         <v>0</v>
       </c>
-      <c r="M13" s="101" t="s">
+      <c r="M13" s="107" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="101"/>
-      <c r="O13" s="102"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="108"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
@@ -4488,29 +4448,29 @@
         <f>Comparatifs!B15</f>
         <v>5</v>
       </c>
-      <c r="C24" s="101" t="s">
+      <c r="C24" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="108"/>
       <c r="G24" s="8">
         <f>Comparatifs!B16+B32</f>
         <v>5</v>
       </c>
-      <c r="H24" s="101" t="s">
+      <c r="H24" s="107" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="101"/>
-      <c r="J24" s="102"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
       <c r="L24" s="8">
         <f>Comparatifs!B17+G31</f>
         <v>5</v>
       </c>
-      <c r="M24" s="101" t="s">
+      <c r="M24" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="101"/>
-      <c r="O24" s="102"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="108"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -4877,29 +4837,29 @@
         <f>Comparatifs!B18</f>
         <v>0</v>
       </c>
-      <c r="C35" s="101" t="s">
+      <c r="C35" s="107" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="101"/>
-      <c r="E35" s="102"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="108"/>
       <c r="G35" s="8">
         <f>Comparatifs!B19+B43</f>
         <v>0</v>
       </c>
-      <c r="H35" s="101" t="s">
+      <c r="H35" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="101"/>
-      <c r="J35" s="102"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="108"/>
       <c r="L35" s="8">
         <f>Comparatifs!B20+G42</f>
         <v>0</v>
       </c>
-      <c r="M35" s="101" t="s">
+      <c r="M35" s="107" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="101"/>
-      <c r="O35" s="102"/>
+      <c r="N35" s="107"/>
+      <c r="O35" s="108"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
@@ -5266,29 +5226,29 @@
         <f>Comparatifs!B21</f>
         <v>0</v>
       </c>
-      <c r="C46" s="101" t="s">
+      <c r="C46" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="101"/>
-      <c r="E46" s="102"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="108"/>
       <c r="G46" s="8">
         <f>Comparatifs!B22+B54</f>
         <v>0</v>
       </c>
-      <c r="H46" s="101" t="s">
+      <c r="H46" s="107" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="101"/>
-      <c r="J46" s="102"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="108"/>
       <c r="L46" s="8">
         <f>Comparatifs!B23+G53</f>
         <v>0</v>
       </c>
-      <c r="M46" s="101" t="s">
+      <c r="M46" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="101"/>
-      <c r="O46" s="102"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="108"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
@@ -5655,29 +5615,29 @@
         <f>Comparatifs!B24</f>
         <v>5</v>
       </c>
-      <c r="C57" s="101" t="s">
+      <c r="C57" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="101"/>
-      <c r="E57" s="102"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="108"/>
       <c r="G57" s="8">
         <f>Comparatifs!B25+B65</f>
         <v>5</v>
       </c>
-      <c r="H57" s="101" t="s">
+      <c r="H57" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="101"/>
-      <c r="J57" s="102"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="108"/>
       <c r="L57" s="8">
         <f>Comparatifs!B26+G64</f>
         <v>5</v>
       </c>
-      <c r="M57" s="101" t="s">
+      <c r="M57" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="N57" s="101"/>
-      <c r="O57" s="102"/>
+      <c r="N57" s="107"/>
+      <c r="O57" s="108"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -6044,29 +6004,29 @@
         <f>Comparatifs!B30</f>
         <v>5</v>
       </c>
-      <c r="C68" s="101" t="s">
+      <c r="C68" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="101"/>
-      <c r="E68" s="102"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="108"/>
       <c r="G68" s="8">
         <f>Comparatifs!B31+B76</f>
         <v>5</v>
       </c>
-      <c r="H68" s="101" t="s">
+      <c r="H68" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="I68" s="101"/>
-      <c r="J68" s="102"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="108"/>
       <c r="L68" s="8">
         <f>Comparatifs!B32+G75</f>
         <v>5</v>
       </c>
-      <c r="M68" s="101" t="s">
+      <c r="M68" s="107" t="s">
         <v>106</v>
       </c>
-      <c r="N68" s="101"/>
-      <c r="O68" s="102"/>
+      <c r="N68" s="107"/>
+      <c r="O68" s="108"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
@@ -6433,29 +6393,29 @@
         <f>Comparatifs!B33</f>
         <v>5</v>
       </c>
-      <c r="C79" s="101" t="s">
+      <c r="C79" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="101"/>
-      <c r="E79" s="102"/>
+      <c r="D79" s="107"/>
+      <c r="E79" s="108"/>
       <c r="G79" s="8">
         <f>Comparatifs!B34+B87</f>
         <v>5</v>
       </c>
-      <c r="H79" s="101" t="s">
+      <c r="H79" s="107" t="s">
         <v>114</v>
       </c>
-      <c r="I79" s="101"/>
-      <c r="J79" s="102"/>
+      <c r="I79" s="107"/>
+      <c r="J79" s="108"/>
       <c r="L79" s="8">
         <f>Comparatifs!B35+G86</f>
         <v>5</v>
       </c>
-      <c r="M79" s="101" t="s">
+      <c r="M79" s="107" t="s">
         <v>116</v>
       </c>
-      <c r="N79" s="101"/>
-      <c r="O79" s="102"/>
+      <c r="N79" s="107"/>
+      <c r="O79" s="108"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
@@ -6822,29 +6782,29 @@
         <f>Comparatifs!B36</f>
         <v>0</v>
       </c>
-      <c r="C90" s="101" t="s">
+      <c r="C90" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="101"/>
-      <c r="E90" s="102"/>
+      <c r="D90" s="107"/>
+      <c r="E90" s="108"/>
       <c r="G90" s="8">
         <f>Comparatifs!B37+B98</f>
         <v>0</v>
       </c>
-      <c r="H90" s="101" t="s">
+      <c r="H90" s="107" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="101"/>
-      <c r="J90" s="102"/>
+      <c r="I90" s="107"/>
+      <c r="J90" s="108"/>
       <c r="L90" s="8">
         <f>Comparatifs!B38+G97</f>
         <v>0</v>
       </c>
-      <c r="M90" s="101" t="s">
+      <c r="M90" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="N90" s="101"/>
-      <c r="O90" s="102"/>
+      <c r="N90" s="107"/>
+      <c r="O90" s="108"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
@@ -7207,17 +7167,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="M68:O68"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="M90:O90"/>
@@ -7234,6 +7183,17 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="M68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7307,16 +7267,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -8290,28 +8250,28 @@
     <mergeCell ref="B8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10 G12:G1048576">
-    <cfRule type="cellIs" dxfId="34" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 H12:H1048576">
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="4" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 G12:G1048576">
-    <cfRule type="cellIs" dxfId="32" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="3" operator="greaterThan">
       <formula>500000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G7 G9:G1048576">
-    <cfRule type="cellIs" dxfId="31" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="between">
       <formula>300000</formula>
       <formula>499999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H7 H9:H1048576">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="between">
       <formula>20</formula>
       <formula>39.99</formula>
     </cfRule>
@@ -8503,7 +8463,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8539,25 +8499,25 @@
         <f>'Comparatifs Idoles'!B12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="G2" s="8">
         <f>'Comparatifs Idoles'!B13</f>
         <v>0</v>
       </c>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="102"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
       <c r="L2" s="8">
         <f>Comparatifs!B13+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="102"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="108"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -8881,16 +8841,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="103" t="s">
+      <c r="B8" s="109" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -8987,40 +8947,40 @@
     <mergeCell ref="B8:I8"/>
   </mergeCells>
   <conditionalFormatting sqref="G10 G12:G1048576">
-    <cfRule type="cellIs" dxfId="28" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10 H12:H1048576">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="greaterThan">
       <formula>40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10 G12:G1048576">
-    <cfRule type="cellIs" dxfId="26" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="5" operator="greaterThan">
       <formula>500000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:G6 G10:G1048576">
-    <cfRule type="cellIs" dxfId="25" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="4" operator="between">
       <formula>300000</formula>
       <formula>499999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H6 H10:H1048576">
-    <cfRule type="cellIs" dxfId="24" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="between">
       <formula>20</formula>
       <formula>39.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7 G9">
-    <cfRule type="cellIs" dxfId="23" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="between">
       <formula>300000</formula>
       <formula>499999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7 H9">
-    <cfRule type="cellIs" dxfId="22" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="between">
       <formula>20</formula>
       <formula>39.99</formula>
     </cfRule>
@@ -9107,11 +9067,11 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="101"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="112"/>
       <c r="F9" s="48"/>
       <c r="H9" t="s">
         <v>8</v>
@@ -9316,11 +9276,11 @@
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="C20" s="101" t="s">
+      <c r="C20" s="107" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="106"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="112"/>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -9661,19 +9621,19 @@
     <mergeCell ref="C20:E20"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G7">
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="between">
       <formula>300000</formula>
       <formula>499999</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H7">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="between">
       <formula>20</formula>
       <formula>39.99</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C45">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9687,7 +9647,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9772,7 +9732,7 @@
         <f t="shared" ref="I4:I12" si="0">C18</f>
         <v>36994</v>
       </c>
-      <c r="J4" s="107" t="str">
+      <c r="J4" s="101" t="str">
         <f>C32</f>
         <v>119996</v>
       </c>
@@ -9780,11 +9740,11 @@
         <f>I4-G4-(I4*0.01)</f>
         <v>-14369.94</v>
       </c>
-      <c r="L4" s="109">
+      <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
         <v>-0.37843974698599769</v>
       </c>
-      <c r="M4" s="111">
+      <c r="M4" s="105">
         <f>K4/G4</f>
         <v>-0.28179668196258384</v>
       </c>
@@ -9792,7 +9752,7 @@
         <f>J4-H4-(J4*0.01)</f>
         <v>-34185.96</v>
       </c>
-      <c r="O4" s="109">
+      <c r="O4" s="103">
         <f>N4/H4</f>
         <v>-0.22346393693375691</v>
       </c>
@@ -9828,7 +9788,7 @@
         <f t="shared" si="0"/>
         <v>31995</v>
       </c>
-      <c r="J5" s="108">
+      <c r="J5" s="102">
         <f t="shared" ref="J5:J11" si="3">C33</f>
         <v>100000</v>
       </c>
@@ -9836,11 +9796,11 @@
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
         <v>2617.0500000000002</v>
       </c>
-      <c r="L5" s="110">
+      <c r="L5" s="104">
         <f t="shared" si="1"/>
         <v>9.1795593061415826E-2</v>
       </c>
-      <c r="M5" s="112">
+      <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
         <v>9.0062977493289287E-2</v>
       </c>
@@ -9848,7 +9808,7 @@
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
         <v>11826</v>
       </c>
-      <c r="O5" s="109">
+      <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
         <v>0.13565971505265331</v>
       </c>
@@ -9884,7 +9844,7 @@
         <f t="shared" si="0"/>
         <v>12579</v>
       </c>
-      <c r="J6" s="108" t="str">
+      <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
         <v>37365</v>
       </c>
@@ -9892,11 +9852,11 @@
         <f t="shared" si="4"/>
         <v>516.21</v>
       </c>
-      <c r="L6" s="110">
+      <c r="L6" s="104">
         <f t="shared" si="1"/>
         <v>5.1037443357977552E-2</v>
       </c>
-      <c r="M6" s="112">
+      <c r="M6" s="106">
         <f t="shared" si="5"/>
         <v>4.3244533802462931E-2</v>
       </c>
@@ -9904,7 +9864,7 @@
         <f t="shared" si="6"/>
         <v>1180.3499999999999</v>
       </c>
-      <c r="O6" s="109">
+      <c r="O6" s="103">
         <f t="shared" si="7"/>
         <v>3.2960542849962297E-2</v>
       </c>
@@ -9940,7 +9900,7 @@
         <f t="shared" si="0"/>
         <v>24997</v>
       </c>
-      <c r="J7" s="108" t="str">
+      <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
         <v>76499</v>
       </c>
@@ -9948,11 +9908,11 @@
         <f t="shared" si="4"/>
         <v>2148.0300000000002</v>
       </c>
-      <c r="L7" s="110">
+      <c r="L7" s="104">
         <f t="shared" si="1"/>
         <v>9.5931511781413792E-2</v>
       </c>
-      <c r="M7" s="112">
+      <c r="M7" s="106">
         <f t="shared" si="5"/>
         <v>9.5049780963759462E-2</v>
       </c>
@@ -9960,7 +9920,7 @@
         <f t="shared" si="6"/>
         <v>7937.01</v>
       </c>
-      <c r="O7" s="109">
+      <c r="O7" s="103">
         <f t="shared" si="7"/>
         <v>0.11707022434621001</v>
       </c>
@@ -9996,7 +9956,7 @@
         <f t="shared" si="0"/>
         <v>56400</v>
       </c>
-      <c r="J8" s="108" t="str">
+      <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
         <v>147800</v>
       </c>
@@ -10004,11 +9964,11 @@
         <f t="shared" si="4"/>
         <v>9363</v>
       </c>
-      <c r="L8" s="110">
+      <c r="L8" s="104">
         <f t="shared" si="1"/>
         <v>0.17601063829787233</v>
       </c>
-      <c r="M8" s="112">
+      <c r="M8" s="106">
         <f>K8/G8</f>
         <v>0.20147182234846039</v>
       </c>
@@ -10016,7 +9976,7 @@
         <f t="shared" si="6"/>
         <v>6903</v>
       </c>
-      <c r="O8" s="109">
+      <c r="O8" s="103">
         <f t="shared" si="7"/>
         <v>4.951262023110193E-2</v>
       </c>
@@ -10052,7 +10012,7 @@
         <f t="shared" si="0"/>
         <v>58986</v>
       </c>
-      <c r="J9" s="108" t="str">
+      <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
         <v>168997</v>
       </c>
@@ -10060,11 +10020,11 @@
         <f t="shared" si="4"/>
         <v>-1180.8600000000001</v>
       </c>
-      <c r="L9" s="110">
+      <c r="L9" s="104">
         <f t="shared" si="1"/>
         <v>-1.0019326619875812E-2</v>
       </c>
-      <c r="M9" s="112">
+      <c r="M9" s="106">
         <f>K9/G9</f>
         <v>-1.9820736190140492E-2</v>
       </c>
@@ -10072,7 +10032,7 @@
         <f t="shared" si="6"/>
         <v>-11423.97</v>
       </c>
-      <c r="O9" s="109">
+      <c r="O9" s="103">
         <f t="shared" si="7"/>
         <v>-6.3917115665441351E-2</v>
       </c>
@@ -10108,7 +10068,7 @@
         <f t="shared" si="0"/>
         <v>38997</v>
       </c>
-      <c r="J10" s="108" t="str">
+      <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
         <v>98948</v>
       </c>
@@ -10116,11 +10076,11 @@
         <f t="shared" si="4"/>
         <v>-1574.97</v>
       </c>
-      <c r="L10" s="110">
+      <c r="L10" s="104">
         <f t="shared" si="1"/>
         <v>-3.0386952842526238E-2</v>
       </c>
-      <c r="M10" s="112">
+      <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
         <v>-3.9195908615798122E-2</v>
       </c>
@@ -10128,7 +10088,7 @@
         <f t="shared" si="6"/>
         <v>-22587.48</v>
       </c>
-      <c r="O10" s="109">
+      <c r="O10" s="103">
         <f t="shared" si="7"/>
         <v>-0.18737643721069136</v>
       </c>
@@ -10141,55 +10101,56 @@
       <c r="B11" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="3">
-        <v>54989</v>
+      <c r="C11" s="3" t="str">
+        <f>Raw!D16</f>
+        <v>27890</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>54989</v>
+        <v>27890</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>164967</v>
+        <v>83670</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>494901</v>
+        <v>251010</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
         <v>92882</v>
       </c>
-      <c r="J11" s="108">
+      <c r="J11" s="102">
         <f t="shared" si="3"/>
-        <v>519750</v>
+        <v>220000</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>-73013.820000000007</v>
-      </c>
-      <c r="L11" s="110">
+        <v>8283.18</v>
+      </c>
+      <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>-0.77609224607566585</v>
-      </c>
-      <c r="M11" s="112">
+        <v>9.9179604229021723E-2</v>
+      </c>
+      <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>-0.44259651930386079</v>
+        <v>9.8998207242739333E-2</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>19651.5</v>
-      </c>
-      <c r="O11" s="109">
+        <v>-33210</v>
+      </c>
+      <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>3.9707941588317662E-2</v>
+        <v>-0.13230548583721763</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>4.7809523809523857E-2</v>
+        <v>-0.14095454545454555</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -10211,20 +10172,17 @@
         <f t="shared" si="2"/>
         <v>112776</v>
       </c>
-      <c r="H12" s="74">
-        <f t="shared" si="2"/>
-        <v>338328</v>
-      </c>
+      <c r="H12" s="74"/>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
         <v>129600</v>
       </c>
-      <c r="J12" s="108"/>
+      <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
         <v>15528</v>
       </c>
-      <c r="L12" s="110">
+      <c r="L12" s="104">
         <f t="shared" si="1"/>
         <v>0.12981481481481483</v>
       </c>
@@ -10255,20 +10213,17 @@
         <f t="shared" si="2"/>
         <v>301797</v>
       </c>
-      <c r="H13" s="74">
-        <f t="shared" si="2"/>
-        <v>905391</v>
-      </c>
+      <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
         <v>335800</v>
       </c>
-      <c r="J13" s="108"/>
+      <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
         <v>30645</v>
       </c>
-      <c r="L13" s="110">
+      <c r="L13" s="104">
         <f t="shared" si="1"/>
         <v>0.10125967837998806</v>
       </c>
@@ -10299,20 +10254,17 @@
         <f t="shared" si="2"/>
         <v>326400</v>
       </c>
-      <c r="H14" s="74">
-        <f t="shared" si="2"/>
-        <v>979200</v>
-      </c>
+      <c r="H14" s="74"/>
       <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
         <v>389886</v>
       </c>
-      <c r="J14" s="108"/>
+      <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
         <v>59587.14</v>
       </c>
-      <c r="L14" s="110">
+      <c r="L14" s="104">
         <f t="shared" si="1"/>
         <v>0.16283221249288249</v>
       </c>
@@ -10343,20 +10295,17 @@
         <f t="shared" si="2"/>
         <v>276888</v>
       </c>
-      <c r="H15" s="74">
-        <f t="shared" si="2"/>
-        <v>830664</v>
-      </c>
+      <c r="H15" s="74"/>
       <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
         <v>319792</v>
       </c>
-      <c r="J15" s="108"/>
+      <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
         <v>39706.080000000002</v>
       </c>
-      <c r="L15" s="110">
+      <c r="L15" s="104">
         <f>1-(G15/I15)</f>
         <v>0.13416220543353174</v>
       </c>
@@ -10387,20 +10336,17 @@
         <f t="shared" si="2"/>
         <v>206991</v>
       </c>
-      <c r="H16" s="74">
-        <f t="shared" si="2"/>
-        <v>620973</v>
-      </c>
+      <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
         <v>228995</v>
       </c>
-      <c r="J16" s="108"/>
+      <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
         <v>19714.05</v>
       </c>
-      <c r="L16" s="110">
+      <c r="L16" s="104">
         <f>1-(G16/I16)</f>
         <v>9.6089434267123686E-2</v>
       </c>
@@ -10603,66 +10549,67 @@
         <v>163</v>
       </c>
       <c r="C39" s="22">
-        <v>519750</v>
+        <f>Raw!D68</f>
+        <v>220000</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K4:K16">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12:O12 N4:N11">
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="15" operator="greaterThan">
       <formula>5000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:P12">
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="between">
       <formula>0.15</formula>
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="12" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:M16">
-    <cfRule type="cellIs" dxfId="12" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="between">
       <formula>0.15</formula>
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G16">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:O11">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.25</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="between">
       <formula>0.15</formula>
       <formula>0.25</formula>
     </cfRule>
@@ -10676,7 +10623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -17,13 +17,14 @@
     <sheet name="Runes" sheetId="8" r:id="rId8"/>
     <sheet name="Raw" sheetId="12" r:id="rId9"/>
     <sheet name="rose" sheetId="11" r:id="rId10"/>
+    <sheet name="Feuil1" sheetId="13" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="315">
   <si>
     <t>Ardonite</t>
   </si>
@@ -652,104 +653,329 @@
     <t>147800</t>
   </si>
   <si>
-    <t>13394</t>
-  </si>
-  <si>
-    <t>37592</t>
-  </si>
-  <si>
-    <t>100599</t>
-  </si>
-  <si>
-    <t>108800</t>
-  </si>
-  <si>
-    <t>24997</t>
-  </si>
-  <si>
     <t>56400</t>
   </si>
   <si>
-    <t>38997</t>
-  </si>
-  <si>
-    <t>129600</t>
+    <t>15400</t>
+  </si>
+  <si>
+    <t>37591</t>
+  </si>
+  <si>
+    <t>12576</t>
+  </si>
+  <si>
+    <t>59987</t>
+  </si>
+  <si>
+    <t>38998</t>
+  </si>
+  <si>
+    <t>122222</t>
+  </si>
+  <si>
+    <t>389882</t>
+  </si>
+  <si>
+    <t>319790</t>
+  </si>
+  <si>
+    <t>228994</t>
+  </si>
+  <si>
+    <t>119997</t>
+  </si>
+  <si>
+    <t>16950</t>
+  </si>
+  <si>
+    <t>9685</t>
+  </si>
+  <si>
+    <t>3985</t>
+  </si>
+  <si>
+    <t>7540</t>
+  </si>
+  <si>
+    <t>19844</t>
+  </si>
+  <si>
+    <t>13385</t>
+  </si>
+  <si>
+    <t>27990</t>
+  </si>
+  <si>
+    <t>100600</t>
+  </si>
+  <si>
+    <t>108945</t>
+  </si>
+  <si>
+    <t>92375</t>
+  </si>
+  <si>
+    <t>69979</t>
+  </si>
+  <si>
+    <t>36985</t>
+  </si>
+  <si>
+    <t>31991</t>
+  </si>
+  <si>
+    <t>24992</t>
+  </si>
+  <si>
+    <t>92879</t>
   </si>
   <si>
     <t>335800</t>
   </si>
   <si>
-    <t>389886</t>
-  </si>
-  <si>
-    <t>319792</t>
-  </si>
-  <si>
-    <t>228995</t>
-  </si>
-  <si>
-    <t>119996</t>
-  </si>
-  <si>
-    <t>76499</t>
-  </si>
-  <si>
-    <t>98948</t>
-  </si>
-  <si>
-    <t>16998</t>
-  </si>
-  <si>
-    <t>9686</t>
-  </si>
-  <si>
-    <t>3979</t>
-  </si>
-  <si>
-    <t>7533</t>
+    <t>119994</t>
+  </si>
+  <si>
+    <t>37372</t>
+  </si>
+  <si>
+    <t>77498</t>
+  </si>
+  <si>
+    <t>169993</t>
+  </si>
+  <si>
+    <t>16279</t>
+  </si>
+  <si>
+    <t>9976</t>
+  </si>
+  <si>
+    <t>3897</t>
+  </si>
+  <si>
+    <t>8387</t>
   </si>
   <si>
     <t>15491</t>
   </si>
   <si>
-    <t>19859</t>
-  </si>
-  <si>
-    <t>27890</t>
-  </si>
-  <si>
-    <t>92296</t>
-  </si>
-  <si>
-    <t>68997</t>
-  </si>
-  <si>
-    <t>36994</t>
-  </si>
-  <si>
-    <t>31995</t>
-  </si>
-  <si>
-    <t>12579</t>
-  </si>
-  <si>
-    <t>58986</t>
-  </si>
-  <si>
-    <t>92882</t>
-  </si>
-  <si>
-    <t>37365</t>
-  </si>
-  <si>
-    <t>168997</t>
+    <t>18683</t>
+  </si>
+  <si>
+    <t>11981</t>
+  </si>
+  <si>
+    <t>27496</t>
+  </si>
+  <si>
+    <t>100767</t>
+  </si>
+  <si>
+    <t>119655</t>
+  </si>
+  <si>
+    <t>92195</t>
+  </si>
+  <si>
+    <t>76386</t>
+  </si>
+  <si>
+    <t>36694</t>
+  </si>
+  <si>
+    <t>31974</t>
+  </si>
+  <si>
+    <t>12496</t>
+  </si>
+  <si>
+    <t>24895</t>
+  </si>
+  <si>
+    <t>56288</t>
+  </si>
+  <si>
+    <t>58491</t>
+  </si>
+  <si>
+    <t>37993</t>
+  </si>
+  <si>
+    <t>92886</t>
+  </si>
+  <si>
+    <t>119222</t>
+  </si>
+  <si>
+    <t>329899</t>
+  </si>
+  <si>
+    <t>384897</t>
+  </si>
+  <si>
+    <t>319499</t>
+  </si>
+  <si>
+    <t>224998</t>
+  </si>
+  <si>
+    <t>119995</t>
+  </si>
+  <si>
+    <t>100997</t>
+  </si>
+  <si>
+    <t>36900</t>
+  </si>
+  <si>
+    <t>76900</t>
+  </si>
+  <si>
+    <t>147798</t>
+  </si>
+  <si>
+    <t>169998</t>
+  </si>
+  <si>
+    <t>98972</t>
+  </si>
+  <si>
+    <t>229999</t>
+  </si>
+  <si>
+    <t>Emeraude et Rousse</t>
+  </si>
+  <si>
+    <t>Puissant parchemin de Vitalité</t>
+  </si>
+  <si>
+    <t>Prune et Rousse</t>
+  </si>
+  <si>
+    <t>Amande et Emeraude</t>
+  </si>
+  <si>
+    <t>Prune et Amande</t>
+  </si>
+  <si>
+    <t>Prune et Ebène</t>
+  </si>
+  <si>
+    <t>Puissant parchemin d'Agilité</t>
+  </si>
+  <si>
+    <t>Emeraude et Turquoise</t>
+  </si>
+  <si>
+    <t>Prune et Turquoise</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>heures</t>
+  </si>
+  <si>
+    <t> 6.5 jours</t>
+  </si>
+  <si>
+    <t>16251</t>
+  </si>
+  <si>
+    <t>9978</t>
+  </si>
+  <si>
+    <t>3977</t>
+  </si>
+  <si>
+    <t>8381</t>
+  </si>
+  <si>
+    <t>18247</t>
+  </si>
+  <si>
+    <t>11494</t>
+  </si>
+  <si>
+    <t>27998</t>
+  </si>
+  <si>
+    <t>37485</t>
+  </si>
+  <si>
+    <t>100764</t>
+  </si>
+  <si>
+    <t>92180</t>
+  </si>
+  <si>
+    <t>76390</t>
+  </si>
+  <si>
+    <t>36685</t>
+  </si>
+  <si>
+    <t>31663</t>
+  </si>
+  <si>
+    <t>24896</t>
+  </si>
+  <si>
+    <t>56285</t>
+  </si>
+  <si>
+    <t>58250</t>
+  </si>
+  <si>
+    <t>38898</t>
+  </si>
+  <si>
+    <t>92989</t>
+  </si>
+  <si>
+    <t>119179</t>
+  </si>
+  <si>
+    <t>329898</t>
+  </si>
+  <si>
+    <t>376996</t>
+  </si>
+  <si>
+    <t>319437</t>
+  </si>
+  <si>
+    <t>224999</t>
+  </si>
+  <si>
+    <t>119991</t>
+  </si>
+  <si>
+    <t>100996</t>
+  </si>
+  <si>
+    <t>36999</t>
+  </si>
+  <si>
+    <t>147699</t>
+  </si>
+  <si>
+    <t>173300</t>
+  </si>
+  <si>
+    <t>98971</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -796,8 +1022,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF080808"/>
+      <name val="Comic Sans MS"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -846,8 +1098,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F2E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECCFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1476,11 +1746,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1798,6 +2083,27 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3396,7 +3702,7 @@
   <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3438,28 +3744,28 @@
         <v>183</v>
       </c>
       <c r="C3" s="85">
-        <v>10165</v>
+        <v>9984</v>
       </c>
       <c r="D3" s="2">
-        <v>40500</v>
+        <v>9889</v>
       </c>
       <c r="E3" s="2">
-        <v>81100</v>
+        <v>21666</v>
       </c>
       <c r="F3" s="2">
-        <v>64334</v>
+        <v>49995</v>
       </c>
       <c r="G3" s="2">
-        <v>68999</v>
+        <v>51995</v>
       </c>
       <c r="H3" s="2">
-        <v>364987</v>
+        <v>500000</v>
       </c>
       <c r="I3" s="2">
-        <v>3977</v>
+        <v>3290</v>
       </c>
       <c r="J3" s="3">
-        <v>39999</v>
+        <v>32996</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3469,31 +3775,31 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7">
         <f>D3-C3</f>
-        <v>30335</v>
+        <v>-95</v>
       </c>
       <c r="E4" s="7">
         <f>E3-C3*2</f>
-        <v>60770</v>
+        <v>1698</v>
       </c>
       <c r="F4" s="7">
         <f>F3-C3*5</f>
-        <v>13509</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7">
         <f>G3-5*C3</f>
-        <v>18174</v>
+        <v>2075</v>
       </c>
       <c r="H4" s="7">
         <f>H3-C3*10</f>
-        <v>263337</v>
+        <v>400160</v>
       </c>
       <c r="I4" s="7">
         <f>I3-C3/10</f>
-        <v>2960.5</v>
+        <v>2291.6</v>
       </c>
       <c r="J4" s="4">
         <f>J3-C3</f>
-        <v>29834</v>
+        <v>23012</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -3501,31 +3807,31 @@
       <c r="C5" s="47"/>
       <c r="D5" s="84">
         <f t="shared" ref="D5:I5" si="0">(D4/D3)</f>
-        <v>0.74901234567901231</v>
+        <v>-9.606633633329963E-3</v>
       </c>
       <c r="E5" s="84">
         <f t="shared" si="0"/>
-        <v>0.74932182490752153</v>
+        <v>7.8371642204375522E-2</v>
       </c>
       <c r="F5" s="84">
         <f t="shared" si="0"/>
-        <v>0.20998227997637331</v>
+        <v>1.5001500150015E-3</v>
       </c>
       <c r="G5" s="84">
         <f t="shared" si="0"/>
-        <v>0.26339512166842999</v>
+        <v>3.9907683431099142E-2</v>
       </c>
       <c r="H5" s="84">
         <f t="shared" si="0"/>
-        <v>0.72149693002764481</v>
+        <v>0.80032000000000003</v>
       </c>
       <c r="I5" s="84">
         <f t="shared" si="0"/>
-        <v>0.7444053306512447</v>
+        <v>0.69653495440729485</v>
       </c>
       <c r="J5" s="84">
         <f>(J4/J3)</f>
-        <v>0.74586864671616793</v>
+        <v>0.69741786883258572</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -3534,12 +3840,12 @@
       </c>
       <c r="C6" s="47">
         <f>C3/100</f>
-        <v>101.65</v>
+        <v>99.84</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
         <f>E3/200</f>
-        <v>405.5</v>
+        <v>108.33</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -3586,25 +3892,25 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="86">
-        <v>25874</v>
+        <v>25470</v>
       </c>
       <c r="D9" s="18">
-        <v>268998</v>
+        <v>268992</v>
       </c>
       <c r="E9" s="18">
-        <v>695000</v>
+        <v>1379988</v>
       </c>
       <c r="F9" s="18">
-        <v>1286965</v>
+        <v>1199997</v>
       </c>
       <c r="G9" s="18">
-        <v>1199998</v>
+        <v>1099998</v>
       </c>
       <c r="H9" s="18">
-        <v>1298999</v>
+        <v>1350000</v>
       </c>
       <c r="I9" s="83">
-        <v>5500000</v>
+        <v>6499999</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -3613,32 +3919,216 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7">
         <f>D9-10*C9</f>
-        <v>10258</v>
+        <v>14292</v>
       </c>
       <c r="E10" s="7">
         <f>E9-50*C9</f>
-        <v>-598700</v>
+        <v>106488</v>
       </c>
       <c r="F10" s="7">
         <f>F9-50*C9</f>
-        <v>-6735</v>
+        <v>-73503</v>
       </c>
       <c r="G10" s="7">
         <f>G9-50*C9</f>
-        <v>-93702</v>
+        <v>-173502</v>
       </c>
       <c r="H10" s="7">
         <f>H9-50*C9</f>
-        <v>5299</v>
+        <v>76500</v>
       </c>
       <c r="I10" s="4">
         <f>I9-200*C9</f>
-        <v>325200</v>
+        <v>1405999</v>
       </c>
       <c r="J10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="107" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="D2">
+        <v>31498</v>
+      </c>
+      <c r="E2">
+        <v>35000</v>
+      </c>
+      <c r="F2">
+        <f>D2+E2</f>
+        <v>66498</v>
+      </c>
+      <c r="H2" s="110">
+        <v>156</v>
+      </c>
+      <c r="I2" s="111" t="s">
+        <v>284</v>
+      </c>
+      <c r="J2" s="112" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="107" t="s">
+        <v>275</v>
+      </c>
+      <c r="C3" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="D3">
+        <v>31900</v>
+      </c>
+      <c r="E3">
+        <v>31998</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="0">D3+E3</f>
+        <v>63898</v>
+      </c>
+      <c r="H3" s="113">
+        <v>156</v>
+      </c>
+      <c r="I3" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="J3" s="115" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="39" x14ac:dyDescent="0.25">
+      <c r="B4" s="107" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="109">
+        <v>33999</v>
+      </c>
+      <c r="E4">
+        <v>33999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>67998</v>
+      </c>
+      <c r="H4" s="113">
+        <v>156</v>
+      </c>
+      <c r="I4" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="J4" s="115" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="B5" s="107" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="113">
+        <v>156</v>
+      </c>
+      <c r="I5" s="114" t="s">
+        <v>284</v>
+      </c>
+      <c r="J5" s="115" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="C7" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7">
+        <v>37667</v>
+      </c>
+      <c r="E7">
+        <v>39500</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>77167</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B8" s="108" t="s">
+        <v>280</v>
+      </c>
+      <c r="C8" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8">
+        <v>38500</v>
+      </c>
+      <c r="E8">
+        <v>61998</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>100498</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="108" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9">
+        <v>46999</v>
+      </c>
+      <c r="E9">
+        <v>46999</v>
+      </c>
+      <c r="F9">
+        <f>D9+E9</f>
+        <v>93998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3670,29 +4160,29 @@
         <f>Comparatifs!B27</f>
         <v>0</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
       <c r="G2" s="8">
         <f>Comparatifs!B28+B10</f>
         <v>0</v>
       </c>
-      <c r="H2" s="107" t="s">
+      <c r="H2" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
       <c r="L2" s="8">
         <f>Comparatifs!B29+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="107" t="s">
+      <c r="M2" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="108"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -4059,29 +4549,29 @@
         <f>Comparatifs!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="107" t="s">
+      <c r="C13" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="117"/>
       <c r="G13" s="8">
         <f>Comparatifs!B14+B21</f>
         <v>0</v>
       </c>
-      <c r="H13" s="107" t="s">
+      <c r="H13" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="107"/>
-      <c r="J13" s="108"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="117"/>
       <c r="L13" s="8">
         <f>Comparatifs!B13+G20</f>
         <v>0</v>
       </c>
-      <c r="M13" s="107" t="s">
+      <c r="M13" s="116" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="107"/>
-      <c r="O13" s="108"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="117"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
@@ -4448,29 +4938,29 @@
         <f>Comparatifs!B15</f>
         <v>5</v>
       </c>
-      <c r="C24" s="107" t="s">
+      <c r="C24" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="107"/>
-      <c r="E24" s="108"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="117"/>
       <c r="G24" s="8">
         <f>Comparatifs!B16+B32</f>
         <v>5</v>
       </c>
-      <c r="H24" s="107" t="s">
+      <c r="H24" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="107"/>
-      <c r="J24" s="108"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="117"/>
       <c r="L24" s="8">
         <f>Comparatifs!B17+G31</f>
         <v>5</v>
       </c>
-      <c r="M24" s="107" t="s">
+      <c r="M24" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="107"/>
-      <c r="O24" s="108"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="117"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -4837,29 +5327,29 @@
         <f>Comparatifs!B18</f>
         <v>0</v>
       </c>
-      <c r="C35" s="107" t="s">
+      <c r="C35" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="108"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="117"/>
       <c r="G35" s="8">
         <f>Comparatifs!B19+B43</f>
         <v>0</v>
       </c>
-      <c r="H35" s="107" t="s">
+      <c r="H35" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="107"/>
-      <c r="J35" s="108"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="117"/>
       <c r="L35" s="8">
         <f>Comparatifs!B20+G42</f>
         <v>0</v>
       </c>
-      <c r="M35" s="107" t="s">
+      <c r="M35" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="107"/>
-      <c r="O35" s="108"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="117"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
@@ -5226,29 +5716,29 @@
         <f>Comparatifs!B21</f>
         <v>0</v>
       </c>
-      <c r="C46" s="107" t="s">
+      <c r="C46" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="107"/>
-      <c r="E46" s="108"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="117"/>
       <c r="G46" s="8">
         <f>Comparatifs!B22+B54</f>
         <v>0</v>
       </c>
-      <c r="H46" s="107" t="s">
+      <c r="H46" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="107"/>
-      <c r="J46" s="108"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="117"/>
       <c r="L46" s="8">
         <f>Comparatifs!B23+G53</f>
         <v>0</v>
       </c>
-      <c r="M46" s="107" t="s">
+      <c r="M46" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="107"/>
-      <c r="O46" s="108"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="117"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
@@ -5615,29 +6105,29 @@
         <f>Comparatifs!B24</f>
         <v>5</v>
       </c>
-      <c r="C57" s="107" t="s">
+      <c r="C57" s="116" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="107"/>
-      <c r="E57" s="108"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="117"/>
       <c r="G57" s="8">
         <f>Comparatifs!B25+B65</f>
         <v>5</v>
       </c>
-      <c r="H57" s="107" t="s">
+      <c r="H57" s="116" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="107"/>
-      <c r="J57" s="108"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="117"/>
       <c r="L57" s="8">
         <f>Comparatifs!B26+G64</f>
         <v>5</v>
       </c>
-      <c r="M57" s="107" t="s">
+      <c r="M57" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="N57" s="107"/>
-      <c r="O57" s="108"/>
+      <c r="N57" s="116"/>
+      <c r="O57" s="117"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -6004,29 +6494,29 @@
         <f>Comparatifs!B30</f>
         <v>5</v>
       </c>
-      <c r="C68" s="107" t="s">
+      <c r="C68" s="116" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="107"/>
-      <c r="E68" s="108"/>
+      <c r="D68" s="116"/>
+      <c r="E68" s="117"/>
       <c r="G68" s="8">
         <f>Comparatifs!B31+B76</f>
         <v>5</v>
       </c>
-      <c r="H68" s="107" t="s">
+      <c r="H68" s="116" t="s">
         <v>104</v>
       </c>
-      <c r="I68" s="107"/>
-      <c r="J68" s="108"/>
+      <c r="I68" s="116"/>
+      <c r="J68" s="117"/>
       <c r="L68" s="8">
         <f>Comparatifs!B32+G75</f>
         <v>5</v>
       </c>
-      <c r="M68" s="107" t="s">
+      <c r="M68" s="116" t="s">
         <v>106</v>
       </c>
-      <c r="N68" s="107"/>
-      <c r="O68" s="108"/>
+      <c r="N68" s="116"/>
+      <c r="O68" s="117"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
@@ -6393,29 +6883,29 @@
         <f>Comparatifs!B33</f>
         <v>5</v>
       </c>
-      <c r="C79" s="107" t="s">
+      <c r="C79" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="107"/>
-      <c r="E79" s="108"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="117"/>
       <c r="G79" s="8">
         <f>Comparatifs!B34+B87</f>
         <v>5</v>
       </c>
-      <c r="H79" s="107" t="s">
+      <c r="H79" s="116" t="s">
         <v>114</v>
       </c>
-      <c r="I79" s="107"/>
-      <c r="J79" s="108"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="117"/>
       <c r="L79" s="8">
         <f>Comparatifs!B35+G86</f>
         <v>5</v>
       </c>
-      <c r="M79" s="107" t="s">
+      <c r="M79" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="N79" s="107"/>
-      <c r="O79" s="108"/>
+      <c r="N79" s="116"/>
+      <c r="O79" s="117"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
@@ -6782,29 +7272,29 @@
         <f>Comparatifs!B36</f>
         <v>0</v>
       </c>
-      <c r="C90" s="107" t="s">
+      <c r="C90" s="116" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="107"/>
-      <c r="E90" s="108"/>
+      <c r="D90" s="116"/>
+      <c r="E90" s="117"/>
       <c r="G90" s="8">
         <f>Comparatifs!B37+B98</f>
         <v>0</v>
       </c>
-      <c r="H90" s="107" t="s">
+      <c r="H90" s="116" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="107"/>
-      <c r="J90" s="108"/>
+      <c r="I90" s="116"/>
+      <c r="J90" s="117"/>
       <c r="L90" s="8">
         <f>Comparatifs!B38+G97</f>
         <v>0</v>
       </c>
-      <c r="M90" s="107" t="s">
+      <c r="M90" s="116" t="s">
         <v>125</v>
       </c>
-      <c r="N90" s="107"/>
-      <c r="O90" s="108"/>
+      <c r="N90" s="116"/>
+      <c r="O90" s="117"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
@@ -7267,16 +7757,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -8499,25 +8989,25 @@
         <f>'Comparatifs Idoles'!B12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="107" t="s">
+      <c r="C2" s="116" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117"/>
       <c r="G2" s="8">
         <f>'Comparatifs Idoles'!B13</f>
         <v>0</v>
       </c>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="117"/>
       <c r="L2" s="8">
         <f>Comparatifs!B13+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="107"/>
-      <c r="N2" s="107"/>
-      <c r="O2" s="108"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -8841,16 +9331,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="111"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="119"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="119"/>
+      <c r="H8" s="119"/>
+      <c r="I8" s="120"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -9067,11 +9557,11 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="121"/>
       <c r="F9" s="48"/>
       <c r="H9" t="s">
         <v>8</v>
@@ -9276,11 +9766,11 @@
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="C20" s="107" t="s">
+      <c r="C20" s="116" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="107"/>
-      <c r="E20" s="112"/>
+      <c r="D20" s="116"/>
+      <c r="E20" s="121"/>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -9647,7 +10137,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9662,7 +10152,7 @@
         <v>207</v>
       </c>
       <c r="F1" s="98">
-        <v>77534</v>
+        <v>466000</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9711,54 +10201,54 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>16998</v>
+        <v>16251</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>16998</v>
+        <v>16251</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>50994</v>
+        <v>48753</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>152982</v>
+        <v>146259</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>36994</v>
+        <v>36685</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>119996</v>
+        <v>119991</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>-14369.94</v>
+        <v>-12434.85</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>-0.37843974698599769</v>
+        <v>-0.32896279133160689</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>-0.28179668196258384</v>
+        <v>-0.25505815026767586</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>-34185.96</v>
+        <v>-27467.91</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>-0.22346393693375691</v>
+        <v>-0.18780321211002399</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>-0.27489249641654712</v>
+        <v>-0.21891641873140477</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9767,54 +10257,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>9686</v>
+        <v>9978</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>9686</v>
+        <v>9978</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>29058</v>
+        <v>29934</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>87174</v>
+        <v>89802</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>31995</v>
-      </c>
-      <c r="J5" s="102">
+        <v>31663</v>
+      </c>
+      <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>100000</v>
+        <v>100996</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>2617.0500000000002</v>
+        <v>1412.37</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>9.1795593061415826E-2</v>
+        <v>5.4606322837381205E-2</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>9.0062977493289287E-2</v>
+        <v>4.718280216476247E-2</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>11826</v>
+        <v>10184.040000000001</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>0.13565971505265331</v>
+        <v>0.11340549208258169</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>0.12826000000000004</v>
+        <v>0.11083607271575113</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9823,54 +10313,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>3979</v>
+        <v>3977</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>11937</v>
+        <v>11931</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>35811</v>
+        <v>35793</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>12579</v>
+        <v>12496</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>37365</v>
+        <v>36999</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>516.21</v>
+        <v>440.03999999999996</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>5.1037443357977552E-2</v>
+        <v>4.5214468629961591E-2</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>4.3244533802462931E-2</v>
+        <v>3.6882071913502637E-2</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>1180.3499999999999</v>
+        <v>836.01</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>3.2960542849962297E-2</v>
+        <v>2.3356801609253207E-2</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>4.1589723002810164E-2</v>
+        <v>3.2595475553393372E-2</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9879,54 +10369,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>7533</v>
+        <v>8381</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>7533</v>
+        <v>8381</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>22599</v>
+        <v>25143</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>67797</v>
+        <v>75429</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>24997</v>
+        <v>24896</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>76499</v>
+        <v>76900</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>2148.0300000000002</v>
+        <v>-495.96000000000004</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>9.5931511781413792E-2</v>
+        <v>-9.9212724935733299E-3</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>9.5049780963759462E-2</v>
+        <v>-1.9725569741081018E-2</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>7937.01</v>
+        <v>702</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>0.11707022434621001</v>
+        <v>9.3067653024698719E-3</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>0.11375312095582946</v>
+        <v>1.9128738621586483E-2</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9954,35 +10444,35 @@
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>56400</v>
+        <v>56285</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>147800</v>
+        <v>147699</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>9363</v>
+        <v>9249.15</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>0.17601063829787233</v>
+        <v>0.17432708536910368</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>0.20147182234846039</v>
+        <v>0.19902201278161513</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>6903</v>
+        <v>6803.01</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>4.951262023110193E-2</v>
+        <v>4.8795429604286358E-2</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>5.6705006765899846E-2</v>
+        <v>5.6059959783072322E-2</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9991,54 +10481,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>19859</v>
+        <v>18247</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>19859</v>
+        <v>18247</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>59577</v>
+        <v>54741</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>178731</v>
+        <v>164223</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>58986</v>
+        <v>58250</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>168997</v>
+        <v>173300</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>-1180.8600000000001</v>
+        <v>2926.5</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>-1.0019326619875812E-2</v>
+        <v>6.0240343347639502E-2</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>-1.9820736190140492E-2</v>
+        <v>5.3460842878281359E-2</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>-11423.97</v>
+        <v>7344</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>-6.3917115665441351E-2</v>
+        <v>4.471967994738861E-2</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>-5.7598655597436599E-2</v>
+        <v>5.2377380265435702E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10047,54 +10537,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>13394</v>
+        <v>11494</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>13394</v>
+        <v>11494</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>40182</v>
+        <v>34482</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>120546</v>
+        <v>103446</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>38997</v>
+        <v>38898</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>98948</v>
+        <v>98971</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>-1574.97</v>
+        <v>4027.02</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>-3.0386952842526238E-2</v>
+        <v>0.11352768779885858</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>-3.9195908615798122E-2</v>
+        <v>0.1167861492952845</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-22587.48</v>
+        <v>-5464.71</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>-0.18737643721069136</v>
+        <v>-5.2826692187228116E-2</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>-0.21827626632170438</v>
+        <v>-4.5215265077648947E-2</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10103,54 +10593,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>27890</v>
+        <v>27998</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>27890</v>
+        <v>27998</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>83670</v>
+        <v>83994</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>251010</v>
+        <v>251982</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>92882</v>
+        <v>92989</v>
       </c>
       <c r="J11" s="102">
         <f t="shared" si="3"/>
-        <v>220000</v>
+        <v>1</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>8283.18</v>
+        <v>8065.11</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>9.9179604229021723E-2</v>
+        <v>9.6731871511684164E-2</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>9.8998207242739333E-2</v>
+        <v>9.6020072862347303E-2</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>-33210</v>
+        <v>-251981.01</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>-0.13230548583721763</v>
+        <v>-0.9999960711479392</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>-0.14095454545454555</v>
+        <v>-251981</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -10159,36 +10649,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>37592</v>
+        <v>37485</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>200</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>37592</v>
+        <v>37485</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>112776</v>
+        <v>112455</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>129600</v>
+        <v>119179</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>15528</v>
+        <v>5532.21</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>0.12981481481481483</v>
+        <v>5.6419335621208488E-2</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>0.13768886997233454</v>
+        <v>4.9194877951180473E-2</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -10200,36 +10690,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>100599</v>
+        <v>100764</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>100599</v>
+        <v>100764</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>301797</v>
+        <v>302292</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>335800</v>
+        <v>329898</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>30645</v>
+        <v>24307.02</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>0.10125967837998806</v>
+        <v>8.3680410308640818E-2</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>0.10154176482867623</v>
+        <v>8.0409074669524835E-2</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -10239,38 +10729,38 @@
       <c r="B14" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="3">
         <f>Raw!D22</f>
-        <v>108800</v>
+        <v>119646</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="73" t="str">
+      <c r="F14" s="73">
         <f t="shared" si="9"/>
-        <v>108800</v>
+        <v>119646</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>326400</v>
+        <v>358938</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>389886</v>
+        <v>376996</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>59587.14</v>
+        <v>14288.04</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>0.16283221249288249</v>
+        <v>4.7899712463792765E-2</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>0.18255863970588235</v>
+        <v>3.9806428965448074E-2</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -10282,36 +10772,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>92296</v>
+        <v>92180</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>92296</v>
+        <v>92180</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>276888</v>
+        <v>276540</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>319792</v>
+        <v>319437</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>39706.080000000002</v>
+        <v>39702.629999999997</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>0.13416220543353174</v>
+        <v>0.13428939039622834</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>0.14340123082257086</v>
+        <v>0.14356921241050119</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -10323,36 +10813,36 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>68997</v>
+        <v>76390</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>68997</v>
+        <v>76390</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>206991</v>
+        <v>229170</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>228995</v>
+        <v>224999</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>19714.05</v>
+        <v>-6420.99</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>9.6089434267123686E-2</v>
+        <v>-1.8537860168267306E-2</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>9.5241097439019082E-2</v>
+        <v>-2.8018457913339442E-2</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -10367,7 +10857,7 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>36994</v>
+        <v>36685</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -10376,7 +10866,7 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>31995</v>
+        <v>31663</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -10385,7 +10875,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>12579</v>
+        <v>12496</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -10394,7 +10884,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>24997</v>
+        <v>24896</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -10403,7 +10893,7 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>56400</v>
+        <v>56285</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -10412,7 +10902,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>58986</v>
+        <v>58250</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -10421,7 +10911,7 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>38997</v>
+        <v>38898</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -10430,7 +10920,7 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>92882</v>
+        <v>92989</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -10439,7 +10929,7 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>129600</v>
+        <v>119179</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -10448,7 +10938,7 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>335800</v>
+        <v>329898</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -10457,7 +10947,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>389886</v>
+        <v>376996</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -10466,7 +10956,7 @@
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>319792</v>
+        <v>319437</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10475,7 +10965,7 @@
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>228995</v>
+        <v>224999</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10487,16 +10977,16 @@
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>119996</v>
+        <v>119991</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>100000</v>
+        <v>100996</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -10505,7 +10995,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>37365</v>
+        <v>36999</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -10514,7 +11004,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>76499</v>
+        <v>76900</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -10523,7 +11013,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>147800</v>
+        <v>147699</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -10532,7 +11022,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>168997</v>
+        <v>173300</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -10541,7 +11031,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>98948</v>
+        <v>98971</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10550,7 +11040,7 @@
       </c>
       <c r="C39" s="22">
         <f>Raw!D68</f>
-        <v>220000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10621,355 +11111,560 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+      <c r="K2" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="K4" t="s">
+        <v>221</v>
+      </c>
+      <c r="L4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="K6" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+      <c r="K8" t="s">
+        <v>223</v>
+      </c>
+      <c r="L8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+      <c r="K10" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="K12" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="K14" t="s">
+        <v>225</v>
+      </c>
+      <c r="L14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="K16" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+      <c r="K18" t="s">
+        <v>211</v>
+      </c>
+      <c r="L18">
+        <v>37589</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="K20" t="s">
+        <v>227</v>
+      </c>
+      <c r="L20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>119646</v>
+      </c>
+      <c r="K22" t="s">
+        <v>228</v>
+      </c>
+      <c r="L22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="K34" t="s">
+        <v>233</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+      <c r="K36" t="s">
+        <v>209</v>
+      </c>
+      <c r="L36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="K38" t="s">
+        <v>213</v>
+      </c>
+      <c r="L38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="K40" t="s">
+        <v>214</v>
+      </c>
+      <c r="L40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="K42" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K44" t="s">
+        <v>215</v>
+      </c>
+      <c r="L44" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+      <c r="K46" t="s">
+        <v>235</v>
+      </c>
+      <c r="L46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+      <c r="K48" t="s">
+        <v>216</v>
+      </c>
+      <c r="L48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+      <c r="K50" t="s">
+        <v>217</v>
+      </c>
+      <c r="L50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+      <c r="K52" t="s">
+        <v>218</v>
+      </c>
+      <c r="L52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+      <c r="K54" t="s">
+        <v>236</v>
+      </c>
+      <c r="L54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D56">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>310</v>
+      </c>
+      <c r="K56" t="s">
+        <v>219</v>
+      </c>
+      <c r="L56" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="K58" t="s">
+        <v>237</v>
+      </c>
+      <c r="L58" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+      <c r="K60" t="s">
+        <v>238</v>
+      </c>
+      <c r="L60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
+        <v>312</v>
+      </c>
+      <c r="K62" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L62" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
+        <v>313</v>
+      </c>
+      <c r="K64" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="K66">
+        <v>99948</v>
+      </c>
+      <c r="L66" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D68">
-        <v>220000</v>
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="448">
   <si>
     <t>Ardonite</t>
   </si>
@@ -969,6 +969,405 @@
   </si>
   <si>
     <t>98971</t>
+  </si>
+  <si>
+    <t>16197</t>
+  </si>
+  <si>
+    <t>3974</t>
+  </si>
+  <si>
+    <t>8301</t>
+  </si>
+  <si>
+    <t>18438</t>
+  </si>
+  <si>
+    <t>11500</t>
+  </si>
+  <si>
+    <t>28872</t>
+  </si>
+  <si>
+    <t>37475</t>
+  </si>
+  <si>
+    <t>119639</t>
+  </si>
+  <si>
+    <t>76396</t>
+  </si>
+  <si>
+    <t>36690</t>
+  </si>
+  <si>
+    <t>12488</t>
+  </si>
+  <si>
+    <t>24798</t>
+  </si>
+  <si>
+    <t>49999</t>
+  </si>
+  <si>
+    <t>54483</t>
+  </si>
+  <si>
+    <t>38881</t>
+  </si>
+  <si>
+    <t>119178</t>
+  </si>
+  <si>
+    <t>329892</t>
+  </si>
+  <si>
+    <t>375999</t>
+  </si>
+  <si>
+    <t>319399</t>
+  </si>
+  <si>
+    <t>228998</t>
+  </si>
+  <si>
+    <t>119996</t>
+  </si>
+  <si>
+    <t>36500</t>
+  </si>
+  <si>
+    <t>76500</t>
+  </si>
+  <si>
+    <t>147697</t>
+  </si>
+  <si>
+    <t>173249</t>
+  </si>
+  <si>
+    <t>15997</t>
+  </si>
+  <si>
+    <t>3980</t>
+  </si>
+  <si>
+    <t>15490</t>
+  </si>
+  <si>
+    <t>18795</t>
+  </si>
+  <si>
+    <t>13291</t>
+  </si>
+  <si>
+    <t>29496</t>
+  </si>
+  <si>
+    <t>100490</t>
+  </si>
+  <si>
+    <t>119648</t>
+  </si>
+  <si>
+    <t>91998</t>
+  </si>
+  <si>
+    <t>76597</t>
+  </si>
+  <si>
+    <t>31988</t>
+  </si>
+  <si>
+    <t>12592</t>
+  </si>
+  <si>
+    <t>24998</t>
+  </si>
+  <si>
+    <t>58488</t>
+  </si>
+  <si>
+    <t>38799</t>
+  </si>
+  <si>
+    <t>133782</t>
+  </si>
+  <si>
+    <t>376899</t>
+  </si>
+  <si>
+    <t>319395</t>
+  </si>
+  <si>
+    <t>228999</t>
+  </si>
+  <si>
+    <t>100776</t>
+  </si>
+  <si>
+    <t>36499</t>
+  </si>
+  <si>
+    <t>76499</t>
+  </si>
+  <si>
+    <t>173246</t>
+  </si>
+  <si>
+    <t>98969</t>
+  </si>
+  <si>
+    <t>12417</t>
+  </si>
+  <si>
+    <t>9796</t>
+  </si>
+  <si>
+    <t>3679</t>
+  </si>
+  <si>
+    <t>8189</t>
+  </si>
+  <si>
+    <t>15484</t>
+  </si>
+  <si>
+    <t>18767</t>
+  </si>
+  <si>
+    <t>12988</t>
+  </si>
+  <si>
+    <t>29575</t>
+  </si>
+  <si>
+    <t>36996</t>
+  </si>
+  <si>
+    <t>99098</t>
+  </si>
+  <si>
+    <t>113192</t>
+  </si>
+  <si>
+    <t>89550</t>
+  </si>
+  <si>
+    <t>75999</t>
+  </si>
+  <si>
+    <t>37540</t>
+  </si>
+  <si>
+    <t>22995</t>
+  </si>
+  <si>
+    <t>49993</t>
+  </si>
+  <si>
+    <t>38198</t>
+  </si>
+  <si>
+    <t>133672</t>
+  </si>
+  <si>
+    <t>119221</t>
+  </si>
+  <si>
+    <t>329885</t>
+  </si>
+  <si>
+    <t>376778</t>
+  </si>
+  <si>
+    <t>319290</t>
+  </si>
+  <si>
+    <t>229939</t>
+  </si>
+  <si>
+    <t>114798</t>
+  </si>
+  <si>
+    <t>99899</t>
+  </si>
+  <si>
+    <t>37376</t>
+  </si>
+  <si>
+    <t>74992</t>
+  </si>
+  <si>
+    <t>144999</t>
+  </si>
+  <si>
+    <t>171192</t>
+  </si>
+  <si>
+    <t>98955</t>
+  </si>
+  <si>
+    <t>12400</t>
+  </si>
+  <si>
+    <t>3673</t>
+  </si>
+  <si>
+    <t>8100</t>
+  </si>
+  <si>
+    <t>18761</t>
+  </si>
+  <si>
+    <t>12890</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>99898</t>
+  </si>
+  <si>
+    <t>112900</t>
+  </si>
+  <si>
+    <t>89500</t>
+  </si>
+  <si>
+    <t>75988</t>
+  </si>
+  <si>
+    <t>37500</t>
+  </si>
+  <si>
+    <t>31973</t>
+  </si>
+  <si>
+    <t>12591</t>
+  </si>
+  <si>
+    <t>22900</t>
+  </si>
+  <si>
+    <t>58400</t>
+  </si>
+  <si>
+    <t>38100</t>
+  </si>
+  <si>
+    <t>119999</t>
+  </si>
+  <si>
+    <t>329886</t>
+  </si>
+  <si>
+    <t>376698</t>
+  </si>
+  <si>
+    <t>319200</t>
+  </si>
+  <si>
+    <t>114799</t>
+  </si>
+  <si>
+    <t>99890</t>
+  </si>
+  <si>
+    <t>37374</t>
+  </si>
+  <si>
+    <t>74967</t>
+  </si>
+  <si>
+    <t>171186</t>
+  </si>
+  <si>
+    <t>9500</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>5797</t>
+  </si>
+  <si>
+    <t>15479</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>37466</t>
+  </si>
+  <si>
+    <t>110983</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>89847</t>
+  </si>
+  <si>
+    <t>72000</t>
+  </si>
+  <si>
+    <t>37544</t>
+  </si>
+  <si>
+    <t>29998</t>
+  </si>
+  <si>
+    <t>12580</t>
+  </si>
+  <si>
+    <t>24986</t>
+  </si>
+  <si>
+    <t>56283</t>
+  </si>
+  <si>
+    <t>58428</t>
+  </si>
+  <si>
+    <t>38063</t>
+  </si>
+  <si>
+    <t>119978</t>
+  </si>
+  <si>
+    <t>329884</t>
+  </si>
+  <si>
+    <t>376690</t>
+  </si>
+  <si>
+    <t>319197</t>
+  </si>
+  <si>
+    <t>236883</t>
+  </si>
+  <si>
+    <t>99599</t>
+  </si>
+  <si>
+    <t>37391</t>
+  </si>
+  <si>
+    <t>74983</t>
+  </si>
+  <si>
+    <t>145000</t>
+  </si>
+  <si>
+    <t>171000</t>
+  </si>
+  <si>
+    <t>98954</t>
   </si>
 </sst>
 </file>
@@ -7657,6 +8056,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="M68:O68"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="M90:O90"/>
@@ -7673,17 +8083,6 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="M68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10137,7 +10536,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10152,7 +10551,7 @@
         <v>207</v>
       </c>
       <c r="F1" s="98">
-        <v>466000</v>
+        <v>56195</v>
       </c>
     </row>
     <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10199,56 +10598,56 @@
       <c r="B4" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="12">
         <f>Raw!D2</f>
-        <v>16251</v>
+        <v>11894</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="71">
         <f>C4</f>
-        <v>16251</v>
+        <v>11894</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>48753</v>
+        <v>35682</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>146259</v>
+        <v>107046</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>36685</v>
-      </c>
-      <c r="J4" s="101" t="str">
+        <v>37544</v>
+      </c>
+      <c r="J4" s="101">
         <f>C32</f>
-        <v>119991</v>
+        <v>115693</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>-12434.85</v>
+        <v>1486.56</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>-0.32896279133160689</v>
+        <v>4.959514170040491E-2</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>-0.25505815026767586</v>
+        <v>4.166134185303514E-2</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>-27467.91</v>
+        <v>7490.07</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>-0.18780321211002399</v>
+        <v>6.9970573398352109E-2</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>-0.21891641873140477</v>
+        <v>7.4740909130198041E-2</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10257,54 +10656,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>9978</v>
+        <v>9500</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>9978</v>
+        <v>9500</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>29934</v>
+        <v>28500</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>89802</v>
+        <v>85500</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>31663</v>
+        <v>29998</v>
       </c>
       <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>100996</v>
+        <v>99599</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>1412.37</v>
+        <v>1198.02</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>5.4606322837381205E-2</v>
+        <v>4.9936662444162949E-2</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>4.718280216476247E-2</v>
+        <v>4.2035789473684207E-2</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>10184.040000000001</v>
+        <v>13103.01</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>0.11340549208258169</v>
+        <v>0.15325157894736843</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>0.11083607271575113</v>
+        <v>0.141557646161106</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10313,54 +10712,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>3977</v>
+        <v>3500</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>3977</v>
+        <v>3500</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>11931</v>
+        <v>10500</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>35793</v>
+        <v>31500</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>12496</v>
+        <v>12580</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>36999</v>
+        <v>37391</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>440.03999999999996</v>
+        <v>1954.2</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>4.5214468629961591E-2</v>
+        <v>0.16534181240063595</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>3.6882071913502637E-2</v>
+        <v>0.18611428571428573</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>836.01</v>
+        <v>5517.09</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>2.3356801609253207E-2</v>
+        <v>0.17514571428571429</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>3.2595475553393372E-2</v>
+        <v>0.15755128239415905</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10369,54 +10768,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>8381</v>
+        <v>5797</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>8381</v>
+        <v>5797</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>25143</v>
+        <v>17391</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>75429</v>
+        <v>52173</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>24896</v>
+        <v>24986</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>76900</v>
+        <v>74983</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>-495.96000000000004</v>
+        <v>7345.14</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>-9.9212724935733299E-3</v>
+        <v>0.30397022332506207</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>-1.9725569741081018E-2</v>
+        <v>0.4223529411764706</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>702</v>
+        <v>22060.17</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>9.3067653024698719E-3</v>
+        <v>0.42282732447817833</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>1.9128738621586483E-2</v>
+        <v>0.3042022858514597</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10425,54 +10824,54 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>15491</v>
+        <v>15479</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>15491</v>
+        <v>15479</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>46473</v>
+        <v>46437</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>139419</v>
+        <v>139311</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>56285</v>
+        <v>56283</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>147699</v>
+        <v>145000</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>9249.15</v>
+        <v>9283.17</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>0.17432708536910368</v>
+        <v>0.1749373700762219</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>0.19902201278161513</v>
+        <v>0.19990890884424059</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>6803.01</v>
+        <v>4239</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>4.8795429604286358E-2</v>
+        <v>3.0428322243038958E-2</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>5.6059959783072322E-2</v>
+        <v>3.9234482758620737E-2</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10481,54 +10880,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>18247</v>
+        <v>15000</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>18247</v>
+        <v>15000</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>54741</v>
+        <v>45000</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>164223</v>
+        <v>135000</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>58250</v>
+        <v>58428</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>173300</v>
+        <v>171000</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>2926.5</v>
+        <v>12843.72</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>6.0240343347639502E-2</v>
+        <v>0.2298213185459026</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>5.3460842878281359E-2</v>
+        <v>0.285416</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>7344</v>
+        <v>34290</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>4.471967994738861E-2</v>
+        <v>0.254</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>5.2377380265435702E-2</v>
+        <v>0.21052631578947367</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10537,54 +10936,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>11494</v>
+        <v>10000</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>11494</v>
+        <v>10000</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>34482</v>
+        <v>30000</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>103446</v>
+        <v>90000</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>38898</v>
+        <v>38063</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>98971</v>
+        <v>98954</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>4027.02</v>
+        <v>7682.37</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>0.11352768779885858</v>
+        <v>0.21183301368783336</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>0.1167861492952845</v>
+        <v>0.256079</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-5464.71</v>
+        <v>7964.46</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>-5.2826692187228116E-2</v>
+        <v>8.8494000000000003E-2</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>-4.5215265077648947E-2</v>
+        <v>9.0486488671503884E-2</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10593,54 +10992,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>27998</v>
+        <v>30000</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>27998</v>
+        <v>30000</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>83994</v>
+        <v>90000</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>251982</v>
+        <v>270000</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>92989</v>
+        <v>119978</v>
       </c>
       <c r="J11" s="102">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>39987</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>8065.11</v>
+        <v>28778.22</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>9.6731871511684164E-2</v>
+        <v>0.24986247478704426</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>9.6020072862347303E-2</v>
+        <v>0.31975799999999999</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>-251981.01</v>
+        <v>-230412.87</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>-0.9999960711479392</v>
+        <v>-0.85338099999999995</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>-251981</v>
+        <v>-5.7521944632005404</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -10649,36 +11048,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>37485</v>
+        <v>37466</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>200</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>37485</v>
+        <v>37466</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>112455</v>
+        <v>112398</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>119179</v>
+        <v>119221</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>5532.21</v>
+        <v>5630.79</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>5.6419335621208488E-2</v>
+        <v>5.7229850445810748E-2</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>4.9194877951180473E-2</v>
+        <v>5.0096887844979447E-2</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -10690,36 +11089,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>100764</v>
+        <v>110983</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>100764</v>
+        <v>110983</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>302292</v>
+        <v>332949</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>329898</v>
+        <v>329884</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>24307.02</v>
+        <v>-6363.84</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>8.3680410308640818E-2</v>
+        <v>-9.2911447660388724E-3</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>8.0409074669524835E-2</v>
+        <v>-1.9113557932295938E-2</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -10729,38 +11128,38 @@
       <c r="B14" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>119646</v>
+        <v>100000</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>119646</v>
+        <v>100000</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>358938</v>
+        <v>300000</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>376996</v>
+        <v>376690</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>14288.04</v>
+        <v>72923.100000000006</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>4.7899712463792765E-2</v>
+        <v>0.20358915819374024</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>3.9806428965448074E-2</v>
+        <v>0.24307700000000002</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -10772,36 +11171,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>92180</v>
+        <v>89847</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>92180</v>
+        <v>89847</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>276540</v>
+        <v>269541</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>319437</v>
+        <v>319197</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>39702.629999999997</v>
+        <v>46464.03</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>0.13428939039622834</v>
+        <v>0.15556537185499864</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>0.14356921241050119</v>
+        <v>0.172382049484123</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -10813,36 +11212,36 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>76390</v>
+        <v>72000</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>76390</v>
+        <v>72000</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>229170</v>
+        <v>216000</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>224999</v>
+        <v>236883</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>-6420.99</v>
+        <v>18514.169999999998</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>-1.8537860168267306E-2</v>
+        <v>8.8157444814528696E-2</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>-2.8018457913339442E-2</v>
+        <v>8.5713749999999991E-2</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -10857,7 +11256,7 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>36685</v>
+        <v>37544</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -10866,7 +11265,7 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>31663</v>
+        <v>29998</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -10875,7 +11274,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>12496</v>
+        <v>12580</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -10884,7 +11283,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>24896</v>
+        <v>24986</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -10893,7 +11292,7 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>56285</v>
+        <v>56283</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -10902,7 +11301,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>58250</v>
+        <v>58428</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -10911,7 +11310,7 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>38898</v>
+        <v>38063</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -10920,7 +11319,7 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>92989</v>
+        <v>119978</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -10929,7 +11328,7 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>119179</v>
+        <v>119221</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -10938,7 +11337,7 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>329898</v>
+        <v>329884</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -10947,7 +11346,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>376996</v>
+        <v>376690</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -10956,7 +11355,7 @@
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>319437</v>
+        <v>319197</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10965,7 +11364,7 @@
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>224999</v>
+        <v>236883</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10975,9 +11374,9 @@
       <c r="B32" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="20" t="str">
+      <c r="C32" s="20">
         <f>Raw!D54</f>
-        <v>119991</v>
+        <v>115693</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -10986,7 +11385,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>100996</v>
+        <v>99599</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -10995,7 +11394,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>36999</v>
+        <v>37391</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -11004,7 +11403,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>76900</v>
+        <v>74983</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -11013,7 +11412,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>147699</v>
+        <v>145000</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -11022,7 +11421,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>173300</v>
+        <v>171000</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -11031,7 +11430,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>98971</v>
+        <v>98954</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11040,7 +11439,7 @@
       </c>
       <c r="C39" s="22">
         <f>Raw!D68</f>
-        <v>1</v>
+        <v>39987</v>
       </c>
     </row>
   </sheetData>
@@ -11111,26 +11510,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" customWidth="1"/>
+    <col min="11" max="17" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>286</v>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>11894</v>
       </c>
       <c r="K2" t="s">
         <v>220</v>
@@ -11138,15 +11537,30 @@
       <c r="L2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>286</v>
+      </c>
+      <c r="N2" t="s">
+        <v>315</v>
+      </c>
+      <c r="O2" t="s">
+        <v>340</v>
+      </c>
+      <c r="P2" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>287</v>
+        <v>419</v>
       </c>
       <c r="K4" t="s">
         <v>221</v>
@@ -11154,15 +11568,30 @@
       <c r="L4" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>287</v>
+      </c>
+      <c r="N4">
+        <v>9900</v>
+      </c>
+      <c r="O4" t="s">
+        <v>287</v>
+      </c>
+      <c r="P4" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>288</v>
+        <v>420</v>
       </c>
       <c r="K6" t="s">
         <v>222</v>
@@ -11170,15 +11599,30 @@
       <c r="L6" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>288</v>
+      </c>
+      <c r="N6" t="s">
+        <v>316</v>
+      </c>
+      <c r="O6" t="s">
+        <v>341</v>
+      </c>
+      <c r="P6" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>289</v>
+        <v>421</v>
       </c>
       <c r="K8" t="s">
         <v>223</v>
@@ -11186,15 +11630,30 @@
       <c r="L8" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>289</v>
+      </c>
+      <c r="N8" t="s">
+        <v>317</v>
+      </c>
+      <c r="O8" t="s">
+        <v>317</v>
+      </c>
+      <c r="P8" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>422</v>
       </c>
       <c r="K10" t="s">
         <v>210</v>
@@ -11202,15 +11661,30 @@
       <c r="L10" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>244</v>
+      </c>
+      <c r="N10" t="s">
+        <v>244</v>
+      </c>
+      <c r="O10" t="s">
+        <v>342</v>
+      </c>
+      <c r="P10" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>290</v>
+        <v>423</v>
       </c>
       <c r="K12" t="s">
         <v>224</v>
@@ -11218,15 +11692,30 @@
       <c r="L12" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>290</v>
+      </c>
+      <c r="N12" t="s">
+        <v>318</v>
+      </c>
+      <c r="O12" t="s">
+        <v>343</v>
+      </c>
+      <c r="P12" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>291</v>
+        <v>424</v>
       </c>
       <c r="K14" t="s">
         <v>225</v>
@@ -11234,15 +11723,30 @@
       <c r="L14" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>291</v>
+      </c>
+      <c r="N14" t="s">
+        <v>319</v>
+      </c>
+      <c r="O14" t="s">
+        <v>344</v>
+      </c>
+      <c r="P14" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>292</v>
+        <v>399</v>
       </c>
       <c r="K16" t="s">
         <v>226</v>
@@ -11250,15 +11754,30 @@
       <c r="L16" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>292</v>
+      </c>
+      <c r="N16" t="s">
+        <v>320</v>
+      </c>
+      <c r="O16" t="s">
+        <v>345</v>
+      </c>
+      <c r="P16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>293</v>
+        <v>425</v>
       </c>
       <c r="K18" t="s">
         <v>211</v>
@@ -11266,15 +11785,30 @@
       <c r="L18">
         <v>37589</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>293</v>
+      </c>
+      <c r="N18" t="s">
+        <v>321</v>
+      </c>
+      <c r="O18" t="s">
+        <v>321</v>
+      </c>
+      <c r="P18" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>294</v>
+        <v>426</v>
       </c>
       <c r="K20" t="s">
         <v>227</v>
@@ -11282,15 +11816,30 @@
       <c r="L20" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>294</v>
+      </c>
+      <c r="N20" t="s">
+        <v>294</v>
+      </c>
+      <c r="O20" t="s">
+        <v>346</v>
+      </c>
+      <c r="P20" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>119646</v>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>427</v>
       </c>
       <c r="K22" t="s">
         <v>228</v>
@@ -11298,15 +11847,30 @@
       <c r="L22" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>119646</v>
+      </c>
+      <c r="N22" t="s">
+        <v>322</v>
+      </c>
+      <c r="O22" t="s">
+        <v>347</v>
+      </c>
+      <c r="P22" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>295</v>
+        <v>428</v>
       </c>
       <c r="K24" t="s">
         <v>229</v>
@@ -11314,15 +11878,30 @@
       <c r="L24" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>295</v>
+      </c>
+      <c r="N24" t="s">
+        <v>295</v>
+      </c>
+      <c r="O24" t="s">
+        <v>348</v>
+      </c>
+      <c r="P24" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>296</v>
+        <v>429</v>
       </c>
       <c r="K26" t="s">
         <v>230</v>
@@ -11330,15 +11909,30 @@
       <c r="L26" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>296</v>
+      </c>
+      <c r="N26" t="s">
+        <v>323</v>
+      </c>
+      <c r="O26" t="s">
+        <v>349</v>
+      </c>
+      <c r="P26" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>297</v>
+        <v>430</v>
       </c>
       <c r="K28" t="s">
         <v>231</v>
@@ -11346,15 +11940,30 @@
       <c r="L28" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>297</v>
+      </c>
+      <c r="N28" t="s">
+        <v>324</v>
+      </c>
+      <c r="O28" t="s">
+        <v>311</v>
+      </c>
+      <c r="P28" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>298</v>
+        <v>431</v>
       </c>
       <c r="K30" t="s">
         <v>232</v>
@@ -11362,15 +11971,30 @@
       <c r="L30" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>298</v>
+      </c>
+      <c r="N30">
+        <v>31663</v>
+      </c>
+      <c r="O30" t="s">
+        <v>350</v>
+      </c>
+      <c r="P30" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>254</v>
+        <v>432</v>
       </c>
       <c r="K32" t="s">
         <v>212</v>
@@ -11378,15 +12002,30 @@
       <c r="L32" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>254</v>
+      </c>
+      <c r="N32" t="s">
+        <v>325</v>
+      </c>
+      <c r="O32" t="s">
+        <v>351</v>
+      </c>
+      <c r="P32" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>299</v>
+        <v>433</v>
       </c>
       <c r="K34" t="s">
         <v>233</v>
@@ -11394,15 +12033,30 @@
       <c r="L34" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>299</v>
+      </c>
+      <c r="N34" t="s">
+        <v>326</v>
+      </c>
+      <c r="O34" t="s">
+        <v>352</v>
+      </c>
+      <c r="P34" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>300</v>
+        <v>434</v>
       </c>
       <c r="K36" t="s">
         <v>209</v>
@@ -11410,15 +12064,30 @@
       <c r="L36" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>300</v>
+      </c>
+      <c r="N36" t="s">
+        <v>327</v>
+      </c>
+      <c r="O36" t="s">
+        <v>327</v>
+      </c>
+      <c r="P36" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>301</v>
+        <v>435</v>
       </c>
       <c r="K38" t="s">
         <v>213</v>
@@ -11426,15 +12095,30 @@
       <c r="L38" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>301</v>
+      </c>
+      <c r="N38" t="s">
+        <v>328</v>
+      </c>
+      <c r="O38" t="s">
+        <v>353</v>
+      </c>
+      <c r="P38">
+        <v>57998</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>302</v>
+        <v>436</v>
       </c>
       <c r="K40" t="s">
         <v>214</v>
@@ -11442,15 +12126,30 @@
       <c r="L40" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>302</v>
+      </c>
+      <c r="N40" t="s">
+        <v>329</v>
+      </c>
+      <c r="O40" t="s">
+        <v>354</v>
+      </c>
+      <c r="P40" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>303</v>
+        <v>437</v>
       </c>
       <c r="K42" t="s">
         <v>234</v>
@@ -11458,15 +12157,30 @@
       <c r="L42" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>303</v>
+      </c>
+      <c r="N42">
+        <v>110000</v>
+      </c>
+      <c r="O42" t="s">
+        <v>355</v>
+      </c>
+      <c r="P42" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>304</v>
+        <v>382</v>
       </c>
       <c r="K44" t="s">
         <v>215</v>
@@ -11474,15 +12188,30 @@
       <c r="L44" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="s">
+        <v>304</v>
+      </c>
+      <c r="N44" t="s">
+        <v>330</v>
+      </c>
+      <c r="O44" t="s">
+        <v>304</v>
+      </c>
+      <c r="P44" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>305</v>
+        <v>438</v>
       </c>
       <c r="K46" t="s">
         <v>235</v>
@@ -11490,15 +12219,30 @@
       <c r="L46" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>305</v>
+      </c>
+      <c r="N46" t="s">
+        <v>331</v>
+      </c>
+      <c r="O46" t="s">
+        <v>331</v>
+      </c>
+      <c r="P46" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>306</v>
+        <v>439</v>
       </c>
       <c r="K48" t="s">
         <v>216</v>
@@ -11506,15 +12250,30 @@
       <c r="L48" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>306</v>
+      </c>
+      <c r="N48" t="s">
+        <v>332</v>
+      </c>
+      <c r="O48" t="s">
+        <v>356</v>
+      </c>
+      <c r="P48" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>307</v>
+        <v>440</v>
       </c>
       <c r="K50" t="s">
         <v>217</v>
@@ -11522,15 +12281,30 @@
       <c r="L50" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>307</v>
+      </c>
+      <c r="N50" t="s">
+        <v>333</v>
+      </c>
+      <c r="O50" t="s">
+        <v>357</v>
+      </c>
+      <c r="P50" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>308</v>
+        <v>441</v>
       </c>
       <c r="K52" t="s">
         <v>218</v>
@@ -11538,15 +12312,30 @@
       <c r="L52" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>308</v>
+      </c>
+      <c r="N52" t="s">
+        <v>334</v>
+      </c>
+      <c r="O52" t="s">
+        <v>358</v>
+      </c>
+      <c r="P52" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>309</v>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>115693</v>
       </c>
       <c r="K54" t="s">
         <v>236</v>
@@ -11554,15 +12343,30 @@
       <c r="L54" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>309</v>
+      </c>
+      <c r="N54" t="s">
+        <v>335</v>
+      </c>
+      <c r="O54" t="s">
+        <v>335</v>
+      </c>
+      <c r="P54" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>310</v>
+        <v>442</v>
       </c>
       <c r="K56" t="s">
         <v>219</v>
@@ -11570,15 +12374,30 @@
       <c r="L56" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56" t="s">
+        <v>310</v>
+      </c>
+      <c r="N56">
+        <v>100992</v>
+      </c>
+      <c r="O56" t="s">
+        <v>359</v>
+      </c>
+      <c r="P56" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>311</v>
+        <v>443</v>
       </c>
       <c r="K58" t="s">
         <v>237</v>
@@ -11586,15 +12405,30 @@
       <c r="L58" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58" t="s">
+        <v>311</v>
+      </c>
+      <c r="N58" t="s">
+        <v>336</v>
+      </c>
+      <c r="O58" t="s">
+        <v>360</v>
+      </c>
+      <c r="P58" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>268</v>
+        <v>444</v>
       </c>
       <c r="K60" t="s">
         <v>238</v>
@@ -11602,15 +12436,30 @@
       <c r="L60" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60" t="s">
+        <v>268</v>
+      </c>
+      <c r="N60" t="s">
+        <v>337</v>
+      </c>
+      <c r="O60" t="s">
+        <v>361</v>
+      </c>
+      <c r="P60" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>312</v>
+        <v>445</v>
       </c>
       <c r="K62" t="s">
         <v>208</v>
@@ -11618,15 +12467,30 @@
       <c r="L62" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62" t="s">
+        <v>312</v>
+      </c>
+      <c r="N62" t="s">
+        <v>338</v>
+      </c>
+      <c r="O62" t="s">
+        <v>338</v>
+      </c>
+      <c r="P62" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>313</v>
+        <v>446</v>
       </c>
       <c r="K64" t="s">
         <v>239</v>
@@ -11634,15 +12498,30 @@
       <c r="L64" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64" t="s">
+        <v>313</v>
+      </c>
+      <c r="N64" t="s">
+        <v>339</v>
+      </c>
+      <c r="O64" t="s">
+        <v>362</v>
+      </c>
+      <c r="P64" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>314</v>
+        <v>447</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -11650,21 +12529,51 @@
       <c r="L66" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66" t="s">
+        <v>314</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>363</v>
+      </c>
+      <c r="P66" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D68">
-        <v>1</v>
+        <v>39987</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68" t="s">
         <v>272</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>288999</v>
+      </c>
+      <c r="P68">
+        <v>299999</v>
+      </c>
+      <c r="Q68">
+        <v>299999</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="545">
   <si>
     <t>Ardonite</t>
   </si>
@@ -1368,12 +1368,306 @@
   </si>
   <si>
     <t>98954</t>
+  </si>
+  <si>
+    <t>11884</t>
+  </si>
+  <si>
+    <t>9893</t>
+  </si>
+  <si>
+    <t>3984</t>
+  </si>
+  <si>
+    <t>7694</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>11775</t>
+  </si>
+  <si>
+    <t>31990</t>
+  </si>
+  <si>
+    <t>37467</t>
+  </si>
+  <si>
+    <t>111099</t>
+  </si>
+  <si>
+    <t>105539</t>
+  </si>
+  <si>
+    <t>75995</t>
+  </si>
+  <si>
+    <t>37548</t>
+  </si>
+  <si>
+    <t>32000</t>
+  </si>
+  <si>
+    <t>24984</t>
+  </si>
+  <si>
+    <t>56281</t>
+  </si>
+  <si>
+    <t>58423</t>
+  </si>
+  <si>
+    <t>119974</t>
+  </si>
+  <si>
+    <t>119220</t>
+  </si>
+  <si>
+    <t>329887</t>
+  </si>
+  <si>
+    <t>376687</t>
+  </si>
+  <si>
+    <t>319100</t>
+  </si>
+  <si>
+    <t>236881</t>
+  </si>
+  <si>
+    <t>115697</t>
+  </si>
+  <si>
+    <t>99594</t>
+  </si>
+  <si>
+    <t>54885</t>
+  </si>
+  <si>
+    <t>74848</t>
+  </si>
+  <si>
+    <t>144000</t>
+  </si>
+  <si>
+    <t>171785</t>
+  </si>
+  <si>
+    <t>99978</t>
+  </si>
+  <si>
+    <t>9994</t>
+  </si>
+  <si>
+    <t>3995</t>
+  </si>
+  <si>
+    <t>6996</t>
+  </si>
+  <si>
+    <t>15470</t>
+  </si>
+  <si>
+    <t>18300</t>
+  </si>
+  <si>
+    <t>9896</t>
+  </si>
+  <si>
+    <t>34969</t>
+  </si>
+  <si>
+    <t>37394</t>
+  </si>
+  <si>
+    <t>114938</t>
+  </si>
+  <si>
+    <t>105552</t>
+  </si>
+  <si>
+    <t>89391</t>
+  </si>
+  <si>
+    <t>76599</t>
+  </si>
+  <si>
+    <t>39525</t>
+  </si>
+  <si>
+    <t>31216</t>
+  </si>
+  <si>
+    <t>12500</t>
+  </si>
+  <si>
+    <t>24393</t>
+  </si>
+  <si>
+    <t>56277</t>
+  </si>
+  <si>
+    <t>57819</t>
+  </si>
+  <si>
+    <t>35997</t>
+  </si>
+  <si>
+    <t>119979</t>
+  </si>
+  <si>
+    <t>119217</t>
+  </si>
+  <si>
+    <t>319996</t>
+  </si>
+  <si>
+    <t>376663</t>
+  </si>
+  <si>
+    <t>279899</t>
+  </si>
+  <si>
+    <t>115798</t>
+  </si>
+  <si>
+    <t>99388</t>
+  </si>
+  <si>
+    <t>51968</t>
+  </si>
+  <si>
+    <t>72998</t>
+  </si>
+  <si>
+    <t>169847</t>
+  </si>
+  <si>
+    <t>99000</t>
+  </si>
+  <si>
+    <t>419986</t>
+  </si>
+  <si>
+    <t>Kolizetons</t>
+  </si>
+  <si>
+    <t>Croquette</t>
+  </si>
+  <si>
+    <t>Brasillant</t>
+  </si>
+  <si>
+    <t>bworky</t>
+  </si>
+  <si>
+    <t>10895</t>
+  </si>
+  <si>
+    <t>8897</t>
+  </si>
+  <si>
+    <t>3998</t>
+  </si>
+  <si>
+    <t>7890</t>
+  </si>
+  <si>
+    <t>14995</t>
+  </si>
+  <si>
+    <t>17898</t>
+  </si>
+  <si>
+    <t>9585</t>
+  </si>
+  <si>
+    <t>40995</t>
+  </si>
+  <si>
+    <t>36988</t>
+  </si>
+  <si>
+    <t>113996</t>
+  </si>
+  <si>
+    <t>110977</t>
+  </si>
+  <si>
+    <t>92557</t>
+  </si>
+  <si>
+    <t>65998</t>
+  </si>
+  <si>
+    <t>38995</t>
+  </si>
+  <si>
+    <t>31993</t>
+  </si>
+  <si>
+    <t>12781</t>
+  </si>
+  <si>
+    <t>24340</t>
+  </si>
+  <si>
+    <t>56265</t>
+  </si>
+  <si>
+    <t>55998</t>
+  </si>
+  <si>
+    <t>35200</t>
+  </si>
+  <si>
+    <t>133762</t>
+  </si>
+  <si>
+    <t>326994</t>
+  </si>
+  <si>
+    <t>374988</t>
+  </si>
+  <si>
+    <t>279793</t>
+  </si>
+  <si>
+    <t>235995</t>
+  </si>
+  <si>
+    <t>111105</t>
+  </si>
+  <si>
+    <t>99298</t>
+  </si>
+  <si>
+    <t>50645</t>
+  </si>
+  <si>
+    <t>69998</t>
+  </si>
+  <si>
+    <t>143997</t>
+  </si>
+  <si>
+    <t>169831</t>
+  </si>
+  <si>
+    <t>88485</t>
+  </si>
+  <si>
+    <t>399996</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2164,7 +2458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2503,6 +2797,17 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4098,15 +4403,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J10"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4342,8 +4648,70 @@
       </c>
       <c r="J10" s="1"/>
     </row>
+    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="118"/>
+      <c r="C13" s="119" t="s">
+        <v>508</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>509</v>
+      </c>
+      <c r="E13" s="119" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="119" t="s">
+        <v>510</v>
+      </c>
+      <c r="G13" s="120" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="121" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="117">
+        <v>309999</v>
+      </c>
+      <c r="D14" s="116">
+        <v>27999</v>
+      </c>
+      <c r="E14" s="116">
+        <v>3200</v>
+      </c>
+      <c r="F14" s="116">
+        <v>309999</v>
+      </c>
+      <c r="G14" s="122">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="124"/>
+      <c r="D15" s="125">
+        <f>D14-(C14/10)</f>
+        <v>-3000.9000000000015</v>
+      </c>
+      <c r="E15" s="125">
+        <f>E14-(C14/100)</f>
+        <v>100.01000000000022</v>
+      </c>
+      <c r="F15" s="125">
+        <f>F14-C14</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="126">
+        <f>G14-(4*C14+10000)</f>
+        <v>150004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4559,29 +4927,29 @@
         <f>Comparatifs!B27</f>
         <v>0</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128"/>
       <c r="G2" s="8">
         <f>Comparatifs!B28+B10</f>
         <v>0</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="L2" s="8">
         <f>Comparatifs!B29+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="116" t="s">
+      <c r="M2" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="128"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -4948,29 +5316,29 @@
         <f>Comparatifs!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="116" t="s">
+      <c r="C13" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="117"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
       <c r="G13" s="8">
         <f>Comparatifs!B14+B21</f>
         <v>0</v>
       </c>
-      <c r="H13" s="116" t="s">
+      <c r="H13" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
       <c r="L13" s="8">
         <f>Comparatifs!B13+G20</f>
         <v>0</v>
       </c>
-      <c r="M13" s="116" t="s">
+      <c r="M13" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="116"/>
-      <c r="O13" s="117"/>
+      <c r="N13" s="127"/>
+      <c r="O13" s="128"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
@@ -5337,29 +5705,29 @@
         <f>Comparatifs!B15</f>
         <v>5</v>
       </c>
-      <c r="C24" s="116" t="s">
+      <c r="C24" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="117"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
       <c r="G24" s="8">
         <f>Comparatifs!B16+B32</f>
         <v>5</v>
       </c>
-      <c r="H24" s="116" t="s">
+      <c r="H24" s="127" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="116"/>
-      <c r="J24" s="117"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="128"/>
       <c r="L24" s="8">
         <f>Comparatifs!B17+G31</f>
         <v>5</v>
       </c>
-      <c r="M24" s="116" t="s">
+      <c r="M24" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="116"/>
-      <c r="O24" s="117"/>
+      <c r="N24" s="127"/>
+      <c r="O24" s="128"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -5726,29 +6094,29 @@
         <f>Comparatifs!B18</f>
         <v>0</v>
       </c>
-      <c r="C35" s="116" t="s">
+      <c r="C35" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="117"/>
+      <c r="D35" s="127"/>
+      <c r="E35" s="128"/>
       <c r="G35" s="8">
         <f>Comparatifs!B19+B43</f>
         <v>0</v>
       </c>
-      <c r="H35" s="116" t="s">
+      <c r="H35" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="116"/>
-      <c r="J35" s="117"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="128"/>
       <c r="L35" s="8">
         <f>Comparatifs!B20+G42</f>
         <v>0</v>
       </c>
-      <c r="M35" s="116" t="s">
+      <c r="M35" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="116"/>
-      <c r="O35" s="117"/>
+      <c r="N35" s="127"/>
+      <c r="O35" s="128"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
@@ -6115,29 +6483,29 @@
         <f>Comparatifs!B21</f>
         <v>0</v>
       </c>
-      <c r="C46" s="116" t="s">
+      <c r="C46" s="127" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="116"/>
-      <c r="E46" s="117"/>
+      <c r="D46" s="127"/>
+      <c r="E46" s="128"/>
       <c r="G46" s="8">
         <f>Comparatifs!B22+B54</f>
         <v>0</v>
       </c>
-      <c r="H46" s="116" t="s">
+      <c r="H46" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="116"/>
-      <c r="J46" s="117"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="128"/>
       <c r="L46" s="8">
         <f>Comparatifs!B23+G53</f>
         <v>0</v>
       </c>
-      <c r="M46" s="116" t="s">
+      <c r="M46" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="116"/>
-      <c r="O46" s="117"/>
+      <c r="N46" s="127"/>
+      <c r="O46" s="128"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
@@ -6504,29 +6872,29 @@
         <f>Comparatifs!B24</f>
         <v>5</v>
       </c>
-      <c r="C57" s="116" t="s">
+      <c r="C57" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="116"/>
-      <c r="E57" s="117"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="128"/>
       <c r="G57" s="8">
         <f>Comparatifs!B25+B65</f>
         <v>5</v>
       </c>
-      <c r="H57" s="116" t="s">
+      <c r="H57" s="127" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="116"/>
-      <c r="J57" s="117"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="128"/>
       <c r="L57" s="8">
         <f>Comparatifs!B26+G64</f>
         <v>5</v>
       </c>
-      <c r="M57" s="116" t="s">
+      <c r="M57" s="127" t="s">
         <v>61</v>
       </c>
-      <c r="N57" s="116"/>
-      <c r="O57" s="117"/>
+      <c r="N57" s="127"/>
+      <c r="O57" s="128"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -6893,29 +7261,29 @@
         <f>Comparatifs!B30</f>
         <v>5</v>
       </c>
-      <c r="C68" s="116" t="s">
+      <c r="C68" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="116"/>
-      <c r="E68" s="117"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="128"/>
       <c r="G68" s="8">
         <f>Comparatifs!B31+B76</f>
         <v>5</v>
       </c>
-      <c r="H68" s="116" t="s">
+      <c r="H68" s="127" t="s">
         <v>104</v>
       </c>
-      <c r="I68" s="116"/>
-      <c r="J68" s="117"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="128"/>
       <c r="L68" s="8">
         <f>Comparatifs!B32+G75</f>
         <v>5</v>
       </c>
-      <c r="M68" s="116" t="s">
+      <c r="M68" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="N68" s="116"/>
-      <c r="O68" s="117"/>
+      <c r="N68" s="127"/>
+      <c r="O68" s="128"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
@@ -7282,29 +7650,29 @@
         <f>Comparatifs!B33</f>
         <v>5</v>
       </c>
-      <c r="C79" s="116" t="s">
+      <c r="C79" s="127" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="116"/>
-      <c r="E79" s="117"/>
+      <c r="D79" s="127"/>
+      <c r="E79" s="128"/>
       <c r="G79" s="8">
         <f>Comparatifs!B34+B87</f>
         <v>5</v>
       </c>
-      <c r="H79" s="116" t="s">
+      <c r="H79" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="I79" s="116"/>
-      <c r="J79" s="117"/>
+      <c r="I79" s="127"/>
+      <c r="J79" s="128"/>
       <c r="L79" s="8">
         <f>Comparatifs!B35+G86</f>
         <v>5</v>
       </c>
-      <c r="M79" s="116" t="s">
+      <c r="M79" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="N79" s="116"/>
-      <c r="O79" s="117"/>
+      <c r="N79" s="127"/>
+      <c r="O79" s="128"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
@@ -7671,29 +8039,29 @@
         <f>Comparatifs!B36</f>
         <v>0</v>
       </c>
-      <c r="C90" s="116" t="s">
+      <c r="C90" s="127" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="116"/>
-      <c r="E90" s="117"/>
+      <c r="D90" s="127"/>
+      <c r="E90" s="128"/>
       <c r="G90" s="8">
         <f>Comparatifs!B37+B98</f>
         <v>0</v>
       </c>
-      <c r="H90" s="116" t="s">
+      <c r="H90" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="116"/>
-      <c r="J90" s="117"/>
+      <c r="I90" s="127"/>
+      <c r="J90" s="128"/>
       <c r="L90" s="8">
         <f>Comparatifs!B38+G97</f>
         <v>0</v>
       </c>
-      <c r="M90" s="116" t="s">
+      <c r="M90" s="127" t="s">
         <v>125</v>
       </c>
-      <c r="N90" s="116"/>
-      <c r="O90" s="117"/>
+      <c r="N90" s="127"/>
+      <c r="O90" s="128"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
@@ -8156,16 +8524,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -9388,25 +9756,25 @@
         <f>'Comparatifs Idoles'!B12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="116" t="s">
+      <c r="C2" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="128"/>
       <c r="G2" s="8">
         <f>'Comparatifs Idoles'!B13</f>
         <v>0</v>
       </c>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="117"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
+      <c r="J2" s="128"/>
       <c r="L2" s="8">
         <f>Comparatifs!B13+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="117"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="128"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -9730,16 +10098,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="118" t="s">
+      <c r="B8" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="119"/>
-      <c r="D8" s="119"/>
-      <c r="E8" s="119"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="119"/>
-      <c r="H8" s="119"/>
-      <c r="I8" s="120"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="130"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="131"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -9956,11 +10324,11 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="116" t="s">
+      <c r="C9" s="127" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="116"/>
-      <c r="E9" s="121"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="132"/>
       <c r="F9" s="48"/>
       <c r="H9" t="s">
         <v>8</v>
@@ -10165,11 +10533,11 @@
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="C20" s="116" t="s">
+      <c r="C20" s="127" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="121"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="132"/>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -10536,7 +10904,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10598,56 +10966,56 @@
       <c r="B4" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>11894</v>
+        <v>10895</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>11894</v>
+        <v>10895</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>35682</v>
+        <v>32685</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>107046</v>
+        <v>98055</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>37544</v>
-      </c>
-      <c r="J4" s="101">
+        <v>38995</v>
+      </c>
+      <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>115693</v>
+        <v>111105</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>1486.56</v>
+        <v>5920.05</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>4.959514170040491E-2</v>
+        <v>0.16181561738684447</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>4.166134185303514E-2</v>
+        <v>0.18112436897659479</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>7490.07</v>
+        <v>11938.95</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>6.9970573398352109E-2</v>
+        <v>0.12175768701239101</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>7.4740909130198041E-2</v>
+        <v>0.11745646010530575</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10656,54 +11024,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>9500</v>
+        <v>8897</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>9500</v>
+        <v>8897</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>28500</v>
+        <v>26691</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>85500</v>
+        <v>80073</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>29998</v>
+        <v>31993</v>
       </c>
       <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>99599</v>
+        <v>99298</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>1198.02</v>
+        <v>4982.07</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>4.9936662444162949E-2</v>
+        <v>0.16572375207076551</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>4.2035789473684207E-2</v>
+        <v>0.18665730021355512</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>13103.01</v>
+        <v>18232.02</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>0.15325157894736843</v>
+        <v>0.22769248061144207</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>0.141557646161106</v>
+        <v>0.19360913613567243</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10712,54 +11080,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>3500</v>
+        <v>3998</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>3500</v>
+        <v>3998</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>10500</v>
+        <v>11994</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>31500</v>
+        <v>35982</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>12580</v>
+        <v>12781</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>37391</v>
+        <v>50645</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>1954.2</v>
+        <v>659.19</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>0.16534181240063595</v>
+        <v>6.1575776543306482E-2</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>0.18611428571428573</v>
+        <v>5.4959979989995002E-2</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>5517.09</v>
+        <v>14156.55</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>0.17514571428571429</v>
+        <v>0.39343421710855425</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>0.15755128239415905</v>
+        <v>0.28952512587619705</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10768,54 +11136,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>5797</v>
+        <v>7890</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>5797</v>
+        <v>7890</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>17391</v>
+        <v>23670</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>52173</v>
+        <v>71010</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>24986</v>
+        <v>24340</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>74983</v>
+        <v>69998</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>7345.14</v>
+        <v>426.6</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>0.30397022332506207</v>
+        <v>2.7526705012325348E-2</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>0.4223529411764706</v>
+        <v>1.802281368821293E-2</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>22060.17</v>
+        <v>-1711.98</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>0.42282732447817833</v>
+        <v>-2.4108998732572877E-2</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>0.3042022858514597</v>
+        <v>-1.4457555930169397E-2</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10824,54 +11192,54 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>15479</v>
+        <v>14995</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>15479</v>
+        <v>14995</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>46437</v>
+        <v>44985</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>139311</v>
+        <v>134955</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>56283</v>
+        <v>56265</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>145000</v>
+        <v>143997</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>9283.17</v>
+        <v>10717.35</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>0.1749373700762219</v>
+        <v>0.20047987203412421</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>0.19990890884424059</v>
+        <v>0.23824274758252753</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>4239</v>
+        <v>7602.03</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>3.0428322243038958E-2</v>
+        <v>5.6330110036678892E-2</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>3.9234482758620737E-2</v>
+        <v>6.2792974853642769E-2</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10880,54 +11248,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>15000</v>
+        <v>17898</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>15000</v>
+        <v>17898</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>45000</v>
+        <v>53694</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>135000</v>
+        <v>161082</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>58428</v>
+        <v>55998</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>171000</v>
+        <v>169831</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>12843.72</v>
+        <v>1744.02</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>0.2298213185459026</v>
+        <v>4.1144326583092306E-2</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>0.285416</v>
+        <v>3.2480724103251757E-2</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>34290</v>
+        <v>7050.6900000000005</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>0.254</v>
+        <v>4.3770812381271652E-2</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>0.21052631578947367</v>
+        <v>5.1515918766303015E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10936,54 +11304,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>10000</v>
+        <v>9585</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>10000</v>
+        <v>9585</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>28755</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>90000</v>
+        <v>86265</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>38063</v>
+        <v>35200</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>98954</v>
+        <v>88485</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>7682.37</v>
+        <v>6093</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>0.21183301368783336</v>
+        <v>0.18309659090909092</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>0.256079</v>
+        <v>0.21189358372456965</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>7964.46</v>
+        <v>1335.15</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>8.8494000000000003E-2</v>
+        <v>1.5477308294209704E-2</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>9.0486488671503884E-2</v>
+        <v>2.5088998135277207E-2</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10992,54 +11360,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>30000</v>
+        <v>40995</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>30000</v>
+        <v>40995</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>90000</v>
+        <v>122985</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>270000</v>
+        <v>368955</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>119978</v>
-      </c>
-      <c r="J11" s="102">
+        <v>133762</v>
+      </c>
+      <c r="J11" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>39987</v>
+        <v>399996</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>28778.22</v>
+        <v>9439.3799999999992</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>0.24986247478704426</v>
+        <v>8.0568472361358223E-2</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>0.31975799999999999</v>
+        <v>7.6752286864251729E-2</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>-230412.87</v>
+        <v>27041.040000000001</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>-0.85338099999999995</v>
+        <v>7.3290889132821072E-2</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>-5.7521944632005404</v>
+        <v>7.7603276032760293E-2</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -11048,36 +11416,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>37466</v>
+        <v>36988</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>200</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>37466</v>
+        <v>36988</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>112398</v>
+        <v>110964</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>119221</v>
+        <v>119994</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>5630.79</v>
+        <v>7830.0599999999995</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>5.7229850445810748E-2</v>
+        <v>7.525376268813444E-2</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>5.0096887844979447E-2</v>
+        <v>7.0563966691900071E-2</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -11089,36 +11457,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>110983</v>
+        <v>113996</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>110983</v>
+        <v>113996</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>332949</v>
+        <v>341988</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>329884</v>
+        <v>326994</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>-6363.84</v>
+        <v>-18263.939999999999</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>-9.2911447660388724E-3</v>
+        <v>-4.5854052367933384E-2</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>-1.9113557932295938E-2</v>
+        <v>-5.3405207200252637E-2</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -11130,36 +11498,36 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>100000</v>
+        <v>110977</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>100000</v>
+        <v>110977</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>300000</v>
+        <v>332931</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>376690</v>
+        <v>374988</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>72923.100000000006</v>
+        <v>38307.120000000003</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>0.20358915819374024</v>
+        <v>0.11215558897884736</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>0.24307700000000002</v>
+        <v>0.11506023770691225</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -11171,36 +11539,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>89847</v>
+        <v>92557</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>89847</v>
+        <v>92557</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>269541</v>
+        <v>277671</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>319197</v>
+        <v>279793</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>46464.03</v>
+        <v>-675.92999999999984</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>0.15556537185499864</v>
+        <v>7.5841783032456478E-3</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>0.172382049484123</v>
+        <v>-2.4342837386691438E-3</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -11212,36 +11580,36 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>72000</v>
+        <v>65998</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>72000</v>
+        <v>65998</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>216000</v>
+        <v>197994</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>236883</v>
+        <v>235995</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>18514.169999999998</v>
+        <v>35641.050000000003</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>8.8157444814528696E-2</v>
+        <v>0.16102459797877078</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>8.5713749999999991E-2</v>
+        <v>0.18001075790175461</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -11256,7 +11624,7 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>37544</v>
+        <v>38995</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -11265,7 +11633,7 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>29998</v>
+        <v>31993</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -11274,7 +11642,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>12580</v>
+        <v>12781</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -11283,7 +11651,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>24986</v>
+        <v>24340</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -11292,7 +11660,7 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>56283</v>
+        <v>56265</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -11301,7 +11669,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>58428</v>
+        <v>55998</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -11310,7 +11678,7 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>38063</v>
+        <v>35200</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -11319,7 +11687,7 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>119978</v>
+        <v>133762</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -11328,7 +11696,7 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>119221</v>
+        <v>119994</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -11337,7 +11705,7 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>329884</v>
+        <v>326994</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -11346,7 +11714,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>376690</v>
+        <v>374988</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -11355,7 +11723,7 @@
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>319197</v>
+        <v>279793</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11364,7 +11732,7 @@
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>236883</v>
+        <v>235995</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11374,9 +11742,9 @@
       <c r="B32" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>115693</v>
+        <v>111105</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -11385,7 +11753,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>99599</v>
+        <v>99298</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -11394,7 +11762,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>37391</v>
+        <v>50645</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -11403,7 +11771,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>74983</v>
+        <v>69998</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -11412,7 +11780,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>145000</v>
+        <v>143997</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -11421,7 +11789,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>171000</v>
+        <v>169831</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -11430,16 +11798,16 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>98954</v>
+        <v>88485</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="22" t="str">
         <f>Raw!D68</f>
-        <v>39987</v>
+        <v>399996</v>
       </c>
     </row>
   </sheetData>
@@ -11510,26 +11878,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="17" width="15.7109375" customWidth="1"/>
+    <col min="11" max="20" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>11894</v>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>512</v>
       </c>
       <c r="K2" t="s">
         <v>220</v>
@@ -11552,15 +11920,24 @@
       <c r="Q2" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>11894</v>
+      </c>
+      <c r="S2" t="s">
+        <v>448</v>
+      </c>
+      <c r="T2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>419</v>
+        <v>513</v>
       </c>
       <c r="K4" t="s">
         <v>221</v>
@@ -11583,15 +11960,24 @@
       <c r="Q4" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" t="s">
+        <v>419</v>
+      </c>
+      <c r="S4" t="s">
+        <v>449</v>
+      </c>
+      <c r="T4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>420</v>
+        <v>514</v>
       </c>
       <c r="K6" t="s">
         <v>222</v>
@@ -11614,15 +12000,24 @@
       <c r="Q6" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" t="s">
+        <v>420</v>
+      </c>
+      <c r="S6" t="s">
+        <v>450</v>
+      </c>
+      <c r="T6" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>421</v>
+        <v>515</v>
       </c>
       <c r="K8" t="s">
         <v>223</v>
@@ -11645,15 +12040,24 @@
       <c r="Q8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" t="s">
+        <v>421</v>
+      </c>
+      <c r="S8" t="s">
+        <v>451</v>
+      </c>
+      <c r="T8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
       <c r="K10" t="s">
         <v>210</v>
@@ -11676,15 +12080,24 @@
       <c r="Q10" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" t="s">
+        <v>422</v>
+      </c>
+      <c r="S10" t="s">
+        <v>422</v>
+      </c>
+      <c r="T10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>423</v>
+        <v>517</v>
       </c>
       <c r="K12" t="s">
         <v>224</v>
@@ -11707,15 +12120,24 @@
       <c r="Q12" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" t="s">
+        <v>423</v>
+      </c>
+      <c r="S12" t="s">
+        <v>452</v>
+      </c>
+      <c r="T12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>424</v>
+        <v>518</v>
       </c>
       <c r="K14" t="s">
         <v>225</v>
@@ -11738,15 +12160,24 @@
       <c r="Q14" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" t="s">
+        <v>424</v>
+      </c>
+      <c r="S14" t="s">
+        <v>453</v>
+      </c>
+      <c r="T14" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>399</v>
+        <v>519</v>
       </c>
       <c r="K16" t="s">
         <v>226</v>
@@ -11769,15 +12200,24 @@
       <c r="Q16" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S16" t="s">
+        <v>454</v>
+      </c>
+      <c r="T16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>425</v>
+        <v>520</v>
       </c>
       <c r="K18" t="s">
         <v>211</v>
@@ -11800,15 +12240,24 @@
       <c r="Q18" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" t="s">
+        <v>425</v>
+      </c>
+      <c r="S18" t="s">
+        <v>455</v>
+      </c>
+      <c r="T18" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>426</v>
+        <v>521</v>
       </c>
       <c r="K20" t="s">
         <v>227</v>
@@ -11831,15 +12280,24 @@
       <c r="Q20" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" t="s">
+        <v>426</v>
+      </c>
+      <c r="S20" t="s">
+        <v>456</v>
+      </c>
+      <c r="T20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>427</v>
+        <v>522</v>
       </c>
       <c r="K22" t="s">
         <v>228</v>
@@ -11862,15 +12320,24 @@
       <c r="Q22" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" t="s">
+        <v>427</v>
+      </c>
+      <c r="S22" t="s">
+        <v>457</v>
+      </c>
+      <c r="T22" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>428</v>
+        <v>523</v>
       </c>
       <c r="K24" t="s">
         <v>229</v>
@@ -11893,15 +12360,24 @@
       <c r="Q24" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" t="s">
+        <v>428</v>
+      </c>
+      <c r="S24" t="s">
+        <v>402</v>
+      </c>
+      <c r="T24" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>429</v>
+        <v>524</v>
       </c>
       <c r="K26" t="s">
         <v>230</v>
@@ -11924,15 +12400,24 @@
       <c r="Q26" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" t="s">
+        <v>429</v>
+      </c>
+      <c r="S26" t="s">
+        <v>458</v>
+      </c>
+      <c r="T26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>430</v>
+        <v>525</v>
       </c>
       <c r="K28" t="s">
         <v>231</v>
@@ -11955,15 +12440,24 @@
       <c r="Q28" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" t="s">
+        <v>430</v>
+      </c>
+      <c r="S28" t="s">
+        <v>459</v>
+      </c>
+      <c r="T28" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>431</v>
+        <v>526</v>
       </c>
       <c r="K30" t="s">
         <v>232</v>
@@ -11986,15 +12480,24 @@
       <c r="Q30" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R30" t="s">
+        <v>431</v>
+      </c>
+      <c r="S30" t="s">
+        <v>460</v>
+      </c>
+      <c r="T30" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>432</v>
+        <v>527</v>
       </c>
       <c r="K32" t="s">
         <v>212</v>
@@ -12017,15 +12520,24 @@
       <c r="Q32" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" t="s">
+        <v>432</v>
+      </c>
+      <c r="S32" t="s">
+        <v>406</v>
+      </c>
+      <c r="T32" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>433</v>
+        <v>528</v>
       </c>
       <c r="K34" t="s">
         <v>233</v>
@@ -12048,15 +12560,24 @@
       <c r="Q34" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" t="s">
+        <v>433</v>
+      </c>
+      <c r="S34" t="s">
+        <v>461</v>
+      </c>
+      <c r="T34" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>434</v>
+        <v>529</v>
       </c>
       <c r="K36" t="s">
         <v>209</v>
@@ -12079,15 +12600,24 @@
       <c r="Q36" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" t="s">
+        <v>434</v>
+      </c>
+      <c r="S36" t="s">
+        <v>462</v>
+      </c>
+      <c r="T36" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>435</v>
+        <v>530</v>
       </c>
       <c r="K38" t="s">
         <v>213</v>
@@ -12110,15 +12640,24 @@
       <c r="Q38" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" t="s">
+        <v>435</v>
+      </c>
+      <c r="S38" t="s">
+        <v>463</v>
+      </c>
+      <c r="T38" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>436</v>
+        <v>531</v>
       </c>
       <c r="K40" t="s">
         <v>214</v>
@@ -12141,15 +12680,24 @@
       <c r="Q40" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" t="s">
+        <v>436</v>
+      </c>
+      <c r="S40">
+        <v>38060</v>
+      </c>
+      <c r="T40" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>437</v>
+        <v>532</v>
       </c>
       <c r="K42" t="s">
         <v>234</v>
@@ -12172,15 +12720,24 @@
       <c r="Q42" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" t="s">
+        <v>437</v>
+      </c>
+      <c r="S42" t="s">
+        <v>464</v>
+      </c>
+      <c r="T42" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>382</v>
+        <v>236</v>
       </c>
       <c r="K44" t="s">
         <v>215</v>
@@ -12203,15 +12760,24 @@
       <c r="Q44" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>382</v>
+      </c>
+      <c r="S44" t="s">
+        <v>465</v>
+      </c>
+      <c r="T44" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>438</v>
+        <v>533</v>
       </c>
       <c r="K46" t="s">
         <v>235</v>
@@ -12234,15 +12800,24 @@
       <c r="Q46" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R46" t="s">
+        <v>438</v>
+      </c>
+      <c r="S46" t="s">
+        <v>466</v>
+      </c>
+      <c r="T46" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>439</v>
+        <v>534</v>
       </c>
       <c r="K48" t="s">
         <v>216</v>
@@ -12265,15 +12840,24 @@
       <c r="Q48" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R48" t="s">
+        <v>439</v>
+      </c>
+      <c r="S48" t="s">
+        <v>467</v>
+      </c>
+      <c r="T48" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>440</v>
+        <v>535</v>
       </c>
       <c r="K50" t="s">
         <v>217</v>
@@ -12296,15 +12880,24 @@
       <c r="Q50" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R50" t="s">
+        <v>440</v>
+      </c>
+      <c r="S50" t="s">
+        <v>468</v>
+      </c>
+      <c r="T50" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>441</v>
+        <v>536</v>
       </c>
       <c r="K52" t="s">
         <v>218</v>
@@ -12327,15 +12920,24 @@
       <c r="Q52" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R52" t="s">
+        <v>441</v>
+      </c>
+      <c r="S52" t="s">
+        <v>469</v>
+      </c>
+      <c r="T52" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D54">
-        <v>115693</v>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>537</v>
       </c>
       <c r="K54" t="s">
         <v>236</v>
@@ -12358,15 +12960,24 @@
       <c r="Q54" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>115693</v>
+      </c>
+      <c r="S54" t="s">
+        <v>470</v>
+      </c>
+      <c r="T54" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>442</v>
+        <v>538</v>
       </c>
       <c r="K56" t="s">
         <v>219</v>
@@ -12389,15 +13000,24 @@
       <c r="Q56" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R56" t="s">
+        <v>442</v>
+      </c>
+      <c r="S56" t="s">
+        <v>471</v>
+      </c>
+      <c r="T56" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>443</v>
+        <v>539</v>
       </c>
       <c r="K58" t="s">
         <v>237</v>
@@ -12420,15 +13040,24 @@
       <c r="Q58" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R58" t="s">
+        <v>443</v>
+      </c>
+      <c r="S58" t="s">
+        <v>472</v>
+      </c>
+      <c r="T58" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>444</v>
+        <v>540</v>
       </c>
       <c r="K60" t="s">
         <v>238</v>
@@ -12451,15 +13080,24 @@
       <c r="Q60" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R60" t="s">
+        <v>444</v>
+      </c>
+      <c r="S60" t="s">
+        <v>473</v>
+      </c>
+      <c r="T60" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>445</v>
+        <v>541</v>
       </c>
       <c r="K62" t="s">
         <v>208</v>
@@ -12482,15 +13120,24 @@
       <c r="Q62" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R62" t="s">
+        <v>445</v>
+      </c>
+      <c r="S62" t="s">
+        <v>474</v>
+      </c>
+      <c r="T62" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>446</v>
+        <v>542</v>
       </c>
       <c r="K64" t="s">
         <v>239</v>
@@ -12513,15 +13160,24 @@
       <c r="Q64" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R64" t="s">
+        <v>446</v>
+      </c>
+      <c r="S64" t="s">
+        <v>475</v>
+      </c>
+      <c r="T64" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>447</v>
+        <v>543</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -12544,15 +13200,24 @@
       <c r="Q66" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R66" t="s">
+        <v>447</v>
+      </c>
+      <c r="S66" t="s">
+        <v>476</v>
+      </c>
+      <c r="T66" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D68">
-        <v>39987</v>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>544</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -12574,6 +13239,15 @@
       </c>
       <c r="Q68">
         <v>299999</v>
+      </c>
+      <c r="R68">
+        <v>39987</v>
+      </c>
+      <c r="S68">
+        <v>39845</v>
+      </c>
+      <c r="T68" t="s">
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="643">
   <si>
     <t>Ardonite</t>
   </si>
@@ -1659,6 +1659,300 @@
   </si>
   <si>
     <t>399996</t>
+  </si>
+  <si>
+    <t>11460</t>
+  </si>
+  <si>
+    <t>10575</t>
+  </si>
+  <si>
+    <t>3999</t>
+  </si>
+  <si>
+    <t>6992</t>
+  </si>
+  <si>
+    <t>14976</t>
+  </si>
+  <si>
+    <t>15998</t>
+  </si>
+  <si>
+    <t>9998</t>
+  </si>
+  <si>
+    <t>39798</t>
+  </si>
+  <si>
+    <t>37389</t>
+  </si>
+  <si>
+    <t>109978</t>
+  </si>
+  <si>
+    <t>101993</t>
+  </si>
+  <si>
+    <t>104855</t>
+  </si>
+  <si>
+    <t>76592</t>
+  </si>
+  <si>
+    <t>35893</t>
+  </si>
+  <si>
+    <t>31992</t>
+  </si>
+  <si>
+    <t>24940</t>
+  </si>
+  <si>
+    <t>24326</t>
+  </si>
+  <si>
+    <t>56028</t>
+  </si>
+  <si>
+    <t>56859</t>
+  </si>
+  <si>
+    <t>38059</t>
+  </si>
+  <si>
+    <t>132162</t>
+  </si>
+  <si>
+    <t>129789</t>
+  </si>
+  <si>
+    <t>326983</t>
+  </si>
+  <si>
+    <t>299994</t>
+  </si>
+  <si>
+    <t>278750</t>
+  </si>
+  <si>
+    <t>235791</t>
+  </si>
+  <si>
+    <t>111000</t>
+  </si>
+  <si>
+    <t>99591</t>
+  </si>
+  <si>
+    <t>45896</t>
+  </si>
+  <si>
+    <t>72554</t>
+  </si>
+  <si>
+    <t>137953</t>
+  </si>
+  <si>
+    <t>169108</t>
+  </si>
+  <si>
+    <t>114340</t>
+  </si>
+  <si>
+    <t>349993</t>
+  </si>
+  <si>
+    <t>10786</t>
+  </si>
+  <si>
+    <t>9492</t>
+  </si>
+  <si>
+    <t>9841</t>
+  </si>
+  <si>
+    <t>7690</t>
+  </si>
+  <si>
+    <t>18496</t>
+  </si>
+  <si>
+    <t>11196</t>
+  </si>
+  <si>
+    <t>35775</t>
+  </si>
+  <si>
+    <t>37788</t>
+  </si>
+  <si>
+    <t>109750</t>
+  </si>
+  <si>
+    <t>99697</t>
+  </si>
+  <si>
+    <t>104748</t>
+  </si>
+  <si>
+    <t>74946</t>
+  </si>
+  <si>
+    <t>35800</t>
+  </si>
+  <si>
+    <t>31899</t>
+  </si>
+  <si>
+    <t>24932</t>
+  </si>
+  <si>
+    <t>24327</t>
+  </si>
+  <si>
+    <t>55957</t>
+  </si>
+  <si>
+    <t>56798</t>
+  </si>
+  <si>
+    <t>40282</t>
+  </si>
+  <si>
+    <t>131984</t>
+  </si>
+  <si>
+    <t>127999</t>
+  </si>
+  <si>
+    <t>325997</t>
+  </si>
+  <si>
+    <t>299987</t>
+  </si>
+  <si>
+    <t>278747</t>
+  </si>
+  <si>
+    <t>235792</t>
+  </si>
+  <si>
+    <t>111107</t>
+  </si>
+  <si>
+    <t>94989</t>
+  </si>
+  <si>
+    <t>45492</t>
+  </si>
+  <si>
+    <t>169102</t>
+  </si>
+  <si>
+    <t>127766</t>
+  </si>
+  <si>
+    <t>349987</t>
+  </si>
+  <si>
+    <t>9983</t>
+  </si>
+  <si>
+    <t>10698</t>
+  </si>
+  <si>
+    <t>9831</t>
+  </si>
+  <si>
+    <t>7685</t>
+  </si>
+  <si>
+    <t>14973</t>
+  </si>
+  <si>
+    <t>18990</t>
+  </si>
+  <si>
+    <t>13161</t>
+  </si>
+  <si>
+    <t>35776</t>
+  </si>
+  <si>
+    <t>42445</t>
+  </si>
+  <si>
+    <t>109741</t>
+  </si>
+  <si>
+    <t>101985</t>
+  </si>
+  <si>
+    <t>104743</t>
+  </si>
+  <si>
+    <t>74944</t>
+  </si>
+  <si>
+    <t>35670</t>
+  </si>
+  <si>
+    <t>31800</t>
+  </si>
+  <si>
+    <t>24933</t>
+  </si>
+  <si>
+    <t>24328</t>
+  </si>
+  <si>
+    <t>55954</t>
+  </si>
+  <si>
+    <t>56789</t>
+  </si>
+  <si>
+    <t>40721</t>
+  </si>
+  <si>
+    <t>131975</t>
+  </si>
+  <si>
+    <t>325998</t>
+  </si>
+  <si>
+    <t>299986</t>
+  </si>
+  <si>
+    <t>278751</t>
+  </si>
+  <si>
+    <t>235794</t>
+  </si>
+  <si>
+    <t>111109</t>
+  </si>
+  <si>
+    <t>94997</t>
+  </si>
+  <si>
+    <t>45487</t>
+  </si>
+  <si>
+    <t>72444</t>
+  </si>
+  <si>
+    <t>137951</t>
+  </si>
+  <si>
+    <t>168484</t>
+  </si>
+  <si>
+    <t>127763</t>
+  </si>
+  <si>
+    <t>349989</t>
   </si>
 </sst>
 </file>
@@ -4405,8 +4699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4449,7 +4743,7 @@
         <v>183</v>
       </c>
       <c r="C3" s="85">
-        <v>9984</v>
+        <v>9999</v>
       </c>
       <c r="D3" s="2">
         <v>9889</v>
@@ -4458,7 +4752,7 @@
         <v>21666</v>
       </c>
       <c r="F3" s="2">
-        <v>49995</v>
+        <v>59998</v>
       </c>
       <c r="G3" s="2">
         <v>51995</v>
@@ -4480,31 +4774,31 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7">
         <f>D3-C3</f>
-        <v>-95</v>
+        <v>-110</v>
       </c>
       <c r="E4" s="7">
         <f>E3-C3*2</f>
-        <v>1698</v>
+        <v>1668</v>
       </c>
       <c r="F4" s="7">
         <f>F3-C3*5</f>
-        <v>75</v>
+        <v>10003</v>
       </c>
       <c r="G4" s="7">
         <f>G3-5*C3</f>
-        <v>2075</v>
+        <v>2000</v>
       </c>
       <c r="H4" s="7">
         <f>H3-C3*10</f>
-        <v>400160</v>
+        <v>400010</v>
       </c>
       <c r="I4" s="7">
         <f>I3-C3/10</f>
-        <v>2291.6</v>
+        <v>2290.1</v>
       </c>
       <c r="J4" s="4">
         <f>J3-C3</f>
-        <v>23012</v>
+        <v>22997</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -4512,31 +4806,31 @@
       <c r="C5" s="47"/>
       <c r="D5" s="84">
         <f t="shared" ref="D5:I5" si="0">(D4/D3)</f>
-        <v>-9.606633633329963E-3</v>
+        <v>-1.1123470522803115E-2</v>
       </c>
       <c r="E5" s="84">
         <f t="shared" si="0"/>
-        <v>7.8371642204375522E-2</v>
+        <v>7.6986984214898926E-2</v>
       </c>
       <c r="F5" s="84">
         <f t="shared" si="0"/>
-        <v>1.5001500150015E-3</v>
+        <v>0.16672222407413581</v>
       </c>
       <c r="G5" s="84">
         <f t="shared" si="0"/>
-        <v>3.9907683431099142E-2</v>
+        <v>3.8465237042023273E-2</v>
       </c>
       <c r="H5" s="84">
         <f t="shared" si="0"/>
-        <v>0.80032000000000003</v>
+        <v>0.80001999999999995</v>
       </c>
       <c r="I5" s="84">
         <f t="shared" si="0"/>
-        <v>0.69653495440729485</v>
+        <v>0.6960790273556231</v>
       </c>
       <c r="J5" s="84">
         <f>(J4/J3)</f>
-        <v>0.69741786883258572</v>
+        <v>0.69696326827494237</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
@@ -4545,7 +4839,7 @@
       </c>
       <c r="C6" s="47">
         <f>C3/100</f>
-        <v>99.84</v>
+        <v>99.99</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
@@ -4597,10 +4891,10 @@
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="86">
-        <v>25470</v>
+        <v>24995</v>
       </c>
       <c r="D9" s="18">
-        <v>268992</v>
+        <v>275325</v>
       </c>
       <c r="E9" s="18">
         <v>1379988</v>
@@ -4624,27 +4918,27 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7">
         <f>D9-10*C9</f>
-        <v>14292</v>
+        <v>25375</v>
       </c>
       <c r="E10" s="7">
         <f>E9-50*C9</f>
-        <v>106488</v>
+        <v>130238</v>
       </c>
       <c r="F10" s="7">
         <f>F9-50*C9</f>
-        <v>-73503</v>
+        <v>-49753</v>
       </c>
       <c r="G10" s="7">
         <f>G9-50*C9</f>
-        <v>-173502</v>
+        <v>-149752</v>
       </c>
       <c r="H10" s="7">
         <f>H9-50*C9</f>
-        <v>76500</v>
+        <v>100250</v>
       </c>
       <c r="I10" s="4">
         <f>I9-200*C9</f>
-        <v>1405999</v>
+        <v>1500999</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -10903,8 +11197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10968,54 +11262,54 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>10895</v>
+        <v>9983</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>10895</v>
+        <v>9983</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>32685</v>
+        <v>29949</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>98055</v>
+        <v>89847</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>38995</v>
+        <v>35670</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>111105</v>
+        <v>111109</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>5920.05</v>
+        <v>5364.3</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.16181561738684447</v>
+        <v>0.16038687973086629</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>0.18112436897659479</v>
+        <v>0.17911449464088952</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>11938.95</v>
+        <v>20150.91</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>0.12175768701239101</v>
+        <v>0.22428027646999898</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>0.11745646010530575</v>
+        <v>0.19136163587108157</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11024,54 +11318,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>8897</v>
+        <v>10698</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>8897</v>
+        <v>10698</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>26691</v>
+        <v>32094</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>80073</v>
+        <v>96282</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>31993</v>
+        <v>31800</v>
       </c>
       <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>99298</v>
+        <v>94997</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>4982.07</v>
+        <v>-612</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>0.16572375207076551</v>
+        <v>-9.2452830188678448E-3</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>0.18665730021355512</v>
+        <v>-1.9068984856982614E-2</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>18232.02</v>
+        <v>-2234.9700000000003</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>0.22769248061144207</v>
+        <v>-2.3212750046737712E-2</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>0.19360913613567243</v>
+        <v>-1.3526742949777404E-2</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11080,54 +11374,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>3998</v>
+        <v>9831</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>3998</v>
+        <v>9831</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>11994</v>
+        <v>29493</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>35982</v>
+        <v>88479</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>12781</v>
+        <v>24933</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>50645</v>
+        <v>45487</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>659.19</v>
+        <v>-4809.33</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>6.1575776543306482E-2</v>
+        <v>-0.18289014559018169</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>5.4959979989995002E-2</v>
+        <v>-0.16306682941714984</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>14156.55</v>
+        <v>-43446.87</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>0.39343421710855425</v>
+        <v>-0.49104160309225919</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>0.28952512587619705</v>
+        <v>-0.94514916349726286</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11136,54 +11430,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>7890</v>
+        <v>7685</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>7890</v>
+        <v>7685</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>23670</v>
+        <v>23055</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>71010</v>
+        <v>69165</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>24340</v>
+        <v>24328</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>69998</v>
+        <v>72444</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>426.6</v>
+        <v>1029.72</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>2.7526705012325348E-2</v>
+        <v>5.2326537323248878E-2</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>1.802281368821293E-2</v>
+        <v>4.4663630448926482E-2</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>-1711.98</v>
+        <v>2554.56</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>-2.4108998732572877E-2</v>
+        <v>3.6934287573194537E-2</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>-1.4457555930169397E-2</v>
+        <v>4.5262547622991534E-2</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11192,54 +11486,54 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>14995</v>
+        <v>14973</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>14995</v>
+        <v>14973</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>44985</v>
+        <v>44919</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>134955</v>
+        <v>134757</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>56265</v>
+        <v>55954</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>143997</v>
+        <v>137951</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>10717.35</v>
+        <v>10475.459999999999</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>0.20047987203412421</v>
+        <v>0.19721556993244449</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>0.23824274758252753</v>
+        <v>0.23320777399318771</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>7602.03</v>
+        <v>1814.49</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>5.6330110036678892E-2</v>
+        <v>1.3464903492953983E-2</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>6.2792974853642769E-2</v>
+        <v>2.3153148581742777E-2</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11248,54 +11542,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>17898</v>
+        <v>18990</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>17898</v>
+        <v>18990</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>53694</v>
+        <v>56970</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>161082</v>
+        <v>170910</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>55998</v>
+        <v>56789</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>169831</v>
+        <v>168484</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>1744.02</v>
+        <v>-748.89</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>4.1144326583092306E-2</v>
+        <v>-3.1872369649050825E-3</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>3.2480724103251757E-2</v>
+        <v>-1.3145339652448657E-2</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>7050.6900000000005</v>
+        <v>-4110.84</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>4.3770812381271652E-2</v>
+        <v>-2.4052659294365456E-2</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>5.1515918766303015E-2</v>
+        <v>-1.4398993376225633E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11304,54 +11598,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>9585</v>
+        <v>13161</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>9585</v>
+        <v>13161</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>28755</v>
+        <v>39483</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>86265</v>
+        <v>118449</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>35200</v>
+        <v>40721</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>88485</v>
+        <v>127763</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>6093</v>
+        <v>830.79</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>0.18309659090909092</v>
+        <v>3.0402003880061867E-2</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>0.21189358372456965</v>
+        <v>2.1041714155459312E-2</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>1335.15</v>
+        <v>8036.37</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>1.5477308294209704E-2</v>
+        <v>6.7846668186308037E-2</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>2.5088998135277207E-2</v>
+        <v>7.2900605026494314E-2</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11360,54 +11654,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>40995</v>
+        <v>35776</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>40995</v>
+        <v>35776</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>122985</v>
+        <v>107328</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>368955</v>
+        <v>321984</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>133762</v>
+        <v>131975</v>
       </c>
       <c r="J11" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>399996</v>
+        <v>349989</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>9439.3799999999992</v>
+        <v>23327.25</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>8.0568472361358223E-2</v>
+        <v>0.18675506724758473</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>7.6752286864251729E-2</v>
+        <v>0.2173454271019678</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>27041.040000000001</v>
+        <v>24505.11</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>7.3290889132821072E-2</v>
+        <v>7.6106607781753127E-2</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>7.7603276032760293E-2</v>
+        <v>8.0016800528016629E-2</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -11416,36 +11710,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>36988</v>
+        <v>42445</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>200</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>36988</v>
+        <v>42445</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>110964</v>
+        <v>127335</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>119994</v>
+        <v>127999</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>7830.0599999999995</v>
+        <v>-615.99</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>7.525376268813444E-2</v>
+        <v>5.1875405276603503E-3</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>7.0563966691900071E-2</v>
+        <v>-4.8375544822711744E-3</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -11457,36 +11751,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>113996</v>
+        <v>109741</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>113996</v>
+        <v>109741</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>341988</v>
+        <v>329223</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>326994</v>
+        <v>325998</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>-18263.939999999999</v>
+        <v>-6484.98</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>-4.5854052367933384E-2</v>
+        <v>-9.8926987282130785E-3</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>-5.3405207200252637E-2</v>
+        <v>-1.9697833990942309E-2</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -11498,36 +11792,36 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>110977</v>
+        <v>101985</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>110977</v>
+        <v>101985</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>332931</v>
+        <v>305955</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>374988</v>
+        <v>299986</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>38307.120000000003</v>
+        <v>-8968.86</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>0.11215558897884736</v>
+        <v>-1.9897595221110231E-2</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>0.11506023770691225</v>
+        <v>-2.931431092807766E-2</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -11539,36 +11833,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>92557</v>
+        <v>104743</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>92557</v>
+        <v>104743</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>277671</v>
+        <v>314229</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>279793</v>
+        <v>278751</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>-675.92999999999984</v>
+        <v>-38265.51</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>7.5841783032456478E-3</v>
+        <v>-0.12727487973137319</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>-2.4342837386691438E-3</v>
+        <v>-0.12177587046389736</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -11580,36 +11874,36 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>65998</v>
+        <v>74944</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>65998</v>
+        <v>74944</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>197994</v>
+        <v>224832</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>235995</v>
+        <v>235794</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>35641.050000000003</v>
+        <v>8604.06</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>0.16102459797877078</v>
+        <v>4.6489732563169572E-2</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>0.18001075790175461</v>
+        <v>3.8268840734415027E-2</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -11624,7 +11918,7 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>38995</v>
+        <v>35670</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -11633,7 +11927,7 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>31993</v>
+        <v>31800</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -11642,7 +11936,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>12781</v>
+        <v>24933</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -11651,7 +11945,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>24340</v>
+        <v>24328</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -11660,7 +11954,7 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>56265</v>
+        <v>55954</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
@@ -11669,7 +11963,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>55998</v>
+        <v>56789</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
@@ -11678,7 +11972,7 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>35200</v>
+        <v>40721</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
@@ -11687,7 +11981,7 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>133762</v>
+        <v>131975</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
@@ -11696,7 +11990,7 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>119994</v>
+        <v>127999</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
@@ -11705,7 +11999,7 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>326994</v>
+        <v>325998</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
@@ -11714,7 +12008,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>374988</v>
+        <v>299986</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
@@ -11723,7 +12017,7 @@
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>279793</v>
+        <v>278751</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11732,7 +12026,7 @@
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>235995</v>
+        <v>235794</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11744,7 +12038,7 @@
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>111105</v>
+        <v>111109</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -11753,7 +12047,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>99298</v>
+        <v>94997</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -11762,7 +12056,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>50645</v>
+        <v>45487</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -11771,7 +12065,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>69998</v>
+        <v>72444</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -11780,7 +12074,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>143997</v>
+        <v>137951</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -11789,7 +12083,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>169831</v>
+        <v>168484</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -11798,7 +12092,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>88485</v>
+        <v>127763</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11807,7 +12101,7 @@
       </c>
       <c r="C39" s="22" t="str">
         <f>Raw!D68</f>
-        <v>399996</v>
+        <v>349989</v>
       </c>
     </row>
   </sheetData>
@@ -11878,26 +12172,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T68"/>
+  <dimension ref="A1:W68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="20" width="15.7109375" customWidth="1"/>
+    <col min="11" max="23" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>512</v>
+        <v>610</v>
       </c>
       <c r="K2" t="s">
         <v>220</v>
@@ -11929,15 +12223,24 @@
       <c r="T2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>512</v>
+      </c>
+      <c r="V2" t="s">
+        <v>545</v>
+      </c>
+      <c r="W2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>513</v>
+        <v>611</v>
       </c>
       <c r="K4" t="s">
         <v>221</v>
@@ -11969,15 +12272,24 @@
       <c r="T4" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" t="s">
+        <v>513</v>
+      </c>
+      <c r="V4" t="s">
+        <v>546</v>
+      </c>
+      <c r="W4" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>514</v>
+        <v>612</v>
       </c>
       <c r="K6" t="s">
         <v>222</v>
@@ -12009,15 +12321,24 @@
       <c r="T6" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" t="s">
+        <v>514</v>
+      </c>
+      <c r="V6" t="s">
+        <v>547</v>
+      </c>
+      <c r="W6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>515</v>
+        <v>613</v>
       </c>
       <c r="K8" t="s">
         <v>223</v>
@@ -12049,15 +12370,24 @@
       <c r="T8" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" t="s">
+        <v>515</v>
+      </c>
+      <c r="V8" t="s">
+        <v>548</v>
+      </c>
+      <c r="W8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>516</v>
+        <v>614</v>
       </c>
       <c r="K10" t="s">
         <v>210</v>
@@ -12089,15 +12419,24 @@
       <c r="T10" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>516</v>
+      </c>
+      <c r="V10" t="s">
+        <v>549</v>
+      </c>
+      <c r="W10" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>517</v>
+        <v>615</v>
       </c>
       <c r="K12" t="s">
         <v>224</v>
@@ -12129,15 +12468,24 @@
       <c r="T12" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U12" t="s">
+        <v>517</v>
+      </c>
+      <c r="V12" t="s">
+        <v>550</v>
+      </c>
+      <c r="W12" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>518</v>
+        <v>616</v>
       </c>
       <c r="K14" t="s">
         <v>225</v>
@@ -12169,15 +12517,24 @@
       <c r="T14" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U14" t="s">
+        <v>518</v>
+      </c>
+      <c r="V14" t="s">
+        <v>551</v>
+      </c>
+      <c r="W14" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>519</v>
+        <v>617</v>
       </c>
       <c r="K16" t="s">
         <v>226</v>
@@ -12209,15 +12566,24 @@
       <c r="T16" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" t="s">
+        <v>519</v>
+      </c>
+      <c r="V16" t="s">
+        <v>552</v>
+      </c>
+      <c r="W16" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>520</v>
+        <v>618</v>
       </c>
       <c r="K18" t="s">
         <v>211</v>
@@ -12249,15 +12615,24 @@
       <c r="T18" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" t="s">
+        <v>520</v>
+      </c>
+      <c r="V18" t="s">
+        <v>553</v>
+      </c>
+      <c r="W18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>521</v>
+        <v>619</v>
       </c>
       <c r="K20" t="s">
         <v>227</v>
@@ -12289,15 +12664,24 @@
       <c r="T20" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" t="s">
+        <v>521</v>
+      </c>
+      <c r="V20" t="s">
+        <v>554</v>
+      </c>
+      <c r="W20" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>522</v>
+        <v>620</v>
       </c>
       <c r="K22" t="s">
         <v>228</v>
@@ -12329,15 +12713,24 @@
       <c r="T22" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" t="s">
+        <v>522</v>
+      </c>
+      <c r="V22" t="s">
+        <v>555</v>
+      </c>
+      <c r="W22" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>523</v>
+        <v>621</v>
       </c>
       <c r="K24" t="s">
         <v>229</v>
@@ -12369,15 +12762,24 @@
       <c r="T24" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" t="s">
+        <v>523</v>
+      </c>
+      <c r="V24" t="s">
+        <v>556</v>
+      </c>
+      <c r="W24" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="K26" t="s">
         <v>230</v>
@@ -12409,15 +12811,24 @@
       <c r="T26" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" t="s">
+        <v>524</v>
+      </c>
+      <c r="V26" t="s">
+        <v>557</v>
+      </c>
+      <c r="W26" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>525</v>
+        <v>623</v>
       </c>
       <c r="K28" t="s">
         <v>231</v>
@@ -12449,15 +12860,24 @@
       <c r="T28" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" t="s">
+        <v>525</v>
+      </c>
+      <c r="V28" t="s">
+        <v>558</v>
+      </c>
+      <c r="W28" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="K30" t="s">
         <v>232</v>
@@ -12489,15 +12909,24 @@
       <c r="T30" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" t="s">
+        <v>526</v>
+      </c>
+      <c r="V30" t="s">
+        <v>559</v>
+      </c>
+      <c r="W30" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>527</v>
+        <v>625</v>
       </c>
       <c r="K32" t="s">
         <v>212</v>
@@ -12529,15 +12958,24 @@
       <c r="T32" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" t="s">
+        <v>527</v>
+      </c>
+      <c r="V32" t="s">
+        <v>560</v>
+      </c>
+      <c r="W32" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>528</v>
+        <v>626</v>
       </c>
       <c r="K34" t="s">
         <v>233</v>
@@ -12569,15 +13007,24 @@
       <c r="T34" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" t="s">
+        <v>528</v>
+      </c>
+      <c r="V34" t="s">
+        <v>561</v>
+      </c>
+      <c r="W34" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>529</v>
+        <v>627</v>
       </c>
       <c r="K36" t="s">
         <v>209</v>
@@ -12609,15 +13056,24 @@
       <c r="T36" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" t="s">
+        <v>529</v>
+      </c>
+      <c r="V36" t="s">
+        <v>562</v>
+      </c>
+      <c r="W36" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>530</v>
+        <v>628</v>
       </c>
       <c r="K38" t="s">
         <v>213</v>
@@ -12649,15 +13105,24 @@
       <c r="T38" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" t="s">
+        <v>530</v>
+      </c>
+      <c r="V38" t="s">
+        <v>563</v>
+      </c>
+      <c r="W38" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>531</v>
+        <v>629</v>
       </c>
       <c r="K40" t="s">
         <v>214</v>
@@ -12689,15 +13154,24 @@
       <c r="T40" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" t="s">
+        <v>531</v>
+      </c>
+      <c r="V40" t="s">
+        <v>564</v>
+      </c>
+      <c r="W40" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>532</v>
+        <v>630</v>
       </c>
       <c r="K42" t="s">
         <v>234</v>
@@ -12729,15 +13203,24 @@
       <c r="T42" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" t="s">
+        <v>532</v>
+      </c>
+      <c r="V42" t="s">
+        <v>565</v>
+      </c>
+      <c r="W42" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>236</v>
+        <v>599</v>
       </c>
       <c r="K44" t="s">
         <v>215</v>
@@ -12769,15 +13252,24 @@
       <c r="T44" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" t="s">
+        <v>236</v>
+      </c>
+      <c r="V44" t="s">
+        <v>566</v>
+      </c>
+      <c r="W44" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>533</v>
+        <v>631</v>
       </c>
       <c r="K46" t="s">
         <v>235</v>
@@ -12809,15 +13301,24 @@
       <c r="T46" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" t="s">
+        <v>533</v>
+      </c>
+      <c r="V46" t="s">
+        <v>567</v>
+      </c>
+      <c r="W46" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>534</v>
+        <v>632</v>
       </c>
       <c r="K48" t="s">
         <v>216</v>
@@ -12849,15 +13350,24 @@
       <c r="T48" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" t="s">
+        <v>534</v>
+      </c>
+      <c r="V48" t="s">
+        <v>568</v>
+      </c>
+      <c r="W48" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>535</v>
+        <v>633</v>
       </c>
       <c r="K50" t="s">
         <v>217</v>
@@ -12889,15 +13399,24 @@
       <c r="T50" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" t="s">
+        <v>535</v>
+      </c>
+      <c r="V50" t="s">
+        <v>569</v>
+      </c>
+      <c r="W50" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>536</v>
+        <v>634</v>
       </c>
       <c r="K52" t="s">
         <v>218</v>
@@ -12929,15 +13448,24 @@
       <c r="T52" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" t="s">
+        <v>536</v>
+      </c>
+      <c r="V52" t="s">
+        <v>570</v>
+      </c>
+      <c r="W52" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>537</v>
+        <v>635</v>
       </c>
       <c r="K54" t="s">
         <v>236</v>
@@ -12969,15 +13497,24 @@
       <c r="T54" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54" t="s">
+        <v>537</v>
+      </c>
+      <c r="V54" t="s">
+        <v>571</v>
+      </c>
+      <c r="W54" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>538</v>
+        <v>636</v>
       </c>
       <c r="K56" t="s">
         <v>219</v>
@@ -13009,15 +13546,24 @@
       <c r="T56" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56" t="s">
+        <v>538</v>
+      </c>
+      <c r="V56" t="s">
+        <v>572</v>
+      </c>
+      <c r="W56" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>539</v>
+        <v>637</v>
       </c>
       <c r="K58" t="s">
         <v>237</v>
@@ -13049,15 +13595,24 @@
       <c r="T58" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58" t="s">
+        <v>539</v>
+      </c>
+      <c r="V58" t="s">
+        <v>573</v>
+      </c>
+      <c r="W58" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>540</v>
+        <v>638</v>
       </c>
       <c r="K60" t="s">
         <v>238</v>
@@ -13089,15 +13644,24 @@
       <c r="T60" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U60" t="s">
+        <v>540</v>
+      </c>
+      <c r="V60" t="s">
+        <v>574</v>
+      </c>
+      <c r="W60" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>541</v>
+        <v>639</v>
       </c>
       <c r="K62" t="s">
         <v>208</v>
@@ -13129,15 +13693,24 @@
       <c r="T62" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U62" t="s">
+        <v>541</v>
+      </c>
+      <c r="V62" t="s">
+        <v>575</v>
+      </c>
+      <c r="W62" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>542</v>
+        <v>640</v>
       </c>
       <c r="K64" t="s">
         <v>239</v>
@@ -13169,15 +13742,24 @@
       <c r="T64" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64" t="s">
+        <v>542</v>
+      </c>
+      <c r="V64" t="s">
+        <v>576</v>
+      </c>
+      <c r="W64" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>543</v>
+        <v>641</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -13209,15 +13791,24 @@
       <c r="T66" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U66" t="s">
+        <v>543</v>
+      </c>
+      <c r="V66" t="s">
+        <v>577</v>
+      </c>
+      <c r="W66" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>544</v>
+        <v>642</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -13248,6 +13839,15 @@
       </c>
       <c r="T68" t="s">
         <v>507</v>
+      </c>
+      <c r="U68" t="s">
+        <v>544</v>
+      </c>
+      <c r="V68" t="s">
+        <v>578</v>
+      </c>
+      <c r="W68" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="803">
   <si>
     <t>Ardonite</t>
   </si>
@@ -1953,6 +1953,486 @@
   </si>
   <si>
     <t>349989</t>
+  </si>
+  <si>
+    <t>10400</t>
+  </si>
+  <si>
+    <t>17696</t>
+  </si>
+  <si>
+    <t>8494</t>
+  </si>
+  <si>
+    <t>7293</t>
+  </si>
+  <si>
+    <t>11993</t>
+  </si>
+  <si>
+    <t>18799</t>
+  </si>
+  <si>
+    <t>16974</t>
+  </si>
+  <si>
+    <t>38796</t>
+  </si>
+  <si>
+    <t>42471</t>
+  </si>
+  <si>
+    <t>107989</t>
+  </si>
+  <si>
+    <t>119389</t>
+  </si>
+  <si>
+    <t>35725</t>
+  </si>
+  <si>
+    <t>35379</t>
+  </si>
+  <si>
+    <t>23797</t>
+  </si>
+  <si>
+    <t>55728</t>
+  </si>
+  <si>
+    <t>40472</t>
+  </si>
+  <si>
+    <t>117897</t>
+  </si>
+  <si>
+    <t>129880</t>
+  </si>
+  <si>
+    <t>325467</t>
+  </si>
+  <si>
+    <t>299689</t>
+  </si>
+  <si>
+    <t>278743</t>
+  </si>
+  <si>
+    <t>228996</t>
+  </si>
+  <si>
+    <t>94942</t>
+  </si>
+  <si>
+    <t>44996</t>
+  </si>
+  <si>
+    <t>68860</t>
+  </si>
+  <si>
+    <t>147959</t>
+  </si>
+  <si>
+    <t>11390</t>
+  </si>
+  <si>
+    <t>14599</t>
+  </si>
+  <si>
+    <t>7999</t>
+  </si>
+  <si>
+    <t>7996</t>
+  </si>
+  <si>
+    <t>11995</t>
+  </si>
+  <si>
+    <t>17493</t>
+  </si>
+  <si>
+    <t>14999</t>
+  </si>
+  <si>
+    <t>37999</t>
+  </si>
+  <si>
+    <t>43992</t>
+  </si>
+  <si>
+    <t>112892</t>
+  </si>
+  <si>
+    <t>127782</t>
+  </si>
+  <si>
+    <t>119395</t>
+  </si>
+  <si>
+    <t>83748</t>
+  </si>
+  <si>
+    <t>35720</t>
+  </si>
+  <si>
+    <t>35381</t>
+  </si>
+  <si>
+    <t>23948</t>
+  </si>
+  <si>
+    <t>24196</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>55768</t>
+  </si>
+  <si>
+    <t>40700</t>
+  </si>
+  <si>
+    <t>117888</t>
+  </si>
+  <si>
+    <t>129883</t>
+  </si>
+  <si>
+    <t>325466</t>
+  </si>
+  <si>
+    <t>299692</t>
+  </si>
+  <si>
+    <t>228989</t>
+  </si>
+  <si>
+    <t>84443</t>
+  </si>
+  <si>
+    <t>94939</t>
+  </si>
+  <si>
+    <t>38886</t>
+  </si>
+  <si>
+    <t>68425</t>
+  </si>
+  <si>
+    <t>143998</t>
+  </si>
+  <si>
+    <t>124995</t>
+  </si>
+  <si>
+    <t>88998</t>
+  </si>
+  <si>
+    <t>349960</t>
+  </si>
+  <si>
+    <t>8887</t>
+  </si>
+  <si>
+    <t>9888</t>
+  </si>
+  <si>
+    <t>6690</t>
+  </si>
+  <si>
+    <t>7698</t>
+  </si>
+  <si>
+    <t>11899</t>
+  </si>
+  <si>
+    <t>17295</t>
+  </si>
+  <si>
+    <t>13698</t>
+  </si>
+  <si>
+    <t>29885</t>
+  </si>
+  <si>
+    <t>69850</t>
+  </si>
+  <si>
+    <t>112890</t>
+  </si>
+  <si>
+    <t>123874</t>
+  </si>
+  <si>
+    <t>109342</t>
+  </si>
+  <si>
+    <t>35535</t>
+  </si>
+  <si>
+    <t>49832</t>
+  </si>
+  <si>
+    <t>21988</t>
+  </si>
+  <si>
+    <t>49990</t>
+  </si>
+  <si>
+    <t>55738</t>
+  </si>
+  <si>
+    <t>53852</t>
+  </si>
+  <si>
+    <t>117873</t>
+  </si>
+  <si>
+    <t>129869</t>
+  </si>
+  <si>
+    <t>319881</t>
+  </si>
+  <si>
+    <t>278739</t>
+  </si>
+  <si>
+    <t>219968</t>
+  </si>
+  <si>
+    <t>83977</t>
+  </si>
+  <si>
+    <t>94948</t>
+  </si>
+  <si>
+    <t>33323</t>
+  </si>
+  <si>
+    <t>67989</t>
+  </si>
+  <si>
+    <t>143987</t>
+  </si>
+  <si>
+    <t>123988</t>
+  </si>
+  <si>
+    <t>77983</t>
+  </si>
+  <si>
+    <t>329991</t>
+  </si>
+  <si>
+    <t>9786</t>
+  </si>
+  <si>
+    <t>11293</t>
+  </si>
+  <si>
+    <t>6047</t>
+  </si>
+  <si>
+    <t>7087</t>
+  </si>
+  <si>
+    <t>17255</t>
+  </si>
+  <si>
+    <t>12998</t>
+  </si>
+  <si>
+    <t>28984</t>
+  </si>
+  <si>
+    <t>78696</t>
+  </si>
+  <si>
+    <t>112984</t>
+  </si>
+  <si>
+    <t>119986</t>
+  </si>
+  <si>
+    <t>108285</t>
+  </si>
+  <si>
+    <t>75486</t>
+  </si>
+  <si>
+    <t>34984</t>
+  </si>
+  <si>
+    <t>47989</t>
+  </si>
+  <si>
+    <t>21932</t>
+  </si>
+  <si>
+    <t>22931</t>
+  </si>
+  <si>
+    <t>44994</t>
+  </si>
+  <si>
+    <t>55744</t>
+  </si>
+  <si>
+    <t>117855</t>
+  </si>
+  <si>
+    <t>129842</t>
+  </si>
+  <si>
+    <t>319873</t>
+  </si>
+  <si>
+    <t>299992</t>
+  </si>
+  <si>
+    <t>278727</t>
+  </si>
+  <si>
+    <t>219955</t>
+  </si>
+  <si>
+    <t>83969</t>
+  </si>
+  <si>
+    <t>94955</t>
+  </si>
+  <si>
+    <t>33220</t>
+  </si>
+  <si>
+    <t>67978</t>
+  </si>
+  <si>
+    <t>143986</t>
+  </si>
+  <si>
+    <t>124893</t>
+  </si>
+  <si>
+    <t>77980</t>
+  </si>
+  <si>
+    <t>329888</t>
+  </si>
+  <si>
+    <t>9600</t>
+  </si>
+  <si>
+    <t>9984</t>
+  </si>
+  <si>
+    <t>6493</t>
+  </si>
+  <si>
+    <t>6988</t>
+  </si>
+  <si>
+    <t>11499</t>
+  </si>
+  <si>
+    <t>17218</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>26391</t>
+  </si>
+  <si>
+    <t>78674</t>
+  </si>
+  <si>
+    <t>112889</t>
+  </si>
+  <si>
+    <t>119969</t>
+  </si>
+  <si>
+    <t>108254</t>
+  </si>
+  <si>
+    <t>75424</t>
+  </si>
+  <si>
+    <t>34973</t>
+  </si>
+  <si>
+    <t>47948</t>
+  </si>
+  <si>
+    <t>21903</t>
+  </si>
+  <si>
+    <t>22500</t>
+  </si>
+  <si>
+    <t>35000</t>
+  </si>
+  <si>
+    <t>55762</t>
+  </si>
+  <si>
+    <t>53686</t>
+  </si>
+  <si>
+    <t>117809</t>
+  </si>
+  <si>
+    <t>129830</t>
+  </si>
+  <si>
+    <t>319870</t>
+  </si>
+  <si>
+    <t>374798</t>
+  </si>
+  <si>
+    <t>219926</t>
+  </si>
+  <si>
+    <t>83926</t>
+  </si>
+  <si>
+    <t>94972</t>
+  </si>
+  <si>
+    <t>33201</t>
+  </si>
+  <si>
+    <t>67870</t>
+  </si>
+  <si>
+    <t>143984</t>
+  </si>
+  <si>
+    <t>124882</t>
+  </si>
+  <si>
+    <t>77966</t>
+  </si>
+  <si>
+    <t>329986</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>benef:</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x10</t>
+  </si>
+  <si>
+    <t>Coffre de loterie</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -2748,11 +3228,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3102,6 +3595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3118,6 +3612,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4697,10 +5205,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J15"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4708,10 +5216,15 @@
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="134" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>185</v>
@@ -4734,117 +5247,127 @@
       <c r="I2" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="135" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="137" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>183</v>
       </c>
       <c r="C3" s="85">
-        <v>9999</v>
+        <v>9998</v>
       </c>
       <c r="D3" s="2">
-        <v>9889</v>
+        <v>8983</v>
       </c>
       <c r="E3" s="2">
-        <v>21666</v>
+        <v>23743</v>
       </c>
       <c r="F3" s="2">
-        <v>59998</v>
+        <v>60989</v>
       </c>
       <c r="G3" s="2">
         <v>51995</v>
       </c>
       <c r="H3" s="2">
-        <v>500000</v>
+        <v>199999</v>
       </c>
       <c r="I3" s="2">
         <v>3290</v>
       </c>
-      <c r="J3" s="3">
-        <v>32996</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="100">
+        <v>32992</v>
+      </c>
+      <c r="K3" s="138">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7">
         <f>D3-C3</f>
-        <v>-110</v>
+        <v>-1015</v>
       </c>
       <c r="E4" s="7">
         <f>E3-C3*2</f>
-        <v>1668</v>
+        <v>3747</v>
       </c>
       <c r="F4" s="7">
-        <f>F3-C3*5</f>
-        <v>10003</v>
+        <f>F3-C3*5-(C3*5*0.01)</f>
+        <v>10499.1</v>
       </c>
       <c r="G4" s="7">
         <f>G3-5*C3</f>
-        <v>2000</v>
+        <v>2005</v>
       </c>
       <c r="H4" s="7">
         <f>H3-C3*10</f>
-        <v>400010</v>
+        <v>100019</v>
       </c>
       <c r="I4" s="7">
         <f>I3-C3/10</f>
-        <v>2290.1</v>
-      </c>
-      <c r="J4" s="4">
+        <v>2290.1999999999998</v>
+      </c>
+      <c r="J4" s="136">
         <f>J3-C3</f>
-        <v>22997</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>22994</v>
+      </c>
+      <c r="K4" s="139">
+        <f>K3-(C3/10*25)</f>
+        <v>-23995</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="47"/>
       <c r="C5" s="47"/>
       <c r="D5" s="84">
         <f t="shared" ref="D5:I5" si="0">(D4/D3)</f>
-        <v>-1.1123470522803115E-2</v>
+        <v>-0.11299120561059779</v>
       </c>
       <c r="E5" s="84">
         <f t="shared" si="0"/>
-        <v>7.6986984214898926E-2</v>
+        <v>0.15781493492818935</v>
       </c>
       <c r="F5" s="84">
         <f t="shared" si="0"/>
-        <v>0.16672222407413581</v>
+        <v>0.17214743642296151</v>
       </c>
       <c r="G5" s="84">
         <f t="shared" si="0"/>
-        <v>3.8465237042023273E-2</v>
+        <v>3.8561400134628332E-2</v>
       </c>
       <c r="H5" s="84">
         <f t="shared" si="0"/>
-        <v>0.80001999999999995</v>
+        <v>0.50009750048750246</v>
       </c>
       <c r="I5" s="84">
         <f t="shared" si="0"/>
-        <v>0.6960790273556231</v>
+        <v>0.69610942249240115</v>
       </c>
       <c r="J5" s="84">
         <f>(J4/J3)</f>
-        <v>0.69696326827494237</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.69695683802133845</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
         <v>198</v>
       </c>
       <c r="C6" s="47">
         <f>C3/100</f>
-        <v>99.99</v>
+        <v>99.98</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
         <f>E3/200</f>
-        <v>108.33</v>
+        <v>118.715</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -4852,10 +5375,12 @@
       <c r="I6" s="47"/>
       <c r="J6" s="47"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>801</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -4863,7 +5388,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="80" t="s">
         <v>3</v>
@@ -4888,13 +5413,13 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="86">
-        <v>24995</v>
+        <v>24484</v>
       </c>
       <c r="D9" s="18">
-        <v>275325</v>
+        <v>267178</v>
       </c>
       <c r="E9" s="18">
         <v>1379988</v>
@@ -4913,37 +5438,37 @@
       </c>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7">
-        <f>D9-10*C9</f>
-        <v>25375</v>
+        <f>D9-10*C9-(10*C9*0.01)</f>
+        <v>19889.599999999999</v>
       </c>
       <c r="E10" s="7">
         <f>E9-50*C9</f>
-        <v>130238</v>
+        <v>155788</v>
       </c>
       <c r="F10" s="7">
         <f>F9-50*C9</f>
-        <v>-49753</v>
+        <v>-24203</v>
       </c>
       <c r="G10" s="7">
         <f>G9-50*C9</f>
-        <v>-149752</v>
+        <v>-124202</v>
       </c>
       <c r="H10" s="7">
         <f>H9-50*C9</f>
-        <v>100250</v>
+        <v>125800</v>
       </c>
       <c r="I10" s="4">
         <f>I9-200*C9</f>
-        <v>1500999</v>
+        <v>1603199</v>
       </c>
       <c r="J10" s="1"/>
     </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="118"/>
       <c r="C13" s="119" t="s">
         <v>508</v>
@@ -4961,7 +5486,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="121" t="s">
         <v>183</v>
       </c>
@@ -4981,7 +5506,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="123" t="s">
         <v>57</v>
       </c>
@@ -5001,6 +5526,35 @@
       <c r="G15" s="126">
         <f>G14-(4*C14+10000)</f>
         <v>150004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>567993</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>299999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>700000</v>
+      </c>
+      <c r="B23">
+        <f>A23-B20</f>
+        <v>132007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f>B22-B23</f>
+        <v>167992</v>
+      </c>
+      <c r="C24" s="127">
+        <f>(B24/A23)</f>
+        <v>0.23998857142857144</v>
       </c>
     </row>
   </sheetData>
@@ -5221,29 +5775,29 @@
         <f>Comparatifs!B27</f>
         <v>0</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="128" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129"/>
       <c r="G2" s="8">
         <f>Comparatifs!B28+B10</f>
         <v>0</v>
       </c>
-      <c r="H2" s="127" t="s">
+      <c r="H2" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="127"/>
-      <c r="J2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="129"/>
       <c r="L2" s="8">
         <f>Comparatifs!B29+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="127" t="s">
+      <c r="M2" s="128" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="127"/>
-      <c r="O2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -5610,29 +6164,29 @@
         <f>Comparatifs!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="127" t="s">
+      <c r="C13" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
       <c r="G13" s="8">
         <f>Comparatifs!B14+B21</f>
         <v>0</v>
       </c>
-      <c r="H13" s="127" t="s">
+      <c r="H13" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="127"/>
-      <c r="J13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="129"/>
       <c r="L13" s="8">
         <f>Comparatifs!B13+G20</f>
         <v>0</v>
       </c>
-      <c r="M13" s="127" t="s">
+      <c r="M13" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="127"/>
-      <c r="O13" s="128"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="129"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
@@ -5999,29 +6553,29 @@
         <f>Comparatifs!B15</f>
         <v>5</v>
       </c>
-      <c r="C24" s="127" t="s">
+      <c r="C24" s="128" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129"/>
       <c r="G24" s="8">
         <f>Comparatifs!B16+B32</f>
         <v>5</v>
       </c>
-      <c r="H24" s="127" t="s">
+      <c r="H24" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="127"/>
-      <c r="J24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="129"/>
       <c r="L24" s="8">
         <f>Comparatifs!B17+G31</f>
         <v>5</v>
       </c>
-      <c r="M24" s="127" t="s">
+      <c r="M24" s="128" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="127"/>
-      <c r="O24" s="128"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="129"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -6388,29 +6942,29 @@
         <f>Comparatifs!B18</f>
         <v>0</v>
       </c>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="127"/>
-      <c r="E35" s="128"/>
+      <c r="D35" s="128"/>
+      <c r="E35" s="129"/>
       <c r="G35" s="8">
         <f>Comparatifs!B19+B43</f>
         <v>0</v>
       </c>
-      <c r="H35" s="127" t="s">
+      <c r="H35" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="127"/>
-      <c r="J35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="129"/>
       <c r="L35" s="8">
         <f>Comparatifs!B20+G42</f>
         <v>0</v>
       </c>
-      <c r="M35" s="127" t="s">
+      <c r="M35" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="127"/>
-      <c r="O35" s="128"/>
+      <c r="N35" s="128"/>
+      <c r="O35" s="129"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
@@ -6777,29 +7331,29 @@
         <f>Comparatifs!B21</f>
         <v>0</v>
       </c>
-      <c r="C46" s="127" t="s">
+      <c r="C46" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="127"/>
-      <c r="E46" s="128"/>
+      <c r="D46" s="128"/>
+      <c r="E46" s="129"/>
       <c r="G46" s="8">
         <f>Comparatifs!B22+B54</f>
         <v>0</v>
       </c>
-      <c r="H46" s="127" t="s">
+      <c r="H46" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="127"/>
-      <c r="J46" s="128"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="129"/>
       <c r="L46" s="8">
         <f>Comparatifs!B23+G53</f>
         <v>0</v>
       </c>
-      <c r="M46" s="127" t="s">
+      <c r="M46" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="127"/>
-      <c r="O46" s="128"/>
+      <c r="N46" s="128"/>
+      <c r="O46" s="129"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
@@ -7166,29 +7720,29 @@
         <f>Comparatifs!B24</f>
         <v>5</v>
       </c>
-      <c r="C57" s="127" t="s">
+      <c r="C57" s="128" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="127"/>
-      <c r="E57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="129"/>
       <c r="G57" s="8">
         <f>Comparatifs!B25+B65</f>
         <v>5</v>
       </c>
-      <c r="H57" s="127" t="s">
+      <c r="H57" s="128" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="127"/>
-      <c r="J57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="129"/>
       <c r="L57" s="8">
         <f>Comparatifs!B26+G64</f>
         <v>5</v>
       </c>
-      <c r="M57" s="127" t="s">
+      <c r="M57" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="N57" s="127"/>
-      <c r="O57" s="128"/>
+      <c r="N57" s="128"/>
+      <c r="O57" s="129"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -7555,29 +8109,29 @@
         <f>Comparatifs!B30</f>
         <v>5</v>
       </c>
-      <c r="C68" s="127" t="s">
+      <c r="C68" s="128" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="127"/>
-      <c r="E68" s="128"/>
+      <c r="D68" s="128"/>
+      <c r="E68" s="129"/>
       <c r="G68" s="8">
         <f>Comparatifs!B31+B76</f>
         <v>5</v>
       </c>
-      <c r="H68" s="127" t="s">
+      <c r="H68" s="128" t="s">
         <v>104</v>
       </c>
-      <c r="I68" s="127"/>
-      <c r="J68" s="128"/>
+      <c r="I68" s="128"/>
+      <c r="J68" s="129"/>
       <c r="L68" s="8">
         <f>Comparatifs!B32+G75</f>
         <v>5</v>
       </c>
-      <c r="M68" s="127" t="s">
+      <c r="M68" s="128" t="s">
         <v>106</v>
       </c>
-      <c r="N68" s="127"/>
-      <c r="O68" s="128"/>
+      <c r="N68" s="128"/>
+      <c r="O68" s="129"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
@@ -7944,29 +8498,29 @@
         <f>Comparatifs!B33</f>
         <v>5</v>
       </c>
-      <c r="C79" s="127" t="s">
+      <c r="C79" s="128" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="127"/>
-      <c r="E79" s="128"/>
+      <c r="D79" s="128"/>
+      <c r="E79" s="129"/>
       <c r="G79" s="8">
         <f>Comparatifs!B34+B87</f>
         <v>5</v>
       </c>
-      <c r="H79" s="127" t="s">
+      <c r="H79" s="128" t="s">
         <v>114</v>
       </c>
-      <c r="I79" s="127"/>
-      <c r="J79" s="128"/>
+      <c r="I79" s="128"/>
+      <c r="J79" s="129"/>
       <c r="L79" s="8">
         <f>Comparatifs!B35+G86</f>
         <v>5</v>
       </c>
-      <c r="M79" s="127" t="s">
+      <c r="M79" s="128" t="s">
         <v>116</v>
       </c>
-      <c r="N79" s="127"/>
-      <c r="O79" s="128"/>
+      <c r="N79" s="128"/>
+      <c r="O79" s="129"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
@@ -8333,29 +8887,29 @@
         <f>Comparatifs!B36</f>
         <v>0</v>
       </c>
-      <c r="C90" s="127" t="s">
+      <c r="C90" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="127"/>
-      <c r="E90" s="128"/>
+      <c r="D90" s="128"/>
+      <c r="E90" s="129"/>
       <c r="G90" s="8">
         <f>Comparatifs!B37+B98</f>
         <v>0</v>
       </c>
-      <c r="H90" s="127" t="s">
+      <c r="H90" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="127"/>
-      <c r="J90" s="128"/>
+      <c r="I90" s="128"/>
+      <c r="J90" s="129"/>
       <c r="L90" s="8">
         <f>Comparatifs!B38+G97</f>
         <v>0</v>
       </c>
-      <c r="M90" s="127" t="s">
+      <c r="M90" s="128" t="s">
         <v>125</v>
       </c>
-      <c r="N90" s="127"/>
-      <c r="O90" s="128"/>
+      <c r="N90" s="128"/>
+      <c r="O90" s="129"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
@@ -8718,17 +9272,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="M68:O68"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="M90:O90"/>
@@ -8745,6 +9288,17 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="M68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8818,16 +9372,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -10050,25 +10604,25 @@
         <f>'Comparatifs Idoles'!B12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="127" t="s">
+      <c r="C2" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="127"/>
-      <c r="E2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="129"/>
       <c r="G2" s="8">
         <f>'Comparatifs Idoles'!B13</f>
         <v>0</v>
       </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="128"/>
+      <c r="H2" s="128"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="129"/>
       <c r="L2" s="8">
         <f>Comparatifs!B13+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="128"/>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="O2" s="129"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -10392,16 +10946,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="130" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="130"/>
-      <c r="D8" s="130"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="130"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="131"/>
+      <c r="E8" s="131"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="131"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="132"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -10618,11 +11172,11 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="127" t="s">
+      <c r="C9" s="128" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="127"/>
-      <c r="E9" s="132"/>
+      <c r="D9" s="128"/>
+      <c r="E9" s="133"/>
       <c r="F9" s="48"/>
       <c r="H9" t="s">
         <v>8</v>
@@ -10827,11 +11381,11 @@
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="128" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="127"/>
-      <c r="E20" s="132"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="133"/>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -11197,8 +11751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11262,54 +11816,54 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>9983</v>
+        <v>9600</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>9983</v>
+        <v>9600</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>29949</v>
+        <v>28800</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>89847</v>
+        <v>86400</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>35670</v>
+        <v>34973</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>111109</v>
+        <v>83926</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>5364.3</v>
+        <v>5823.27</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.16038687973086629</v>
+        <v>0.17650759157064022</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>0.17911449464088952</v>
+        <v>0.20219687500000003</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>20150.91</v>
+        <v>-3313.26</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>0.22428027646999898</v>
+        <v>-3.8347916666666669E-2</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>0.19136163587108157</v>
+        <v>-2.9478349974978002E-2</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11318,54 +11872,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>10698</v>
+        <v>9984</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>10698</v>
+        <v>9984</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>32094</v>
+        <v>29952</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>96282</v>
+        <v>89856</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>31800</v>
+        <v>47948</v>
       </c>
       <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>94997</v>
+        <v>94972</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>-612</v>
+        <v>17516.52</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>-9.2452830188678448E-3</v>
+        <v>0.3753232668724451</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>-1.9068984856982614E-2</v>
+        <v>0.58481971153846157</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>-2234.9700000000003</v>
+        <v>4166.28</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>-2.3212750046737712E-2</v>
+        <v>4.6366185897435894E-2</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>-1.3526742949777404E-2</v>
+        <v>5.3868508613064914E-2</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11374,54 +11928,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>9831</v>
+        <v>6493</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>9831</v>
+        <v>6493</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>29493</v>
+        <v>19479</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>88479</v>
+        <v>58437</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>24933</v>
+        <v>21903</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>45487</v>
+        <v>33201</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>-4809.33</v>
+        <v>2204.9699999999998</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>-0.18289014559018169</v>
+        <v>0.1106697712642104</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>-0.16306682941714984</v>
+        <v>0.11319728938857229</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>-43446.87</v>
+        <v>-25568.01</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>-0.49104160309225919</v>
+        <v>-0.43753118743261971</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>-0.94514916349726286</v>
+        <v>-0.76009758742206568</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11430,54 +11984,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>7685</v>
+        <v>6988</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>7685</v>
+        <v>6988</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>23055</v>
+        <v>20964</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>69165</v>
+        <v>62892</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>24328</v>
+        <v>22500</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>72444</v>
+        <v>67870</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>1029.72</v>
+        <v>1311</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>5.2326537323248878E-2</v>
+        <v>6.8266666666666698E-2</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>4.4663630448926482E-2</v>
+        <v>6.2535775615340586E-2</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>2554.56</v>
+        <v>4299.3</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>3.6934287573194537E-2</v>
+        <v>6.8360045792787635E-2</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>4.5262547622991534E-2</v>
+        <v>7.3346102843671712E-2</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11486,54 +12040,54 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>14973</v>
+        <v>11499</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>14973</v>
+        <v>11499</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>44919</v>
+        <v>34497</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>134757</v>
+        <v>103491</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>55954</v>
+        <v>35000</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>137951</v>
+        <v>143984</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>10475.459999999999</v>
+        <v>153</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>0.19721556993244449</v>
+        <v>1.4371428571428591E-2</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>0.23320777399318771</v>
+        <v>4.435168275502218E-3</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>1814.49</v>
+        <v>39053.160000000003</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>1.3464903492953983E-2</v>
+        <v>0.37735803113314204</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>2.3153148581742777E-2</v>
+        <v>0.28123263695966216</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11542,54 +12096,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>18990</v>
+        <v>17218</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>18990</v>
+        <v>17218</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>56970</v>
+        <v>51654</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>170910</v>
+        <v>154962</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>56789</v>
+        <v>55762</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>168484</v>
+        <v>124882</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>-748.89</v>
+        <v>3550.38</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>-3.1872369649050825E-3</v>
+        <v>7.3670241383020696E-2</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>-1.3145339652448657E-2</v>
+        <v>6.8733883145545363E-2</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>-4110.84</v>
+        <v>-31328.82</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>-2.4052659294365456E-2</v>
+        <v>-0.20217098385410617</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>-1.4398993376225633E-2</v>
+        <v>-0.24086737880559239</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11598,54 +12152,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>13161</v>
+        <v>11000</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>13161</v>
+        <v>11000</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>39483</v>
+        <v>33000</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>118449</v>
+        <v>99000</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>40721</v>
+        <v>53686</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>127763</v>
+        <v>77966</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>830.79</v>
+        <v>20149.14</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>3.0402003880061867E-2</v>
+        <v>0.38531460716015353</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>2.1041714155459312E-2</v>
+        <v>0.61058000000000001</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>8036.37</v>
+        <v>-21813.66</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>6.7846668186308037E-2</v>
+        <v>-0.22034000000000001</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>7.2900605026494314E-2</v>
+        <v>-0.26978426493599783</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11654,54 +12208,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>35776</v>
+        <v>26391</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>35776</v>
+        <v>26391</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>107328</v>
+        <v>79173</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>321984</v>
+        <v>237519</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>131975</v>
+        <v>117809</v>
       </c>
       <c r="J11" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>349989</v>
+        <v>329986</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>23327.25</v>
+        <v>37457.910000000003</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>0.18675506724758473</v>
+        <v>0.32795457053366039</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>0.2173454271019678</v>
+        <v>0.47311469819256569</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>24505.11</v>
+        <v>89167.14</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>7.6106607781753127E-2</v>
+        <v>0.3754105566291539</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>8.0016800528016629E-2</v>
+        <v>0.2802149182086513</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -11710,36 +12264,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>42445</v>
+        <v>78674</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>200</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>42445</v>
+        <v>78674</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>127335</v>
+        <v>236022</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>127999</v>
+        <v>129830</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>-615.99</v>
+        <v>-107490.3</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>5.1875405276603503E-3</v>
+        <v>-0.81793114072248319</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>-4.8375544822711744E-3</v>
+        <v>-0.45542491801611718</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -11751,36 +12305,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>109741</v>
+        <v>112889</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>109741</v>
+        <v>112889</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>329223</v>
+        <v>338667</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>325998</v>
+        <v>319870</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>-6484.98</v>
+        <v>-21995.7</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>-9.8926987282130785E-3</v>
+        <v>-5.8764498077343852E-2</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>-1.9697833990942309E-2</v>
+        <v>-6.4947869145798087E-2</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -11792,36 +12346,36 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>101985</v>
+        <v>119969</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>101985</v>
+        <v>119969</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>305955</v>
+        <v>359907</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>299986</v>
+        <v>374798</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>-8968.86</v>
+        <v>11143.02</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>-1.9897595221110231E-2</v>
+        <v>3.9730734955896296E-2</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>-2.931431092807766E-2</v>
+        <v>3.096083154814994E-2</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -11833,36 +12387,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>104743</v>
+        <v>108254</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>104743</v>
+        <v>108254</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>314229</v>
+        <v>324762</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>278751</v>
+        <v>278747</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>-38265.51</v>
+        <v>-48802.47</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>-0.12727487973137319</v>
+        <v>-0.16507800980817722</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>-0.12177587046389736</v>
+        <v>-0.15027149112272989</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -11874,171 +12428,211 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>74944</v>
+        <v>75424</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>74944</v>
+        <v>75424</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>224832</v>
+        <v>226272</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>235794</v>
+        <v>219926</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>8604.06</v>
+        <v>-8545.26</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>4.6489732563169572E-2</v>
+        <v>-2.885516037212521E-2</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>3.8268840734415027E-2</v>
+        <v>-3.7765432753500215E-2</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="68"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="75" t="s">
         <v>144</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>35670</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+        <v>34973</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
         <v>145</v>
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>31800</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <v>47948</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="76" t="s">
         <v>146</v>
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>24933</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>21903</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>147</v>
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>24328</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="76" t="s">
         <v>148</v>
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>55954</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+        <v>35000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>798</v>
+      </c>
+      <c r="F22">
+        <v>2377093</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="76" t="s">
         <v>149</v>
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>56789</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>55762</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23">
+        <v>117809</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
         <v>150</v>
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>40721</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+        <v>53686</v>
+      </c>
+      <c r="F24">
+        <f>SUM(F22:F23)</f>
+        <v>2494902</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="76" t="s">
         <v>151</v>
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>131975</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+        <v>117809</v>
+      </c>
+      <c r="E25" t="s">
+        <v>798</v>
+      </c>
+      <c r="F25">
+        <v>1718683</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="76" t="s">
         <v>199</v>
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>127999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+        <v>129830</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <f>794625+328163</f>
+        <v>1122788</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="76" t="s">
         <v>152</v>
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>325998</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+        <v>319870</v>
+      </c>
+      <c r="F27">
+        <f>SUM(F25:F26)</f>
+        <v>2841471</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>153</v>
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>299986</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+        <v>374798</v>
+      </c>
+      <c r="E28" t="s">
+        <v>799</v>
+      </c>
+      <c r="F28">
+        <f>F27-F24</f>
+        <v>346569</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="76" t="s">
         <v>154</v>
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>278751</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>278747</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="77" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>235794</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>219926</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="68"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="75" t="s">
         <v>156</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>111109</v>
+        <v>83926</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -12047,7 +12641,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>94997</v>
+        <v>94972</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -12056,7 +12650,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>45487</v>
+        <v>33201</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -12065,7 +12659,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>72444</v>
+        <v>67870</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -12074,7 +12668,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>137951</v>
+        <v>143984</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -12083,7 +12677,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>168484</v>
+        <v>124882</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -12092,7 +12686,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>127763</v>
+        <v>77966</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12101,7 +12695,7 @@
       </c>
       <c r="C39" s="22" t="str">
         <f>Raw!D68</f>
-        <v>349989</v>
+        <v>329986</v>
       </c>
     </row>
   </sheetData>
@@ -12172,26 +12766,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W68"/>
+  <dimension ref="A1:AB68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="23" width="15.7109375" customWidth="1"/>
+    <col min="11" max="28" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>610</v>
+        <v>765</v>
       </c>
       <c r="K2" t="s">
         <v>220</v>
@@ -12232,15 +12826,30 @@
       <c r="W2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>643</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>611</v>
+        <v>766</v>
       </c>
       <c r="K4" t="s">
         <v>221</v>
@@ -12281,15 +12890,30 @@
       <c r="W4" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>644</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>703</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>612</v>
+        <v>767</v>
       </c>
       <c r="K6" t="s">
         <v>222</v>
@@ -12330,15 +12954,30 @@
       <c r="W6" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" t="s">
+        <v>612</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>645</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>671</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>704</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>613</v>
+        <v>768</v>
       </c>
       <c r="K8" t="s">
         <v>223</v>
@@ -12379,15 +13018,30 @@
       <c r="W8" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>646</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>705</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>614</v>
+        <v>769</v>
       </c>
       <c r="K10" t="s">
         <v>210</v>
@@ -12428,15 +13082,30 @@
       <c r="W10" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" t="s">
+        <v>614</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>647</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>673</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>706</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>615</v>
+        <v>770</v>
       </c>
       <c r="K12" t="s">
         <v>224</v>
@@ -12477,15 +13146,30 @@
       <c r="W12" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>674</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>707</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>616</v>
+        <v>771</v>
       </c>
       <c r="K14" t="s">
         <v>225</v>
@@ -12526,15 +13210,30 @@
       <c r="W14" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>708</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>617</v>
+        <v>772</v>
       </c>
       <c r="K16" t="s">
         <v>226</v>
@@ -12575,15 +13274,30 @@
       <c r="W16" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>709</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>618</v>
+        <v>773</v>
       </c>
       <c r="K18" t="s">
         <v>211</v>
@@ -12624,15 +13338,30 @@
       <c r="W18" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>677</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>710</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>619</v>
+        <v>774</v>
       </c>
       <c r="K20" t="s">
         <v>227</v>
@@ -12673,15 +13402,30 @@
       <c r="W20" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y20">
+        <v>112799</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>711</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>620</v>
+        <v>775</v>
       </c>
       <c r="K22" t="s">
         <v>228</v>
@@ -12722,15 +13466,30 @@
       <c r="W22" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>712</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>621</v>
+        <v>776</v>
       </c>
       <c r="K24" t="s">
         <v>229</v>
@@ -12771,15 +13530,30 @@
       <c r="W24" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>653</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>713</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>622</v>
+        <v>777</v>
       </c>
       <c r="K26" t="s">
         <v>230</v>
@@ -12820,15 +13594,30 @@
       <c r="W26" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y26">
+        <v>76590</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>681</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>458</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>623</v>
+        <v>778</v>
       </c>
       <c r="K28" t="s">
         <v>231</v>
@@ -12869,15 +13658,30 @@
       <c r="W28" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" t="s">
+        <v>623</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>654</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>682</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>714</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>624</v>
+        <v>779</v>
       </c>
       <c r="K30" t="s">
         <v>232</v>
@@ -12918,15 +13722,30 @@
       <c r="W30" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>683</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>715</v>
+      </c>
+      <c r="AB30" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>625</v>
+        <v>780</v>
       </c>
       <c r="K32" t="s">
         <v>212</v>
@@ -12967,15 +13786,30 @@
       <c r="W32" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>656</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>684</v>
+      </c>
+      <c r="AA32" t="s">
+        <v>716</v>
+      </c>
+      <c r="AB32" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>626</v>
+        <v>781</v>
       </c>
       <c r="K34" t="s">
         <v>233</v>
@@ -13016,15 +13850,30 @@
       <c r="W34" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34" t="s">
+        <v>626</v>
+      </c>
+      <c r="Y34">
+        <v>24197</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>685</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>378</v>
+      </c>
+      <c r="AB34" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>627</v>
+        <v>782</v>
       </c>
       <c r="K36" t="s">
         <v>209</v>
@@ -13065,15 +13914,30 @@
       <c r="W36" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36" t="s">
+        <v>627</v>
+      </c>
+      <c r="Y36">
+        <v>51995</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>686</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>717</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>628</v>
+        <v>783</v>
       </c>
       <c r="K38" t="s">
         <v>213</v>
@@ -13114,15 +13978,30 @@
       <c r="W38" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>657</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>718</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>629</v>
+        <v>784</v>
       </c>
       <c r="K40" t="s">
         <v>214</v>
@@ -13163,15 +14042,30 @@
       <c r="W40" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X40" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>688</v>
+      </c>
+      <c r="AA40" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB40">
+        <v>53792</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>630</v>
+        <v>785</v>
       </c>
       <c r="K42" t="s">
         <v>234</v>
@@ -13212,15 +14106,30 @@
       <c r="W42" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>659</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>689</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>720</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>599</v>
+        <v>786</v>
       </c>
       <c r="K44" t="s">
         <v>215</v>
@@ -13261,15 +14170,30 @@
       <c r="W44" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>660</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>690</v>
+      </c>
+      <c r="AA44" t="s">
+        <v>721</v>
+      </c>
+      <c r="AB44" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>631</v>
+        <v>787</v>
       </c>
       <c r="K46" t="s">
         <v>235</v>
@@ -13310,15 +14234,30 @@
       <c r="W46" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46" t="s">
+        <v>631</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>661</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>722</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>632</v>
+        <v>788</v>
       </c>
       <c r="K48" t="s">
         <v>216</v>
@@ -13359,15 +14298,30 @@
       <c r="W48" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" t="s">
+        <v>632</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>662</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>662</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="K50" t="s">
         <v>217</v>
@@ -13408,15 +14362,30 @@
       <c r="W50" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50" t="s">
+        <v>633</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>663</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>663</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>723</v>
+      </c>
+      <c r="AB50" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>634</v>
+        <v>789</v>
       </c>
       <c r="K52" t="s">
         <v>218</v>
@@ -13457,15 +14426,30 @@
       <c r="W52" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X52" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>664</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>693</v>
+      </c>
+      <c r="AA52" t="s">
+        <v>724</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>635</v>
+        <v>790</v>
       </c>
       <c r="K54" t="s">
         <v>236</v>
@@ -13506,15 +14490,30 @@
       <c r="W54" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X54" t="s">
+        <v>635</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>388</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>694</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>725</v>
+      </c>
+      <c r="AB54" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>636</v>
+        <v>791</v>
       </c>
       <c r="K56" t="s">
         <v>219</v>
@@ -13555,15 +14554,30 @@
       <c r="W56" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X56" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>665</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>695</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>726</v>
+      </c>
+      <c r="AB56" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>637</v>
+        <v>792</v>
       </c>
       <c r="K58" t="s">
         <v>237</v>
@@ -13604,15 +14618,30 @@
       <c r="W58" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X58" t="s">
+        <v>637</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>666</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>696</v>
+      </c>
+      <c r="AA58" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB58" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>638</v>
+        <v>793</v>
       </c>
       <c r="K60" t="s">
         <v>238</v>
@@ -13653,15 +14682,30 @@
       <c r="W60" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X60" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>697</v>
+      </c>
+      <c r="AA60" t="s">
+        <v>728</v>
+      </c>
+      <c r="AB60" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>639</v>
+        <v>794</v>
       </c>
       <c r="K62" t="s">
         <v>208</v>
@@ -13702,15 +14746,30 @@
       <c r="W62" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X62" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y62">
+        <v>139997</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>698</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>729</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>640</v>
+        <v>795</v>
       </c>
       <c r="K64" t="s">
         <v>239</v>
@@ -13751,15 +14810,30 @@
       <c r="W64" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X64" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>699</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>730</v>
+      </c>
+      <c r="AB64" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>641</v>
+        <v>796</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -13800,15 +14874,30 @@
       <c r="W66" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X66" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y66">
+        <v>106969</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>700</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>731</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>642</v>
+        <v>797</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -13848,6 +14937,21 @@
       </c>
       <c r="W68" t="s">
         <v>609</v>
+      </c>
+      <c r="X68" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y68">
+        <v>349966</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>701</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>732</v>
+      </c>
+      <c r="AB68" t="s">
+        <v>764</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="868">
   <si>
     <t>Ardonite</t>
   </si>
@@ -581,9 +581,6 @@
     <t>manque 8</t>
   </si>
   <si>
-    <t>Rose</t>
-  </si>
-  <si>
     <t>galet boucané</t>
   </si>
   <si>
@@ -2433,6 +2430,204 @@
   </si>
   <si>
     <t>Coffre de loterie</t>
+  </si>
+  <si>
+    <t>9379</t>
+  </si>
+  <si>
+    <t>9892</t>
+  </si>
+  <si>
+    <t>5691</t>
+  </si>
+  <si>
+    <t>6677</t>
+  </si>
+  <si>
+    <t>11495</t>
+  </si>
+  <si>
+    <t>15480</t>
+  </si>
+  <si>
+    <t>13892</t>
+  </si>
+  <si>
+    <t>28997</t>
+  </si>
+  <si>
+    <t>68990</t>
+  </si>
+  <si>
+    <t>112869</t>
+  </si>
+  <si>
+    <t>119971</t>
+  </si>
+  <si>
+    <t>99994</t>
+  </si>
+  <si>
+    <t>75068</t>
+  </si>
+  <si>
+    <t>34899</t>
+  </si>
+  <si>
+    <t>34792</t>
+  </si>
+  <si>
+    <t>19969</t>
+  </si>
+  <si>
+    <t>22395</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>52392</t>
+  </si>
+  <si>
+    <t>99891</t>
+  </si>
+  <si>
+    <t>129829</t>
+  </si>
+  <si>
+    <t>319799</t>
+  </si>
+  <si>
+    <t>376688</t>
+  </si>
+  <si>
+    <t>275997</t>
+  </si>
+  <si>
+    <t>189998</t>
+  </si>
+  <si>
+    <t>82983</t>
+  </si>
+  <si>
+    <t>94974</t>
+  </si>
+  <si>
+    <t>33196</t>
+  </si>
+  <si>
+    <t>66974</t>
+  </si>
+  <si>
+    <t>143982</t>
+  </si>
+  <si>
+    <t>124883</t>
+  </si>
+  <si>
+    <t>77656</t>
+  </si>
+  <si>
+    <t>8731</t>
+  </si>
+  <si>
+    <t>9354</t>
+  </si>
+  <si>
+    <t>5250</t>
+  </si>
+  <si>
+    <t>6250</t>
+  </si>
+  <si>
+    <t>11200</t>
+  </si>
+  <si>
+    <t>14500</t>
+  </si>
+  <si>
+    <t>13888</t>
+  </si>
+  <si>
+    <t>68488</t>
+  </si>
+  <si>
+    <t>112994</t>
+  </si>
+  <si>
+    <t>124992</t>
+  </si>
+  <si>
+    <t>99794</t>
+  </si>
+  <si>
+    <t>72899</t>
+  </si>
+  <si>
+    <t>34923</t>
+  </si>
+  <si>
+    <t>34872</t>
+  </si>
+  <si>
+    <t>19956</t>
+  </si>
+  <si>
+    <t>21495</t>
+  </si>
+  <si>
+    <t>34499</t>
+  </si>
+  <si>
+    <t>54874</t>
+  </si>
+  <si>
+    <t>51991</t>
+  </si>
+  <si>
+    <t>99878</t>
+  </si>
+  <si>
+    <t>129832</t>
+  </si>
+  <si>
+    <t>319785</t>
+  </si>
+  <si>
+    <t>376682</t>
+  </si>
+  <si>
+    <t>275994</t>
+  </si>
+  <si>
+    <t>188990</t>
+  </si>
+  <si>
+    <t>82494</t>
+  </si>
+  <si>
+    <t>94969</t>
+  </si>
+  <si>
+    <t>33193</t>
+  </si>
+  <si>
+    <t>66962</t>
+  </si>
+  <si>
+    <t>143897</t>
+  </si>
+  <si>
+    <t>147797</t>
+  </si>
+  <si>
+    <t>77648</t>
+  </si>
+  <si>
+    <t>319997</t>
+  </si>
+  <si>
+    <t>Rose des sables</t>
   </si>
 </sst>
 </file>
@@ -3596,6 +3791,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3612,20 +3821,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5207,12 +5402,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" customWidth="1"/>
@@ -5220,38 +5416,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F1" s="134" t="s">
-        <v>800</v>
+      <c r="F1" s="128" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
+        <v>867</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>185</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>186</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="J2" s="135" t="s">
-        <v>191</v>
-      </c>
-      <c r="K2" s="137" t="s">
-        <v>802</v>
+      <c r="K2" s="131" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
@@ -5259,16 +5455,16 @@
         <v>183</v>
       </c>
       <c r="C3" s="85">
-        <v>9998</v>
+        <v>9779</v>
       </c>
       <c r="D3" s="2">
         <v>8983</v>
       </c>
       <c r="E3" s="2">
-        <v>23743</v>
+        <v>21843</v>
       </c>
       <c r="F3" s="2">
-        <v>60989</v>
+        <v>60798</v>
       </c>
       <c r="G3" s="2">
         <v>51995</v>
@@ -5282,8 +5478,8 @@
       <c r="J3" s="100">
         <v>32992</v>
       </c>
-      <c r="K3" s="138">
-        <v>1000</v>
+      <c r="K3" s="132">
+        <v>49997</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5293,35 +5489,35 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7">
         <f>D3-C3</f>
-        <v>-1015</v>
+        <v>-796</v>
       </c>
       <c r="E4" s="7">
         <f>E3-C3*2</f>
-        <v>3747</v>
+        <v>2285</v>
       </c>
       <c r="F4" s="7">
         <f>F3-C3*5-(C3*5*0.01)</f>
-        <v>10499.1</v>
+        <v>11414.05</v>
       </c>
       <c r="G4" s="7">
         <f>G3-5*C3</f>
-        <v>2005</v>
+        <v>3100</v>
       </c>
       <c r="H4" s="7">
         <f>H3-C3*10</f>
-        <v>100019</v>
+        <v>102209</v>
       </c>
       <c r="I4" s="7">
         <f>I3-C3/10</f>
-        <v>2290.1999999999998</v>
-      </c>
-      <c r="J4" s="136">
+        <v>2312.1</v>
+      </c>
+      <c r="J4" s="130">
         <f>J3-C3</f>
-        <v>22994</v>
-      </c>
-      <c r="K4" s="139">
+        <v>23213</v>
+      </c>
+      <c r="K4" s="133">
         <f>K3-(C3/10*25)</f>
-        <v>-23995</v>
+        <v>25549.5</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -5329,45 +5525,45 @@
       <c r="C5" s="47"/>
       <c r="D5" s="84">
         <f t="shared" ref="D5:I5" si="0">(D4/D3)</f>
-        <v>-0.11299120561059779</v>
+        <v>-8.8611822331069803E-2</v>
       </c>
       <c r="E5" s="84">
         <f t="shared" si="0"/>
-        <v>0.15781493492818935</v>
+        <v>0.10461017259533947</v>
       </c>
       <c r="F5" s="84">
         <f t="shared" si="0"/>
-        <v>0.17214743642296151</v>
+        <v>0.18773726109411493</v>
       </c>
       <c r="G5" s="84">
         <f t="shared" si="0"/>
-        <v>3.8561400134628332E-2</v>
+        <v>5.9621117415136073E-2</v>
       </c>
       <c r="H5" s="84">
         <f t="shared" si="0"/>
-        <v>0.50009750048750246</v>
+        <v>0.51104755523777623</v>
       </c>
       <c r="I5" s="84">
         <f t="shared" si="0"/>
-        <v>0.69610942249240115</v>
+        <v>0.70276595744680848</v>
       </c>
       <c r="J5" s="84">
         <f>(J4/J3)</f>
-        <v>0.69695683802133845</v>
+        <v>0.70359481086323961</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="47">
         <f>C3/100</f>
-        <v>99.98</v>
+        <v>97.79</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
         <f>E3/200</f>
-        <v>118.715</v>
+        <v>109.215</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -5379,7 +5575,7 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -5394,32 +5590,32 @@
         <v>3</v>
       </c>
       <c r="D8" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="F8" s="81" t="s">
         <v>193</v>
       </c>
-      <c r="F8" s="81" t="s">
+      <c r="G8" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="H8" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="H8" s="81" t="s">
+      <c r="I8" s="82" t="s">
         <v>196</v>
-      </c>
-      <c r="I8" s="82" t="s">
-        <v>197</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="86">
-        <v>24484</v>
+        <v>24874</v>
       </c>
       <c r="D9" s="18">
-        <v>267178</v>
+        <v>264989</v>
       </c>
       <c r="E9" s="18">
         <v>1379988</v>
@@ -5443,27 +5639,27 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7">
         <f>D9-10*C9-(10*C9*0.01)</f>
-        <v>19889.599999999999</v>
+        <v>13761.6</v>
       </c>
       <c r="E10" s="7">
         <f>E9-50*C9</f>
-        <v>155788</v>
+        <v>136288</v>
       </c>
       <c r="F10" s="7">
         <f>F9-50*C9</f>
-        <v>-24203</v>
+        <v>-43703</v>
       </c>
       <c r="G10" s="7">
         <f>G9-50*C9</f>
-        <v>-124202</v>
+        <v>-143702</v>
       </c>
       <c r="H10" s="7">
         <f>H9-50*C9</f>
-        <v>125800</v>
+        <v>106300</v>
       </c>
       <c r="I10" s="4">
         <f>I9-200*C9</f>
-        <v>1603199</v>
+        <v>1525199</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -5471,19 +5667,19 @@
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="118"/>
       <c r="C13" s="119" t="s">
+        <v>507</v>
+      </c>
+      <c r="D13" s="119" t="s">
         <v>508</v>
-      </c>
-      <c r="D13" s="119" t="s">
-        <v>509</v>
       </c>
       <c r="E13" s="119" t="s">
         <v>16</v>
       </c>
       <c r="F13" s="119" t="s">
+        <v>509</v>
+      </c>
+      <c r="G13" s="120" t="s">
         <v>510</v>
-      </c>
-      <c r="G13" s="120" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
@@ -5491,7 +5687,7 @@
         <v>183</v>
       </c>
       <c r="C14" s="117">
-        <v>309999</v>
+        <v>299998</v>
       </c>
       <c r="D14" s="116">
         <v>27999</v>
@@ -5500,7 +5696,7 @@
         <v>3200</v>
       </c>
       <c r="F14" s="116">
-        <v>309999</v>
+        <v>307998</v>
       </c>
       <c r="G14" s="122">
         <v>1400000</v>
@@ -5513,19 +5709,19 @@
       <c r="C15" s="124"/>
       <c r="D15" s="125">
         <f>D14-(C14/10)</f>
-        <v>-3000.9000000000015</v>
+        <v>-2000.7999999999993</v>
       </c>
       <c r="E15" s="125">
         <f>E14-(C14/100)</f>
-        <v>100.01000000000022</v>
+        <v>200.01999999999998</v>
       </c>
       <c r="F15" s="125">
         <f>F14-C14</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="G15" s="126">
         <f>G14-(4*C14+10000)</f>
-        <v>150004</v>
+        <v>190008</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5579,18 +5775,18 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" t="s">
         <v>282</v>
-      </c>
-      <c r="E1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B2" s="107" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="107" t="s">
         <v>273</v>
-      </c>
-      <c r="C2" s="107" t="s">
-        <v>274</v>
       </c>
       <c r="D2">
         <v>31498</v>
@@ -5606,18 +5802,18 @@
         <v>156</v>
       </c>
       <c r="I2" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="J2" s="112" t="s">
         <v>284</v>
-      </c>
-      <c r="J2" s="112" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B3" s="107" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C3" s="107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D3">
         <v>31900</v>
@@ -5633,18 +5829,18 @@
         <v>156</v>
       </c>
       <c r="I3" s="114" t="s">
+        <v>283</v>
+      </c>
+      <c r="J3" s="115" t="s">
         <v>284</v>
-      </c>
-      <c r="J3" s="115" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="39" x14ac:dyDescent="0.25">
       <c r="B4" s="107" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="109">
         <v>33999</v>
@@ -5660,18 +5856,18 @@
         <v>156</v>
       </c>
       <c r="I4" s="114" t="s">
+        <v>283</v>
+      </c>
+      <c r="J4" s="115" t="s">
         <v>284</v>
-      </c>
-      <c r="J4" s="115" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="107" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -5681,18 +5877,18 @@
         <v>156</v>
       </c>
       <c r="I5" s="114" t="s">
+        <v>283</v>
+      </c>
+      <c r="J5" s="115" t="s">
         <v>284</v>
-      </c>
-      <c r="J5" s="115" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="108" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="108" t="s">
         <v>278</v>
-      </c>
-      <c r="C7" s="108" t="s">
-        <v>279</v>
       </c>
       <c r="D7">
         <v>37667</v>
@@ -5707,10 +5903,10 @@
     </row>
     <row r="8" spans="2:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B8" s="108" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C8" s="108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8">
         <v>38500</v>
@@ -5725,10 +5921,10 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="108" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C9" s="108" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9">
         <v>46999</v>
@@ -5775,29 +5971,29 @@
         <f>Comparatifs!B27</f>
         <v>0</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135"/>
       <c r="G2" s="8">
         <f>Comparatifs!B28+B10</f>
         <v>0</v>
       </c>
-      <c r="H2" s="128" t="s">
+      <c r="H2" s="134" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="128"/>
-      <c r="J2" s="129"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
       <c r="L2" s="8">
         <f>Comparatifs!B29+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="128" t="s">
+      <c r="M2" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="135"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -6164,29 +6360,29 @@
         <f>Comparatifs!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="128" t="s">
+      <c r="C13" s="134" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="128"/>
-      <c r="E13" s="129"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="135"/>
       <c r="G13" s="8">
         <f>Comparatifs!B14+B21</f>
         <v>0</v>
       </c>
-      <c r="H13" s="128" t="s">
+      <c r="H13" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="128"/>
-      <c r="J13" s="129"/>
+      <c r="I13" s="134"/>
+      <c r="J13" s="135"/>
       <c r="L13" s="8">
         <f>Comparatifs!B13+G20</f>
         <v>0</v>
       </c>
-      <c r="M13" s="128" t="s">
+      <c r="M13" s="134" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="128"/>
-      <c r="O13" s="129"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="135"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
@@ -6553,29 +6749,29 @@
         <f>Comparatifs!B15</f>
         <v>5</v>
       </c>
-      <c r="C24" s="128" t="s">
+      <c r="C24" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="128"/>
-      <c r="E24" s="129"/>
+      <c r="D24" s="134"/>
+      <c r="E24" s="135"/>
       <c r="G24" s="8">
         <f>Comparatifs!B16+B32</f>
         <v>5</v>
       </c>
-      <c r="H24" s="128" t="s">
+      <c r="H24" s="134" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="128"/>
-      <c r="J24" s="129"/>
+      <c r="I24" s="134"/>
+      <c r="J24" s="135"/>
       <c r="L24" s="8">
         <f>Comparatifs!B17+G31</f>
         <v>5</v>
       </c>
-      <c r="M24" s="128" t="s">
+      <c r="M24" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="128"/>
-      <c r="O24" s="129"/>
+      <c r="N24" s="134"/>
+      <c r="O24" s="135"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -6942,29 +7138,29 @@
         <f>Comparatifs!B18</f>
         <v>0</v>
       </c>
-      <c r="C35" s="128" t="s">
+      <c r="C35" s="134" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="128"/>
-      <c r="E35" s="129"/>
+      <c r="D35" s="134"/>
+      <c r="E35" s="135"/>
       <c r="G35" s="8">
         <f>Comparatifs!B19+B43</f>
         <v>0</v>
       </c>
-      <c r="H35" s="128" t="s">
+      <c r="H35" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="128"/>
-      <c r="J35" s="129"/>
+      <c r="I35" s="134"/>
+      <c r="J35" s="135"/>
       <c r="L35" s="8">
         <f>Comparatifs!B20+G42</f>
         <v>0</v>
       </c>
-      <c r="M35" s="128" t="s">
+      <c r="M35" s="134" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="128"/>
-      <c r="O35" s="129"/>
+      <c r="N35" s="134"/>
+      <c r="O35" s="135"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
@@ -7331,29 +7527,29 @@
         <f>Comparatifs!B21</f>
         <v>0</v>
       </c>
-      <c r="C46" s="128" t="s">
+      <c r="C46" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="128"/>
-      <c r="E46" s="129"/>
+      <c r="D46" s="134"/>
+      <c r="E46" s="135"/>
       <c r="G46" s="8">
         <f>Comparatifs!B22+B54</f>
         <v>0</v>
       </c>
-      <c r="H46" s="128" t="s">
+      <c r="H46" s="134" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="128"/>
-      <c r="J46" s="129"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="135"/>
       <c r="L46" s="8">
         <f>Comparatifs!B23+G53</f>
         <v>0</v>
       </c>
-      <c r="M46" s="128" t="s">
+      <c r="M46" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="128"/>
-      <c r="O46" s="129"/>
+      <c r="N46" s="134"/>
+      <c r="O46" s="135"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
@@ -7720,29 +7916,29 @@
         <f>Comparatifs!B24</f>
         <v>5</v>
       </c>
-      <c r="C57" s="128" t="s">
+      <c r="C57" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="128"/>
-      <c r="E57" s="129"/>
+      <c r="D57" s="134"/>
+      <c r="E57" s="135"/>
       <c r="G57" s="8">
         <f>Comparatifs!B25+B65</f>
         <v>5</v>
       </c>
-      <c r="H57" s="128" t="s">
+      <c r="H57" s="134" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="128"/>
-      <c r="J57" s="129"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="135"/>
       <c r="L57" s="8">
         <f>Comparatifs!B26+G64</f>
         <v>5</v>
       </c>
-      <c r="M57" s="128" t="s">
+      <c r="M57" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="N57" s="128"/>
-      <c r="O57" s="129"/>
+      <c r="N57" s="134"/>
+      <c r="O57" s="135"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -8109,29 +8305,29 @@
         <f>Comparatifs!B30</f>
         <v>5</v>
       </c>
-      <c r="C68" s="128" t="s">
+      <c r="C68" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="128"/>
-      <c r="E68" s="129"/>
+      <c r="D68" s="134"/>
+      <c r="E68" s="135"/>
       <c r="G68" s="8">
         <f>Comparatifs!B31+B76</f>
         <v>5</v>
       </c>
-      <c r="H68" s="128" t="s">
+      <c r="H68" s="134" t="s">
         <v>104</v>
       </c>
-      <c r="I68" s="128"/>
-      <c r="J68" s="129"/>
+      <c r="I68" s="134"/>
+      <c r="J68" s="135"/>
       <c r="L68" s="8">
         <f>Comparatifs!B32+G75</f>
         <v>5</v>
       </c>
-      <c r="M68" s="128" t="s">
+      <c r="M68" s="134" t="s">
         <v>106</v>
       </c>
-      <c r="N68" s="128"/>
-      <c r="O68" s="129"/>
+      <c r="N68" s="134"/>
+      <c r="O68" s="135"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
@@ -8498,29 +8694,29 @@
         <f>Comparatifs!B33</f>
         <v>5</v>
       </c>
-      <c r="C79" s="128" t="s">
+      <c r="C79" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="128"/>
-      <c r="E79" s="129"/>
+      <c r="D79" s="134"/>
+      <c r="E79" s="135"/>
       <c r="G79" s="8">
         <f>Comparatifs!B34+B87</f>
         <v>5</v>
       </c>
-      <c r="H79" s="128" t="s">
+      <c r="H79" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="I79" s="128"/>
-      <c r="J79" s="129"/>
+      <c r="I79" s="134"/>
+      <c r="J79" s="135"/>
       <c r="L79" s="8">
         <f>Comparatifs!B35+G86</f>
         <v>5</v>
       </c>
-      <c r="M79" s="128" t="s">
+      <c r="M79" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="N79" s="128"/>
-      <c r="O79" s="129"/>
+      <c r="N79" s="134"/>
+      <c r="O79" s="135"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
@@ -8887,29 +9083,29 @@
         <f>Comparatifs!B36</f>
         <v>0</v>
       </c>
-      <c r="C90" s="128" t="s">
+      <c r="C90" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="128"/>
-      <c r="E90" s="129"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="135"/>
       <c r="G90" s="8">
         <f>Comparatifs!B37+B98</f>
         <v>0</v>
       </c>
-      <c r="H90" s="128" t="s">
+      <c r="H90" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="128"/>
-      <c r="J90" s="129"/>
+      <c r="I90" s="134"/>
+      <c r="J90" s="135"/>
       <c r="L90" s="8">
         <f>Comparatifs!B38+G97</f>
         <v>0</v>
       </c>
-      <c r="M90" s="128" t="s">
+      <c r="M90" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="N90" s="128"/>
-      <c r="O90" s="129"/>
+      <c r="N90" s="134"/>
+      <c r="O90" s="135"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
@@ -9309,8 +9505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9372,16 +9568,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -10604,25 +10800,25 @@
         <f>'Comparatifs Idoles'!B12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="128"/>
-      <c r="E2" s="129"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135"/>
       <c r="G2" s="8">
         <f>'Comparatifs Idoles'!B13</f>
         <v>0</v>
       </c>
-      <c r="H2" s="128"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="129"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="135"/>
       <c r="L2" s="8">
         <f>Comparatifs!B13+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="128"/>
-      <c r="N2" s="128"/>
-      <c r="O2" s="129"/>
+      <c r="M2" s="134"/>
+      <c r="N2" s="134"/>
+      <c r="O2" s="135"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -10946,16 +11142,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="131"/>
-      <c r="E8" s="131"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="131"/>
-      <c r="H8" s="131"/>
-      <c r="I8" s="132"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="138"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -11172,11 +11368,11 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="128" t="s">
+      <c r="C9" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="139"/>
       <c r="F9" s="48"/>
       <c r="H9" t="s">
         <v>8</v>
@@ -11381,11 +11577,11 @@
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="C20" s="128" t="s">
+      <c r="C20" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="128"/>
-      <c r="E20" s="133"/>
+      <c r="D20" s="134"/>
+      <c r="E20" s="139"/>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -11751,8 +11947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11764,7 +11960,7 @@
   <sheetData>
     <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E1" s="97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F1" s="98">
         <v>56195</v>
@@ -11814,486 +12010,486 @@
       <c r="B4" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12" t="str">
+      <c r="C4" s="12">
         <f>Raw!D2</f>
-        <v>9600</v>
+        <v>8094</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="71" t="str">
+      <c r="F4" s="71">
         <f>C4</f>
-        <v>9600</v>
+        <v>8094</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>28800</v>
+        <v>24282</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>86400</v>
-      </c>
-      <c r="I4" s="93" t="str">
+        <v>72846</v>
+      </c>
+      <c r="I4" s="93">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>34973</v>
-      </c>
-      <c r="J4" s="101" t="str">
+        <v>31447</v>
+      </c>
+      <c r="J4" s="101">
         <f>C32</f>
-        <v>83926</v>
+        <v>82991</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>5823.27</v>
+        <v>6850.53</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.17650759157064022</v>
+        <v>0.22784367348236712</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>0.20219687500000003</v>
+        <v>0.28212379540400295</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>-3313.26</v>
+        <v>9315.09</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>-3.8347916666666669E-2</v>
+        <v>0.12787373362984927</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>-2.9478349974978002E-2</v>
+        <v>0.12224217083780164</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="3" t="str">
+      <c r="C5" s="3">
         <f>Raw!D4</f>
-        <v>9984</v>
+        <v>9199</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="73" t="str">
+      <c r="F5" s="73">
         <f>C5</f>
-        <v>9984</v>
+        <v>9199</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>29952</v>
+        <v>27597</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>89856</v>
-      </c>
-      <c r="I5" s="91" t="str">
+        <v>82791</v>
+      </c>
+      <c r="I5" s="91">
         <f t="shared" si="0"/>
-        <v>47948</v>
-      </c>
-      <c r="J5" s="102" t="str">
+        <v>34465</v>
+      </c>
+      <c r="J5" s="102">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>94972</v>
+        <v>94990</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>17516.52</v>
+        <v>6523.35</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>0.3753232668724451</v>
+        <v>0.19927462643261284</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>0.58481971153846157</v>
+        <v>0.23637895423415589</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>4166.28</v>
+        <v>11249.1</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>4.6366185897435894E-2</v>
+        <v>0.13587346450701163</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>5.3868508613064914E-2</v>
+        <v>0.12842404463627755</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="3" t="str">
+      <c r="C6" s="3">
         <f>Raw!D6</f>
-        <v>6493</v>
+        <v>4681</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="73" t="str">
+      <c r="F6" s="73">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>6493</v>
+        <v>4681</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>19479</v>
+        <v>14043</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>58437</v>
-      </c>
-      <c r="I6" s="91" t="str">
+        <v>42129</v>
+      </c>
+      <c r="I6" s="91">
         <f t="shared" si="0"/>
-        <v>21903</v>
-      </c>
-      <c r="J6" s="102" t="str">
+        <v>18862</v>
+      </c>
+      <c r="J6" s="102">
         <f t="shared" si="3"/>
-        <v>33201</v>
+        <v>33199</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>2204.9699999999998</v>
+        <v>4630.38</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>0.1106697712642104</v>
+        <v>0.25548722298801829</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>0.11319728938857229</v>
+        <v>0.32972869045075837</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>-25568.01</v>
+        <v>-9261.99</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>-0.43753118743261971</v>
+        <v>-0.2198483230079043</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>-0.76009758742206568</v>
+        <v>-0.26898400554233559</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="3">
         <f>Raw!D8</f>
-        <v>6988</v>
+        <v>5663</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="73" t="str">
+      <c r="F7" s="73">
         <f t="shared" si="9"/>
-        <v>6988</v>
+        <v>5663</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>20964</v>
+        <v>16989</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>62892</v>
-      </c>
-      <c r="I7" s="91" t="str">
+        <v>50967</v>
+      </c>
+      <c r="I7" s="91">
         <f t="shared" si="0"/>
-        <v>22500</v>
-      </c>
-      <c r="J7" s="102" t="str">
+        <v>20848</v>
+      </c>
+      <c r="J7" s="102">
         <f t="shared" si="3"/>
-        <v>67870</v>
+        <v>59995</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>1311</v>
+        <v>3650.52</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>6.8266666666666698E-2</v>
+        <v>0.18510168841135843</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>6.2535775615340586E-2</v>
+        <v>0.21487550768144092</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>4299.3</v>
+        <v>8428.0499999999993</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>6.8360045792787635E-2</v>
+        <v>0.16536288186473599</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>7.3346102843671712E-2</v>
+        <v>0.15047920660055003</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="3">
         <f>Raw!D10</f>
-        <v>11499</v>
+        <v>11994</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="73" t="str">
+      <c r="F8" s="73">
         <f t="shared" si="9"/>
-        <v>11499</v>
+        <v>11994</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>34497</v>
+        <v>35982</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>103491</v>
-      </c>
-      <c r="I8" s="91" t="str">
+        <v>107946</v>
+      </c>
+      <c r="I8" s="91">
         <f t="shared" si="0"/>
-        <v>35000</v>
-      </c>
-      <c r="J8" s="102" t="str">
+        <v>34497</v>
+      </c>
+      <c r="J8" s="102">
         <f t="shared" si="3"/>
-        <v>143984</v>
+        <v>143793</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>153</v>
+        <v>-1829.97</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>1.4371428571428591E-2</v>
+        <v>-4.3047221497521493E-2</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>4.435168275502218E-3</v>
+        <v>-5.0857928964482241E-2</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>39053.160000000003</v>
+        <v>34409.07</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>0.37735803113314204</v>
+        <v>0.31876188094047025</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>0.28123263695966216</v>
+        <v>0.24929586280277904</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="3">
         <f>Raw!D12</f>
-        <v>17218</v>
+        <v>16547</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="73" t="str">
+      <c r="F9" s="73">
         <f t="shared" si="9"/>
-        <v>17218</v>
+        <v>16547</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>51654</v>
+        <v>49641</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>154962</v>
-      </c>
-      <c r="I9" s="91" t="str">
+        <v>148923</v>
+      </c>
+      <c r="I9" s="91">
         <f t="shared" si="0"/>
-        <v>55762</v>
-      </c>
-      <c r="J9" s="102" t="str">
+        <v>52178</v>
+      </c>
+      <c r="J9" s="102">
         <f t="shared" si="3"/>
-        <v>124882</v>
+        <v>146880</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>3550.38</v>
+        <v>2015.22</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>7.3670241383020696E-2</v>
+        <v>4.8622024608072412E-2</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>6.8733883145545363E-2</v>
+        <v>4.0595878406961987E-2</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>-31328.82</v>
+        <v>-3511.8</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>-0.20217098385410617</v>
+        <v>-2.3581313833323261E-2</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>-0.24086737880559239</v>
+        <v>-1.3909313725490202E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="3">
         <f>Raw!D14</f>
-        <v>11000</v>
+        <v>15986</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="73" t="str">
+      <c r="F10" s="73">
         <f t="shared" si="9"/>
-        <v>11000</v>
+        <v>15986</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>33000</v>
+        <v>47958</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>99000</v>
-      </c>
-      <c r="I10" s="91" t="str">
+        <v>143874</v>
+      </c>
+      <c r="I10" s="91">
         <f t="shared" si="0"/>
-        <v>53686</v>
-      </c>
-      <c r="J10" s="102" t="str">
+        <v>50572</v>
+      </c>
+      <c r="J10" s="102">
         <f t="shared" si="3"/>
-        <v>77966</v>
+        <v>106830</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>20149.14</v>
+        <v>2108.2799999999997</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>0.38531460716015353</v>
+        <v>5.1688681483824994E-2</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>0.61058000000000001</v>
+        <v>4.3960965845114469E-2</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-21813.66</v>
+        <v>-38112.300000000003</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>-0.22034000000000001</v>
+        <v>-0.26490053797072438</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>-0.26978426493599783</v>
+        <v>-0.34675652906486931</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="3">
         <f>Raw!D16</f>
-        <v>26391</v>
+        <v>31500</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="73" t="str">
+      <c r="F11" s="73">
         <f t="shared" si="9"/>
-        <v>26391</v>
+        <v>31500</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>79173</v>
+        <v>94500</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>237519</v>
-      </c>
-      <c r="I11" s="91" t="str">
+        <v>283500</v>
+      </c>
+      <c r="I11" s="91">
         <f t="shared" si="0"/>
-        <v>117809</v>
-      </c>
-      <c r="J11" s="102" t="str">
+        <v>94996</v>
+      </c>
+      <c r="J11" s="102">
         <f t="shared" si="3"/>
-        <v>329986</v>
+        <v>319939</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>37457.910000000003</v>
+        <v>-453.96000000000004</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>0.32795457053366039</v>
+        <v>5.2212724746305561E-3</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>0.47311469819256569</v>
+        <v>-4.8038095238095244E-3</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>89167.14</v>
+        <v>33239.61</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>0.3754105566291539</v>
+        <v>0.11724730158730159</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>0.2802149182086513</v>
+        <v>0.11389358596482457</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="95" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="3" t="str">
+        <v>201</v>
+      </c>
+      <c r="C12" s="3">
         <f>Raw!D18</f>
-        <v>78674</v>
+        <v>57949</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>200</v>
-      </c>
-      <c r="F12" s="73" t="str">
+        <v>199</v>
+      </c>
+      <c r="F12" s="73">
         <f>C12</f>
-        <v>78674</v>
+        <v>57949</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>236022</v>
+        <v>173847</v>
       </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="91" t="str">
+      <c r="I12" s="91">
         <f t="shared" si="0"/>
-        <v>129830</v>
+        <v>128928</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>-107490.3</v>
+        <v>-46208.28</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>-0.81793114072248319</v>
+        <v>-0.34840376023827258</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>-0.45542491801611718</v>
+        <v>-0.26579854699822258</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -12303,38 +12499,38 @@
       <c r="B13" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="3">
         <f>Raw!D20</f>
-        <v>112889</v>
+        <v>118590</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="73" t="str">
+      <c r="F13" s="73">
         <f t="shared" si="9"/>
-        <v>112889</v>
+        <v>118590</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>338667</v>
+        <v>355770</v>
       </c>
       <c r="H13" s="74"/>
-      <c r="I13" s="91" t="str">
+      <c r="I13" s="91">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>319870</v>
+        <v>319786</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>-21995.7</v>
+        <v>-39181.86</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>-5.8764498077343852E-2</v>
+        <v>-0.11252525126178137</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>-6.4947869145798087E-2</v>
+        <v>-0.11013255755122692</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -12344,38 +12540,38 @@
       <c r="B14" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="3">
         <f>Raw!D22</f>
-        <v>119969</v>
+        <v>129990</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="73" t="str">
+      <c r="F14" s="73">
         <f t="shared" si="9"/>
-        <v>119969</v>
+        <v>129990</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>359907</v>
+        <v>389970</v>
       </c>
       <c r="H14" s="74"/>
-      <c r="I14" s="91" t="str">
+      <c r="I14" s="91">
         <f t="shared" si="11"/>
-        <v>374798</v>
+        <v>397000</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>11143.02</v>
+        <v>3060</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>3.9730734955896296E-2</v>
+        <v>1.7707808564231708E-2</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>3.096083154814994E-2</v>
+        <v>7.8467574428802214E-3</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -12385,38 +12581,38 @@
       <c r="B15" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="3">
         <f>Raw!D24</f>
-        <v>108254</v>
+        <v>93991</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="73" t="str">
+      <c r="F15" s="73">
         <f t="shared" si="9"/>
-        <v>108254</v>
+        <v>93991</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>324762</v>
+        <v>281973</v>
       </c>
       <c r="H15" s="74"/>
-      <c r="I15" s="91" t="str">
+      <c r="I15" s="91">
         <f t="shared" si="11"/>
-        <v>278747</v>
+        <v>275997</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>-48802.47</v>
+        <v>-8735.9700000000012</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>-0.16507800980817722</v>
+        <v>-2.1652409265318084E-2</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>-0.15027149112272989</v>
+        <v>-3.0981583343086046E-2</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -12426,38 +12622,38 @@
       <c r="B16" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="4" t="str">
+      <c r="C16" s="4">
         <f>Raw!D26</f>
-        <v>75424</v>
+        <v>72847</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="73" t="str">
+      <c r="F16" s="73">
         <f t="shared" si="9"/>
-        <v>75424</v>
+        <v>72847</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>226272</v>
+        <v>218541</v>
       </c>
       <c r="H16" s="74"/>
-      <c r="I16" s="91" t="str">
+      <c r="I16" s="91">
         <f t="shared" si="11"/>
-        <v>219926</v>
+        <v>188988</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>-8545.26</v>
+        <v>-31442.880000000001</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>-2.885516037212521E-2</v>
+        <v>-0.15637500793701187</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>-3.7765432753500215E-2</v>
+        <v>-0.14387634356939888</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -12470,157 +12666,157 @@
       <c r="B18" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="20" t="str">
+      <c r="C18" s="20">
         <f>Raw!D28</f>
-        <v>34973</v>
+        <v>31447</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="21" t="str">
+      <c r="C19" s="21">
         <f>Raw!D30</f>
-        <v>47948</v>
+        <v>34465</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="21" t="str">
+      <c r="C20" s="21">
         <f>Raw!D32</f>
-        <v>21903</v>
+        <v>18862</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="21" t="str">
+      <c r="C21" s="21">
         <f>Raw!D34</f>
-        <v>22500</v>
+        <v>20848</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="21" t="str">
+      <c r="C22" s="21">
         <f>Raw!D36</f>
-        <v>35000</v>
+        <v>34497</v>
       </c>
       <c r="E22" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F22">
-        <v>2377093</v>
+        <v>2771974</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="21" t="str">
+      <c r="C23" s="21">
         <f>Raw!D38</f>
-        <v>55762</v>
+        <v>52178</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>117809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="21" t="str">
+      <c r="C24" s="21">
         <f>Raw!D40</f>
-        <v>53686</v>
+        <v>50572</v>
       </c>
       <c r="F24">
         <f>SUM(F22:F23)</f>
-        <v>2494902</v>
+        <v>2771974</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="21" t="str">
+      <c r="C25" s="21">
         <f>Raw!D42</f>
-        <v>117809</v>
+        <v>94996</v>
       </c>
       <c r="E25" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F25">
-        <v>1718683</v>
+        <v>1530592</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="C26" s="21" t="str">
+        <v>198</v>
+      </c>
+      <c r="C26" s="21">
         <f>Raw!D44</f>
-        <v>129830</v>
+        <v>128928</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <f>794625+328163</f>
-        <v>1122788</v>
+        <f>634314+828788</f>
+        <v>1463102</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="21" t="str">
+      <c r="C27" s="21">
         <f>Raw!D46</f>
-        <v>319870</v>
+        <v>319786</v>
       </c>
       <c r="F27">
         <f>SUM(F25:F26)</f>
-        <v>2841471</v>
+        <v>2993694</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="21" t="str">
+      <c r="C28" s="21">
         <f>Raw!D48</f>
-        <v>374798</v>
+        <v>397000</v>
       </c>
       <c r="E28" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F28">
         <f>F27-F24</f>
-        <v>346569</v>
+        <v>221720</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="21" t="str">
+      <c r="C29" s="21">
         <f>Raw!D50</f>
-        <v>278747</v>
+        <v>275997</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="22" t="str">
+      <c r="C30" s="22">
         <f>Raw!D52</f>
-        <v>219926</v>
+        <v>188988</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12630,72 +12826,72 @@
       <c r="B32" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="20" t="str">
+      <c r="C32" s="20">
         <f>Raw!D54</f>
-        <v>83926</v>
+        <v>82991</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="21" t="str">
+      <c r="C33" s="21">
         <f>Raw!D56</f>
-        <v>94972</v>
+        <v>94990</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="21" t="str">
+      <c r="C34" s="21">
         <f>Raw!D58</f>
-        <v>33201</v>
+        <v>33199</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="21" t="str">
+      <c r="C35" s="21">
         <f>Raw!D60</f>
-        <v>67870</v>
+        <v>59995</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="21" t="str">
+      <c r="C36" s="21">
         <f>Raw!D62</f>
-        <v>143984</v>
+        <v>143793</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="21" t="str">
+      <c r="C37" s="21">
         <f>Raw!D64</f>
-        <v>124882</v>
+        <v>146880</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="21" t="str">
+      <c r="C38" s="21">
         <f>Raw!D66</f>
-        <v>77966</v>
+        <v>106830</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="22" t="str">
+      <c r="C39" s="22">
         <f>Raw!D68</f>
-        <v>329986</v>
+        <v>319939</v>
       </c>
     </row>
   </sheetData>
@@ -12766,2144 +12962,2441 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB68"/>
+  <dimension ref="A1:AE68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="28" width="15.7109375" customWidth="1"/>
+    <col min="11" max="31" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>765</v>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>8094</v>
       </c>
       <c r="K2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="Q2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R2">
         <v>11894</v>
       </c>
       <c r="S2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="T2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="U2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="V2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="X2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Y2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="Z2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AA2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AB2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>764</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>802</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
-        <v>766</v>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>9199</v>
       </c>
       <c r="K4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N4">
         <v>9900</v>
       </c>
       <c r="O4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="P4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="Q4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="T4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="U4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="V4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="W4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="X4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="Y4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Z4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="AA4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AB4" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>765</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>803</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>767</v>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>4681</v>
       </c>
       <c r="K6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="P6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="Q6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="S6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="T6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="U6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="V6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="W6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="X6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="Y6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AA6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="AB6" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>766</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>804</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>768</v>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>5663</v>
       </c>
       <c r="K8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="O8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="P8" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="Q8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="R8" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S8" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="T8" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="U8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="V8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="W8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="X8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Y8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Z8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AA8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="AB8" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>805</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
-        <v>769</v>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>11994</v>
       </c>
       <c r="K10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="L10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="M10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="P10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Q10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="U10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="V10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="W10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="X10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="Y10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="Z10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="AA10" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="AB10" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+        <v>672</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>768</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>806</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>770</v>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>16547</v>
       </c>
       <c r="K12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L12" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="P12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Q12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="R12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="S12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="T12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="V12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="W12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="X12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Y12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="Z12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AA12" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AB12" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>769</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>15986</v>
+      </c>
+      <c r="K14" t="s">
+        <v>224</v>
+      </c>
+      <c r="L14" t="s">
+        <v>245</v>
+      </c>
+      <c r="M14" t="s">
+        <v>290</v>
+      </c>
+      <c r="N14" t="s">
+        <v>318</v>
+      </c>
+      <c r="O14" t="s">
+        <v>343</v>
+      </c>
+      <c r="P14" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>397</v>
+      </c>
+      <c r="R14" t="s">
+        <v>423</v>
+      </c>
+      <c r="S14" t="s">
+        <v>452</v>
+      </c>
+      <c r="T14" t="s">
+        <v>481</v>
+      </c>
+      <c r="U14" t="s">
+        <v>517</v>
+      </c>
+      <c r="V14" t="s">
+        <v>550</v>
+      </c>
+      <c r="W14" t="s">
+        <v>583</v>
+      </c>
+      <c r="X14" t="s">
+        <v>615</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>674</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>707</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>770</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>808</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>31500</v>
+      </c>
+      <c r="K16" t="s">
+        <v>225</v>
+      </c>
+      <c r="L16" t="s">
+        <v>246</v>
+      </c>
+      <c r="M16" t="s">
+        <v>291</v>
+      </c>
+      <c r="N16" t="s">
+        <v>319</v>
+      </c>
+      <c r="O16" t="s">
+        <v>344</v>
+      </c>
+      <c r="P16" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>398</v>
+      </c>
+      <c r="R16" t="s">
+        <v>398</v>
+      </c>
+      <c r="S16" t="s">
+        <v>453</v>
+      </c>
+      <c r="T16" t="s">
+        <v>482</v>
+      </c>
+      <c r="U16" t="s">
+        <v>518</v>
+      </c>
+      <c r="V16" t="s">
+        <v>551</v>
+      </c>
+      <c r="W16" t="s">
+        <v>584</v>
+      </c>
+      <c r="X16" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>649</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>708</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>738</v>
+      </c>
+      <c r="AC16" t="s">
         <v>771</v>
       </c>
-      <c r="K14" t="s">
-        <v>225</v>
-      </c>
-      <c r="L14" t="s">
-        <v>246</v>
-      </c>
-      <c r="M14" t="s">
-        <v>291</v>
-      </c>
-      <c r="N14" t="s">
-        <v>319</v>
-      </c>
-      <c r="O14" t="s">
-        <v>344</v>
-      </c>
-      <c r="P14" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>398</v>
-      </c>
-      <c r="R14" t="s">
-        <v>424</v>
-      </c>
-      <c r="S14" t="s">
-        <v>453</v>
-      </c>
-      <c r="T14" t="s">
-        <v>482</v>
-      </c>
-      <c r="U14" t="s">
-        <v>518</v>
-      </c>
-      <c r="V14" t="s">
-        <v>551</v>
-      </c>
-      <c r="W14" t="s">
-        <v>584</v>
-      </c>
-      <c r="X14" t="s">
-        <v>616</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>649</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>708</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="AD16" t="s">
+        <v>809</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>772</v>
-      </c>
-      <c r="K16" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" t="s">
-        <v>247</v>
-      </c>
-      <c r="M16" t="s">
-        <v>292</v>
-      </c>
-      <c r="N16" t="s">
-        <v>320</v>
-      </c>
-      <c r="O16" t="s">
-        <v>345</v>
-      </c>
-      <c r="P16" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>399</v>
-      </c>
-      <c r="R16" t="s">
-        <v>399</v>
-      </c>
-      <c r="S16" t="s">
-        <v>454</v>
-      </c>
-      <c r="T16" t="s">
-        <v>483</v>
-      </c>
-      <c r="U16" t="s">
-        <v>519</v>
-      </c>
-      <c r="V16" t="s">
-        <v>552</v>
-      </c>
-      <c r="W16" t="s">
-        <v>585</v>
-      </c>
-      <c r="X16" t="s">
-        <v>617</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>650</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>676</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>709</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>773</v>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>57949</v>
       </c>
       <c r="K18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L18">
         <v>37589</v>
       </c>
       <c r="M18" t="s">
+        <v>292</v>
+      </c>
+      <c r="N18" t="s">
+        <v>320</v>
+      </c>
+      <c r="O18" t="s">
+        <v>320</v>
+      </c>
+      <c r="P18" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>310</v>
+      </c>
+      <c r="R18" t="s">
+        <v>424</v>
+      </c>
+      <c r="S18" t="s">
+        <v>454</v>
+      </c>
+      <c r="T18" t="s">
+        <v>483</v>
+      </c>
+      <c r="U18" t="s">
+        <v>519</v>
+      </c>
+      <c r="V18" t="s">
+        <v>552</v>
+      </c>
+      <c r="W18" t="s">
+        <v>585</v>
+      </c>
+      <c r="X18" t="s">
+        <v>617</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>650</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>709</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>739</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>772</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>810</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>118590</v>
+      </c>
+      <c r="K20" t="s">
+        <v>226</v>
+      </c>
+      <c r="L20" t="s">
+        <v>247</v>
+      </c>
+      <c r="M20" t="s">
         <v>293</v>
       </c>
-      <c r="N18" t="s">
-        <v>321</v>
-      </c>
-      <c r="O18" t="s">
-        <v>321</v>
-      </c>
-      <c r="P18" t="s">
+      <c r="N20" t="s">
+        <v>293</v>
+      </c>
+      <c r="O20" t="s">
+        <v>345</v>
+      </c>
+      <c r="P20" t="s">
         <v>372</v>
       </c>
-      <c r="Q18" t="s">
-        <v>311</v>
-      </c>
-      <c r="R18" t="s">
+      <c r="Q20" t="s">
+        <v>399</v>
+      </c>
+      <c r="R20" t="s">
         <v>425</v>
       </c>
-      <c r="S18" t="s">
+      <c r="S20" t="s">
         <v>455</v>
       </c>
-      <c r="T18" t="s">
+      <c r="T20" t="s">
         <v>484</v>
       </c>
-      <c r="U18" t="s">
+      <c r="U20" t="s">
         <v>520</v>
       </c>
-      <c r="V18" t="s">
+      <c r="V20" t="s">
         <v>553</v>
       </c>
-      <c r="W18" t="s">
+      <c r="W20" t="s">
         <v>586</v>
       </c>
-      <c r="X18" t="s">
+      <c r="X20" t="s">
         <v>618</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>651</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>677</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>710</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>774</v>
-      </c>
-      <c r="K20" t="s">
-        <v>227</v>
-      </c>
-      <c r="L20" t="s">
-        <v>248</v>
-      </c>
-      <c r="M20" t="s">
-        <v>294</v>
-      </c>
-      <c r="N20" t="s">
-        <v>294</v>
-      </c>
-      <c r="O20" t="s">
-        <v>346</v>
-      </c>
-      <c r="P20" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>400</v>
-      </c>
-      <c r="R20" t="s">
-        <v>426</v>
-      </c>
-      <c r="S20" t="s">
-        <v>456</v>
-      </c>
-      <c r="T20" t="s">
-        <v>485</v>
-      </c>
-      <c r="U20" t="s">
-        <v>521</v>
-      </c>
-      <c r="V20" t="s">
-        <v>554</v>
-      </c>
-      <c r="W20" t="s">
-        <v>587</v>
-      </c>
-      <c r="X20" t="s">
-        <v>619</v>
       </c>
       <c r="Y20">
         <v>112799</v>
       </c>
       <c r="Z20" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="AA20" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AB20" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>773</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>811</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>775</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>129990</v>
       </c>
       <c r="K22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="M22">
         <v>119646</v>
       </c>
       <c r="N22" t="s">
+        <v>321</v>
+      </c>
+      <c r="O22" t="s">
+        <v>346</v>
+      </c>
+      <c r="P22" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>400</v>
+      </c>
+      <c r="R22" t="s">
+        <v>426</v>
+      </c>
+      <c r="S22" t="s">
+        <v>456</v>
+      </c>
+      <c r="T22" t="s">
+        <v>485</v>
+      </c>
+      <c r="U22" t="s">
+        <v>521</v>
+      </c>
+      <c r="V22" t="s">
+        <v>554</v>
+      </c>
+      <c r="W22" t="s">
+        <v>587</v>
+      </c>
+      <c r="X22" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>651</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>711</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>741</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>774</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>812</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>93991</v>
+      </c>
+      <c r="K24" t="s">
+        <v>228</v>
+      </c>
+      <c r="L24" t="s">
+        <v>249</v>
+      </c>
+      <c r="M24" t="s">
+        <v>294</v>
+      </c>
+      <c r="N24" t="s">
+        <v>294</v>
+      </c>
+      <c r="O24" t="s">
+        <v>347</v>
+      </c>
+      <c r="P24" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>401</v>
+      </c>
+      <c r="R24" t="s">
+        <v>427</v>
+      </c>
+      <c r="S24" t="s">
+        <v>401</v>
+      </c>
+      <c r="T24" t="s">
+        <v>486</v>
+      </c>
+      <c r="U24" t="s">
+        <v>522</v>
+      </c>
+      <c r="V24" t="s">
+        <v>555</v>
+      </c>
+      <c r="W24" t="s">
+        <v>588</v>
+      </c>
+      <c r="X24" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>652</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>712</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>742</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>775</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>813</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>72847</v>
+      </c>
+      <c r="K26" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="s">
+        <v>295</v>
+      </c>
+      <c r="N26" t="s">
         <v>322</v>
       </c>
-      <c r="O22" t="s">
-        <v>347</v>
-      </c>
-      <c r="P22" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>401</v>
-      </c>
-      <c r="R22" t="s">
-        <v>427</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="O26" t="s">
+        <v>348</v>
+      </c>
+      <c r="P26" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>402</v>
+      </c>
+      <c r="R26" t="s">
+        <v>428</v>
+      </c>
+      <c r="S26" t="s">
         <v>457</v>
       </c>
-      <c r="T22" t="s">
-        <v>486</v>
-      </c>
-      <c r="U22" t="s">
-        <v>522</v>
-      </c>
-      <c r="V22" t="s">
-        <v>555</v>
-      </c>
-      <c r="W22" t="s">
-        <v>588</v>
-      </c>
-      <c r="X22" t="s">
-        <v>620</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>652</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>712</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
-        <v>776</v>
-      </c>
-      <c r="K24" t="s">
-        <v>229</v>
-      </c>
-      <c r="L24" t="s">
-        <v>250</v>
-      </c>
-      <c r="M24" t="s">
-        <v>295</v>
-      </c>
-      <c r="N24" t="s">
-        <v>295</v>
-      </c>
-      <c r="O24" t="s">
-        <v>348</v>
-      </c>
-      <c r="P24" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>402</v>
-      </c>
-      <c r="R24" t="s">
-        <v>428</v>
-      </c>
-      <c r="S24" t="s">
-        <v>402</v>
-      </c>
-      <c r="T24" t="s">
+      <c r="T26" t="s">
         <v>487</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U26" t="s">
         <v>523</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V26" t="s">
         <v>556</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W26" t="s">
         <v>589</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X26" t="s">
         <v>621</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>653</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>680</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>713</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>777</v>
-      </c>
-      <c r="K26" t="s">
-        <v>230</v>
-      </c>
-      <c r="L26" t="s">
-        <v>251</v>
-      </c>
-      <c r="M26" t="s">
-        <v>296</v>
-      </c>
-      <c r="N26" t="s">
-        <v>323</v>
-      </c>
-      <c r="O26" t="s">
-        <v>349</v>
-      </c>
-      <c r="P26" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>403</v>
-      </c>
-      <c r="R26" t="s">
-        <v>429</v>
-      </c>
-      <c r="S26" t="s">
-        <v>458</v>
-      </c>
-      <c r="T26" t="s">
-        <v>488</v>
-      </c>
-      <c r="U26" t="s">
-        <v>524</v>
-      </c>
-      <c r="V26" t="s">
-        <v>557</v>
-      </c>
-      <c r="W26" t="s">
-        <v>590</v>
-      </c>
-      <c r="X26" t="s">
-        <v>622</v>
       </c>
       <c r="Y26">
         <v>76590</v>
       </c>
       <c r="Z26" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AA26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AB26" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>776</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>814</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>778</v>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>31447</v>
       </c>
       <c r="K28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M28" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N28" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P28" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="Q28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="R28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="S28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="U28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="V28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="W28" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="X28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Y28" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Z28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="AA28" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="AB28" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>777</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>815</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>779</v>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>34465</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M30" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N30">
         <v>31663</v>
       </c>
       <c r="O30" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="P30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q30" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="R30" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S30" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="T30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="U30" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="V30" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="W30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="X30" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="Y30" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Z30" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AA30" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="AB30" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>816</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
-        <v>780</v>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>18862</v>
       </c>
       <c r="K32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="L32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="N32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="P32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="Q32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="R32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="T32" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U32" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V32" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="W32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="X32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="Y32" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="Z32" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AA32" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="AB32" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+      <c r="AC32" t="s">
+        <v>779</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>817</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
-        <v>781</v>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>20848</v>
       </c>
       <c r="K34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="M34" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O34" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="Q34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="R34" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="T34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="U34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="V34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="W34" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="X34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="Y34">
         <v>24197</v>
       </c>
       <c r="Z34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AA34" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AB34" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+      <c r="AC34" t="s">
+        <v>780</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>818</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>782</v>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>34497</v>
       </c>
       <c r="K36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="M36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S36" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="T36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="U36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="V36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="W36" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="X36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="Y36">
         <v>51995</v>
       </c>
       <c r="Z36" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AA36" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="AB36" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
+        <v>748</v>
+      </c>
+      <c r="AC36" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>783</v>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>52178</v>
       </c>
       <c r="K38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L38" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="O38" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P38">
         <v>57998</v>
       </c>
       <c r="Q38" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="R38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S38" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="T38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="V38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="W38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="X38" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="Y38" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Z38" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AA38" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="AB38" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>782</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>819</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
-        <v>784</v>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>50572</v>
       </c>
       <c r="K40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N40" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="P40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="Q40" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="R40" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S40">
         <v>38060</v>
       </c>
       <c r="T40" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="V40" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="W40" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="X40" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="Y40" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Z40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="AA40" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="AB40">
         <v>53792</v>
       </c>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC40" t="s">
+        <v>783</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>820</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>785</v>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>94996</v>
       </c>
       <c r="K42" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M42" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N42">
         <v>110000</v>
       </c>
       <c r="O42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="P42" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>409</v>
+      </c>
+      <c r="R42" t="s">
+        <v>436</v>
+      </c>
+      <c r="S42" t="s">
+        <v>463</v>
+      </c>
+      <c r="T42" t="s">
+        <v>495</v>
+      </c>
+      <c r="U42" t="s">
+        <v>531</v>
+      </c>
+      <c r="V42" t="s">
+        <v>564</v>
+      </c>
+      <c r="W42" t="s">
+        <v>597</v>
+      </c>
+      <c r="X42" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>658</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>688</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>719</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>750</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>784</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>821</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>128928</v>
+      </c>
+      <c r="K44" t="s">
+        <v>214</v>
+      </c>
+      <c r="L44" t="s">
+        <v>259</v>
+      </c>
+      <c r="M44" t="s">
+        <v>303</v>
+      </c>
+      <c r="N44" t="s">
+        <v>329</v>
+      </c>
+      <c r="O44" t="s">
+        <v>303</v>
+      </c>
+      <c r="P44" t="s">
         <v>381</v>
       </c>
-      <c r="Q42" t="s">
-        <v>410</v>
-      </c>
-      <c r="R42" t="s">
-        <v>437</v>
-      </c>
-      <c r="S42" t="s">
+      <c r="Q44" t="s">
+        <v>381</v>
+      </c>
+      <c r="R44" t="s">
+        <v>381</v>
+      </c>
+      <c r="S44" t="s">
         <v>464</v>
       </c>
-      <c r="T42" t="s">
+      <c r="T44" t="s">
         <v>496</v>
       </c>
-      <c r="U42" t="s">
-        <v>532</v>
-      </c>
-      <c r="V42" t="s">
+      <c r="U44" t="s">
+        <v>235</v>
+      </c>
+      <c r="V44" t="s">
         <v>565</v>
       </c>
-      <c r="W42" t="s">
+      <c r="W44" t="s">
         <v>598</v>
       </c>
-      <c r="X42" t="s">
-        <v>630</v>
-      </c>
-      <c r="Y42" t="s">
+      <c r="X44" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y44" t="s">
         <v>659</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Z44" t="s">
         <v>689</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AA44" t="s">
         <v>720</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AB44" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>786</v>
-      </c>
-      <c r="K44" t="s">
-        <v>215</v>
-      </c>
-      <c r="L44" t="s">
-        <v>260</v>
-      </c>
-      <c r="M44" t="s">
-        <v>304</v>
-      </c>
-      <c r="N44" t="s">
-        <v>330</v>
-      </c>
-      <c r="O44" t="s">
-        <v>304</v>
-      </c>
-      <c r="P44" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>382</v>
-      </c>
-      <c r="R44" t="s">
-        <v>382</v>
-      </c>
-      <c r="S44" t="s">
-        <v>465</v>
-      </c>
-      <c r="T44" t="s">
-        <v>497</v>
-      </c>
-      <c r="U44" t="s">
-        <v>236</v>
-      </c>
-      <c r="V44" t="s">
-        <v>566</v>
-      </c>
-      <c r="W44" t="s">
-        <v>599</v>
-      </c>
-      <c r="X44" t="s">
-        <v>599</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>660</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>721</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC44" t="s">
+        <v>785</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>822</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>787</v>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>319786</v>
       </c>
       <c r="K46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="N46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O46" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P46" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="R46" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="S46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="T46" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="U46" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="V46" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="W46" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="X46" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Y46" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="Z46" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AA46" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="AB46" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>786</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>823</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>788</v>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>397000</v>
       </c>
       <c r="K48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L48" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M48" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O48" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P48" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="R48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="S48" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="T48" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="U48" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="V48" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="W48" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="X48" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Y48" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="Z48" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AA48" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="AB48" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>787</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>824</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>602</v>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>275997</v>
       </c>
       <c r="K50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M50" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N50" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O50" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="Q50" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="R50" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S50" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="T50" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="U50" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="V50" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="W50" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="X50" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="Y50" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="Z50" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AA50" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AB50" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+      <c r="AC50" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>825</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D52" t="s">
-        <v>789</v>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>188988</v>
       </c>
       <c r="K52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M52" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="N52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="O52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="P52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="Q52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="R52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S52" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="T52" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="U52" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="V52" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="W52" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="X52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Y52" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="Z52" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AA52" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AB52" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+      <c r="AC52" t="s">
+        <v>788</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>826</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D54" t="s">
-        <v>790</v>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>82991</v>
       </c>
       <c r="K54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L54" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M54" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="N54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O54" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="P54" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q54" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="R54">
         <v>115693</v>
       </c>
       <c r="S54" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T54" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="U54" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V54" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="W54" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="X54" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="Y54" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Z54" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AA54" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="AB54" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>789</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>827</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
-        <v>791</v>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>94990</v>
       </c>
       <c r="K56" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L56" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="N56">
         <v>100992</v>
       </c>
       <c r="O56" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P56" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q56" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="R56" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S56" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="T56" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="U56" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="V56" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="W56" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="X56" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Y56" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="Z56" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AA56" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="AB56" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+      <c r="AC56" t="s">
+        <v>790</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>828</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D58" t="s">
-        <v>792</v>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>33199</v>
       </c>
       <c r="K58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L58" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="N58" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O58" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P58" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q58" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="R58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S58" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="T58" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="U58" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="V58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="W58" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="X58" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="Y58" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="Z58" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AA58" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="AB58" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+      <c r="AC58" t="s">
+        <v>791</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>829</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D60" t="s">
-        <v>793</v>
+    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>59995</v>
       </c>
       <c r="K60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="L60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M60" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N60" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="P60" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q60" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="R60" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="S60" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="T60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="U60" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="V60" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="W60" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="X60" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Y60" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="Z60" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AA60" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="AB60" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+      <c r="AC60" t="s">
+        <v>792</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>830</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
-        <v>794</v>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>143793</v>
       </c>
       <c r="K62" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L62" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M62" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O62" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="P62" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q62" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="R62" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S62" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T62" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="U62" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="V62" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="W62" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="X62" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="Y62">
         <v>139997</v>
       </c>
       <c r="Z62" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="AA62" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AB62" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.25">
+        <v>760</v>
+      </c>
+      <c r="AC62" t="s">
+        <v>793</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>831</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D64" t="s">
-        <v>795</v>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>146880</v>
       </c>
       <c r="K64" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L64" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M64" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O64" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="P64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q64" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="T64" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U64" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="V64" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="W64" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="X64" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Y64" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="Z64" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AA64" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AB64" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+      <c r="AC64" t="s">
+        <v>794</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>832</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D66" t="s">
-        <v>796</v>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>106830</v>
       </c>
       <c r="K66">
         <v>99948</v>
       </c>
       <c r="L66" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M66" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N66">
         <v>1</v>
       </c>
       <c r="O66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="Q66" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R66" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S66" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="T66" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U66" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="V66" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="W66" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="X66" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="Y66">
         <v>106969</v>
       </c>
       <c r="Z66" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="AA66" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="AB66" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+        <v>762</v>
+      </c>
+      <c r="AC66" t="s">
+        <v>795</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>833</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="D68" t="s">
-        <v>797</v>
+    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>319939</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M68">
         <v>1</v>
@@ -14927,31 +15420,40 @@
         <v>39845</v>
       </c>
       <c r="T68" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="U68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V68" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="W68" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="X68" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Y68">
         <v>349966</v>
       </c>
       <c r="Z68" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="AA68" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="AB68" t="s">
-        <v>764</v>
+        <v>763</v>
+      </c>
+      <c r="AC68" t="s">
+        <v>796</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="990">
   <si>
     <t>Ardonite</t>
   </si>
@@ -2628,6 +2628,372 @@
   </si>
   <si>
     <t>Rose des sables</t>
+  </si>
+  <si>
+    <t>8000</t>
+  </si>
+  <si>
+    <t>8999</t>
+  </si>
+  <si>
+    <t>4590</t>
+  </si>
+  <si>
+    <t>5597</t>
+  </si>
+  <si>
+    <t>9800</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>15961</t>
+  </si>
+  <si>
+    <t>26998</t>
+  </si>
+  <si>
+    <t>57932</t>
+  </si>
+  <si>
+    <t>118598</t>
+  </si>
+  <si>
+    <t>124844</t>
+  </si>
+  <si>
+    <t>89983</t>
+  </si>
+  <si>
+    <t>72832</t>
+  </si>
+  <si>
+    <t>30962</t>
+  </si>
+  <si>
+    <t>33449</t>
+  </si>
+  <si>
+    <t>17483</t>
+  </si>
+  <si>
+    <t>16882</t>
+  </si>
+  <si>
+    <t>49962</t>
+  </si>
+  <si>
+    <t>99864</t>
+  </si>
+  <si>
+    <t>128926</t>
+  </si>
+  <si>
+    <t>319778</t>
+  </si>
+  <si>
+    <t>396981</t>
+  </si>
+  <si>
+    <t>275993</t>
+  </si>
+  <si>
+    <t>188986</t>
+  </si>
+  <si>
+    <t>82980</t>
+  </si>
+  <si>
+    <t>94897</t>
+  </si>
+  <si>
+    <t>33197</t>
+  </si>
+  <si>
+    <t>59982</t>
+  </si>
+  <si>
+    <t>143784</t>
+  </si>
+  <si>
+    <t>146881</t>
+  </si>
+  <si>
+    <t>106821</t>
+  </si>
+  <si>
+    <t>319928</t>
+  </si>
+  <si>
+    <t>40 croquettes</t>
+  </si>
+  <si>
+    <t>8165</t>
+  </si>
+  <si>
+    <t>9395</t>
+  </si>
+  <si>
+    <t>5782</t>
+  </si>
+  <si>
+    <t>15966</t>
+  </si>
+  <si>
+    <t>15786</t>
+  </si>
+  <si>
+    <t>31240</t>
+  </si>
+  <si>
+    <t>56000</t>
+  </si>
+  <si>
+    <t>121991</t>
+  </si>
+  <si>
+    <t>122931</t>
+  </si>
+  <si>
+    <t>93856</t>
+  </si>
+  <si>
+    <t>71953</t>
+  </si>
+  <si>
+    <t>29854</t>
+  </si>
+  <si>
+    <t>32778</t>
+  </si>
+  <si>
+    <t>14735</t>
+  </si>
+  <si>
+    <t>16884</t>
+  </si>
+  <si>
+    <t>34440</t>
+  </si>
+  <si>
+    <t>49443</t>
+  </si>
+  <si>
+    <t>49946</t>
+  </si>
+  <si>
+    <t>99859</t>
+  </si>
+  <si>
+    <t>396977</t>
+  </si>
+  <si>
+    <t>278749</t>
+  </si>
+  <si>
+    <t>82982</t>
+  </si>
+  <si>
+    <t>94869</t>
+  </si>
+  <si>
+    <t>33098</t>
+  </si>
+  <si>
+    <t>59896</t>
+  </si>
+  <si>
+    <t>143772</t>
+  </si>
+  <si>
+    <t>146883</t>
+  </si>
+  <si>
+    <t>106488</t>
+  </si>
+  <si>
+    <t>318997</t>
+  </si>
+  <si>
+    <t>8163</t>
+  </si>
+  <si>
+    <t>9332</t>
+  </si>
+  <si>
+    <t>3988</t>
+  </si>
+  <si>
+    <t>5788</t>
+  </si>
+  <si>
+    <t>15965</t>
+  </si>
+  <si>
+    <t>15878</t>
+  </si>
+  <si>
+    <t>31239</t>
+  </si>
+  <si>
+    <t>121988</t>
+  </si>
+  <si>
+    <t>122599</t>
+  </si>
+  <si>
+    <t>89498</t>
+  </si>
+  <si>
+    <t>71897</t>
+  </si>
+  <si>
+    <t>29851</t>
+  </si>
+  <si>
+    <t>32776</t>
+  </si>
+  <si>
+    <t>14732</t>
+  </si>
+  <si>
+    <t>16888</t>
+  </si>
+  <si>
+    <t>49437</t>
+  </si>
+  <si>
+    <t>49938</t>
+  </si>
+  <si>
+    <t>99858</t>
+  </si>
+  <si>
+    <t>396976</t>
+  </si>
+  <si>
+    <t>82981</t>
+  </si>
+  <si>
+    <t>94867</t>
+  </si>
+  <si>
+    <t>33099</t>
+  </si>
+  <si>
+    <t>59895</t>
+  </si>
+  <si>
+    <t>143771</t>
+  </si>
+  <si>
+    <t>146880</t>
+  </si>
+  <si>
+    <t>104995</t>
+  </si>
+  <si>
+    <t>318995</t>
+  </si>
+  <si>
+    <t>8098</t>
+  </si>
+  <si>
+    <t>9200</t>
+  </si>
+  <si>
+    <t>4598</t>
+  </si>
+  <si>
+    <t>5398</t>
+  </si>
+  <si>
+    <t>11990</t>
+  </si>
+  <si>
+    <t>15944</t>
+  </si>
+  <si>
+    <t>15364</t>
+  </si>
+  <si>
+    <t>31070</t>
+  </si>
+  <si>
+    <t>44993</t>
+  </si>
+  <si>
+    <t>121775</t>
+  </si>
+  <si>
+    <t>122555</t>
+  </si>
+  <si>
+    <t>88790</t>
+  </si>
+  <si>
+    <t>71847</t>
+  </si>
+  <si>
+    <t>29811</t>
+  </si>
+  <si>
+    <t>32446</t>
+  </si>
+  <si>
+    <t>14200</t>
+  </si>
+  <si>
+    <t>19999</t>
+  </si>
+  <si>
+    <t>34444</t>
+  </si>
+  <si>
+    <t>48965</t>
+  </si>
+  <si>
+    <t>48891</t>
+  </si>
+  <si>
+    <t>99879</t>
+  </si>
+  <si>
+    <t>124990</t>
+  </si>
+  <si>
+    <t>396993</t>
+  </si>
+  <si>
+    <t>279780</t>
+  </si>
+  <si>
+    <t>189995</t>
+  </si>
+  <si>
+    <t>82957</t>
+  </si>
+  <si>
+    <t>94863</t>
+  </si>
+  <si>
+    <t>33195</t>
+  </si>
+  <si>
+    <t>59879</t>
+  </si>
+  <si>
+    <t>143700</t>
+  </si>
+  <si>
+    <t>146674</t>
+  </si>
+  <si>
+    <t>104992</t>
+  </si>
+  <si>
+    <t>315994</t>
   </si>
 </sst>
 </file>
@@ -2779,7 +3145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -3436,11 +3802,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3805,6 +4180,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5455,16 +5831,16 @@
         <v>183</v>
       </c>
       <c r="C3" s="85">
-        <v>9779</v>
+        <v>9479</v>
       </c>
       <c r="D3" s="2">
         <v>8983</v>
       </c>
       <c r="E3" s="2">
-        <v>21843</v>
+        <v>19930</v>
       </c>
       <c r="F3" s="2">
-        <v>60798</v>
+        <v>58995</v>
       </c>
       <c r="G3" s="2">
         <v>51995</v>
@@ -5489,35 +5865,35 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7">
         <f>D3-C3</f>
-        <v>-796</v>
+        <v>-496</v>
       </c>
       <c r="E4" s="7">
         <f>E3-C3*2</f>
-        <v>2285</v>
+        <v>972</v>
       </c>
       <c r="F4" s="7">
         <f>F3-C3*5-(C3*5*0.01)</f>
-        <v>11414.05</v>
+        <v>11126.05</v>
       </c>
       <c r="G4" s="7">
         <f>G3-5*C3</f>
-        <v>3100</v>
+        <v>4600</v>
       </c>
       <c r="H4" s="7">
         <f>H3-C3*10</f>
-        <v>102209</v>
+        <v>105209</v>
       </c>
       <c r="I4" s="7">
         <f>I3-C3/10</f>
-        <v>2312.1</v>
+        <v>2342.1</v>
       </c>
       <c r="J4" s="130">
         <f>J3-C3</f>
-        <v>23213</v>
+        <v>23513</v>
       </c>
       <c r="K4" s="133">
         <f>K3-(C3/10*25)</f>
-        <v>25549.5</v>
+        <v>26299.5</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -5525,31 +5901,31 @@
       <c r="C5" s="47"/>
       <c r="D5" s="84">
         <f t="shared" ref="D5:I5" si="0">(D4/D3)</f>
-        <v>-8.8611822331069803E-2</v>
+        <v>-5.5215406879661581E-2</v>
       </c>
       <c r="E5" s="84">
         <f t="shared" si="0"/>
-        <v>0.10461017259533947</v>
+        <v>4.8770697441043655E-2</v>
       </c>
       <c r="F5" s="84">
         <f t="shared" si="0"/>
-        <v>0.18773726109411493</v>
+        <v>0.18859310111026356</v>
       </c>
       <c r="G5" s="84">
         <f t="shared" si="0"/>
-        <v>5.9621117415136073E-2</v>
+        <v>8.8470045196653524E-2</v>
       </c>
       <c r="H5" s="84">
         <f t="shared" si="0"/>
-        <v>0.51104755523777623</v>
+        <v>0.52604763023815115</v>
       </c>
       <c r="I5" s="84">
         <f t="shared" si="0"/>
-        <v>0.70276595744680848</v>
+        <v>0.71188449848024316</v>
       </c>
       <c r="J5" s="84">
         <f>(J4/J3)</f>
-        <v>0.70359481086323961</v>
+        <v>0.71268792434529582</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -5558,12 +5934,12 @@
       </c>
       <c r="C6" s="47">
         <f>C3/100</f>
-        <v>97.79</v>
+        <v>94.79</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
         <f>E3/200</f>
-        <v>109.215</v>
+        <v>99.65</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -5612,10 +5988,10 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="86">
-        <v>24874</v>
+        <v>24826</v>
       </c>
       <c r="D9" s="18">
-        <v>264989</v>
+        <v>263997</v>
       </c>
       <c r="E9" s="18">
         <v>1379988</v>
@@ -5639,27 +6015,27 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7">
         <f>D9-10*C9-(10*C9*0.01)</f>
-        <v>13761.6</v>
+        <v>13254.4</v>
       </c>
       <c r="E10" s="7">
         <f>E9-50*C9</f>
-        <v>136288</v>
+        <v>138688</v>
       </c>
       <c r="F10" s="7">
         <f>F9-50*C9</f>
-        <v>-43703</v>
+        <v>-41303</v>
       </c>
       <c r="G10" s="7">
         <f>G9-50*C9</f>
-        <v>-143702</v>
+        <v>-141302</v>
       </c>
       <c r="H10" s="7">
         <f>H9-50*C9</f>
-        <v>106300</v>
+        <v>108700</v>
       </c>
       <c r="I10" s="4">
         <f>I9-200*C9</f>
-        <v>1525199</v>
+        <v>1534799</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -5681,13 +6057,16 @@
       <c r="G13" s="120" t="s">
         <v>510</v>
       </c>
+      <c r="H13" s="134" t="s">
+        <v>900</v>
+      </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="121" t="s">
         <v>183</v>
       </c>
       <c r="C14" s="117">
-        <v>299998</v>
+        <v>307900</v>
       </c>
       <c r="D14" s="116">
         <v>27999</v>
@@ -5709,19 +6088,19 @@
       <c r="C15" s="124"/>
       <c r="D15" s="125">
         <f>D14-(C14/10)</f>
-        <v>-2000.7999999999993</v>
+        <v>-2791</v>
       </c>
       <c r="E15" s="125">
         <f>E14-(C14/100)</f>
-        <v>200.01999999999998</v>
+        <v>121</v>
       </c>
       <c r="F15" s="125">
         <f>F14-C14</f>
-        <v>8000</v>
+        <v>98</v>
       </c>
       <c r="G15" s="126">
         <f>G14-(4*C14+10000)</f>
-        <v>190008</v>
+        <v>158400</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5971,29 +6350,29 @@
         <f>Comparatifs!B27</f>
         <v>0</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="136"/>
       <c r="G2" s="8">
         <f>Comparatifs!B28+B10</f>
         <v>0</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="134"/>
-      <c r="J2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
       <c r="L2" s="8">
         <f>Comparatifs!B29+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="134" t="s">
+      <c r="M2" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="134"/>
-      <c r="O2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="136"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -6360,29 +6739,29 @@
         <f>Comparatifs!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="134" t="s">
+      <c r="C13" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="136"/>
       <c r="G13" s="8">
         <f>Comparatifs!B14+B21</f>
         <v>0</v>
       </c>
-      <c r="H13" s="134" t="s">
+      <c r="H13" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="134"/>
-      <c r="J13" s="135"/>
+      <c r="I13" s="135"/>
+      <c r="J13" s="136"/>
       <c r="L13" s="8">
         <f>Comparatifs!B13+G20</f>
         <v>0</v>
       </c>
-      <c r="M13" s="134" t="s">
+      <c r="M13" s="135" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="134"/>
-      <c r="O13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="136"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
@@ -6749,29 +7128,29 @@
         <f>Comparatifs!B15</f>
         <v>5</v>
       </c>
-      <c r="C24" s="134" t="s">
+      <c r="C24" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="134"/>
-      <c r="E24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="136"/>
       <c r="G24" s="8">
         <f>Comparatifs!B16+B32</f>
         <v>5</v>
       </c>
-      <c r="H24" s="134" t="s">
+      <c r="H24" s="135" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="134"/>
-      <c r="J24" s="135"/>
+      <c r="I24" s="135"/>
+      <c r="J24" s="136"/>
       <c r="L24" s="8">
         <f>Comparatifs!B17+G31</f>
         <v>5</v>
       </c>
-      <c r="M24" s="134" t="s">
+      <c r="M24" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="134"/>
-      <c r="O24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="136"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -7138,29 +7517,29 @@
         <f>Comparatifs!B18</f>
         <v>0</v>
       </c>
-      <c r="C35" s="134" t="s">
+      <c r="C35" s="135" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="134"/>
-      <c r="E35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="136"/>
       <c r="G35" s="8">
         <f>Comparatifs!B19+B43</f>
         <v>0</v>
       </c>
-      <c r="H35" s="134" t="s">
+      <c r="H35" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="134"/>
-      <c r="J35" s="135"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="136"/>
       <c r="L35" s="8">
         <f>Comparatifs!B20+G42</f>
         <v>0</v>
       </c>
-      <c r="M35" s="134" t="s">
+      <c r="M35" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="134"/>
-      <c r="O35" s="135"/>
+      <c r="N35" s="135"/>
+      <c r="O35" s="136"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
@@ -7527,29 +7906,29 @@
         <f>Comparatifs!B21</f>
         <v>0</v>
       </c>
-      <c r="C46" s="134" t="s">
+      <c r="C46" s="135" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="134"/>
-      <c r="E46" s="135"/>
+      <c r="D46" s="135"/>
+      <c r="E46" s="136"/>
       <c r="G46" s="8">
         <f>Comparatifs!B22+B54</f>
         <v>0</v>
       </c>
-      <c r="H46" s="134" t="s">
+      <c r="H46" s="135" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="134"/>
-      <c r="J46" s="135"/>
+      <c r="I46" s="135"/>
+      <c r="J46" s="136"/>
       <c r="L46" s="8">
         <f>Comparatifs!B23+G53</f>
         <v>0</v>
       </c>
-      <c r="M46" s="134" t="s">
+      <c r="M46" s="135" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="134"/>
-      <c r="O46" s="135"/>
+      <c r="N46" s="135"/>
+      <c r="O46" s="136"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
@@ -7916,29 +8295,29 @@
         <f>Comparatifs!B24</f>
         <v>5</v>
       </c>
-      <c r="C57" s="134" t="s">
+      <c r="C57" s="135" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="134"/>
-      <c r="E57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="136"/>
       <c r="G57" s="8">
         <f>Comparatifs!B25+B65</f>
         <v>5</v>
       </c>
-      <c r="H57" s="134" t="s">
+      <c r="H57" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="134"/>
-      <c r="J57" s="135"/>
+      <c r="I57" s="135"/>
+      <c r="J57" s="136"/>
       <c r="L57" s="8">
         <f>Comparatifs!B26+G64</f>
         <v>5</v>
       </c>
-      <c r="M57" s="134" t="s">
+      <c r="M57" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="N57" s="134"/>
-      <c r="O57" s="135"/>
+      <c r="N57" s="135"/>
+      <c r="O57" s="136"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -8305,29 +8684,29 @@
         <f>Comparatifs!B30</f>
         <v>5</v>
       </c>
-      <c r="C68" s="134" t="s">
+      <c r="C68" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="134"/>
-      <c r="E68" s="135"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="136"/>
       <c r="G68" s="8">
         <f>Comparatifs!B31+B76</f>
         <v>5</v>
       </c>
-      <c r="H68" s="134" t="s">
+      <c r="H68" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="I68" s="134"/>
-      <c r="J68" s="135"/>
+      <c r="I68" s="135"/>
+      <c r="J68" s="136"/>
       <c r="L68" s="8">
         <f>Comparatifs!B32+G75</f>
         <v>5</v>
       </c>
-      <c r="M68" s="134" t="s">
+      <c r="M68" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="N68" s="134"/>
-      <c r="O68" s="135"/>
+      <c r="N68" s="135"/>
+      <c r="O68" s="136"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
@@ -8694,29 +9073,29 @@
         <f>Comparatifs!B33</f>
         <v>5</v>
       </c>
-      <c r="C79" s="134" t="s">
+      <c r="C79" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="134"/>
-      <c r="E79" s="135"/>
+      <c r="D79" s="135"/>
+      <c r="E79" s="136"/>
       <c r="G79" s="8">
         <f>Comparatifs!B34+B87</f>
         <v>5</v>
       </c>
-      <c r="H79" s="134" t="s">
+      <c r="H79" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="I79" s="134"/>
-      <c r="J79" s="135"/>
+      <c r="I79" s="135"/>
+      <c r="J79" s="136"/>
       <c r="L79" s="8">
         <f>Comparatifs!B35+G86</f>
         <v>5</v>
       </c>
-      <c r="M79" s="134" t="s">
+      <c r="M79" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="N79" s="134"/>
-      <c r="O79" s="135"/>
+      <c r="N79" s="135"/>
+      <c r="O79" s="136"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
@@ -9083,29 +9462,29 @@
         <f>Comparatifs!B36</f>
         <v>0</v>
       </c>
-      <c r="C90" s="134" t="s">
+      <c r="C90" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="134"/>
-      <c r="E90" s="135"/>
+      <c r="D90" s="135"/>
+      <c r="E90" s="136"/>
       <c r="G90" s="8">
         <f>Comparatifs!B37+B98</f>
         <v>0</v>
       </c>
-      <c r="H90" s="134" t="s">
+      <c r="H90" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="134"/>
-      <c r="J90" s="135"/>
+      <c r="I90" s="135"/>
+      <c r="J90" s="136"/>
       <c r="L90" s="8">
         <f>Comparatifs!B38+G97</f>
         <v>0</v>
       </c>
-      <c r="M90" s="134" t="s">
+      <c r="M90" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="N90" s="134"/>
-      <c r="O90" s="135"/>
+      <c r="N90" s="135"/>
+      <c r="O90" s="136"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
@@ -9568,16 +9947,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="139"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -10800,25 +11179,25 @@
         <f>'Comparatifs Idoles'!B12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="134" t="s">
+      <c r="C2" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="136"/>
       <c r="G2" s="8">
         <f>'Comparatifs Idoles'!B13</f>
         <v>0</v>
       </c>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="136"/>
       <c r="L2" s="8">
         <f>Comparatifs!B13+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="136"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -11142,16 +11521,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="136" t="s">
+      <c r="B8" s="137" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="137"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="137"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
+      <c r="C8" s="138"/>
+      <c r="D8" s="138"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="138"/>
+      <c r="G8" s="138"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="139"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -11368,11 +11747,11 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="134" t="s">
+      <c r="C9" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="139"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="140"/>
       <c r="F9" s="48"/>
       <c r="H9" t="s">
         <v>8</v>
@@ -11577,11 +11956,11 @@
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="C20" s="134" t="s">
+      <c r="C20" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="134"/>
-      <c r="E20" s="139"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="140"/>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -11948,7 +12327,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12010,486 +12389,486 @@
       <c r="B4" s="94" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>8094</v>
+        <v>8098</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="71">
+      <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>8094</v>
+        <v>8098</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>24282</v>
+        <v>24294</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>72846</v>
-      </c>
-      <c r="I4" s="93">
+        <v>72882</v>
+      </c>
+      <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>31447</v>
-      </c>
-      <c r="J4" s="101">
+        <v>29811</v>
+      </c>
+      <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>82991</v>
+        <v>82957</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>6850.53</v>
+        <v>5218.8900000000003</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.22784367348236712</v>
+        <v>0.18506591526617688</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>0.28212379540400295</v>
+        <v>0.21482217831563349</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>9315.09</v>
+        <v>9245.43</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>0.12787373362984927</v>
+        <v>0.12685477895776737</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>0.12224217083780164</v>
+        <v>0.12144846125100961</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>9199</v>
+        <v>9200</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="73">
+      <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>9199</v>
+        <v>9200</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>27597</v>
+        <v>27600</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>82791</v>
-      </c>
-      <c r="I5" s="91">
+        <v>82800</v>
+      </c>
+      <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>34465</v>
-      </c>
-      <c r="J5" s="102">
+        <v>32446</v>
+      </c>
+      <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>94990</v>
+        <v>94863</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>6523.35</v>
+        <v>4521.54</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>0.19927462643261284</v>
+        <v>0.14935585280157804</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>0.23637895423415589</v>
+        <v>0.16382391304347826</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>11249.1</v>
+        <v>11114.37</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>0.13587346450701163</v>
+        <v>0.13423152173913044</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>0.12842404463627755</v>
+        <v>0.12716232883210521</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>4681</v>
+        <v>4598</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>4681</v>
+        <v>4598</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>14043</v>
+        <v>13794</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>42129</v>
-      </c>
-      <c r="I6" s="91">
+        <v>41382</v>
+      </c>
+      <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>18862</v>
-      </c>
-      <c r="J6" s="102">
+        <v>14200</v>
+      </c>
+      <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>33199</v>
+        <v>33195</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>4630.38</v>
+        <v>264</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>0.25548722298801829</v>
+        <v>2.8591549295774676E-2</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>0.32972869045075837</v>
+        <v>1.9138755980861243E-2</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>-9261.99</v>
+        <v>-8518.9500000000007</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>-0.2198483230079043</v>
+        <v>-0.20586124401913877</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>-0.26898400554233559</v>
+        <v>-0.24663352914595582</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="95" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>5663</v>
+        <v>5398</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="73">
+      <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>5663</v>
+        <v>5398</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>16989</v>
+        <v>16194</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>50967</v>
-      </c>
-      <c r="I7" s="91">
+        <v>48582</v>
+      </c>
+      <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>20848</v>
-      </c>
-      <c r="J7" s="102">
+        <v>19999</v>
+      </c>
+      <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>59995</v>
+        <v>59879</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>3650.52</v>
+        <v>3605.01</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>0.18510168841135843</v>
+        <v>0.1902595129756488</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>0.21487550768144092</v>
+        <v>0.22261393108558727</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>8428.0499999999993</v>
+        <v>10698.21</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>0.16536288186473599</v>
+        <v>0.2202093367914042</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>0.15047920660055003</v>
+        <v>0.18866380534077054</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="95" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>11994</v>
+        <v>11990</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="73">
+      <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>11994</v>
+        <v>11990</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>35982</v>
+        <v>35970</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>107946</v>
-      </c>
-      <c r="I8" s="91">
+        <v>107910</v>
+      </c>
+      <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>34497</v>
-      </c>
-      <c r="J8" s="102">
+        <v>34444</v>
+      </c>
+      <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>143793</v>
+        <v>143700</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>-1829.97</v>
+        <v>-1870.44</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>-4.3047221497521493E-2</v>
+        <v>-4.4303797468354444E-2</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>-5.0857928964482241E-2</v>
+        <v>-5.2000000000000005E-2</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>34409.07</v>
+        <v>34353</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>0.31876188094047025</v>
+        <v>0.318348623853211</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>0.24929586280277904</v>
+        <v>0.24906054279749479</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="95" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>16547</v>
+        <v>15944</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>16547</v>
+        <v>15944</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>49641</v>
+        <v>47832</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>148923</v>
-      </c>
-      <c r="I9" s="91">
+        <v>143496</v>
+      </c>
+      <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>52178</v>
-      </c>
-      <c r="J9" s="102">
+        <v>48965</v>
+      </c>
+      <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>146880</v>
+        <v>146674</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>2015.22</v>
+        <v>643.34999999999991</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>4.8622024608072412E-2</v>
+        <v>2.3138976820177626E-2</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>4.0595878406961987E-2</v>
+        <v>1.3450200702458602E-2</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>-3511.8</v>
+        <v>1711.26</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>-2.3581313833323261E-2</v>
+        <v>1.1925489212242849E-2</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>-1.3909313725490202E-2</v>
+        <v>2.1667098463258649E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>15986</v>
+        <v>15364</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="F10" s="73">
+      <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>15986</v>
+        <v>15364</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>47958</v>
+        <v>46092</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>143874</v>
-      </c>
-      <c r="I10" s="91">
+        <v>138276</v>
+      </c>
+      <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>50572</v>
-      </c>
-      <c r="J10" s="102">
+        <v>48891</v>
+      </c>
+      <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>106830</v>
+        <v>104992</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>2108.2799999999997</v>
+        <v>2310.09</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>5.1688681483824994E-2</v>
+        <v>5.7249800576793297E-2</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>4.3960965845114469E-2</v>
+        <v>5.0119109606873213E-2</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-38112.300000000003</v>
+        <v>-34333.919999999998</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>-0.26490053797072438</v>
+        <v>-0.24829992189533975</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>-0.34675652906486931</v>
+        <v>-0.31701462968607141</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="95" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>31500</v>
+        <v>31070</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="73">
+      <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>31500</v>
+        <v>31070</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>94500</v>
+        <v>93210</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>283500</v>
-      </c>
-      <c r="I11" s="91">
+        <v>279630</v>
+      </c>
+      <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>94996</v>
-      </c>
-      <c r="J11" s="102">
+        <v>99879</v>
+      </c>
+      <c r="J11" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>319939</v>
+        <v>315994</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>-453.96000000000004</v>
+        <v>5670.21</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>5.2212724746305561E-3</v>
+        <v>6.6770792659117562E-2</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>-4.8038095238095244E-3</v>
+        <v>6.0832635983263599E-2</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>33239.61</v>
+        <v>33204.06</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>0.11724730158730159</v>
+        <v>0.11874283875120695</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>0.11389358596482457</v>
+        <v>0.11507813439495684</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>57949</v>
+        <v>44993</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="73">
+      <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>57949</v>
+        <v>44993</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>173847</v>
+        <v>134979</v>
       </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="91">
+      <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>128928</v>
+        <v>124990</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>-46208.28</v>
+        <v>-11238.9</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>-0.34840376023827258</v>
+        <v>-7.9918393471477778E-2</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>-0.26579854699822258</v>
+        <v>-8.3264063298735355E-2</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -12499,38 +12878,38 @@
       <c r="B13" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>118590</v>
+        <v>121775</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="73">
+      <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>118590</v>
+        <v>121775</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>355770</v>
+        <v>365325</v>
       </c>
       <c r="H13" s="74"/>
-      <c r="I13" s="91">
+      <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>319786</v>
+        <v>319785</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>-39181.86</v>
+        <v>-48737.85</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>-0.11252525126178137</v>
+        <v>-0.14240818049627091</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>-0.11013255755122692</v>
+        <v>-0.13340956682406077</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -12540,38 +12919,38 @@
       <c r="B14" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>129990</v>
+        <v>122555</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="F14" s="73">
+      <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>129990</v>
+        <v>122555</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>389970</v>
+        <v>367665</v>
       </c>
       <c r="H14" s="74"/>
-      <c r="I14" s="91">
+      <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>397000</v>
+        <v>396993</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>3060</v>
+        <v>25358.07</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>1.7707808564231708E-2</v>
+        <v>7.3875358003793523E-2</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>7.8467574428802214E-3</v>
+        <v>6.8970584635469789E-2</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -12581,38 +12960,38 @@
       <c r="B15" s="95" t="s">
         <v>142</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>93991</v>
+        <v>88790</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
-      <c r="F15" s="73">
+      <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>93991</v>
+        <v>88790</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>281973</v>
+        <v>266370</v>
       </c>
       <c r="H15" s="74"/>
-      <c r="I15" s="91">
+      <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>275997</v>
+        <v>279780</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>-8735.9700000000012</v>
+        <v>10612.2</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>-2.1652409265318084E-2</v>
+        <v>4.7930516834655768E-2</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>-3.0981583343086046E-2</v>
+        <v>3.9840072080189214E-2</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -12622,38 +13001,38 @@
       <c r="B16" s="96" t="s">
         <v>143</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>72847</v>
+        <v>71847</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="73">
+      <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>72847</v>
+        <v>71847</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>218541</v>
+        <v>215541</v>
       </c>
       <c r="H16" s="74"/>
-      <c r="I16" s="91">
+      <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>188988</v>
+        <v>189995</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>-31442.880000000001</v>
+        <v>-27445.95</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>-0.15637500793701187</v>
+        <v>-0.13445616989920794</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>-0.14387634356939888</v>
+        <v>-0.12733517057079627</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -12666,45 +13045,45 @@
       <c r="B18" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>31447</v>
+        <v>29811</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>34465</v>
+        <v>32446</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>18862</v>
+        <v>14200</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>20848</v>
+        <v>19999</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>34497</v>
+        <v>34444</v>
       </c>
       <c r="E22" t="s">
         <v>797</v>
@@ -12717,9 +13096,9 @@
       <c r="B23" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>52178</v>
+        <v>48965</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -12732,9 +13111,9 @@
       <c r="B24" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>50572</v>
+        <v>48891</v>
       </c>
       <c r="F24">
         <f>SUM(F22:F23)</f>
@@ -12745,9 +13124,9 @@
       <c r="B25" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>94996</v>
+        <v>99879</v>
       </c>
       <c r="E25" t="s">
         <v>797</v>
@@ -12760,9 +13139,9 @@
       <c r="B26" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>128928</v>
+        <v>124990</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -12776,9 +13155,9 @@
       <c r="B27" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>319786</v>
+        <v>319785</v>
       </c>
       <c r="F27">
         <f>SUM(F25:F26)</f>
@@ -12789,9 +13168,9 @@
       <c r="B28" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>397000</v>
+        <v>396993</v>
       </c>
       <c r="E28" t="s">
         <v>798</v>
@@ -12805,18 +13184,18 @@
       <c r="B29" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>275997</v>
+        <v>279780</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="22">
+      <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>188988</v>
+        <v>189995</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12826,72 +13205,72 @@
       <c r="B32" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="C32" s="20">
+      <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>82991</v>
+        <v>82957</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B33" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>94990</v>
+        <v>94863</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B34" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>33199</v>
+        <v>33195</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B35" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>59995</v>
+        <v>59879</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B36" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="21">
+      <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>143793</v>
+        <v>143700</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B37" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>146880</v>
+        <v>146674</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B38" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>106830</v>
+        <v>104992</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="77" t="s">
         <v>163</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="22" t="str">
         <f>Raw!D68</f>
-        <v>319939</v>
+        <v>315994</v>
       </c>
     </row>
   </sheetData>
@@ -12962,26 +13341,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE68"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="31" width="15.7109375" customWidth="1"/>
+    <col min="11" max="35" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D2">
-        <v>8094</v>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>957</v>
       </c>
       <c r="K2" t="s">
         <v>219</v>
@@ -13046,15 +13425,27 @@
       <c r="AE2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF2">
+        <v>8094</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>868</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>901</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D4">
-        <v>9199</v>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>958</v>
       </c>
       <c r="K4" t="s">
         <v>220</v>
@@ -13119,15 +13510,27 @@
       <c r="AE4" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF4">
+        <v>9199</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>869</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>902</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D6">
-        <v>4681</v>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>959</v>
       </c>
       <c r="K6" t="s">
         <v>221</v>
@@ -13192,15 +13595,27 @@
       <c r="AE6" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF6">
+        <v>4681</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>870</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>546</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>5663</v>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>960</v>
       </c>
       <c r="K8" t="s">
         <v>222</v>
@@ -13265,15 +13680,27 @@
       <c r="AE8" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF8">
+        <v>5663</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>871</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>903</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D10">
-        <v>11994</v>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>961</v>
       </c>
       <c r="K10" t="s">
         <v>209</v>
@@ -13338,15 +13765,27 @@
       <c r="AE10" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF10">
+        <v>11994</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>872</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>646</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>16547</v>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>962</v>
       </c>
       <c r="K12" t="s">
         <v>223</v>
@@ -13411,15 +13850,27 @@
       <c r="AE12" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF12">
+        <v>16547</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>873</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>904</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>15986</v>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>963</v>
       </c>
       <c r="K14" t="s">
         <v>224</v>
@@ -13484,15 +13935,27 @@
       <c r="AE14" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF14">
+        <v>15986</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>874</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>905</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>31500</v>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>964</v>
       </c>
       <c r="K16" t="s">
         <v>225</v>
@@ -13557,15 +14020,27 @@
       <c r="AE16" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF16">
+        <v>31500</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>875</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>906</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D18">
-        <v>57949</v>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>965</v>
       </c>
       <c r="K18" t="s">
         <v>210</v>
@@ -13630,15 +14105,27 @@
       <c r="AE18" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF18">
+        <v>57949</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>876</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>907</v>
+      </c>
+      <c r="AI18">
+        <v>55999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>118590</v>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>966</v>
       </c>
       <c r="K20" t="s">
         <v>226</v>
@@ -13703,15 +14190,27 @@
       <c r="AE20" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF20">
+        <v>118590</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>877</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>908</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D22">
-        <v>129990</v>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>967</v>
       </c>
       <c r="K22" t="s">
         <v>227</v>
@@ -13776,15 +14275,27 @@
       <c r="AE22" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF22">
+        <v>129990</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>878</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>909</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D24">
-        <v>93991</v>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>968</v>
       </c>
       <c r="K24" t="s">
         <v>228</v>
@@ -13849,15 +14360,27 @@
       <c r="AE24" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF24">
+        <v>93991</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>879</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>910</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D26">
-        <v>72847</v>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>969</v>
       </c>
       <c r="K26" t="s">
         <v>229</v>
@@ -13922,15 +14445,27 @@
       <c r="AE26" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF26">
+        <v>72847</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>880</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>911</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D28">
-        <v>31447</v>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>970</v>
       </c>
       <c r="K28" t="s">
         <v>230</v>
@@ -13995,15 +14530,27 @@
       <c r="AE28" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF28">
+        <v>31447</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>881</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>912</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D30">
-        <v>34465</v>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>971</v>
       </c>
       <c r="K30" t="s">
         <v>231</v>
@@ -14068,15 +14615,27 @@
       <c r="AE30" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF30">
+        <v>34465</v>
+      </c>
+      <c r="AG30" t="s">
+        <v>882</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>913</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>18862</v>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>972</v>
       </c>
       <c r="K32" t="s">
         <v>211</v>
@@ -14141,15 +14700,27 @@
       <c r="AE32" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF32">
+        <v>18862</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>883</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>914</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D34">
-        <v>20848</v>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>973</v>
       </c>
       <c r="K34" t="s">
         <v>232</v>
@@ -14214,15 +14785,27 @@
       <c r="AE34" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF34">
+        <v>20848</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>884</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>915</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D36">
-        <v>34497</v>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>974</v>
       </c>
       <c r="K36" t="s">
         <v>208</v>
@@ -14287,15 +14870,27 @@
       <c r="AE36" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF36">
+        <v>34497</v>
+      </c>
+      <c r="AG36" t="s">
+        <v>850</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>916</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D38">
-        <v>52178</v>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>975</v>
       </c>
       <c r="K38" t="s">
         <v>212</v>
@@ -14360,15 +14955,27 @@
       <c r="AE38" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF38">
+        <v>52178</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>716</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>917</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D40">
-        <v>50572</v>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>976</v>
       </c>
       <c r="K40" t="s">
         <v>213</v>
@@ -14433,15 +15040,27 @@
       <c r="AE40" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF40">
+        <v>50572</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>885</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>918</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D42">
-        <v>94996</v>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>977</v>
       </c>
       <c r="K42" t="s">
         <v>233</v>
@@ -14506,15 +15125,27 @@
       <c r="AE42" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF42">
+        <v>94996</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>886</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>919</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D44">
-        <v>128928</v>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>978</v>
       </c>
       <c r="K44" t="s">
         <v>214</v>
@@ -14579,15 +15210,27 @@
       <c r="AE44" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF44">
+        <v>128928</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>887</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>698</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D46">
-        <v>319786</v>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>855</v>
       </c>
       <c r="K46" t="s">
         <v>234</v>
@@ -14652,15 +15295,27 @@
       <c r="AE46" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF46">
+        <v>319786</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>888</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>888</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D48">
-        <v>397000</v>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>979</v>
       </c>
       <c r="K48" t="s">
         <v>215</v>
@@ -14725,15 +15380,27 @@
       <c r="AE48" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF48">
+        <v>397000</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>889</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>920</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>275997</v>
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>980</v>
       </c>
       <c r="K50" t="s">
         <v>216</v>
@@ -14798,15 +15465,27 @@
       <c r="AE50" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF50">
+        <v>275997</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>890</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>921</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D52">
-        <v>188988</v>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>981</v>
       </c>
       <c r="K52" t="s">
         <v>217</v>
@@ -14871,15 +15550,27 @@
       <c r="AE52" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF52">
+        <v>188988</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>891</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>891</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D54">
-        <v>82991</v>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>982</v>
       </c>
       <c r="K54" t="s">
         <v>235</v>
@@ -14944,15 +15635,27 @@
       <c r="AE54" t="s">
         <v>859</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF54">
+        <v>82991</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>892</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>922</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D56">
-        <v>94990</v>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>983</v>
       </c>
       <c r="K56" t="s">
         <v>218</v>
@@ -15017,15 +15720,27 @@
       <c r="AE56" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF56">
+        <v>94990</v>
+      </c>
+      <c r="AG56" t="s">
+        <v>893</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>923</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D58">
-        <v>33199</v>
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>984</v>
       </c>
       <c r="K58" t="s">
         <v>236</v>
@@ -15090,15 +15805,27 @@
       <c r="AE58" t="s">
         <v>861</v>
       </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF58">
+        <v>33199</v>
+      </c>
+      <c r="AG58" t="s">
+        <v>894</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>924</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D60">
-        <v>59995</v>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>985</v>
       </c>
       <c r="K60" t="s">
         <v>237</v>
@@ -15163,15 +15890,27 @@
       <c r="AE60" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF60">
+        <v>59995</v>
+      </c>
+      <c r="AG60" t="s">
+        <v>895</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>925</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D62">
-        <v>143793</v>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>986</v>
       </c>
       <c r="K62" t="s">
         <v>207</v>
@@ -15236,15 +15975,27 @@
       <c r="AE62" t="s">
         <v>863</v>
       </c>
-    </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF62">
+        <v>143793</v>
+      </c>
+      <c r="AG62" t="s">
+        <v>896</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>926</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D64">
-        <v>146880</v>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>987</v>
       </c>
       <c r="K64" t="s">
         <v>238</v>
@@ -15309,15 +16060,27 @@
       <c r="AE64" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF64">
+        <v>146880</v>
+      </c>
+      <c r="AG64" t="s">
+        <v>897</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>927</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D66">
-        <v>106830</v>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>988</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -15382,15 +16145,27 @@
       <c r="AE66" t="s">
         <v>865</v>
       </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF66">
+        <v>106830</v>
+      </c>
+      <c r="AG66" t="s">
+        <v>898</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>928</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D68">
-        <v>319939</v>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>989</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -15454,6 +16229,18 @@
       </c>
       <c r="AE68" t="s">
         <v>866</v>
+      </c>
+      <c r="AF68">
+        <v>319939</v>
+      </c>
+      <c r="AG68" t="s">
+        <v>899</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>929</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>956</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="9"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="Raw" sheetId="12" r:id="rId9"/>
     <sheet name="rose" sheetId="11" r:id="rId10"/>
     <sheet name="Feuil1" sheetId="13" r:id="rId11"/>
+    <sheet name="prix fm" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1114">
   <si>
     <t>Ardonite</t>
   </si>
@@ -2994,6 +2995,378 @@
   </si>
   <si>
     <t>315994</t>
+  </si>
+  <si>
+    <t>7975</t>
+  </si>
+  <si>
+    <t>9189</t>
+  </si>
+  <si>
+    <t>3993</t>
+  </si>
+  <si>
+    <t>5295</t>
+  </si>
+  <si>
+    <t>11992</t>
+  </si>
+  <si>
+    <t>15933</t>
+  </si>
+  <si>
+    <t>14992</t>
+  </si>
+  <si>
+    <t>30956</t>
+  </si>
+  <si>
+    <t>44955</t>
+  </si>
+  <si>
+    <t>121719</t>
+  </si>
+  <si>
+    <t>122505</t>
+  </si>
+  <si>
+    <t>88712</t>
+  </si>
+  <si>
+    <t>71819</t>
+  </si>
+  <si>
+    <t>29748</t>
+  </si>
+  <si>
+    <t>31962</t>
+  </si>
+  <si>
+    <t>14098</t>
+  </si>
+  <si>
+    <t>19979</t>
+  </si>
+  <si>
+    <t>48950</t>
+  </si>
+  <si>
+    <t>48975</t>
+  </si>
+  <si>
+    <t>99844</t>
+  </si>
+  <si>
+    <t>124986</t>
+  </si>
+  <si>
+    <t>325464</t>
+  </si>
+  <si>
+    <t>396988</t>
+  </si>
+  <si>
+    <t>279786</t>
+  </si>
+  <si>
+    <t>216998</t>
+  </si>
+  <si>
+    <t>83922</t>
+  </si>
+  <si>
+    <t>94850</t>
+  </si>
+  <si>
+    <t>33198</t>
+  </si>
+  <si>
+    <t>58845</t>
+  </si>
+  <si>
+    <t>143696</t>
+  </si>
+  <si>
+    <t>146687</t>
+  </si>
+  <si>
+    <t>104993</t>
+  </si>
+  <si>
+    <t>314000</t>
+  </si>
+  <si>
+    <t>Boufcoiffe royale</t>
+  </si>
+  <si>
+    <t>25 et 30</t>
+  </si>
+  <si>
+    <t>12000k</t>
+  </si>
+  <si>
+    <t>6895</t>
+  </si>
+  <si>
+    <t>9390</t>
+  </si>
+  <si>
+    <t>3675</t>
+  </si>
+  <si>
+    <t>5482</t>
+  </si>
+  <si>
+    <t>11991</t>
+  </si>
+  <si>
+    <t>15939</t>
+  </si>
+  <si>
+    <t>14890</t>
+  </si>
+  <si>
+    <t>30951</t>
+  </si>
+  <si>
+    <t>43999</t>
+  </si>
+  <si>
+    <t>121726</t>
+  </si>
+  <si>
+    <t>122052</t>
+  </si>
+  <si>
+    <t>88725</t>
+  </si>
+  <si>
+    <t>71820</t>
+  </si>
+  <si>
+    <t>30996</t>
+  </si>
+  <si>
+    <t>13996</t>
+  </si>
+  <si>
+    <t>19990</t>
+  </si>
+  <si>
+    <t>48951</t>
+  </si>
+  <si>
+    <t>48978</t>
+  </si>
+  <si>
+    <t>99843</t>
+  </si>
+  <si>
+    <t>128928</t>
+  </si>
+  <si>
+    <t>325463</t>
+  </si>
+  <si>
+    <t>396989</t>
+  </si>
+  <si>
+    <t>84000</t>
+  </si>
+  <si>
+    <t>94873</t>
+  </si>
+  <si>
+    <t>33205</t>
+  </si>
+  <si>
+    <t>54998</t>
+  </si>
+  <si>
+    <t>146689</t>
+  </si>
+  <si>
+    <t>313995</t>
+  </si>
+  <si>
+    <t>9789</t>
+  </si>
+  <si>
+    <t>3798</t>
+  </si>
+  <si>
+    <t>4797</t>
+  </si>
+  <si>
+    <t>15392</t>
+  </si>
+  <si>
+    <t>12497</t>
+  </si>
+  <si>
+    <t>30890</t>
+  </si>
+  <si>
+    <t>43960</t>
+  </si>
+  <si>
+    <t>121692</t>
+  </si>
+  <si>
+    <t>183304</t>
+  </si>
+  <si>
+    <t>88719</t>
+  </si>
+  <si>
+    <t>71553</t>
+  </si>
+  <si>
+    <t>26699</t>
+  </si>
+  <si>
+    <t>30777</t>
+  </si>
+  <si>
+    <t>12800</t>
+  </si>
+  <si>
+    <t>16998</t>
+  </si>
+  <si>
+    <t>34498</t>
+  </si>
+  <si>
+    <t>48972</t>
+  </si>
+  <si>
+    <t>48699</t>
+  </si>
+  <si>
+    <t>99849</t>
+  </si>
+  <si>
+    <t>129838</t>
+  </si>
+  <si>
+    <t>325965</t>
+  </si>
+  <si>
+    <t>441653</t>
+  </si>
+  <si>
+    <t>279893</t>
+  </si>
+  <si>
+    <t>213917</t>
+  </si>
+  <si>
+    <t>82995</t>
+  </si>
+  <si>
+    <t>99596</t>
+  </si>
+  <si>
+    <t>38888</t>
+  </si>
+  <si>
+    <t>54962</t>
+  </si>
+  <si>
+    <t>146400</t>
+  </si>
+  <si>
+    <t>104979</t>
+  </si>
+  <si>
+    <t>313980</t>
+  </si>
+  <si>
+    <t>7987</t>
+  </si>
+  <si>
+    <t>9897</t>
+  </si>
+  <si>
+    <t>3799</t>
+  </si>
+  <si>
+    <t>4999</t>
+  </si>
+  <si>
+    <t>11998</t>
+  </si>
+  <si>
+    <t>30884</t>
+  </si>
+  <si>
+    <t>43955</t>
+  </si>
+  <si>
+    <t>121696</t>
+  </si>
+  <si>
+    <t>182278</t>
+  </si>
+  <si>
+    <t>89493</t>
+  </si>
+  <si>
+    <t>71763</t>
+  </si>
+  <si>
+    <t>29733</t>
+  </si>
+  <si>
+    <t>30799</t>
+  </si>
+  <si>
+    <t>12871</t>
+  </si>
+  <si>
+    <t>19995</t>
+  </si>
+  <si>
+    <t>52179</t>
+  </si>
+  <si>
+    <t>48795</t>
+  </si>
+  <si>
+    <t>117823</t>
+  </si>
+  <si>
+    <t>129860</t>
+  </si>
+  <si>
+    <t>325973</t>
+  </si>
+  <si>
+    <t>219919</t>
+  </si>
+  <si>
+    <t>83992</t>
+  </si>
+  <si>
+    <t>99590</t>
+  </si>
+  <si>
+    <t>38884</t>
+  </si>
+  <si>
+    <t>54954</t>
+  </si>
+  <si>
+    <t>140000</t>
+  </si>
+  <si>
+    <t>146394</t>
+  </si>
+  <si>
+    <t>104994</t>
+  </si>
+  <si>
+    <t>313972</t>
   </si>
 </sst>
 </file>
@@ -5778,8 +6151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5831,19 +6204,19 @@
         <v>183</v>
       </c>
       <c r="C3" s="85">
-        <v>9479</v>
+        <v>9755</v>
       </c>
       <c r="D3" s="2">
         <v>8983</v>
       </c>
       <c r="E3" s="2">
-        <v>19930</v>
+        <v>21500</v>
       </c>
       <c r="F3" s="2">
-        <v>58995</v>
+        <v>58711</v>
       </c>
       <c r="G3" s="2">
-        <v>51995</v>
+        <v>61500</v>
       </c>
       <c r="H3" s="2">
         <v>199999</v>
@@ -5865,35 +6238,35 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7">
         <f>D3-C3</f>
-        <v>-496</v>
+        <v>-772</v>
       </c>
       <c r="E4" s="7">
         <f>E3-C3*2</f>
-        <v>972</v>
+        <v>1990</v>
       </c>
       <c r="F4" s="7">
         <f>F3-C3*5-(C3*5*0.01)</f>
-        <v>11126.05</v>
+        <v>9448.25</v>
       </c>
       <c r="G4" s="7">
         <f>G3-5*C3</f>
-        <v>4600</v>
+        <v>12725</v>
       </c>
       <c r="H4" s="7">
         <f>H3-C3*10</f>
-        <v>105209</v>
+        <v>102449</v>
       </c>
       <c r="I4" s="7">
         <f>I3-C3/10</f>
-        <v>2342.1</v>
+        <v>2314.5</v>
       </c>
       <c r="J4" s="130">
         <f>J3-C3</f>
-        <v>23513</v>
+        <v>23237</v>
       </c>
       <c r="K4" s="133">
         <f>K3-(C3/10*25)</f>
-        <v>26299.5</v>
+        <v>25609.5</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -5901,31 +6274,31 @@
       <c r="C5" s="47"/>
       <c r="D5" s="84">
         <f t="shared" ref="D5:I5" si="0">(D4/D3)</f>
-        <v>-5.5215406879661581E-2</v>
+        <v>-8.594010909495714E-2</v>
       </c>
       <c r="E5" s="84">
         <f t="shared" si="0"/>
-        <v>4.8770697441043655E-2</v>
+        <v>9.2558139534883718E-2</v>
       </c>
       <c r="F5" s="84">
         <f t="shared" si="0"/>
-        <v>0.18859310111026356</v>
+        <v>0.16092810546575601</v>
       </c>
       <c r="G5" s="84">
         <f t="shared" si="0"/>
-        <v>8.8470045196653524E-2</v>
+        <v>0.20691056910569106</v>
       </c>
       <c r="H5" s="84">
         <f t="shared" si="0"/>
-        <v>0.52604763023815115</v>
+        <v>0.51224756123780624</v>
       </c>
       <c r="I5" s="84">
         <f t="shared" si="0"/>
-        <v>0.71188449848024316</v>
+        <v>0.70349544072948333</v>
       </c>
       <c r="J5" s="84">
         <f>(J4/J3)</f>
-        <v>0.71268792434529582</v>
+        <v>0.70432225994180409</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -5934,12 +6307,12 @@
       </c>
       <c r="C6" s="47">
         <f>C3/100</f>
-        <v>94.79</v>
+        <v>97.55</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
         <f>E3/200</f>
-        <v>99.65</v>
+        <v>107.5</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -5988,10 +6361,10 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="86">
-        <v>24826</v>
+        <v>25973</v>
       </c>
       <c r="D9" s="18">
-        <v>263997</v>
+        <v>267988</v>
       </c>
       <c r="E9" s="18">
         <v>1379988</v>
@@ -6015,27 +6388,27 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7">
         <f>D9-10*C9-(10*C9*0.01)</f>
-        <v>13254.4</v>
+        <v>5660.7</v>
       </c>
       <c r="E10" s="7">
         <f>E9-50*C9</f>
-        <v>138688</v>
+        <v>81338</v>
       </c>
       <c r="F10" s="7">
         <f>F9-50*C9</f>
-        <v>-41303</v>
+        <v>-98653</v>
       </c>
       <c r="G10" s="7">
         <f>G9-50*C9</f>
-        <v>-141302</v>
+        <v>-198652</v>
       </c>
       <c r="H10" s="7">
         <f>H9-50*C9</f>
-        <v>108700</v>
+        <v>51350</v>
       </c>
       <c r="I10" s="4">
         <f>I9-200*C9</f>
-        <v>1534799</v>
+        <v>1305399</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -6066,7 +6439,7 @@
         <v>183</v>
       </c>
       <c r="C14" s="117">
-        <v>307900</v>
+        <v>308983</v>
       </c>
       <c r="D14" s="116">
         <v>27999</v>
@@ -6088,19 +6461,19 @@
       <c r="C15" s="124"/>
       <c r="D15" s="125">
         <f>D14-(C14/10)</f>
-        <v>-2791</v>
+        <v>-2899.2999999999993</v>
       </c>
       <c r="E15" s="125">
         <f>E14-(C14/100)</f>
-        <v>121</v>
+        <v>110.17000000000007</v>
       </c>
       <c r="F15" s="125">
         <f>F14-C14</f>
-        <v>98</v>
+        <v>-985</v>
       </c>
       <c r="G15" s="126">
         <f>G14-(4*C14+10000)</f>
-        <v>158400</v>
+        <v>154068</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -6143,7 +6516,7 @@
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6319,6 +6692,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -9847,6 +10249,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="M68:O68"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="M90:O90"/>
@@ -9863,17 +10276,6 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="M68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -12326,8 +12728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12391,54 +12793,54 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>8098</v>
+        <v>7987</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>8098</v>
+        <v>7987</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>24294</v>
+        <v>23961</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>72882</v>
+        <v>71883</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>29811</v>
+        <v>29733</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>82957</v>
+        <v>83992</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>5218.8900000000003</v>
+        <v>5474.67</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.18506591526617688</v>
+        <v>0.19412773685803653</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>0.21482217831563349</v>
+        <v>0.22848253411794167</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>9245.43</v>
+        <v>11269.08</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>0.12685477895776737</v>
+        <v>0.15676975084512332</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>0.12144846125100961</v>
+        <v>0.14416849223735595</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12447,54 +12849,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>9200</v>
+        <v>9897</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>9200</v>
+        <v>9897</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>27600</v>
+        <v>29691</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>82800</v>
+        <v>89073</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>32446</v>
+        <v>30799</v>
       </c>
       <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>94863</v>
+        <v>99590</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>4521.54</v>
+        <v>800.01</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>0.14935585280157804</v>
+        <v>3.5975193999805199E-2</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>0.16382391304347826</v>
+        <v>2.6944528645043951E-2</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>11114.37</v>
+        <v>9521.1</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>0.13423152173913044</v>
+        <v>0.10689097706375669</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>0.12716232883210521</v>
+        <v>0.10560297218596248</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12503,54 +12905,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>4598</v>
+        <v>3799</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>4598</v>
+        <v>3799</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>13794</v>
+        <v>11397</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>41382</v>
+        <v>34191</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>14200</v>
+        <v>12871</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>33195</v>
+        <v>38884</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>264</v>
+        <v>1345.29</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>2.8591549295774676E-2</v>
+        <v>0.11452101623805455</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>1.9138755980861243E-2</v>
+        <v>0.11803895762042642</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>-8518.9500000000007</v>
+        <v>4304.16</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>-0.20586124401913877</v>
+        <v>0.12588575941037114</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>-0.24663352914595582</v>
+        <v>0.1206923156053904</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12559,54 +12961,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>5398</v>
+        <v>4999</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>5398</v>
+        <v>4999</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>16194</v>
+        <v>14997</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>48582</v>
+        <v>44991</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>19999</v>
+        <v>19995</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>59879</v>
+        <v>54954</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>3605.01</v>
+        <v>4798.05</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>0.1902595129756488</v>
+        <v>0.24996249062265563</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>0.22261393108558727</v>
+        <v>0.31993398679735946</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>10698.21</v>
+        <v>9413.4599999999991</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>0.2202093367914042</v>
+        <v>0.20922984596919381</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>0.18866380534077054</v>
+        <v>0.18129708483458895</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12615,54 +13017,54 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>11990</v>
+        <v>11998</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>11990</v>
+        <v>11998</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>35970</v>
+        <v>35994</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>107910</v>
+        <v>107982</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>34444</v>
+        <v>34498</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>143700</v>
+        <v>140000</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>-1870.44</v>
+        <v>-1840.98</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>-4.4303797468354444E-2</v>
+        <v>-4.3364832743927106E-2</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>-5.2000000000000005E-2</v>
+        <v>-5.1146857809634939E-2</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>34353</v>
+        <v>30618</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>0.318348623853211</v>
+        <v>0.28354725787631274</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>0.24906054279749479</v>
+        <v>0.22870000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12671,54 +13073,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>15944</v>
+        <v>14999</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>15944</v>
+        <v>14999</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>47832</v>
+        <v>44997</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>143496</v>
+        <v>134991</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>48965</v>
+        <v>52179</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>146674</v>
+        <v>146394</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>643.34999999999991</v>
+        <v>6660.21</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>2.3138976820177626E-2</v>
+        <v>0.13764157994595527</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>1.3450200702458602E-2</v>
+        <v>0.14801453430228681</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>1711.26</v>
+        <v>9939.06</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>1.1925489212242849E-2</v>
+        <v>7.3627575171678103E-2</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>2.1667098463258649E-2</v>
+        <v>7.789253657936801E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12727,54 +13129,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>15364</v>
+        <v>13892</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>15364</v>
+        <v>13892</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>46092</v>
+        <v>41676</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>138276</v>
+        <v>125028</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>48891</v>
+        <v>48795</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>104992</v>
+        <v>104994</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>2310.09</v>
+        <v>6631.05</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>5.7249800576793297E-2</v>
+        <v>0.14589609591146635</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>5.0119109606873213E-2</v>
+        <v>0.15910955945868127</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-34333.919999999998</v>
+        <v>-21083.94</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>-0.24829992189533975</v>
+        <v>-0.16863374604088682</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>-0.31701462968607141</v>
+        <v>-0.1908109034801988</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12783,54 +13185,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>31070</v>
+        <v>30884</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>31070</v>
+        <v>30884</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>93210</v>
+        <v>92652</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>279630</v>
+        <v>277956</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>99879</v>
+        <v>117823</v>
       </c>
       <c r="J11" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>315994</v>
+        <v>313972</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>5670.21</v>
+        <v>23992.77</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>6.6770792659117562E-2</v>
+        <v>0.21363401033754026</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>6.0832635983263599E-2</v>
+        <v>0.25895576997798214</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>33204.06</v>
+        <v>32876.28</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>0.11874283875120695</v>
+        <v>0.11827872037300867</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>0.11507813439495684</v>
+        <v>0.1147108659370899</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -12839,36 +13241,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>44993</v>
+        <v>43955</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>199</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>44993</v>
+        <v>43955</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>134979</v>
+        <v>131865</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>124990</v>
+        <v>129860</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>-11238.9</v>
+        <v>-3303.6000000000004</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>-7.9918393471477778E-2</v>
+        <v>-1.5439704296935197E-2</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>-8.3264063298735355E-2</v>
+        <v>-2.50528950062564E-2</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -12880,36 +13282,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>121775</v>
+        <v>121696</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>121775</v>
+        <v>121696</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>365325</v>
+        <v>365088</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>319785</v>
+        <v>325973</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>-48737.85</v>
+        <v>-42374.73</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>-0.14240818049627091</v>
+        <v>-0.11999460077981916</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>-0.13340956682406077</v>
+        <v>-0.11606716736786749</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -12921,36 +13323,36 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>122555</v>
+        <v>182278</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>122555</v>
+        <v>182278</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>367665</v>
+        <v>546834</v>
       </c>
       <c r="H14" s="74"/>
-      <c r="I14" s="91" t="str">
+      <c r="I14" s="91">
         <f t="shared" si="11"/>
-        <v>396993</v>
+        <v>589997</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>25358.07</v>
+        <v>37263.03</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>7.3875358003793523E-2</v>
+        <v>7.3157999108470095E-2</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>6.8970584635469789E-2</v>
+        <v>6.8143220794610423E-2</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -12962,36 +13364,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>88790</v>
+        <v>89493</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>88790</v>
+        <v>89493</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>266370</v>
+        <v>268479</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>279780</v>
+        <v>279893</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>10612.2</v>
+        <v>8615.07</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>4.7930516834655768E-2</v>
+        <v>4.077986945011125E-2</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>3.9840072080189214E-2</v>
+        <v>3.2088431497435552E-2</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -13003,36 +13405,36 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>71847</v>
+        <v>71763</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>71847</v>
+        <v>71763</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>215541</v>
+        <v>215289</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>189995</v>
+        <v>219919</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>-27445.95</v>
+        <v>2430.81</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>-0.13445616989920794</v>
+        <v>2.1053205953100895E-2</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>-0.12733517057079627</v>
+        <v>1.1290915931608209E-2</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -13047,7 +13449,7 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>29811</v>
+        <v>29733</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -13056,7 +13458,7 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>32446</v>
+        <v>30799</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -13065,7 +13467,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>14200</v>
+        <v>12871</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -13074,7 +13476,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>19999</v>
+        <v>19995</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -13083,13 +13485,13 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>34444</v>
+        <v>34498</v>
       </c>
       <c r="E22" t="s">
         <v>797</v>
       </c>
       <c r="F22">
-        <v>2771974</v>
+        <v>4096113</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -13098,7 +13500,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>48965</v>
+        <v>52179</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -13113,11 +13515,11 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>48891</v>
+        <v>48795</v>
       </c>
       <c r="F24">
         <f>SUM(F22:F23)</f>
-        <v>2771974</v>
+        <v>4096113</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -13126,13 +13528,13 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>99879</v>
+        <v>117823</v>
       </c>
       <c r="E25" t="s">
         <v>797</v>
       </c>
       <c r="F25">
-        <v>1530592</v>
+        <v>1835330</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -13141,14 +13543,13 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>124990</v>
+        <v>129860</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <f>634314+828788</f>
-        <v>1463102</v>
+        <v>2628998</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -13157,27 +13558,27 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>319785</v>
+        <v>325973</v>
       </c>
       <c r="F27">
         <f>SUM(F25:F26)</f>
-        <v>2993694</v>
+        <v>4464328</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="21" t="str">
+      <c r="C28" s="21">
         <f>Raw!D48</f>
-        <v>396993</v>
+        <v>589997</v>
       </c>
       <c r="E28" t="s">
         <v>798</v>
       </c>
       <c r="F28">
         <f>F27-F24</f>
-        <v>221720</v>
+        <v>368215</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -13186,7 +13587,7 @@
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>279780</v>
+        <v>279893</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13195,7 +13596,7 @@
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>189995</v>
+        <v>219919</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13207,7 +13608,7 @@
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>82957</v>
+        <v>83992</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -13216,7 +13617,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>94863</v>
+        <v>99590</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -13225,7 +13626,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>33195</v>
+        <v>38884</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -13234,7 +13635,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>59879</v>
+        <v>54954</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -13243,7 +13644,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>143700</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -13252,7 +13653,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>146674</v>
+        <v>146394</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -13261,7 +13662,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>104992</v>
+        <v>104994</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13270,7 +13671,7 @@
       </c>
       <c r="C39" s="22" t="str">
         <f>Raw!D68</f>
-        <v>315994</v>
+        <v>313972</v>
       </c>
     </row>
   </sheetData>
@@ -13341,26 +13742,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI68"/>
+  <dimension ref="A1:AM68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="35" width="15.7109375" customWidth="1"/>
+    <col min="11" max="39" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>957</v>
+        <v>1085</v>
       </c>
       <c r="K2" t="s">
         <v>219</v>
@@ -13437,15 +13838,27 @@
       <c r="AI2" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" t="s">
+        <v>957</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>990</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>958</v>
+        <v>1086</v>
       </c>
       <c r="K4" t="s">
         <v>220</v>
@@ -13522,15 +13935,27 @@
       <c r="AI4" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" t="s">
+        <v>958</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>991</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>959</v>
+        <v>1087</v>
       </c>
       <c r="K6" t="s">
         <v>221</v>
@@ -13607,15 +14032,27 @@
       <c r="AI6" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6" t="s">
+        <v>959</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>992</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>960</v>
+        <v>1088</v>
       </c>
       <c r="K8" t="s">
         <v>222</v>
@@ -13692,15 +14129,27 @@
       <c r="AI8" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" t="s">
+        <v>960</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>993</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>961</v>
+        <v>1089</v>
       </c>
       <c r="K10" t="s">
         <v>209</v>
@@ -13777,15 +14226,27 @@
       <c r="AI10" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" t="s">
+        <v>961</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>994</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>962</v>
+        <v>674</v>
       </c>
       <c r="K12" t="s">
         <v>223</v>
@@ -13862,15 +14323,27 @@
       <c r="AI12" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" t="s">
+        <v>962</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>995</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>963</v>
+        <v>808</v>
       </c>
       <c r="K14" t="s">
         <v>224</v>
@@ -13947,15 +14420,27 @@
       <c r="AI14" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" t="s">
+        <v>963</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>996</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>964</v>
+        <v>1090</v>
       </c>
       <c r="K16" t="s">
         <v>225</v>
@@ -14032,15 +14517,27 @@
       <c r="AI16" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16" t="s">
+        <v>964</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>997</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>965</v>
+        <v>1091</v>
       </c>
       <c r="K18" t="s">
         <v>210</v>
@@ -14117,15 +14614,27 @@
       <c r="AI18">
         <v>55999</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ18" t="s">
+        <v>965</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>998</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>966</v>
+        <v>1092</v>
       </c>
       <c r="K20" t="s">
         <v>226</v>
@@ -14202,15 +14711,27 @@
       <c r="AI20" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ20" t="s">
+        <v>966</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>999</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>967</v>
+        <v>1093</v>
       </c>
       <c r="K22" t="s">
         <v>227</v>
@@ -14287,15 +14808,27 @@
       <c r="AI22" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ22" t="s">
+        <v>967</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>968</v>
+        <v>1094</v>
       </c>
       <c r="K24" t="s">
         <v>228</v>
@@ -14372,15 +14905,27 @@
       <c r="AI24" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ24" t="s">
+        <v>968</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>969</v>
+        <v>1095</v>
       </c>
       <c r="K26" t="s">
         <v>229</v>
@@ -14457,15 +15002,27 @@
       <c r="AI26" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ26" t="s">
+        <v>969</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>1002</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>970</v>
+        <v>1096</v>
       </c>
       <c r="K28" t="s">
         <v>230</v>
@@ -14542,15 +15099,27 @@
       <c r="AI28" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ28" t="s">
+        <v>970</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>1003</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>971</v>
+        <v>1097</v>
       </c>
       <c r="K30" t="s">
         <v>231</v>
@@ -14627,15 +15196,27 @@
       <c r="AI30" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ30" t="s">
+        <v>971</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>1004</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>972</v>
+        <v>1098</v>
       </c>
       <c r="K32" t="s">
         <v>211</v>
@@ -14712,15 +15293,27 @@
       <c r="AI32" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ32" t="s">
+        <v>972</v>
+      </c>
+      <c r="AK32" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>973</v>
+        <v>1099</v>
       </c>
       <c r="K34" t="s">
         <v>232</v>
@@ -14797,15 +15390,27 @@
       <c r="AI34" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ34" t="s">
+        <v>973</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>974</v>
+        <v>1069</v>
       </c>
       <c r="K36" t="s">
         <v>208</v>
@@ -14882,15 +15487,27 @@
       <c r="AI36" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ36" t="s">
+        <v>974</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>850</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>850</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>975</v>
+        <v>1100</v>
       </c>
       <c r="K38" t="s">
         <v>212</v>
@@ -14967,15 +15584,27 @@
       <c r="AI38" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ38" t="s">
+        <v>975</v>
+      </c>
+      <c r="AK38" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>976</v>
+        <v>1101</v>
       </c>
       <c r="K40" t="s">
         <v>213</v>
@@ -15052,15 +15681,27 @@
       <c r="AI40" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ40" t="s">
+        <v>976</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>977</v>
+        <v>1102</v>
       </c>
       <c r="K42" t="s">
         <v>233</v>
@@ -15137,15 +15778,27 @@
       <c r="AI42" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ42" t="s">
+        <v>977</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>978</v>
+        <v>1103</v>
       </c>
       <c r="K44" t="s">
         <v>214</v>
@@ -15222,15 +15875,27 @@
       <c r="AI44" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ44" t="s">
+        <v>978</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>855</v>
+        <v>1104</v>
       </c>
       <c r="K46" t="s">
         <v>234</v>
@@ -15307,15 +15972,27 @@
       <c r="AI46" t="s">
         <v>888</v>
       </c>
-    </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ46" t="s">
+        <v>855</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="D48" t="s">
-        <v>979</v>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>589997</v>
       </c>
       <c r="K48" t="s">
         <v>215</v>
@@ -15392,15 +16069,27 @@
       <c r="AI48" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ48" t="s">
+        <v>979</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>980</v>
+        <v>1076</v>
       </c>
       <c r="K50" t="s">
         <v>216</v>
@@ -15477,15 +16166,27 @@
       <c r="AI50" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ50" t="s">
+        <v>980</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>1013</v>
+      </c>
+      <c r="AL50">
+        <v>279798</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>981</v>
+        <v>1105</v>
       </c>
       <c r="K52" t="s">
         <v>217</v>
@@ -15562,15 +16263,27 @@
       <c r="AI52" t="s">
         <v>891</v>
       </c>
-    </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ52" t="s">
+        <v>981</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>1014</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>982</v>
+        <v>1106</v>
       </c>
       <c r="K54" t="s">
         <v>235</v>
@@ -15647,15 +16360,27 @@
       <c r="AI54" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ54" t="s">
+        <v>982</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>1015</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>983</v>
+        <v>1107</v>
       </c>
       <c r="K56" t="s">
         <v>218</v>
@@ -15732,15 +16457,27 @@
       <c r="AI56" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ56" t="s">
+        <v>983</v>
+      </c>
+      <c r="AK56" t="s">
+        <v>1016</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>984</v>
+        <v>1108</v>
       </c>
       <c r="K58" t="s">
         <v>236</v>
@@ -15817,15 +16554,27 @@
       <c r="AI58" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ58" t="s">
+        <v>984</v>
+      </c>
+      <c r="AK58" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>985</v>
+        <v>1109</v>
       </c>
       <c r="K60" t="s">
         <v>237</v>
@@ -15902,15 +16651,27 @@
       <c r="AI60" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ60" t="s">
+        <v>985</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>986</v>
+        <v>1110</v>
       </c>
       <c r="K62" t="s">
         <v>207</v>
@@ -15987,15 +16748,27 @@
       <c r="AI62" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ62" t="s">
+        <v>986</v>
+      </c>
+      <c r="AK62" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>987</v>
+        <v>1111</v>
       </c>
       <c r="K64" t="s">
         <v>238</v>
@@ -16072,15 +16845,27 @@
       <c r="AI64" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ64" t="s">
+        <v>987</v>
+      </c>
+      <c r="AK64" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>988</v>
+        <v>1112</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -16157,15 +16942,27 @@
       <c r="AI66" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ66" t="s">
+        <v>988</v>
+      </c>
+      <c r="AK66" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>989</v>
+        <v>1113</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -16241,6 +17038,18 @@
       </c>
       <c r="AI68" t="s">
         <v>956</v>
+      </c>
+      <c r="AJ68" t="s">
+        <v>989</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>1084</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1279" uniqueCount="1114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1233">
   <si>
     <t>Ardonite</t>
   </si>
@@ -3367,6 +3367,363 @@
   </si>
   <si>
     <t>313972</t>
+  </si>
+  <si>
+    <t>7893</t>
+  </si>
+  <si>
+    <t>9551</t>
+  </si>
+  <si>
+    <t>3737</t>
+  </si>
+  <si>
+    <t>5190</t>
+  </si>
+  <si>
+    <t>11890</t>
+  </si>
+  <si>
+    <t>15389</t>
+  </si>
+  <si>
+    <t>13889</t>
+  </si>
+  <si>
+    <t>43957</t>
+  </si>
+  <si>
+    <t>182240</t>
+  </si>
+  <si>
+    <t>98881</t>
+  </si>
+  <si>
+    <t>71762</t>
+  </si>
+  <si>
+    <t>29755</t>
+  </si>
+  <si>
+    <t>30994</t>
+  </si>
+  <si>
+    <t>10999</t>
+  </si>
+  <si>
+    <t>19997</t>
+  </si>
+  <si>
+    <t>34487</t>
+  </si>
+  <si>
+    <t>52168</t>
+  </si>
+  <si>
+    <t>48787</t>
+  </si>
+  <si>
+    <t>117821</t>
+  </si>
+  <si>
+    <t>129884</t>
+  </si>
+  <si>
+    <t>589992</t>
+  </si>
+  <si>
+    <t>219917</t>
+  </si>
+  <si>
+    <t>83993</t>
+  </si>
+  <si>
+    <t>99587</t>
+  </si>
+  <si>
+    <t>54956</t>
+  </si>
+  <si>
+    <t>139999</t>
+  </si>
+  <si>
+    <t>146398</t>
+  </si>
+  <si>
+    <t>313966</t>
+  </si>
+  <si>
+    <t>389 216k</t>
+  </si>
+  <si>
+    <t>rose:</t>
+  </si>
+  <si>
+    <t>100 coffres:</t>
+  </si>
+  <si>
+    <t>8989</t>
+  </si>
+  <si>
+    <t>3411</t>
+  </si>
+  <si>
+    <t>5180</t>
+  </si>
+  <si>
+    <t>9000</t>
+  </si>
+  <si>
+    <t>15200</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>31984</t>
+  </si>
+  <si>
+    <t>39991</t>
+  </si>
+  <si>
+    <t>121760</t>
+  </si>
+  <si>
+    <t>178491</t>
+  </si>
+  <si>
+    <t>98863</t>
+  </si>
+  <si>
+    <t>69985</t>
+  </si>
+  <si>
+    <t>29865</t>
+  </si>
+  <si>
+    <t>30959</t>
+  </si>
+  <si>
+    <t>12843</t>
+  </si>
+  <si>
+    <t>19941</t>
+  </si>
+  <si>
+    <t>34486</t>
+  </si>
+  <si>
+    <t>52163</t>
+  </si>
+  <si>
+    <t>47975</t>
+  </si>
+  <si>
+    <t>117827</t>
+  </si>
+  <si>
+    <t>336853</t>
+  </si>
+  <si>
+    <t>589974</t>
+  </si>
+  <si>
+    <t>279892</t>
+  </si>
+  <si>
+    <t>219921</t>
+  </si>
+  <si>
+    <t>84442</t>
+  </si>
+  <si>
+    <t>99576</t>
+  </si>
+  <si>
+    <t>44999</t>
+  </si>
+  <si>
+    <t>54994</t>
+  </si>
+  <si>
+    <t>139984</t>
+  </si>
+  <si>
+    <t>146799</t>
+  </si>
+  <si>
+    <t>313955</t>
+  </si>
+  <si>
+    <t>7692</t>
+  </si>
+  <si>
+    <t>9993</t>
+  </si>
+  <si>
+    <t>4296</t>
+  </si>
+  <si>
+    <t>5464</t>
+  </si>
+  <si>
+    <t>8988</t>
+  </si>
+  <si>
+    <t>13880</t>
+  </si>
+  <si>
+    <t>32879</t>
+  </si>
+  <si>
+    <t>42998</t>
+  </si>
+  <si>
+    <t>121751</t>
+  </si>
+  <si>
+    <t>143494</t>
+  </si>
+  <si>
+    <t>107976</t>
+  </si>
+  <si>
+    <t>69012</t>
+  </si>
+  <si>
+    <t>30960</t>
+  </si>
+  <si>
+    <t>12834</t>
+  </si>
+  <si>
+    <t>20840</t>
+  </si>
+  <si>
+    <t>52059</t>
+  </si>
+  <si>
+    <t>47880</t>
+  </si>
+  <si>
+    <t>117791</t>
+  </si>
+  <si>
+    <t>138892</t>
+  </si>
+  <si>
+    <t>373050</t>
+  </si>
+  <si>
+    <t>569966</t>
+  </si>
+  <si>
+    <t>219972</t>
+  </si>
+  <si>
+    <t>89994</t>
+  </si>
+  <si>
+    <t>99558</t>
+  </si>
+  <si>
+    <t>44933</t>
+  </si>
+  <si>
+    <t>59900</t>
+  </si>
+  <si>
+    <t>138999</t>
+  </si>
+  <si>
+    <t>146884</t>
+  </si>
+  <si>
+    <t>104990</t>
+  </si>
+  <si>
+    <t>313951</t>
+  </si>
+  <si>
+    <t>7598</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>5767</t>
+  </si>
+  <si>
+    <t>11845</t>
+  </si>
+  <si>
+    <t>12993</t>
+  </si>
+  <si>
+    <t>32497</t>
+  </si>
+  <si>
+    <t>39096</t>
+  </si>
+  <si>
+    <t>139979</t>
+  </si>
+  <si>
+    <t>118977</t>
+  </si>
+  <si>
+    <t>71437</t>
+  </si>
+  <si>
+    <t>29853</t>
+  </si>
+  <si>
+    <t>12830</t>
+  </si>
+  <si>
+    <t>34493</t>
+  </si>
+  <si>
+    <t>51780</t>
+  </si>
+  <si>
+    <t>47802</t>
+  </si>
+  <si>
+    <t>116999</t>
+  </si>
+  <si>
+    <t>170000</t>
+  </si>
+  <si>
+    <t>373049</t>
+  </si>
+  <si>
+    <t>569946</t>
+  </si>
+  <si>
+    <t>88995</t>
+  </si>
+  <si>
+    <t>99545</t>
+  </si>
+  <si>
+    <t>43998</t>
+  </si>
+  <si>
+    <t>59977</t>
+  </si>
+  <si>
+    <t>139000</t>
+  </si>
+  <si>
+    <t>147793</t>
+  </si>
+  <si>
+    <t>104000</t>
+  </si>
+  <si>
+    <t>312999</t>
   </si>
 </sst>
 </file>
@@ -4188,7 +4545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4554,6 +4911,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6149,10 +6509,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6204,25 +6564,25 @@
         <v>183</v>
       </c>
       <c r="C3" s="85">
-        <v>9755</v>
+        <v>9000</v>
       </c>
       <c r="D3" s="2">
-        <v>8983</v>
+        <v>8979</v>
       </c>
       <c r="E3" s="2">
-        <v>21500</v>
+        <v>20980</v>
       </c>
       <c r="F3" s="2">
-        <v>58711</v>
+        <v>58682</v>
       </c>
       <c r="G3" s="2">
         <v>61500</v>
       </c>
       <c r="H3" s="2">
-        <v>199999</v>
+        <v>199998</v>
       </c>
       <c r="I3" s="2">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="J3" s="100">
         <v>32992</v>
@@ -6238,35 +6598,35 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7">
         <f>D3-C3</f>
-        <v>-772</v>
+        <v>-21</v>
       </c>
       <c r="E4" s="7">
         <f>E3-C3*2</f>
-        <v>1990</v>
+        <v>2980</v>
       </c>
       <c r="F4" s="7">
         <f>F3-C3*5-(C3*5*0.01)</f>
-        <v>9448.25</v>
+        <v>13232</v>
       </c>
       <c r="G4" s="7">
         <f>G3-5*C3</f>
-        <v>12725</v>
+        <v>16500</v>
       </c>
       <c r="H4" s="7">
         <f>H3-C3*10</f>
-        <v>102449</v>
+        <v>109998</v>
       </c>
       <c r="I4" s="7">
         <f>I3-C3/10</f>
-        <v>2314.5</v>
+        <v>2389</v>
       </c>
       <c r="J4" s="130">
         <f>J3-C3</f>
-        <v>23237</v>
+        <v>23992</v>
       </c>
       <c r="K4" s="133">
         <f>K3-(C3/10*25)</f>
-        <v>25609.5</v>
+        <v>27497</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -6274,31 +6634,31 @@
       <c r="C5" s="47"/>
       <c r="D5" s="84">
         <f t="shared" ref="D5:I5" si="0">(D4/D3)</f>
-        <v>-8.594010909495714E-2</v>
+        <v>-2.3387905111927833E-3</v>
       </c>
       <c r="E5" s="84">
         <f t="shared" si="0"/>
-        <v>9.2558139534883718E-2</v>
+        <v>0.14204003813155386</v>
       </c>
       <c r="F5" s="84">
         <f t="shared" si="0"/>
-        <v>0.16092810546575601</v>
+        <v>0.22548652056848778</v>
       </c>
       <c r="G5" s="84">
         <f t="shared" si="0"/>
-        <v>0.20691056910569106</v>
+        <v>0.26829268292682928</v>
       </c>
       <c r="H5" s="84">
         <f t="shared" si="0"/>
-        <v>0.51224756123780624</v>
+        <v>0.54999549995499952</v>
       </c>
       <c r="I5" s="84">
         <f t="shared" si="0"/>
-        <v>0.70349544072948333</v>
+        <v>0.72636059592581337</v>
       </c>
       <c r="J5" s="84">
         <f>(J4/J3)</f>
-        <v>0.70432225994180409</v>
+        <v>0.72720659553831235</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -6307,12 +6667,12 @@
       </c>
       <c r="C6" s="47">
         <f>C3/100</f>
-        <v>97.55</v>
+        <v>90</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
         <f>E3/200</f>
-        <v>107.5</v>
+        <v>104.9</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -6476,17 +6836,59 @@
         <v>154068</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="K19" s="10">
+        <v>19622</v>
+      </c>
+      <c r="L19" s="11">
+        <v>90</v>
+      </c>
+      <c r="M19" s="12">
+        <f>K19*L19</f>
+        <v>1765980</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>567993</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="K20" s="5">
+        <v>19500</v>
+      </c>
+      <c r="L20" s="2">
+        <f>K20/500</f>
+        <v>39</v>
+      </c>
+      <c r="M20" s="3">
+        <f>L20*F3</f>
+        <v>2288598</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="6"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="135">
+        <f>M20-M19</f>
+        <v>522618</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>299999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>700000</v>
       </c>
@@ -6495,7 +6897,7 @@
         <v>132007</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B22-B23</f>
         <v>167992</v>
@@ -6516,7 +6918,7 @@
   <dimension ref="B1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6752,29 +7154,29 @@
         <f>Comparatifs!B27</f>
         <v>0</v>
       </c>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
       <c r="G2" s="8">
         <f>Comparatifs!B28+B10</f>
         <v>0</v>
       </c>
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="137"/>
       <c r="L2" s="8">
         <f>Comparatifs!B29+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="135" t="s">
+      <c r="M2" s="136" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="135"/>
-      <c r="O2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="137"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -7141,29 +7543,29 @@
         <f>Comparatifs!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
       <c r="G13" s="8">
         <f>Comparatifs!B14+B21</f>
         <v>0</v>
       </c>
-      <c r="H13" s="135" t="s">
+      <c r="H13" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="135"/>
-      <c r="J13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="137"/>
       <c r="L13" s="8">
         <f>Comparatifs!B13+G20</f>
         <v>0</v>
       </c>
-      <c r="M13" s="135" t="s">
+      <c r="M13" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="135"/>
-      <c r="O13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="137"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
@@ -7530,29 +7932,29 @@
         <f>Comparatifs!B15</f>
         <v>5</v>
       </c>
-      <c r="C24" s="135" t="s">
+      <c r="C24" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="135"/>
-      <c r="E24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="137"/>
       <c r="G24" s="8">
         <f>Comparatifs!B16+B32</f>
         <v>5</v>
       </c>
-      <c r="H24" s="135" t="s">
+      <c r="H24" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="135"/>
-      <c r="J24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="137"/>
       <c r="L24" s="8">
         <f>Comparatifs!B17+G31</f>
         <v>5</v>
       </c>
-      <c r="M24" s="135" t="s">
+      <c r="M24" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="135"/>
-      <c r="O24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="137"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -7919,29 +8321,29 @@
         <f>Comparatifs!B18</f>
         <v>0</v>
       </c>
-      <c r="C35" s="135" t="s">
+      <c r="C35" s="136" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="137"/>
       <c r="G35" s="8">
         <f>Comparatifs!B19+B43</f>
         <v>0</v>
       </c>
-      <c r="H35" s="135" t="s">
+      <c r="H35" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="135"/>
-      <c r="J35" s="136"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="137"/>
       <c r="L35" s="8">
         <f>Comparatifs!B20+G42</f>
         <v>0</v>
       </c>
-      <c r="M35" s="135" t="s">
+      <c r="M35" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="135"/>
-      <c r="O35" s="136"/>
+      <c r="N35" s="136"/>
+      <c r="O35" s="137"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
@@ -8308,29 +8710,29 @@
         <f>Comparatifs!B21</f>
         <v>0</v>
       </c>
-      <c r="C46" s="135" t="s">
+      <c r="C46" s="136" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="135"/>
-      <c r="E46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="137"/>
       <c r="G46" s="8">
         <f>Comparatifs!B22+B54</f>
         <v>0</v>
       </c>
-      <c r="H46" s="135" t="s">
+      <c r="H46" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="135"/>
-      <c r="J46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="137"/>
       <c r="L46" s="8">
         <f>Comparatifs!B23+G53</f>
         <v>0</v>
       </c>
-      <c r="M46" s="135" t="s">
+      <c r="M46" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="135"/>
-      <c r="O46" s="136"/>
+      <c r="N46" s="136"/>
+      <c r="O46" s="137"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
@@ -8697,29 +9099,29 @@
         <f>Comparatifs!B24</f>
         <v>5</v>
       </c>
-      <c r="C57" s="135" t="s">
+      <c r="C57" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="135"/>
-      <c r="E57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="137"/>
       <c r="G57" s="8">
         <f>Comparatifs!B25+B65</f>
         <v>5</v>
       </c>
-      <c r="H57" s="135" t="s">
+      <c r="H57" s="136" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="135"/>
-      <c r="J57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="137"/>
       <c r="L57" s="8">
         <f>Comparatifs!B26+G64</f>
         <v>5</v>
       </c>
-      <c r="M57" s="135" t="s">
+      <c r="M57" s="136" t="s">
         <v>61</v>
       </c>
-      <c r="N57" s="135"/>
-      <c r="O57" s="136"/>
+      <c r="N57" s="136"/>
+      <c r="O57" s="137"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -9086,29 +9488,29 @@
         <f>Comparatifs!B30</f>
         <v>5</v>
       </c>
-      <c r="C68" s="135" t="s">
+      <c r="C68" s="136" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="135"/>
-      <c r="E68" s="136"/>
+      <c r="D68" s="136"/>
+      <c r="E68" s="137"/>
       <c r="G68" s="8">
         <f>Comparatifs!B31+B76</f>
         <v>5</v>
       </c>
-      <c r="H68" s="135" t="s">
+      <c r="H68" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="I68" s="135"/>
-      <c r="J68" s="136"/>
+      <c r="I68" s="136"/>
+      <c r="J68" s="137"/>
       <c r="L68" s="8">
         <f>Comparatifs!B32+G75</f>
         <v>5</v>
       </c>
-      <c r="M68" s="135" t="s">
+      <c r="M68" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="N68" s="135"/>
-      <c r="O68" s="136"/>
+      <c r="N68" s="136"/>
+      <c r="O68" s="137"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
@@ -9475,29 +9877,29 @@
         <f>Comparatifs!B33</f>
         <v>5</v>
       </c>
-      <c r="C79" s="135" t="s">
+      <c r="C79" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="135"/>
-      <c r="E79" s="136"/>
+      <c r="D79" s="136"/>
+      <c r="E79" s="137"/>
       <c r="G79" s="8">
         <f>Comparatifs!B34+B87</f>
         <v>5</v>
       </c>
-      <c r="H79" s="135" t="s">
+      <c r="H79" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="I79" s="135"/>
-      <c r="J79" s="136"/>
+      <c r="I79" s="136"/>
+      <c r="J79" s="137"/>
       <c r="L79" s="8">
         <f>Comparatifs!B35+G86</f>
         <v>5</v>
       </c>
-      <c r="M79" s="135" t="s">
+      <c r="M79" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="N79" s="135"/>
-      <c r="O79" s="136"/>
+      <c r="N79" s="136"/>
+      <c r="O79" s="137"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
@@ -9864,29 +10266,29 @@
         <f>Comparatifs!B36</f>
         <v>0</v>
       </c>
-      <c r="C90" s="135" t="s">
+      <c r="C90" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="135"/>
-      <c r="E90" s="136"/>
+      <c r="D90" s="136"/>
+      <c r="E90" s="137"/>
       <c r="G90" s="8">
         <f>Comparatifs!B37+B98</f>
         <v>0</v>
       </c>
-      <c r="H90" s="135" t="s">
+      <c r="H90" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="135"/>
-      <c r="J90" s="136"/>
+      <c r="I90" s="136"/>
+      <c r="J90" s="137"/>
       <c r="L90" s="8">
         <f>Comparatifs!B38+G97</f>
         <v>0</v>
       </c>
-      <c r="M90" s="135" t="s">
+      <c r="M90" s="136" t="s">
         <v>125</v>
       </c>
-      <c r="N90" s="135"/>
-      <c r="O90" s="136"/>
+      <c r="N90" s="136"/>
+      <c r="O90" s="137"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
@@ -10249,17 +10651,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="M68:O68"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="M90:O90"/>
@@ -10276,6 +10667,17 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="C35:E35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="M68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10349,16 +10751,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="140"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -11581,25 +11983,25 @@
         <f>'Comparatifs Idoles'!B12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="135"/>
-      <c r="E2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
       <c r="G2" s="8">
         <f>'Comparatifs Idoles'!B13</f>
         <v>0</v>
       </c>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="137"/>
       <c r="L2" s="8">
         <f>Comparatifs!B13+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="137"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -11923,16 +12325,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="137" t="s">
+      <c r="B8" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="139"/>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="140"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -12149,11 +12551,11 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="135" t="s">
+      <c r="C9" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="135"/>
-      <c r="E9" s="140"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="141"/>
       <c r="F9" s="48"/>
       <c r="H9" t="s">
         <v>8</v>
@@ -12358,11 +12760,11 @@
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="136" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="140"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="141"/>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -12729,7 +13131,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12793,54 +13195,54 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>7987</v>
+        <v>7598</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>7987</v>
+        <v>7598</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>23961</v>
+        <v>22794</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>71883</v>
+        <v>68382</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>29733</v>
+        <v>29853</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>83992</v>
+        <v>88995</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>5474.67</v>
+        <v>6760.47</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.19412773685803653</v>
+        <v>0.23645864737212341</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>0.22848253411794167</v>
+        <v>0.29658989207686232</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>11269.08</v>
+        <v>19723.05</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>0.15676975084512332</v>
+        <v>0.28842458541721505</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>0.14416849223735595</v>
+        <v>0.23161975391875944</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12849,54 +13251,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>9897</v>
+        <v>8999</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>9897</v>
+        <v>8999</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>29691</v>
+        <v>26997</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>89073</v>
+        <v>80991</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>30799</v>
+        <v>30959</v>
       </c>
       <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>99590</v>
+        <v>99545</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>800.01</v>
+        <v>3652.41</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>3.5975193999805199E-2</v>
+        <v>0.12797570980974837</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>2.6944528645043951E-2</v>
+        <v>0.13528947660851204</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>9521.1</v>
+        <v>17558.55</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>0.10689097706375669</v>
+        <v>0.21679631070118902</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>0.10560297218596248</v>
+        <v>0.18638806569893018</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12905,54 +13307,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>3799</v>
+        <v>4000</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>3799</v>
+        <v>4000</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>11397</v>
+        <v>12000</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>34191</v>
+        <v>36000</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>12871</v>
+        <v>12830</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>38884</v>
+        <v>43998</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>1345.29</v>
+        <v>701.7</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>0.11452101623805455</v>
+        <v>6.4692127825409229E-2</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>0.11803895762042642</v>
+        <v>5.8475000000000006E-2</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>4304.16</v>
+        <v>7558.02</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>0.12588575941037114</v>
+        <v>0.20994500000000002</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>0.1206923156053904</v>
+        <v>0.18178099004500203</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12961,54 +13363,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>4999</v>
+        <v>5767</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>4999</v>
+        <v>5767</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>14997</v>
+        <v>17301</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>44991</v>
+        <v>51903</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>19995</v>
+        <v>19997</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>54954</v>
+        <v>59977</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>4798.05</v>
+        <v>2496.0300000000002</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>0.24996249062265563</v>
+        <v>0.13482022303345498</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>0.31993398679735946</v>
+        <v>0.14427085139587309</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>9413.4599999999991</v>
+        <v>7474.23</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>0.20922984596919381</v>
+        <v>0.14400381480839258</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>0.18129708483458895</v>
+        <v>0.1346182703369625</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13017,54 +13419,54 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>11998</v>
+        <v>11845</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>11998</v>
+        <v>11845</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>35994</v>
+        <v>35535</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>107982</v>
+        <v>106605</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>34498</v>
+        <v>34493</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>140000</v>
+        <v>139000</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>-1840.98</v>
+        <v>-1386.93</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>-4.3364832743927106E-2</v>
+        <v>-3.0209027918708165E-2</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>-5.1146857809634939E-2</v>
+        <v>-3.9029970451667374E-2</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>30618</v>
+        <v>31005</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>0.28354725787631274</v>
+        <v>0.29084001688476152</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>0.22870000000000001</v>
+        <v>0.23305755395683458</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13073,54 +13475,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>14999</v>
+        <v>15933</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>14999</v>
+        <v>15933</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>44997</v>
+        <v>47799</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>134991</v>
+        <v>143397</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>52179</v>
+        <v>51780</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>146394</v>
+        <v>147793</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>6660.21</v>
+        <v>3463.2</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>0.13764157994595527</v>
+        <v>7.6882966396291996E-2</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>0.14801453430228681</v>
+        <v>7.2453398606665415E-2</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>9939.06</v>
+        <v>2918.0699999999997</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>7.3627575171678103E-2</v>
+        <v>2.0349588903533545E-2</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>7.789253657936801E-2</v>
+        <v>2.9744304534044197E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13129,54 +13531,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>13892</v>
+        <v>12993</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>13892</v>
+        <v>12993</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>41676</v>
+        <v>38979</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>125028</v>
+        <v>116937</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>48795</v>
+        <v>47802</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>104994</v>
+        <v>104000</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>6631.05</v>
+        <v>8344.98</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>0.14589609591146635</v>
+        <v>0.18457386720220914</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>0.15910955945868127</v>
+        <v>0.21408912491341489</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-21083.94</v>
+        <v>-13977</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>-0.16863374604088682</v>
+        <v>-0.11952589856076348</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>-0.1908109034801988</v>
+        <v>-0.12439423076923073</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13185,54 +13587,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>30884</v>
+        <v>32497</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>30884</v>
+        <v>32497</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>92652</v>
+        <v>97491</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>277956</v>
+        <v>292473</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>117823</v>
+        <v>116999</v>
       </c>
       <c r="J11" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>313972</v>
+        <v>312999</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>23992.77</v>
+        <v>18338.009999999998</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>0.21363401033754026</v>
+        <v>0.1667364678330584</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>0.25895576997798214</v>
+        <v>0.18809951687848109</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>32876.28</v>
+        <v>17396.009999999998</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>0.11827872037300867</v>
+        <v>5.9479028833430772E-2</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>0.1147108659370899</v>
+        <v>6.5578484276307636E-2</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -13241,36 +13643,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>43955</v>
+        <v>39096</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>199</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>43955</v>
+        <v>39096</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>131865</v>
+        <v>117288</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>129860</v>
+        <v>170000</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>-3303.6000000000004</v>
+        <v>51012</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>-1.5439704296935197E-2</v>
+        <v>0.3100705882352941</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>-2.50528950062564E-2</v>
+        <v>0.43492940454266421</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -13282,36 +13684,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>121696</v>
+        <v>121751</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>121696</v>
+        <v>121751</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>365088</v>
+        <v>365253</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>325973</v>
+        <v>373049</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>-42374.73</v>
+        <v>4065.5099999999998</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>-0.11999460077981916</v>
+        <v>2.08980589681248E-2</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>-0.11606716736786749</v>
+        <v>1.1130668331266273E-2</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -13323,36 +13725,36 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>182278</v>
+        <v>139979</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>182278</v>
+        <v>139979</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>546834</v>
+        <v>419937</v>
       </c>
       <c r="H14" s="74"/>
-      <c r="I14" s="91">
+      <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>589997</v>
+        <v>569946</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>37263.03</v>
+        <v>144309.54</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>7.3157999108470095E-2</v>
+        <v>0.26319861881651951</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>6.8143220794610423E-2</v>
+        <v>0.34364568971059944</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -13364,36 +13766,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>89493</v>
+        <v>118977</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>89493</v>
+        <v>118977</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>268479</v>
+        <v>356931</v>
       </c>
       <c r="H15" s="74"/>
-      <c r="I15" s="91" t="str">
+      <c r="I15" s="91">
         <f t="shared" si="11"/>
-        <v>279893</v>
+        <v>319720</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>8615.07</v>
+        <v>-40408.199999999997</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>4.077986945011125E-2</v>
+        <v>-0.11638621293631934</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>3.2088431497435552E-2</v>
+        <v>-0.11321011624095413</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -13405,36 +13807,36 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>71763</v>
+        <v>71437</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>71763</v>
+        <v>71437</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>215289</v>
+        <v>214311</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>219919</v>
+        <v>228999</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>2430.81</v>
+        <v>12398.01</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>2.1053205953100895E-2</v>
+        <v>6.4140018078681527E-2</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>1.1290915931608209E-2</v>
+        <v>5.7850553634671113E-2</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -13449,7 +13851,7 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>29733</v>
+        <v>29853</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -13458,7 +13860,7 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>30799</v>
+        <v>30959</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -13467,7 +13869,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>12871</v>
+        <v>12830</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -13476,7 +13878,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>19995</v>
+        <v>19997</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -13485,13 +13887,13 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>34498</v>
+        <v>34493</v>
       </c>
       <c r="E22" t="s">
         <v>797</v>
       </c>
       <c r="F22">
-        <v>4096113</v>
+        <v>4128040</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -13500,13 +13902,13 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>52179</v>
+        <v>51780</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>313750</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -13515,11 +13917,11 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>48795</v>
+        <v>47802</v>
       </c>
       <c r="F24">
         <f>SUM(F22:F23)</f>
-        <v>4096113</v>
+        <v>4441790</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -13528,13 +13930,13 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>117823</v>
+        <v>116999</v>
       </c>
       <c r="E25" t="s">
         <v>797</v>
       </c>
       <c r="F25">
-        <v>1835330</v>
+        <v>2605079</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -13543,13 +13945,13 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>129860</v>
+        <v>170000</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2628998</v>
+        <v>2109182</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -13558,36 +13960,36 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>325973</v>
+        <v>373049</v>
       </c>
       <c r="F27">
         <f>SUM(F25:F26)</f>
-        <v>4464328</v>
+        <v>4714261</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>589997</v>
+        <v>569946</v>
       </c>
       <c r="E28" t="s">
         <v>798</v>
       </c>
       <c r="F28">
         <f>F27-F24</f>
-        <v>368215</v>
+        <v>272471</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="21" t="str">
+      <c r="C29" s="21">
         <f>Raw!D50</f>
-        <v>279893</v>
+        <v>319720</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13596,7 +13998,7 @@
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>219919</v>
+        <v>228999</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13608,7 +14010,7 @@
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>83992</v>
+        <v>88995</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -13617,7 +14019,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>99590</v>
+        <v>99545</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -13626,7 +14028,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>38884</v>
+        <v>43998</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -13635,7 +14037,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>54954</v>
+        <v>59977</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -13644,7 +14046,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>140000</v>
+        <v>139000</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -13653,7 +14055,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>146394</v>
+        <v>147793</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -13662,7 +14064,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>104994</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13671,7 +14073,7 @@
       </c>
       <c r="C39" s="22" t="str">
         <f>Raw!D68</f>
-        <v>313972</v>
+        <v>312999</v>
       </c>
     </row>
   </sheetData>
@@ -13742,26 +14144,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM68"/>
+  <dimension ref="A1:AQ68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="39" width="15.7109375" customWidth="1"/>
+    <col min="11" max="43" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1085</v>
+        <v>1206</v>
       </c>
       <c r="K2" t="s">
         <v>219</v>
@@ -13850,15 +14252,27 @@
       <c r="AM2" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>1086</v>
+        <v>869</v>
       </c>
       <c r="K4" t="s">
         <v>220</v>
@@ -13947,15 +14361,27 @@
       <c r="AM4" t="s">
         <v>1054</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>1145</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>1087</v>
+        <v>1207</v>
       </c>
       <c r="K6" t="s">
         <v>221</v>
@@ -14044,15 +14470,27 @@
       <c r="AM6" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN6" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>1116</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>1146</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>1088</v>
+        <v>1208</v>
       </c>
       <c r="K8" t="s">
         <v>222</v>
@@ -14141,15 +14579,27 @@
       <c r="AM8" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>1147</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>1089</v>
+        <v>1209</v>
       </c>
       <c r="K10" t="s">
         <v>209</v>
@@ -14238,15 +14688,27 @@
       <c r="AM10" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>674</v>
+        <v>995</v>
       </c>
       <c r="K12" t="s">
         <v>223</v>
@@ -14335,15 +14797,27 @@
       <c r="AM12" t="s">
         <v>1057</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN12" t="s">
+        <v>674</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>1119</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>808</v>
+        <v>1210</v>
       </c>
       <c r="K14" t="s">
         <v>224</v>
@@ -14432,15 +14906,27 @@
       <c r="AM14" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN14" t="s">
+        <v>808</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>1090</v>
+        <v>1211</v>
       </c>
       <c r="K16" t="s">
         <v>225</v>
@@ -14529,15 +15015,27 @@
       <c r="AM16" t="s">
         <v>1059</v>
       </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN16" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>1091</v>
+        <v>1212</v>
       </c>
       <c r="K18" t="s">
         <v>210</v>
@@ -14626,15 +15124,27 @@
       <c r="AM18" t="s">
         <v>1060</v>
       </c>
-    </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>1121</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>1092</v>
+        <v>1184</v>
       </c>
       <c r="K20" t="s">
         <v>226</v>
@@ -14723,15 +15233,27 @@
       <c r="AM20" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN20" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>966</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>1093</v>
+        <v>1213</v>
       </c>
       <c r="K22" t="s">
         <v>227</v>
@@ -14820,15 +15342,27 @@
       <c r="AM22" t="s">
         <v>1062</v>
       </c>
-    </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN22" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>1122</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1094</v>
+        <v>1214</v>
       </c>
       <c r="K24" t="s">
         <v>228</v>
@@ -14917,15 +15451,27 @@
       <c r="AM24" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN24" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>1123</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>1095</v>
+        <v>1215</v>
       </c>
       <c r="K26" t="s">
         <v>229</v>
@@ -15014,15 +15560,27 @@
       <c r="AM26" t="s">
         <v>1064</v>
       </c>
-    </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN26" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>1096</v>
+        <v>1216</v>
       </c>
       <c r="K28" t="s">
         <v>230</v>
@@ -15111,15 +15669,27 @@
       <c r="AM28" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN28" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>1097</v>
+        <v>1158</v>
       </c>
       <c r="K30" t="s">
         <v>231</v>
@@ -15208,15 +15778,27 @@
       <c r="AM30" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN30" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AO30" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>1098</v>
+        <v>1217</v>
       </c>
       <c r="K32" t="s">
         <v>211</v>
@@ -15305,15 +15887,27 @@
       <c r="AM32" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN32" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>1099</v>
+        <v>1128</v>
       </c>
       <c r="K34" t="s">
         <v>232</v>
@@ -15402,15 +15996,27 @@
       <c r="AM34" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN34" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>1069</v>
+        <v>1218</v>
       </c>
       <c r="K36" t="s">
         <v>208</v>
@@ -15499,15 +16105,27 @@
       <c r="AM36" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN36" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AO36" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1100</v>
+        <v>1219</v>
       </c>
       <c r="K38" t="s">
         <v>212</v>
@@ -15596,15 +16214,27 @@
       <c r="AM38" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN38" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AO38" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AP38" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1101</v>
+        <v>1220</v>
       </c>
       <c r="K40" t="s">
         <v>213</v>
@@ -15693,15 +16323,27 @@
       <c r="AM40" t="s">
         <v>1071</v>
       </c>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN40" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AP40" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>1102</v>
+        <v>1221</v>
       </c>
       <c r="K42" t="s">
         <v>233</v>
@@ -15790,15 +16432,27 @@
       <c r="AM42" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN42" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>1164</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>1103</v>
+        <v>1222</v>
       </c>
       <c r="K44" t="s">
         <v>214</v>
@@ -15887,15 +16541,27 @@
       <c r="AM44" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN44" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AP44" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>1104</v>
+        <v>1223</v>
       </c>
       <c r="K46" t="s">
         <v>234</v>
@@ -15984,15 +16650,27 @@
       <c r="AM46" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN46" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AO46" t="s">
+        <v>599</v>
+      </c>
+      <c r="AP46" t="s">
+        <v>1165</v>
+      </c>
+      <c r="AQ46" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="D48">
-        <v>589997</v>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>1224</v>
       </c>
       <c r="K48" t="s">
         <v>215</v>
@@ -16081,15 +16759,27 @@
       <c r="AM48" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN48">
+        <v>589997</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AP48" t="s">
+        <v>1166</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="D50" t="s">
-        <v>1076</v>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>319720</v>
       </c>
       <c r="K50" t="s">
         <v>216</v>
@@ -16178,15 +16868,27 @@
       <c r="AM50" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN50" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AP50" t="s">
+        <v>1167</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>1105</v>
+        <v>357</v>
       </c>
       <c r="K52" t="s">
         <v>217</v>
@@ -16275,15 +16977,27 @@
       <c r="AM52" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN52" t="s">
+        <v>1105</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>1135</v>
+      </c>
+      <c r="AP52" t="s">
+        <v>1168</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>1106</v>
+        <v>1225</v>
       </c>
       <c r="K54" t="s">
         <v>235</v>
@@ -16372,15 +17086,27 @@
       <c r="AM54" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN54" t="s">
+        <v>1106</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>1136</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>1169</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>1107</v>
+        <v>1226</v>
       </c>
       <c r="K56" t="s">
         <v>218</v>
@@ -16469,15 +17195,27 @@
       <c r="AM56" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN56" t="s">
+        <v>1107</v>
+      </c>
+      <c r="AO56" t="s">
+        <v>1137</v>
+      </c>
+      <c r="AP56" t="s">
+        <v>1170</v>
+      </c>
+      <c r="AQ56" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>1108</v>
+        <v>1227</v>
       </c>
       <c r="K58" t="s">
         <v>236</v>
@@ -16566,15 +17304,27 @@
       <c r="AM58" t="s">
         <v>1080</v>
       </c>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN58" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AO58" t="s">
+        <v>1108</v>
+      </c>
+      <c r="AP58" t="s">
+        <v>1171</v>
+      </c>
+      <c r="AQ58" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1109</v>
+        <v>1228</v>
       </c>
       <c r="K60" t="s">
         <v>237</v>
@@ -16663,15 +17413,27 @@
       <c r="AM60" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN60" t="s">
+        <v>1109</v>
+      </c>
+      <c r="AO60" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AP60" t="s">
+        <v>1172</v>
+      </c>
+      <c r="AQ60" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>1110</v>
+        <v>1229</v>
       </c>
       <c r="K62" t="s">
         <v>207</v>
@@ -16760,15 +17522,27 @@
       <c r="AM62" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN62" t="s">
+        <v>1110</v>
+      </c>
+      <c r="AO62" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AP62" t="s">
+        <v>1173</v>
+      </c>
+      <c r="AQ62" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>1111</v>
+        <v>1230</v>
       </c>
       <c r="K64" t="s">
         <v>238</v>
@@ -16857,15 +17631,27 @@
       <c r="AM64" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN64" t="s">
+        <v>1111</v>
+      </c>
+      <c r="AO64" t="s">
+        <v>1140</v>
+      </c>
+      <c r="AP64" t="s">
+        <v>1174</v>
+      </c>
+      <c r="AQ64" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>1112</v>
+        <v>1231</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -16954,15 +17740,27 @@
       <c r="AM66" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN66" t="s">
+        <v>1112</v>
+      </c>
+      <c r="AO66" t="s">
+        <v>988</v>
+      </c>
+      <c r="AP66" t="s">
+        <v>988</v>
+      </c>
+      <c r="AQ66" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>1113</v>
+        <v>1232</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -17050,6 +17848,18 @@
       </c>
       <c r="AM68" t="s">
         <v>1084</v>
+      </c>
+      <c r="AN68" t="s">
+        <v>1113</v>
+      </c>
+      <c r="AO68" t="s">
+        <v>1141</v>
+      </c>
+      <c r="AP68" t="s">
+        <v>1175</v>
+      </c>
+      <c r="AQ68" t="s">
+        <v>1205</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="1233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1296">
   <si>
     <t>Ardonite</t>
   </si>
@@ -3724,6 +3724,195 @@
   </si>
   <si>
     <t>312999</t>
+  </si>
+  <si>
+    <t>9299</t>
+  </si>
+  <si>
+    <t>9990</t>
+  </si>
+  <si>
+    <t>4218</t>
+  </si>
+  <si>
+    <t>5600</t>
+  </si>
+  <si>
+    <t>11836</t>
+  </si>
+  <si>
+    <t>13998</t>
+  </si>
+  <si>
+    <t>27789</t>
+  </si>
+  <si>
+    <t>121478</t>
+  </si>
+  <si>
+    <t>124886</t>
+  </si>
+  <si>
+    <t>117000</t>
+  </si>
+  <si>
+    <t>69977</t>
+  </si>
+  <si>
+    <t>28772</t>
+  </si>
+  <si>
+    <t>32481</t>
+  </si>
+  <si>
+    <t>12794</t>
+  </si>
+  <si>
+    <t>19890</t>
+  </si>
+  <si>
+    <t>34491</t>
+  </si>
+  <si>
+    <t>51596</t>
+  </si>
+  <si>
+    <t>45899</t>
+  </si>
+  <si>
+    <t>112999</t>
+  </si>
+  <si>
+    <t>373047</t>
+  </si>
+  <si>
+    <t>549894</t>
+  </si>
+  <si>
+    <t>419000</t>
+  </si>
+  <si>
+    <t>235699</t>
+  </si>
+  <si>
+    <t>88888</t>
+  </si>
+  <si>
+    <t>94999</t>
+  </si>
+  <si>
+    <t>44909</t>
+  </si>
+  <si>
+    <t>59966</t>
+  </si>
+  <si>
+    <t>138899</t>
+  </si>
+  <si>
+    <t>147789</t>
+  </si>
+  <si>
+    <t>104984</t>
+  </si>
+  <si>
+    <t>299990</t>
+  </si>
+  <si>
+    <t>9086</t>
+  </si>
+  <si>
+    <t>8986</t>
+  </si>
+  <si>
+    <t>3198</t>
+  </si>
+  <si>
+    <t>4998</t>
+  </si>
+  <si>
+    <t>7998</t>
+  </si>
+  <si>
+    <t>15481</t>
+  </si>
+  <si>
+    <t>12961</t>
+  </si>
+  <si>
+    <t>29999</t>
+  </si>
+  <si>
+    <t>31999</t>
+  </si>
+  <si>
+    <t>117900</t>
+  </si>
+  <si>
+    <t>114999</t>
+  </si>
+  <si>
+    <t>116974</t>
+  </si>
+  <si>
+    <t>68340</t>
+  </si>
+  <si>
+    <t>27677</t>
+  </si>
+  <si>
+    <t>32429</t>
+  </si>
+  <si>
+    <t>12698</t>
+  </si>
+  <si>
+    <t>19858</t>
+  </si>
+  <si>
+    <t>51081</t>
+  </si>
+  <si>
+    <t>109954</t>
+  </si>
+  <si>
+    <t>139461</t>
+  </si>
+  <si>
+    <t>372990</t>
+  </si>
+  <si>
+    <t>367991</t>
+  </si>
+  <si>
+    <t>397000</t>
+  </si>
+  <si>
+    <t>235689</t>
+  </si>
+  <si>
+    <t>88777</t>
+  </si>
+  <si>
+    <t>99524</t>
+  </si>
+  <si>
+    <t>44759</t>
+  </si>
+  <si>
+    <t>59789</t>
+  </si>
+  <si>
+    <t>138795</t>
+  </si>
+  <si>
+    <t>149590</t>
+  </si>
+  <si>
+    <t>99979</t>
+  </si>
+  <si>
+    <t>299981</t>
   </si>
 </sst>
 </file>
@@ -13131,7 +13320,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13195,54 +13384,54 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>7598</v>
+        <v>9086</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>7598</v>
+        <v>9086</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>22794</v>
+        <v>27258</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>68382</v>
+        <v>81774</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>29853</v>
+        <v>27677</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>88995</v>
+        <v>88777</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>6760.47</v>
+        <v>142.23000000000002</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.23645864737212341</v>
+        <v>1.5138924016331212E-2</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>0.29658989207686232</v>
+        <v>5.2179176755447945E-3</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>19723.05</v>
+        <v>6115.23</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>0.28842458541721505</v>
+        <v>7.4782082324455199E-2</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>0.23161975391875944</v>
+        <v>7.8883044031674898E-2</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13251,54 +13440,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>8999</v>
+        <v>8986</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>8999</v>
+        <v>8986</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>26997</v>
+        <v>26958</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>80991</v>
+        <v>80874</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>30959</v>
+        <v>32429</v>
       </c>
       <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>99545</v>
+        <v>99524</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>3652.41</v>
+        <v>5146.71</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>0.12797570980974837</v>
+        <v>0.16870702149310801</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>0.13528947660851204</v>
+        <v>0.19091586912975742</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>17558.55</v>
+        <v>17654.759999999998</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>0.21679631070118902</v>
+        <v>0.21829957711996437</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>0.18638806569893018</v>
+        <v>0.1873919858526587</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13307,54 +13496,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>4000</v>
+        <v>3198</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>4000</v>
+        <v>3198</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>9594</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>36000</v>
+        <v>28782</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>12830</v>
+        <v>12698</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>43998</v>
+        <v>44759</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>701.7</v>
+        <v>2977.02</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>6.4692127825409229E-2</v>
+        <v>0.24444794455819818</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>5.8475000000000006E-2</v>
+        <v>0.3103001876172608</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>7558.02</v>
+        <v>15529.41</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>0.20994500000000002</v>
+        <v>0.53955284552845528</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>0.18178099004500203</v>
+        <v>0.35695614289863487</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13363,54 +13552,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>5767</v>
+        <v>4998</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>5767</v>
+        <v>4998</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>17301</v>
+        <v>14994</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>51903</v>
+        <v>44982</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>19997</v>
+        <v>19858</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>59977</v>
+        <v>59789</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>2496.0300000000002</v>
+        <v>4665.42</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>0.13482022303345498</v>
+        <v>0.24493906737838655</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>0.14427085139587309</v>
+        <v>0.31115246098439375</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>7474.23</v>
+        <v>14209.11</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>0.14400381480839258</v>
+        <v>0.31588435374149659</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>0.1346182703369625</v>
+        <v>0.24765425078191639</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13419,54 +13608,54 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>11845</v>
+        <v>7998</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>11845</v>
+        <v>7998</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>35535</v>
+        <v>23994</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>106605</v>
+        <v>71982</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>34493</v>
+        <v>34498</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>139000</v>
+        <v>138795</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>-1386.93</v>
+        <v>10159.02</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>-3.0209027918708165E-2</v>
+        <v>0.30448141921270799</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>-3.9029970451667374E-2</v>
+        <v>0.42339834958739686</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>31005</v>
+        <v>65425.05</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>0.29084001688476152</v>
+        <v>0.90890847711927991</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>0.23305755395683458</v>
+        <v>0.48137901221225543</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13475,54 +13664,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>15933</v>
+        <v>15481</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>15933</v>
+        <v>15481</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>47799</v>
+        <v>46443</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>143397</v>
+        <v>139329</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>51780</v>
+        <v>51081</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>147793</v>
+        <v>149590</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>3463.2</v>
+        <v>4127.1899999999996</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>7.6882966396291996E-2</v>
+        <v>9.0796969518999182E-2</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>7.2453398606665415E-2</v>
+        <v>8.8865706349719006E-2</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>2918.0699999999997</v>
+        <v>8765.1</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>2.0349588903533545E-2</v>
+        <v>6.2909372779536205E-2</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>2.9744304534044197E-2</v>
+        <v>6.8594157363460084E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13531,54 +13720,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>12993</v>
+        <v>12961</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>12993</v>
+        <v>12961</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>38979</v>
+        <v>38883</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>116937</v>
+        <v>116649</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>47802</v>
+        <v>42998</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>104000</v>
+        <v>99979</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>8344.98</v>
+        <v>3685.02</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>0.18457386720220914</v>
+        <v>9.570212568026415E-2</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>0.21408912491341489</v>
+        <v>9.477200833269038E-2</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-13977</v>
+        <v>-17669.79</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>-0.11952589856076348</v>
+        <v>-0.15147828099683666</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>-0.12439423076923073</v>
+        <v>-0.16673501435301419</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13587,54 +13776,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>32497</v>
+        <v>29999</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>32497</v>
+        <v>29999</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>97491</v>
+        <v>89997</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>292473</v>
+        <v>269991</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>116999</v>
+        <v>109954</v>
       </c>
       <c r="J11" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>312999</v>
+        <v>299981</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>18338.009999999998</v>
+        <v>18857.46</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>0.1667364678330584</v>
+        <v>0.1815031740546047</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>0.18809951687848109</v>
+        <v>0.20953431781059367</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>17396.009999999998</v>
+        <v>26990.19</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>5.9479028833430772E-2</v>
+        <v>9.9966998899963327E-2</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>6.5578484276307636E-2</v>
+        <v>9.9972998289891701E-2</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -13643,36 +13832,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>39096</v>
+        <v>31999</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>199</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>39096</v>
+        <v>31999</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>117288</v>
+        <v>95997</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>170000</v>
+        <v>139461</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>51012</v>
+        <v>42069.39</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>0.3100705882352941</v>
+        <v>0.31165702239335724</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>0.43492940454266421</v>
+        <v>0.43823650739085596</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -13684,36 +13873,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>121751</v>
+        <v>117900</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>121751</v>
+        <v>117900</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>365253</v>
+        <v>353700</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>373049</v>
+        <v>372990</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>4065.5099999999998</v>
+        <v>15560.1</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>2.08980589681248E-2</v>
+        <v>5.1717204214590251E-2</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>1.1130668331266273E-2</v>
+        <v>4.399236641221374E-2</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -13725,36 +13914,36 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>139979</v>
+        <v>114999</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>139979</v>
+        <v>114999</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>419937</v>
+        <v>344997</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>569946</v>
+        <v>367991</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>144309.54</v>
+        <v>19314.09</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>0.26319861881651951</v>
+        <v>6.2485223823408709E-2</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>0.34364568971059944</v>
+        <v>5.5983356377011975E-2</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -13766,36 +13955,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>118977</v>
+        <v>116974</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>118977</v>
+        <v>116974</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>356931</v>
+        <v>350922</v>
       </c>
       <c r="H15" s="74"/>
-      <c r="I15" s="91">
+      <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>319720</v>
+        <v>397000</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>-40408.199999999997</v>
+        <v>42108</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>-0.11638621293631934</v>
+        <v>0.1160654911838791</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>-0.11321011624095413</v>
+        <v>0.11999247696069212</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -13807,36 +13996,36 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>71437</v>
+        <v>68340</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>71437</v>
+        <v>68340</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>214311</v>
+        <v>205020</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>228999</v>
+        <v>235689</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>12398.01</v>
+        <v>28312.11</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>6.4140018078681527E-2</v>
+        <v>0.13012486794037903</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>5.7850553634671113E-2</v>
+        <v>0.1380943810359965</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -13851,7 +14040,7 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>29853</v>
+        <v>27677</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -13860,7 +14049,7 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>30959</v>
+        <v>32429</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -13869,7 +14058,7 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>12830</v>
+        <v>12698</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -13878,7 +14067,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>19997</v>
+        <v>19858</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -13887,7 +14076,7 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>34493</v>
+        <v>34498</v>
       </c>
       <c r="E22" t="s">
         <v>797</v>
@@ -13902,7 +14091,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>51780</v>
+        <v>51081</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -13917,7 +14106,7 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>47802</v>
+        <v>42998</v>
       </c>
       <c r="F24">
         <f>SUM(F22:F23)</f>
@@ -13930,7 +14119,7 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>116999</v>
+        <v>109954</v>
       </c>
       <c r="E25" t="s">
         <v>797</v>
@@ -13945,7 +14134,7 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>170000</v>
+        <v>139461</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -13960,7 +14149,7 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>373049</v>
+        <v>372990</v>
       </c>
       <c r="F27">
         <f>SUM(F25:F26)</f>
@@ -13973,7 +14162,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>569946</v>
+        <v>367991</v>
       </c>
       <c r="E28" t="s">
         <v>798</v>
@@ -13987,9 +14176,9 @@
       <c r="B29" s="76" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>319720</v>
+        <v>397000</v>
       </c>
     </row>
     <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13998,7 +14187,7 @@
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>228999</v>
+        <v>235689</v>
       </c>
     </row>
     <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14010,7 +14199,7 @@
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>88995</v>
+        <v>88777</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -14019,7 +14208,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>99545</v>
+        <v>99524</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -14028,7 +14217,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>43998</v>
+        <v>44759</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -14037,7 +14226,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>59977</v>
+        <v>59789</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -14046,7 +14235,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>139000</v>
+        <v>138795</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -14055,7 +14244,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>147793</v>
+        <v>149590</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -14064,7 +14253,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>104000</v>
+        <v>99979</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14073,7 +14262,7 @@
       </c>
       <c r="C39" s="22" t="str">
         <f>Raw!D68</f>
-        <v>312999</v>
+        <v>299981</v>
       </c>
     </row>
   </sheetData>
@@ -14144,26 +14333,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ68"/>
+  <dimension ref="A1:AS68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="43" width="15.7109375" customWidth="1"/>
+    <col min="11" max="45" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1206</v>
+        <v>1264</v>
       </c>
       <c r="K2" t="s">
         <v>219</v>
@@ -14264,15 +14453,21 @@
       <c r="AQ2" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>869</v>
+        <v>1265</v>
       </c>
       <c r="K4" t="s">
         <v>220</v>
@@ -14373,15 +14568,21 @@
       <c r="AQ4" t="s">
         <v>1177</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR4" t="s">
+        <v>869</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>1207</v>
+        <v>1266</v>
       </c>
       <c r="K6" t="s">
         <v>221</v>
@@ -14482,15 +14683,21 @@
       <c r="AQ6" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR6" t="s">
+        <v>1207</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>1208</v>
+        <v>1267</v>
       </c>
       <c r="K8" t="s">
         <v>222</v>
@@ -14591,15 +14798,21 @@
       <c r="AQ8" t="s">
         <v>1179</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR8" t="s">
+        <v>1208</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>1209</v>
+        <v>1268</v>
       </c>
       <c r="K10" t="s">
         <v>209</v>
@@ -14700,15 +14913,21 @@
       <c r="AQ10" t="s">
         <v>1180</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR10" t="s">
+        <v>1209</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>995</v>
+        <v>1269</v>
       </c>
       <c r="K12" t="s">
         <v>223</v>
@@ -14809,15 +15028,21 @@
       <c r="AQ12" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR12" t="s">
+        <v>995</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>1210</v>
+        <v>1270</v>
       </c>
       <c r="K14" t="s">
         <v>224</v>
@@ -14918,15 +15143,21 @@
       <c r="AQ14" t="s">
         <v>1181</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>1211</v>
+        <v>1271</v>
       </c>
       <c r="K16" t="s">
         <v>225</v>
@@ -15027,15 +15258,21 @@
       <c r="AQ16" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR16" t="s">
+        <v>1211</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>1212</v>
+        <v>1272</v>
       </c>
       <c r="K18" t="s">
         <v>210</v>
@@ -15136,15 +15373,21 @@
       <c r="AQ18" t="s">
         <v>1183</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR18" t="s">
+        <v>1212</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>1184</v>
+        <v>1273</v>
       </c>
       <c r="K20" t="s">
         <v>226</v>
@@ -15245,15 +15488,21 @@
       <c r="AQ20" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR20" t="s">
+        <v>1184</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>1213</v>
+        <v>1274</v>
       </c>
       <c r="K22" t="s">
         <v>227</v>
@@ -15354,15 +15603,21 @@
       <c r="AQ22" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR22" t="s">
+        <v>1213</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1214</v>
+        <v>1275</v>
       </c>
       <c r="K24" t="s">
         <v>228</v>
@@ -15463,15 +15718,21 @@
       <c r="AQ24" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR24" t="s">
+        <v>1214</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>1215</v>
+        <v>1276</v>
       </c>
       <c r="K26" t="s">
         <v>229</v>
@@ -15572,15 +15833,21 @@
       <c r="AQ26" t="s">
         <v>1187</v>
       </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR26" t="s">
+        <v>1215</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>1216</v>
+        <v>1277</v>
       </c>
       <c r="K28" t="s">
         <v>230</v>
@@ -15681,15 +15948,21 @@
       <c r="AQ28" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR28" t="s">
+        <v>1216</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>1158</v>
+        <v>1278</v>
       </c>
       <c r="K30" t="s">
         <v>231</v>
@@ -15790,15 +16063,21 @@
       <c r="AQ30" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR30" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>1217</v>
+        <v>1279</v>
       </c>
       <c r="K32" t="s">
         <v>211</v>
@@ -15899,15 +16178,21 @@
       <c r="AQ32" t="s">
         <v>1189</v>
       </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR32" t="s">
+        <v>1217</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>1128</v>
+        <v>1280</v>
       </c>
       <c r="K34" t="s">
         <v>232</v>
@@ -16008,15 +16293,21 @@
       <c r="AQ34" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>1218</v>
+        <v>1069</v>
       </c>
       <c r="K36" t="s">
         <v>208</v>
@@ -16117,15 +16408,21 @@
       <c r="AQ36" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR36" t="s">
+        <v>1218</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1219</v>
+        <v>1281</v>
       </c>
       <c r="K38" t="s">
         <v>212</v>
@@ -16226,15 +16523,21 @@
       <c r="AQ38" t="s">
         <v>1191</v>
       </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR38" t="s">
+        <v>1219</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1220</v>
+        <v>1183</v>
       </c>
       <c r="K40" t="s">
         <v>213</v>
@@ -16335,15 +16638,21 @@
       <c r="AQ40" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR40" t="s">
+        <v>1220</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>1221</v>
+        <v>1282</v>
       </c>
       <c r="K42" t="s">
         <v>233</v>
@@ -16444,15 +16753,21 @@
       <c r="AQ42" t="s">
         <v>1193</v>
       </c>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR42" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>1222</v>
+        <v>1283</v>
       </c>
       <c r="K44" t="s">
         <v>214</v>
@@ -16553,15 +16868,21 @@
       <c r="AQ44" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR44" t="s">
+        <v>1222</v>
+      </c>
+      <c r="AS44">
+        <v>122222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>1223</v>
+        <v>1284</v>
       </c>
       <c r="K46" t="s">
         <v>234</v>
@@ -16662,15 +16983,21 @@
       <c r="AQ46" t="s">
         <v>1195</v>
       </c>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR46" t="s">
+        <v>1223</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>1224</v>
+        <v>1285</v>
       </c>
       <c r="K48" t="s">
         <v>215</v>
@@ -16771,15 +17098,21 @@
       <c r="AQ48" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR48" t="s">
+        <v>1224</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="D50">
-        <v>319720</v>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>1286</v>
       </c>
       <c r="K50" t="s">
         <v>216</v>
@@ -16880,15 +17213,21 @@
       <c r="AQ50" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR50">
+        <v>319720</v>
+      </c>
+      <c r="AS50" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>357</v>
+        <v>1287</v>
       </c>
       <c r="K52" t="s">
         <v>217</v>
@@ -16989,15 +17328,21 @@
       <c r="AQ52" t="s">
         <v>1197</v>
       </c>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR52" t="s">
+        <v>357</v>
+      </c>
+      <c r="AS52" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>1225</v>
+        <v>1288</v>
       </c>
       <c r="K54" t="s">
         <v>235</v>
@@ -17098,15 +17443,21 @@
       <c r="AQ54" t="s">
         <v>1198</v>
       </c>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR54" t="s">
+        <v>1225</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>1226</v>
+        <v>1289</v>
       </c>
       <c r="K56" t="s">
         <v>218</v>
@@ -17207,15 +17558,21 @@
       <c r="AQ56" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR56" t="s">
+        <v>1226</v>
+      </c>
+      <c r="AS56" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>1227</v>
+        <v>1290</v>
       </c>
       <c r="K58" t="s">
         <v>236</v>
@@ -17316,15 +17673,21 @@
       <c r="AQ58" t="s">
         <v>1200</v>
       </c>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR58" t="s">
+        <v>1227</v>
+      </c>
+      <c r="AS58" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1228</v>
+        <v>1291</v>
       </c>
       <c r="K60" t="s">
         <v>237</v>
@@ -17425,15 +17788,21 @@
       <c r="AQ60" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR60" t="s">
+        <v>1228</v>
+      </c>
+      <c r="AS60" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>1229</v>
+        <v>1292</v>
       </c>
       <c r="K62" t="s">
         <v>207</v>
@@ -17534,15 +17903,21 @@
       <c r="AQ62" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR62" t="s">
+        <v>1229</v>
+      </c>
+      <c r="AS62" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>1230</v>
+        <v>1293</v>
       </c>
       <c r="K64" t="s">
         <v>238</v>
@@ -17643,15 +18018,21 @@
       <c r="AQ64" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR64" t="s">
+        <v>1230</v>
+      </c>
+      <c r="AS64" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>1231</v>
+        <v>1294</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -17752,15 +18133,21 @@
       <c r="AQ66" t="s">
         <v>1204</v>
       </c>
-    </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR66" t="s">
+        <v>1231</v>
+      </c>
+      <c r="AS66" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>1232</v>
+        <v>1295</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -17860,6 +18247,12 @@
       </c>
       <c r="AQ68" t="s">
         <v>1205</v>
+      </c>
+      <c r="AR68" t="s">
+        <v>1232</v>
+      </c>
+      <c r="AS68" t="s">
+        <v>1263</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1440">
   <si>
     <t>Ardonite</t>
   </si>
@@ -3913,6 +3913,438 @@
   </si>
   <si>
     <t>299981</t>
+  </si>
+  <si>
+    <t>8881</t>
+  </si>
+  <si>
+    <t>8997</t>
+  </si>
+  <si>
+    <t>3978</t>
+  </si>
+  <si>
+    <t>4491</t>
+  </si>
+  <si>
+    <t>7796</t>
+  </si>
+  <si>
+    <t>16394</t>
+  </si>
+  <si>
+    <t>31989</t>
+  </si>
+  <si>
+    <t>117396</t>
+  </si>
+  <si>
+    <t>117612</t>
+  </si>
+  <si>
+    <t>118971</t>
+  </si>
+  <si>
+    <t>67976</t>
+  </si>
+  <si>
+    <t>27687</t>
+  </si>
+  <si>
+    <t>32419</t>
+  </si>
+  <si>
+    <t>49997</t>
+  </si>
+  <si>
+    <t>42872</t>
+  </si>
+  <si>
+    <t>108992</t>
+  </si>
+  <si>
+    <t>372499</t>
+  </si>
+  <si>
+    <t>379999</t>
+  </si>
+  <si>
+    <t>394888</t>
+  </si>
+  <si>
+    <t>235681</t>
+  </si>
+  <si>
+    <t>88766</t>
+  </si>
+  <si>
+    <t>99597</t>
+  </si>
+  <si>
+    <t>44731</t>
+  </si>
+  <si>
+    <t>59965</t>
+  </si>
+  <si>
+    <t>138797</t>
+  </si>
+  <si>
+    <t>163883</t>
+  </si>
+  <si>
+    <t>299947</t>
+  </si>
+  <si>
+    <t>8878</t>
+  </si>
+  <si>
+    <t>3972</t>
+  </si>
+  <si>
+    <t>5696</t>
+  </si>
+  <si>
+    <t>7798</t>
+  </si>
+  <si>
+    <t>16350</t>
+  </si>
+  <si>
+    <t>11994</t>
+  </si>
+  <si>
+    <t>26999</t>
+  </si>
+  <si>
+    <t>117555</t>
+  </si>
+  <si>
+    <t>118989</t>
+  </si>
+  <si>
+    <t>67957</t>
+  </si>
+  <si>
+    <t>27683</t>
+  </si>
+  <si>
+    <t>32415</t>
+  </si>
+  <si>
+    <t>19861</t>
+  </si>
+  <si>
+    <t>50873</t>
+  </si>
+  <si>
+    <t>42869</t>
+  </si>
+  <si>
+    <t>108939</t>
+  </si>
+  <si>
+    <t>372496</t>
+  </si>
+  <si>
+    <t>380000</t>
+  </si>
+  <si>
+    <t>235683</t>
+  </si>
+  <si>
+    <t>88763</t>
+  </si>
+  <si>
+    <t>99595</t>
+  </si>
+  <si>
+    <t>44700</t>
+  </si>
+  <si>
+    <t>59979</t>
+  </si>
+  <si>
+    <t>138796</t>
+  </si>
+  <si>
+    <t>299945</t>
+  </si>
+  <si>
+    <t>8397</t>
+  </si>
+  <si>
+    <t>9996</t>
+  </si>
+  <si>
+    <t>3979</t>
+  </si>
+  <si>
+    <t>6598</t>
+  </si>
+  <si>
+    <t>16531</t>
+  </si>
+  <si>
+    <t>12000</t>
+  </si>
+  <si>
+    <t>29218</t>
+  </si>
+  <si>
+    <t>117554</t>
+  </si>
+  <si>
+    <t>118484</t>
+  </si>
+  <si>
+    <t>56971</t>
+  </si>
+  <si>
+    <t>29550</t>
+  </si>
+  <si>
+    <t>32221</t>
+  </si>
+  <si>
+    <t>12822</t>
+  </si>
+  <si>
+    <t>19880</t>
+  </si>
+  <si>
+    <t>51077</t>
+  </si>
+  <si>
+    <t>42555</t>
+  </si>
+  <si>
+    <t>99989</t>
+  </si>
+  <si>
+    <t>372435</t>
+  </si>
+  <si>
+    <t>543995</t>
+  </si>
+  <si>
+    <t>389900</t>
+  </si>
+  <si>
+    <t>235552</t>
+  </si>
+  <si>
+    <t>88497</t>
+  </si>
+  <si>
+    <t>44498</t>
+  </si>
+  <si>
+    <t>59980</t>
+  </si>
+  <si>
+    <t>138699</t>
+  </si>
+  <si>
+    <t>162983</t>
+  </si>
+  <si>
+    <t>104950</t>
+  </si>
+  <si>
+    <t>280000</t>
+  </si>
+  <si>
+    <t>% de benef</t>
+  </si>
+  <si>
+    <t>% retour sur investissement</t>
+  </si>
+  <si>
+    <t>8485</t>
+  </si>
+  <si>
+    <t>12499</t>
+  </si>
+  <si>
+    <t>4210</t>
+  </si>
+  <si>
+    <t>6585</t>
+  </si>
+  <si>
+    <t>11835</t>
+  </si>
+  <si>
+    <t>17150</t>
+  </si>
+  <si>
+    <t>12881</t>
+  </si>
+  <si>
+    <t>29214</t>
+  </si>
+  <si>
+    <t>43951</t>
+  </si>
+  <si>
+    <t>107498</t>
+  </si>
+  <si>
+    <t>112545</t>
+  </si>
+  <si>
+    <t>56948</t>
+  </si>
+  <si>
+    <t>31446</t>
+  </si>
+  <si>
+    <t>33895</t>
+  </si>
+  <si>
+    <t>19800</t>
+  </si>
+  <si>
+    <t>34496</t>
+  </si>
+  <si>
+    <t>51983</t>
+  </si>
+  <si>
+    <t>41993</t>
+  </si>
+  <si>
+    <t>372445</t>
+  </si>
+  <si>
+    <t>499484</t>
+  </si>
+  <si>
+    <t>386999</t>
+  </si>
+  <si>
+    <t>235305</t>
+  </si>
+  <si>
+    <t>88726</t>
+  </si>
+  <si>
+    <t>110968</t>
+  </si>
+  <si>
+    <t>43985</t>
+  </si>
+  <si>
+    <t>58980</t>
+  </si>
+  <si>
+    <t>138600</t>
+  </si>
+  <si>
+    <t>162883</t>
+  </si>
+  <si>
+    <t>104985</t>
+  </si>
+  <si>
+    <t>279983</t>
+  </si>
+  <si>
+    <t>8795</t>
+  </si>
+  <si>
+    <t>12399</t>
+  </si>
+  <si>
+    <t>3894</t>
+  </si>
+  <si>
+    <t>5897</t>
+  </si>
+  <si>
+    <t>11789</t>
+  </si>
+  <si>
+    <t>16488</t>
+  </si>
+  <si>
+    <t>11989</t>
+  </si>
+  <si>
+    <t>26597</t>
+  </si>
+  <si>
+    <t>43933</t>
+  </si>
+  <si>
+    <t>107537</t>
+  </si>
+  <si>
+    <t>170831</t>
+  </si>
+  <si>
+    <t>112492</t>
+  </si>
+  <si>
+    <t>68362</t>
+  </si>
+  <si>
+    <t>31422</t>
+  </si>
+  <si>
+    <t>47955</t>
+  </si>
+  <si>
+    <t>13994</t>
+  </si>
+  <si>
+    <t>19876</t>
+  </si>
+  <si>
+    <t>34490</t>
+  </si>
+  <si>
+    <t>52109</t>
+  </si>
+  <si>
+    <t>41932</t>
+  </si>
+  <si>
+    <t>99395</t>
+  </si>
+  <si>
+    <t>372437</t>
+  </si>
+  <si>
+    <t>449980</t>
+  </si>
+  <si>
+    <t>368800</t>
+  </si>
+  <si>
+    <t>235283</t>
+  </si>
+  <si>
+    <t>88723</t>
+  </si>
+  <si>
+    <t>119998</t>
+  </si>
+  <si>
+    <t>62999</t>
+  </si>
+  <si>
+    <t>138680</t>
+  </si>
+  <si>
+    <t>162818</t>
+  </si>
+  <si>
+    <t>104986</t>
+  </si>
+  <si>
+    <t>279979</t>
   </si>
 </sst>
 </file>
@@ -6701,7 +7133,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6753,16 +7185,16 @@
         <v>183</v>
       </c>
       <c r="C3" s="85">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="D3" s="2">
         <v>8979</v>
       </c>
       <c r="E3" s="2">
-        <v>20980</v>
+        <v>17499</v>
       </c>
       <c r="F3" s="2">
-        <v>58682</v>
+        <v>49949</v>
       </c>
       <c r="G3" s="2">
         <v>61500</v>
@@ -6787,35 +7219,35 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7">
         <f>D3-C3</f>
-        <v>-21</v>
+        <v>979</v>
       </c>
       <c r="E4" s="7">
         <f>E3-C3*2</f>
-        <v>2980</v>
+        <v>1499</v>
       </c>
       <c r="F4" s="7">
         <f>F3-C3*5-(C3*5*0.01)</f>
-        <v>13232</v>
+        <v>9549</v>
       </c>
       <c r="G4" s="7">
         <f>G3-5*C3</f>
-        <v>16500</v>
+        <v>21500</v>
       </c>
       <c r="H4" s="7">
         <f>H3-C3*10</f>
-        <v>109998</v>
+        <v>119998</v>
       </c>
       <c r="I4" s="7">
         <f>I3-C3/10</f>
-        <v>2389</v>
+        <v>2489</v>
       </c>
       <c r="J4" s="130">
         <f>J3-C3</f>
-        <v>23992</v>
+        <v>24992</v>
       </c>
       <c r="K4" s="133">
         <f>K3-(C3/10*25)</f>
-        <v>27497</v>
+        <v>29997</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -6823,31 +7255,31 @@
       <c r="C5" s="47"/>
       <c r="D5" s="84">
         <f t="shared" ref="D5:I5" si="0">(D4/D3)</f>
-        <v>-2.3387905111927833E-3</v>
+        <v>0.10903218621227308</v>
       </c>
       <c r="E5" s="84">
         <f t="shared" si="0"/>
-        <v>0.14204003813155386</v>
+        <v>8.5662037830733187E-2</v>
       </c>
       <c r="F5" s="84">
         <f t="shared" si="0"/>
-        <v>0.22548652056848778</v>
+        <v>0.19117499849846845</v>
       </c>
       <c r="G5" s="84">
         <f t="shared" si="0"/>
-        <v>0.26829268292682928</v>
+        <v>0.34959349593495936</v>
       </c>
       <c r="H5" s="84">
         <f t="shared" si="0"/>
-        <v>0.54999549995499952</v>
+        <v>0.59999599995999964</v>
       </c>
       <c r="I5" s="84">
         <f t="shared" si="0"/>
-        <v>0.72636059592581337</v>
+        <v>0.75676497415627852</v>
       </c>
       <c r="J5" s="84">
         <f>(J4/J3)</f>
-        <v>0.72720659553831235</v>
+        <v>0.75751697381183314</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -6856,12 +7288,12 @@
       </c>
       <c r="C6" s="47">
         <f>C3/100</f>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
         <f>E3/200</f>
-        <v>104.9</v>
+        <v>87.495000000000005</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -6910,10 +7342,10 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="86">
-        <v>25973</v>
+        <v>25928</v>
       </c>
       <c r="D9" s="18">
-        <v>267988</v>
+        <v>277916</v>
       </c>
       <c r="E9" s="18">
         <v>1379988</v>
@@ -6937,27 +7369,27 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7">
         <f>D9-10*C9-(10*C9*0.01)</f>
-        <v>5660.7</v>
+        <v>16043.2</v>
       </c>
       <c r="E10" s="7">
         <f>E9-50*C9</f>
-        <v>81338</v>
+        <v>83588</v>
       </c>
       <c r="F10" s="7">
         <f>F9-50*C9</f>
-        <v>-98653</v>
+        <v>-96403</v>
       </c>
       <c r="G10" s="7">
         <f>G9-50*C9</f>
-        <v>-198652</v>
+        <v>-196402</v>
       </c>
       <c r="H10" s="7">
         <f>H9-50*C9</f>
-        <v>51350</v>
+        <v>53600</v>
       </c>
       <c r="I10" s="4">
         <f>I9-200*C9</f>
-        <v>1305399</v>
+        <v>1314399</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -7061,7 +7493,7 @@
       </c>
       <c r="M20" s="3">
         <f>L20*F3</f>
-        <v>2288598</v>
+        <v>1948011</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7069,7 +7501,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="135">
         <f>M20-M19</f>
-        <v>522618</v>
+        <v>182031</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -13319,8 +13751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13345,6 +13777,12 @@
       <c r="C2" s="79" t="s">
         <v>183</v>
       </c>
+      <c r="L2" t="s">
+        <v>1376</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1377</v>
+      </c>
     </row>
     <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="8"/>
@@ -13384,54 +13822,54 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>9086</v>
+        <v>8795</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>9086</v>
+        <v>8795</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>27258</v>
+        <v>26385</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>81774</v>
+        <v>79155</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>27677</v>
+        <v>31422</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>88777</v>
+        <v>88723</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>142.23000000000002</v>
+        <v>4722.78</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>1.5138924016331212E-2</v>
+        <v>0.16030169944624784</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>5.2179176755447945E-3</v>
+        <v>0.17899488345650938</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>6115.23</v>
+        <v>8680.77</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>7.4782082324455199E-2</v>
+        <v>0.10966799317794201</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>7.8883044031674898E-2</v>
+        <v>0.10784125874914063</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13440,54 +13878,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>8986</v>
+        <v>12399</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>8986</v>
+        <v>12399</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>26958</v>
+        <v>37197</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>80874</v>
+        <v>111591</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>32429</v>
+        <v>47955</v>
       </c>
       <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>99524</v>
+        <v>119998</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>5146.71</v>
+        <v>10278.450000000001</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>0.16870702149310801</v>
+        <v>0.22433531435720988</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>0.19091586912975742</v>
+        <v>0.27632470360512945</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>17654.759999999998</v>
+        <v>7207.02</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>0.21829957711996437</v>
+        <v>6.4584240664569734E-2</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>0.1873919858526587</v>
+        <v>7.0059500991683232E-2</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13496,54 +13934,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>3198</v>
+        <v>3894</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>3198</v>
+        <v>3894</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>9594</v>
+        <v>11682</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>28782</v>
+        <v>35046</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>12698</v>
+        <v>13994</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>44759</v>
+        <v>43992</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>2977.02</v>
+        <v>2172.06</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>0.24444794455819818</v>
+        <v>0.16521366299842788</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>0.3103001876172608</v>
+        <v>0.18593220338983049</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>15529.41</v>
+        <v>8506.08</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>0.53955284552845528</v>
+        <v>0.24271186440677966</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>0.35695614289863487</v>
+        <v>0.20335515548281502</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13552,54 +13990,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>4998</v>
+        <v>5897</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>4998</v>
+        <v>5897</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>14994</v>
+        <v>17691</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>44982</v>
+        <v>53073</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>19858</v>
+        <v>19876</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>59789</v>
+        <v>62999</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>4665.42</v>
+        <v>1986.24</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>0.24493906737838655</v>
+        <v>0.10993157576977264</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>0.31115246098439375</v>
+        <v>0.11227403764626082</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>14209.11</v>
+        <v>9296.01</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>0.31588435374149659</v>
+        <v>0.17515516364253012</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>0.24765425078191639</v>
+        <v>0.15755805647708698</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13608,54 +14046,54 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>7998</v>
+        <v>11789</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>7998</v>
+        <v>11789</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>23994</v>
+        <v>35367</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>71982</v>
+        <v>106101</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>34498</v>
+        <v>34490</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>138795</v>
+        <v>138680</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>10159.02</v>
+        <v>-1221.9000000000001</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>0.30448141921270799</v>
+        <v>-2.5427660191359891E-2</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>0.42339834958739686</v>
+        <v>-3.4549155992874718E-2</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>65425.05</v>
+        <v>31192.2</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>0.90890847711927991</v>
+        <v>0.29398591907710581</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>0.48137901221225543</v>
+        <v>0.23492212287280068</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13664,54 +14102,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>15481</v>
+        <v>16488</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>15481</v>
+        <v>16488</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>46443</v>
+        <v>49464</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>139329</v>
+        <v>148392</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>51081</v>
+        <v>52109</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>149590</v>
+        <v>162818</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>4127.1899999999996</v>
+        <v>2123.91</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>9.0796969518999182E-2</v>
+        <v>5.0758985971713133E-2</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>8.8865706349719006E-2</v>
+        <v>4.2938500727802038E-2</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>8765.1</v>
+        <v>12797.82</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>6.2909372779536205E-2</v>
+        <v>8.6243328481319742E-2</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>6.8594157363460084E-2</v>
+        <v>8.860199732216345E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13720,54 +14158,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>12961</v>
+        <v>11989</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>12961</v>
+        <v>11989</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>38883</v>
+        <v>35967</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>116649</v>
+        <v>107901</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>42998</v>
+        <v>41932</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>99979</v>
+        <v>104986</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>3685.02</v>
+        <v>5545.68</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>9.570212568026415E-2</v>
+        <v>0.14225412572736817</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>9.477200833269038E-2</v>
+        <v>0.15418800567186589</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-17669.79</v>
+        <v>-3964.86</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>-0.15147828099683666</v>
+        <v>-3.6745349904078739E-2</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>-0.16673501435301419</v>
+        <v>-2.7765606842817148E-2</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13776,54 +14214,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>29999</v>
+        <v>26597</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>29999</v>
+        <v>26597</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>89997</v>
+        <v>79791</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>269991</v>
+        <v>239373</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>109954</v>
+        <v>99395</v>
       </c>
       <c r="J11" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>299981</v>
+        <v>279979</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>18857.46</v>
+        <v>18610.05</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>0.1815031740546047</v>
+        <v>0.19723326123044416</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>0.20953431781059367</v>
+        <v>0.23323495131029814</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>26990.19</v>
+        <v>37806.21</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>9.9966998899963327E-2</v>
+        <v>0.15793848930330487</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>9.9972998289891701E-2</v>
+        <v>0.14503230599437811</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -13832,36 +14270,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>31999</v>
+        <v>43933</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>199</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>31999</v>
+        <v>43933</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>95997</v>
+        <v>131799</v>
       </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="91" t="str">
+      <c r="I12" s="91">
         <f t="shared" si="0"/>
-        <v>139461</v>
+        <v>122222</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>42069.39</v>
+        <v>-10799.22</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>0.31165702239335724</v>
+        <v>-7.8357415195300373E-2</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>0.43823650739085596</v>
+        <v>-8.1937040493478705E-2</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -13873,36 +14311,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>117900</v>
+        <v>107537</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>117900</v>
+        <v>107537</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>353700</v>
+        <v>322611</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>372990</v>
+        <v>372437</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>15560.1</v>
+        <v>46101.63</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>5.1717204214590251E-2</v>
+        <v>0.13378370033052567</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>4.399236641221374E-2</v>
+        <v>0.14290160595887927</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -13914,36 +14352,36 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>114999</v>
+        <v>170831</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>114999</v>
+        <v>170831</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>344997</v>
+        <v>512493</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>367991</v>
+        <v>449980</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>19314.09</v>
+        <v>-67012.800000000003</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>6.2485223823408709E-2</v>
+        <v>-0.13892395217565223</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>5.5983356377011975E-2</v>
+        <v>-0.13075846889616055</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -13955,36 +14393,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>116974</v>
+        <v>112492</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>116974</v>
+        <v>112492</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>350922</v>
+        <v>337476</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>397000</v>
+        <v>368800</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>42108</v>
+        <v>27636</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>0.1160654911838791</v>
+        <v>8.4934924078091112E-2</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>0.11999247696069212</v>
+        <v>8.18902677523735E-2</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -13996,210 +14434,328 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>68340</v>
+        <v>68362</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>68340</v>
+        <v>68362</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>205020</v>
+        <v>205086</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>235689</v>
+        <v>235283</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>28312.11</v>
+        <v>27844.17</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>0.13012486794037903</v>
+        <v>0.12834331422159695</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>0.1380943810359965</v>
+        <v>0.13576826307012668</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
       <c r="P16" s="3"/>
     </row>
-    <row r="17" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="68"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="73" t="str">
+        <f>C13</f>
+        <v>107537</v>
+      </c>
+      <c r="G17" s="74">
+        <f>F17*3/10</f>
+        <v>32261.1</v>
+      </c>
+      <c r="I17" s="91">
+        <f>Raw!D70</f>
+        <v>38852</v>
+      </c>
+      <c r="K17" s="21">
+        <f>(I17-G17-(I17*0.01))*10</f>
+        <v>62023.80000000001</v>
+      </c>
+      <c r="L17" s="104">
+        <f>1-(G17/I17)</f>
+        <v>0.16964120251209724</v>
+      </c>
+      <c r="M17" s="104">
+        <f>(K17/G17)/10</f>
+        <v>0.19225568873968962</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="75" t="s">
         <v>144</v>
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>27677</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>31422</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>173</v>
+      </c>
+      <c r="F18" s="73" t="str">
+        <f t="shared" ref="F18:F20" si="12">C14</f>
+        <v>170831</v>
+      </c>
+      <c r="G18" s="74">
+        <f t="shared" ref="G18:G20" si="13">F18*3/10</f>
+        <v>51249.3</v>
+      </c>
+      <c r="I18" s="91">
+        <f>Raw!D72</f>
+        <v>44997</v>
+      </c>
+      <c r="K18" s="21">
+        <f t="shared" ref="K18:K20" si="14">(I18-G18-(I18*0.01))*10</f>
+        <v>-67022.700000000026</v>
+      </c>
+      <c r="L18" s="104">
+        <f>1-(G18/I18)</f>
+        <v>-0.13894926328421908</v>
+      </c>
+      <c r="M18" s="104">
+        <f t="shared" ref="M18:M20" si="15">(K18/G18)/10</f>
+        <v>-0.13077778623317787</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="76" t="s">
         <v>145</v>
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>32429</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+        <v>47955</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="F19" s="73" t="str">
+        <f t="shared" si="12"/>
+        <v>112492</v>
+      </c>
+      <c r="G19" s="74">
+        <f t="shared" si="13"/>
+        <v>33747.599999999999</v>
+      </c>
+      <c r="I19" s="91">
+        <f>Raw!D74</f>
+        <v>36983</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" si="14"/>
+        <v>28655.700000000015</v>
+      </c>
+      <c r="L19" s="104">
+        <f t="shared" ref="L19:L20" si="16">1-(G19/I19)</f>
+        <v>8.7483438336533048E-2</v>
+      </c>
+      <c r="M19" s="104">
+        <f t="shared" si="15"/>
+        <v>8.4911815951356592E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="76" t="s">
         <v>146</v>
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>12698</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>13994</v>
+      </c>
+      <c r="E20" s="76" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" s="73" t="str">
+        <f t="shared" si="12"/>
+        <v>68362</v>
+      </c>
+      <c r="G20" s="74">
+        <f t="shared" si="13"/>
+        <v>20508.599999999999</v>
+      </c>
+      <c r="I20" s="91">
+        <f>Raw!D76</f>
+        <v>23305</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="14"/>
+        <v>25633.500000000015</v>
+      </c>
+      <c r="L20" s="104">
+        <f t="shared" si="16"/>
+        <v>0.11999141815061154</v>
+      </c>
+      <c r="M20" s="104">
+        <f t="shared" si="15"/>
+        <v>0.12498902899271533</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>147</v>
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>19858</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>19876</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="76" t="s">
         <v>148</v>
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>34498</v>
+        <v>34490</v>
       </c>
       <c r="E22" t="s">
         <v>797</v>
       </c>
       <c r="F22">
-        <v>4128040</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3846251</v>
+      </c>
+      <c r="I22">
+        <v>325000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="76" t="s">
         <v>149</v>
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>51081</v>
+        <v>52109</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
       </c>
       <c r="F23">
-        <v>313750</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>396910</v>
+      </c>
+      <c r="I23">
+        <v>349000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="76" t="s">
         <v>150</v>
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>42998</v>
+        <v>41932</v>
       </c>
       <c r="F24">
         <f>SUM(F22:F23)</f>
-        <v>4441790</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>4243161</v>
+      </c>
+      <c r="I24">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="76" t="s">
         <v>151</v>
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>109954</v>
+        <v>99395</v>
       </c>
       <c r="E25" t="s">
         <v>797</v>
       </c>
       <c r="F25">
-        <v>2605079</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1923775</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="21" t="str">
+      <c r="C26" s="21">
         <f>Raw!D44</f>
-        <v>139461</v>
+        <v>122222</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
       </c>
       <c r="F26">
-        <v>2109182</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+        <f>1510424+2055000</f>
+        <v>3565424</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="76" t="s">
         <v>152</v>
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>372990</v>
+        <v>372437</v>
       </c>
       <c r="F27">
         <f>SUM(F25:F26)</f>
-        <v>4714261</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>5489199</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="76" t="s">
         <v>153</v>
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>367991</v>
+        <v>449980</v>
       </c>
       <c r="E28" t="s">
         <v>798</v>
       </c>
       <c r="F28">
         <f>F27-F24</f>
-        <v>272471</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1246038</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="76" t="s">
         <v>154</v>
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>397000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>368800</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="77" t="s">
         <v>155</v>
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>235689</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>235283</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="68"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="75" t="s">
         <v>156</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>88777</v>
+        <v>88723</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -14208,7 +14764,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>99524</v>
+        <v>119998</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -14217,7 +14773,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>44759</v>
+        <v>43992</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -14226,7 +14782,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>59789</v>
+        <v>62999</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -14235,7 +14791,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>138795</v>
+        <v>138680</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -14244,7 +14800,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>149590</v>
+        <v>162818</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -14253,7 +14809,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>99979</v>
+        <v>104986</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14262,11 +14818,11 @@
       </c>
       <c r="C39" s="22" t="str">
         <f>Raw!D68</f>
-        <v>299981</v>
+        <v>279979</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="K4:K16">
+  <conditionalFormatting sqref="K4:K20">
     <cfRule type="cellIs" dxfId="14" priority="16" operator="lessThan">
       <formula>1</formula>
     </cfRule>
@@ -14297,7 +14853,7 @@
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L4:M16">
+  <conditionalFormatting sqref="L4:M20">
     <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
@@ -14309,7 +14865,7 @@
       <formula>0.25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G16">
+  <conditionalFormatting sqref="G4:G20">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
       <formula>$F$1</formula>
     </cfRule>
@@ -14333,26 +14889,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS68"/>
+  <dimension ref="A1:AY76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="45" width="15.7109375" customWidth="1"/>
+    <col min="11" max="51" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1264</v>
+        <v>1408</v>
       </c>
       <c r="K2" t="s">
         <v>219</v>
@@ -14459,15 +15015,33 @@
       <c r="AS2" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>1265</v>
+        <v>1409</v>
       </c>
       <c r="K4" t="s">
         <v>220</v>
@@ -14574,15 +15148,33 @@
       <c r="AS4" t="s">
         <v>1234</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>1297</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>764</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>1349</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>1266</v>
+        <v>1410</v>
       </c>
       <c r="K6" t="s">
         <v>221</v>
@@ -14689,15 +15281,33 @@
       <c r="AS6" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>1350</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>1267</v>
+        <v>1411</v>
       </c>
       <c r="K8" t="s">
         <v>222</v>
@@ -14804,15 +15414,33 @@
       <c r="AS8" t="s">
         <v>1236</v>
       </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>1299</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>1325</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>1351</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>1268</v>
+        <v>1412</v>
       </c>
       <c r="K10" t="s">
         <v>209</v>
@@ -14919,15 +15547,33 @@
       <c r="AS10" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT10" t="s">
+        <v>1268</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>1300</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>1326</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>868</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>868</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>1269</v>
+        <v>1413</v>
       </c>
       <c r="K12" t="s">
         <v>223</v>
@@ -15034,15 +15680,33 @@
       <c r="AS12" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT12" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>1301</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>1327</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>1270</v>
+        <v>1414</v>
       </c>
       <c r="K14" t="s">
         <v>224</v>
@@ -15149,15 +15813,33 @@
       <c r="AS14" t="s">
         <v>1238</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT14" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>994</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>1328</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>1353</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>1271</v>
+        <v>1415</v>
       </c>
       <c r="K16" t="s">
         <v>225</v>
@@ -15264,15 +15946,33 @@
       <c r="AS16" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT16" t="s">
+        <v>1271</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>1354</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>1272</v>
+        <v>1416</v>
       </c>
       <c r="K18" t="s">
         <v>210</v>
@@ -15379,15 +16079,33 @@
       <c r="AS18" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT18" t="s">
+        <v>1272</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>1302</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>453</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>1273</v>
+        <v>1417</v>
       </c>
       <c r="K20" t="s">
         <v>226</v>
@@ -15494,15 +16212,33 @@
       <c r="AS20" t="s">
         <v>1240</v>
       </c>
-    </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT20" t="s">
+        <v>1273</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>1303</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>1221</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>813</v>
+      </c>
+      <c r="AX20">
+        <v>109978</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>1274</v>
+        <v>1418</v>
       </c>
       <c r="K22" t="s">
         <v>227</v>
@@ -15609,15 +16345,33 @@
       <c r="AS22" t="s">
         <v>1241</v>
       </c>
-    </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT22" t="s">
+        <v>1274</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>1304</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>1330</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>1355</v>
+      </c>
+      <c r="AX22">
+        <v>117695</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1275</v>
+        <v>1419</v>
       </c>
       <c r="K24" t="s">
         <v>228</v>
@@ -15724,15 +16478,33 @@
       <c r="AS24" t="s">
         <v>1242</v>
       </c>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT24" t="s">
+        <v>1275</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>1305</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>1331</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>1356</v>
+      </c>
+      <c r="AX24">
+        <v>118482</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>1276</v>
+        <v>1420</v>
       </c>
       <c r="K26" t="s">
         <v>229</v>
@@ -15839,15 +16611,33 @@
       <c r="AS26" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT26" t="s">
+        <v>1276</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>1332</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>1357</v>
+      </c>
+      <c r="AX26">
+        <v>56961</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>1277</v>
+        <v>1421</v>
       </c>
       <c r="K28" t="s">
         <v>230</v>
@@ -15954,15 +16744,33 @@
       <c r="AS28" t="s">
         <v>1244</v>
       </c>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT28" t="s">
+        <v>1277</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>1307</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>1333</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>1358</v>
+      </c>
+      <c r="AY28" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>1278</v>
+        <v>1422</v>
       </c>
       <c r="K30" t="s">
         <v>231</v>
@@ -16069,15 +16877,33 @@
       <c r="AS30" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT30" t="s">
+        <v>1278</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>1308</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>1334</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>1359</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>1279</v>
+        <v>1423</v>
       </c>
       <c r="K32" t="s">
         <v>211</v>
@@ -16184,15 +17010,33 @@
       <c r="AS32" t="s">
         <v>1246</v>
       </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT32" t="s">
+        <v>1279</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>1246</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>1360</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>1280</v>
+        <v>1424</v>
       </c>
       <c r="K34" t="s">
         <v>232</v>
@@ -16299,15 +17143,33 @@
       <c r="AS34" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT34" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>1280</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>1335</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>1361</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>1069</v>
+        <v>1425</v>
       </c>
       <c r="K36" t="s">
         <v>208</v>
@@ -16414,15 +17276,33 @@
       <c r="AS36" t="s">
         <v>1248</v>
       </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT36" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>850</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>850</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>850</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1281</v>
+        <v>1426</v>
       </c>
       <c r="K38" t="s">
         <v>212</v>
@@ -16529,15 +17409,33 @@
       <c r="AS38" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT38" t="s">
+        <v>1281</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>1309</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>1336</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>1362</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1183</v>
+        <v>1427</v>
       </c>
       <c r="K40" t="s">
         <v>213</v>
@@ -16644,15 +17542,33 @@
       <c r="AS40" t="s">
         <v>1250</v>
       </c>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT40" t="s">
+        <v>1183</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>1310</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>1337</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>1363</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>1282</v>
+        <v>1428</v>
       </c>
       <c r="K42" t="s">
         <v>233</v>
@@ -16759,15 +17675,33 @@
       <c r="AS42" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT42" t="s">
+        <v>1282</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>1311</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>1338</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>1364</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="D44" t="s">
-        <v>1283</v>
+    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>122222</v>
       </c>
       <c r="K44" t="s">
         <v>214</v>
@@ -16874,15 +17808,33 @@
       <c r="AS44">
         <v>122222</v>
       </c>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT44" t="s">
+        <v>1283</v>
+      </c>
+      <c r="AU44">
+        <v>122222</v>
+      </c>
+      <c r="AV44">
+        <v>122222</v>
+      </c>
+      <c r="AW44">
+        <v>122222</v>
+      </c>
+      <c r="AX44">
+        <v>122222</v>
+      </c>
+      <c r="AY44">
+        <v>122222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>1284</v>
+        <v>1429</v>
       </c>
       <c r="K46" t="s">
         <v>234</v>
@@ -16989,15 +17941,33 @@
       <c r="AS46" t="s">
         <v>1252</v>
       </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT46" t="s">
+        <v>1284</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>1312</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>1339</v>
+      </c>
+      <c r="AW46" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>1365</v>
+      </c>
+      <c r="AY46" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>1285</v>
+        <v>1430</v>
       </c>
       <c r="K48" t="s">
         <v>215</v>
@@ -17104,15 +18074,33 @@
       <c r="AS48" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT48" t="s">
+        <v>1285</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>1313</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>1340</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>1366</v>
+      </c>
+      <c r="AY48" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>1286</v>
+        <v>1431</v>
       </c>
       <c r="K50" t="s">
         <v>216</v>
@@ -17219,15 +18207,33 @@
       <c r="AS50" t="s">
         <v>1254</v>
       </c>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT50" t="s">
+        <v>1286</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>1314</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>1367</v>
+      </c>
+      <c r="AY50" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>1287</v>
+        <v>1432</v>
       </c>
       <c r="K52" t="s">
         <v>217</v>
@@ -17334,15 +18340,33 @@
       <c r="AS52" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT52" t="s">
+        <v>1287</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>1341</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>1368</v>
+      </c>
+      <c r="AY52" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>1288</v>
+        <v>1433</v>
       </c>
       <c r="K54" t="s">
         <v>235</v>
@@ -17449,15 +18473,33 @@
       <c r="AS54" t="s">
         <v>1256</v>
       </c>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT54" t="s">
+        <v>1288</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>1316</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>1342</v>
+      </c>
+      <c r="AW54" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>1369</v>
+      </c>
+      <c r="AY54" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>1289</v>
+        <v>1434</v>
       </c>
       <c r="K56" t="s">
         <v>218</v>
@@ -17564,15 +18606,33 @@
       <c r="AS56" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT56" t="s">
+        <v>1289</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>1317</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>1343</v>
+      </c>
+      <c r="AW56" t="s">
+        <v>334</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>334</v>
+      </c>
+      <c r="AY56" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>1290</v>
+        <v>676</v>
       </c>
       <c r="K58" t="s">
         <v>236</v>
@@ -17679,15 +18739,33 @@
       <c r="AS58" t="s">
         <v>1258</v>
       </c>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT58" t="s">
+        <v>1290</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>1318</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>1344</v>
+      </c>
+      <c r="AW58" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>1370</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1291</v>
+        <v>1435</v>
       </c>
       <c r="K60" t="s">
         <v>237</v>
@@ -17794,15 +18872,33 @@
       <c r="AS60" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT60" t="s">
+        <v>1291</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>1319</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>1345</v>
+      </c>
+      <c r="AW60" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>1371</v>
+      </c>
+      <c r="AY60" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>1292</v>
+        <v>1436</v>
       </c>
       <c r="K62" t="s">
         <v>207</v>
@@ -17909,15 +19005,33 @@
       <c r="AS62" t="s">
         <v>1260</v>
       </c>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT62" t="s">
+        <v>1292</v>
+      </c>
+      <c r="AU62" t="s">
+        <v>1320</v>
+      </c>
+      <c r="AV62" t="s">
+        <v>1346</v>
+      </c>
+      <c r="AW62" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AX62" t="s">
+        <v>1372</v>
+      </c>
+      <c r="AY62" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>1293</v>
+        <v>1437</v>
       </c>
       <c r="K64" t="s">
         <v>238</v>
@@ -18024,15 +19138,33 @@
       <c r="AS64" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT64" t="s">
+        <v>1293</v>
+      </c>
+      <c r="AU64" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AV64" t="s">
+        <v>1321</v>
+      </c>
+      <c r="AW64" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AX64" t="s">
+        <v>1373</v>
+      </c>
+      <c r="AY64" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>1294</v>
+        <v>1438</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -18139,15 +19271,33 @@
       <c r="AS66" t="s">
         <v>1262</v>
       </c>
-    </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AT66" t="s">
+        <v>1294</v>
+      </c>
+      <c r="AU66" t="s">
+        <v>1262</v>
+      </c>
+      <c r="AV66" t="s">
+        <v>1204</v>
+      </c>
+      <c r="AW66" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AX66" t="s">
+        <v>1374</v>
+      </c>
+      <c r="AY66" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>1295</v>
+        <v>1439</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -18253,6 +19403,88 @@
       </c>
       <c r="AS68" t="s">
         <v>1263</v>
+      </c>
+      <c r="AT68" t="s">
+        <v>1295</v>
+      </c>
+      <c r="AU68" t="s">
+        <v>1322</v>
+      </c>
+      <c r="AV68" t="s">
+        <v>1347</v>
+      </c>
+      <c r="AW68" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AX68" t="s">
+        <v>1375</v>
+      </c>
+      <c r="AY68" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>38852</v>
+      </c>
+      <c r="AW70">
+        <v>39793</v>
+      </c>
+      <c r="AX70">
+        <v>39785</v>
+      </c>
+    </row>
+    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>44997</v>
+      </c>
+      <c r="AW72">
+        <v>53484</v>
+      </c>
+      <c r="AX72">
+        <v>53481</v>
+      </c>
+    </row>
+    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>36983</v>
+      </c>
+      <c r="AW74">
+        <v>40994</v>
+      </c>
+      <c r="AX74">
+        <v>40991</v>
+      </c>
+    </row>
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>23305</v>
+      </c>
+      <c r="AW76">
+        <v>23977</v>
+      </c>
+      <c r="AX76">
+        <v>23545</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="1440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="1572">
   <si>
     <t>Ardonite</t>
   </si>
@@ -4345,6 +4345,402 @@
   </si>
   <si>
     <t>279979</t>
+  </si>
+  <si>
+    <t>175 000</t>
+  </si>
+  <si>
+    <t>135 000</t>
+  </si>
+  <si>
+    <t>8192</t>
+  </si>
+  <si>
+    <t>12587</t>
+  </si>
+  <si>
+    <t>4082</t>
+  </si>
+  <si>
+    <t>5594</t>
+  </si>
+  <si>
+    <t>14496</t>
+  </si>
+  <si>
+    <t>16999</t>
+  </si>
+  <si>
+    <t>12915</t>
+  </si>
+  <si>
+    <t>42638</t>
+  </si>
+  <si>
+    <t>117393</t>
+  </si>
+  <si>
+    <t>143990</t>
+  </si>
+  <si>
+    <t>111998</t>
+  </si>
+  <si>
+    <t>71409</t>
+  </si>
+  <si>
+    <t>31237</t>
+  </si>
+  <si>
+    <t>46889</t>
+  </si>
+  <si>
+    <t>17380</t>
+  </si>
+  <si>
+    <t>19820</t>
+  </si>
+  <si>
+    <t>54887</t>
+  </si>
+  <si>
+    <t>41884</t>
+  </si>
+  <si>
+    <t>99360</t>
+  </si>
+  <si>
+    <t>149999</t>
+  </si>
+  <si>
+    <t>372431</t>
+  </si>
+  <si>
+    <t>448999</t>
+  </si>
+  <si>
+    <t>336997</t>
+  </si>
+  <si>
+    <t>225298</t>
+  </si>
+  <si>
+    <t>88733</t>
+  </si>
+  <si>
+    <t>120997</t>
+  </si>
+  <si>
+    <t>43976</t>
+  </si>
+  <si>
+    <t>138666</t>
+  </si>
+  <si>
+    <t>158999</t>
+  </si>
+  <si>
+    <t>99997</t>
+  </si>
+  <si>
+    <t>277995</t>
+  </si>
+  <si>
+    <t>8497</t>
+  </si>
+  <si>
+    <t>14895</t>
+  </si>
+  <si>
+    <t>13398</t>
+  </si>
+  <si>
+    <t>16599</t>
+  </si>
+  <si>
+    <t>11399</t>
+  </si>
+  <si>
+    <t>26888</t>
+  </si>
+  <si>
+    <t>43172</t>
+  </si>
+  <si>
+    <t>120900</t>
+  </si>
+  <si>
+    <t>106966</t>
+  </si>
+  <si>
+    <t>93999</t>
+  </si>
+  <si>
+    <t>99984</t>
+  </si>
+  <si>
+    <t>31420</t>
+  </si>
+  <si>
+    <t>46819</t>
+  </si>
+  <si>
+    <t>16924</t>
+  </si>
+  <si>
+    <t>18989</t>
+  </si>
+  <si>
+    <t>56142</t>
+  </si>
+  <si>
+    <t>57598</t>
+  </si>
+  <si>
+    <t>41597</t>
+  </si>
+  <si>
+    <t>99100</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>293990</t>
+  </si>
+  <si>
+    <t>409999</t>
+  </si>
+  <si>
+    <t>335863</t>
+  </si>
+  <si>
+    <t>225194</t>
+  </si>
+  <si>
+    <t>88795</t>
+  </si>
+  <si>
+    <t>138998</t>
+  </si>
+  <si>
+    <t>43989</t>
+  </si>
+  <si>
+    <t>57997</t>
+  </si>
+  <si>
+    <t>137692</t>
+  </si>
+  <si>
+    <t>161989</t>
+  </si>
+  <si>
+    <t>103999</t>
+  </si>
+  <si>
+    <t>277996</t>
+  </si>
+  <si>
+    <t>105 000</t>
+  </si>
+  <si>
+    <t>480 000</t>
+  </si>
+  <si>
+    <t>70 000</t>
+  </si>
+  <si>
+    <t>8977</t>
+  </si>
+  <si>
+    <t>13987</t>
+  </si>
+  <si>
+    <t>4485</t>
+  </si>
+  <si>
+    <t>5393</t>
+  </si>
+  <si>
+    <t>13395</t>
+  </si>
+  <si>
+    <t>19868</t>
+  </si>
+  <si>
+    <t>11468</t>
+  </si>
+  <si>
+    <t>26796</t>
+  </si>
+  <si>
+    <t>43935</t>
+  </si>
+  <si>
+    <t>115994</t>
+  </si>
+  <si>
+    <t>99990</t>
+  </si>
+  <si>
+    <t>96988</t>
+  </si>
+  <si>
+    <t>128529</t>
+  </si>
+  <si>
+    <t>31443</t>
+  </si>
+  <si>
+    <t>46806</t>
+  </si>
+  <si>
+    <t>16925</t>
+  </si>
+  <si>
+    <t>19875</t>
+  </si>
+  <si>
+    <t>56997</t>
+  </si>
+  <si>
+    <t>41690</t>
+  </si>
+  <si>
+    <t>97990</t>
+  </si>
+  <si>
+    <t>299900</t>
+  </si>
+  <si>
+    <t>293987</t>
+  </si>
+  <si>
+    <t>389999</t>
+  </si>
+  <si>
+    <t>333853</t>
+  </si>
+  <si>
+    <t>225181</t>
+  </si>
+  <si>
+    <t>88874</t>
+  </si>
+  <si>
+    <t>129991</t>
+  </si>
+  <si>
+    <t>43949</t>
+  </si>
+  <si>
+    <t>57989</t>
+  </si>
+  <si>
+    <t>137688</t>
+  </si>
+  <si>
+    <t>161982</t>
+  </si>
+  <si>
+    <t>103475</t>
+  </si>
+  <si>
+    <t>440 000</t>
+  </si>
+  <si>
+    <t>40 000</t>
+  </si>
+  <si>
+    <t>8980</t>
+  </si>
+  <si>
+    <t>13688</t>
+  </si>
+  <si>
+    <t>4399</t>
+  </si>
+  <si>
+    <t>5994</t>
+  </si>
+  <si>
+    <t>18493</t>
+  </si>
+  <si>
+    <t>26995</t>
+  </si>
+  <si>
+    <t>43986</t>
+  </si>
+  <si>
+    <t>107994</t>
+  </si>
+  <si>
+    <t>94791</t>
+  </si>
+  <si>
+    <t>32875</t>
+  </si>
+  <si>
+    <t>44849</t>
+  </si>
+  <si>
+    <t>16697</t>
+  </si>
+  <si>
+    <t>19863</t>
+  </si>
+  <si>
+    <t>44995</t>
+  </si>
+  <si>
+    <t>54500</t>
+  </si>
+  <si>
+    <t>40989</t>
+  </si>
+  <si>
+    <t>94984</t>
+  </si>
+  <si>
+    <t>247982</t>
+  </si>
+  <si>
+    <t>293981</t>
+  </si>
+  <si>
+    <t>384993</t>
+  </si>
+  <si>
+    <t>299993</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>89988</t>
+  </si>
+  <si>
+    <t>149994</t>
+  </si>
+  <si>
+    <t>44596</t>
+  </si>
+  <si>
+    <t>69899</t>
+  </si>
+  <si>
+    <t>136899</t>
+  </si>
+  <si>
+    <t>169111</t>
+  </si>
+  <si>
+    <t>103995</t>
+  </si>
+  <si>
+    <t>279991</t>
   </si>
 </sst>
 </file>
@@ -4354,7 +4750,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4426,6 +4822,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -5166,7 +5570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -5535,6 +5939,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5892,6 +6299,363 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>505164</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="781050"/>
+          <a:ext cx="2429214" cy="1981477"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>267013</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="3076575"/>
+          <a:ext cx="2238688" cy="1552792"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>124009</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="4953000"/>
+          <a:ext cx="1314634" cy="1257476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>524055</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>124002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="762000"/>
+          <a:ext cx="1286055" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>476529</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="2286000"/>
+          <a:ext cx="2000529" cy="2095793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>286003</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="4762500"/>
+          <a:ext cx="1810003" cy="1190791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>676582</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>181187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="762000"/>
+          <a:ext cx="2200582" cy="1514687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>705055</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Image 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="2667000"/>
+          <a:ext cx="1467055" cy="1448002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -7133,7 +7897,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7342,10 +8106,10 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="86">
-        <v>25928</v>
+        <v>26287</v>
       </c>
       <c r="D9" s="18">
-        <v>277916</v>
+        <v>277880</v>
       </c>
       <c r="E9" s="18">
         <v>1379988</v>
@@ -7369,27 +8133,27 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7">
         <f>D9-10*C9-(10*C9*0.01)</f>
-        <v>16043.2</v>
+        <v>12381.3</v>
       </c>
       <c r="E10" s="7">
         <f>E9-50*C9</f>
-        <v>83588</v>
+        <v>65638</v>
       </c>
       <c r="F10" s="7">
         <f>F9-50*C9</f>
-        <v>-96403</v>
+        <v>-114353</v>
       </c>
       <c r="G10" s="7">
         <f>G9-50*C9</f>
-        <v>-196402</v>
+        <v>-214352</v>
       </c>
       <c r="H10" s="7">
         <f>H9-50*C9</f>
-        <v>53600</v>
+        <v>35650</v>
       </c>
       <c r="I10" s="4">
         <f>I9-200*C9</f>
-        <v>1314399</v>
+        <v>1242599</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -7720,10 +8484,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D2"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7731,7 +8495,7 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1023</v>
       </c>
@@ -7742,8 +8506,46 @@
         <v>1025</v>
       </c>
     </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="136" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E4" s="136" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="E12" s="136" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="136" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="136" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="136">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="136" t="s">
+        <v>1440</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7775,29 +8577,29 @@
         <f>Comparatifs!B27</f>
         <v>0</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
       <c r="G2" s="8">
         <f>Comparatifs!B28+B10</f>
         <v>0</v>
       </c>
-      <c r="H2" s="136" t="s">
+      <c r="H2" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="I2" s="136"/>
-      <c r="J2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
       <c r="L2" s="8">
         <f>Comparatifs!B29+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="136" t="s">
+      <c r="M2" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="N2" s="136"/>
-      <c r="O2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="138"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -8164,29 +8966,29 @@
         <f>Comparatifs!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="138"/>
       <c r="G13" s="8">
         <f>Comparatifs!B14+B21</f>
         <v>0</v>
       </c>
-      <c r="H13" s="136" t="s">
+      <c r="H13" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="136"/>
-      <c r="J13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="138"/>
       <c r="L13" s="8">
         <f>Comparatifs!B13+G20</f>
         <v>0</v>
       </c>
-      <c r="M13" s="136" t="s">
+      <c r="M13" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="136"/>
-      <c r="O13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="138"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
@@ -8553,29 +9355,29 @@
         <f>Comparatifs!B15</f>
         <v>5</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="136"/>
-      <c r="E24" s="137"/>
+      <c r="D24" s="137"/>
+      <c r="E24" s="138"/>
       <c r="G24" s="8">
         <f>Comparatifs!B16+B32</f>
         <v>5</v>
       </c>
-      <c r="H24" s="136" t="s">
+      <c r="H24" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="I24" s="136"/>
-      <c r="J24" s="137"/>
+      <c r="I24" s="137"/>
+      <c r="J24" s="138"/>
       <c r="L24" s="8">
         <f>Comparatifs!B17+G31</f>
         <v>5</v>
       </c>
-      <c r="M24" s="136" t="s">
+      <c r="M24" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="136"/>
-      <c r="O24" s="137"/>
+      <c r="N24" s="137"/>
+      <c r="O24" s="138"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="10">
@@ -8942,29 +9744,29 @@
         <f>Comparatifs!B18</f>
         <v>0</v>
       </c>
-      <c r="C35" s="136" t="s">
+      <c r="C35" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="136"/>
-      <c r="E35" s="137"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="138"/>
       <c r="G35" s="8">
         <f>Comparatifs!B19+B43</f>
         <v>0</v>
       </c>
-      <c r="H35" s="136" t="s">
+      <c r="H35" s="137" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="136"/>
-      <c r="J35" s="137"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="138"/>
       <c r="L35" s="8">
         <f>Comparatifs!B20+G42</f>
         <v>0</v>
       </c>
-      <c r="M35" s="136" t="s">
+      <c r="M35" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="N35" s="136"/>
-      <c r="O35" s="137"/>
+      <c r="N35" s="137"/>
+      <c r="O35" s="138"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="10">
@@ -9331,29 +10133,29 @@
         <f>Comparatifs!B21</f>
         <v>0</v>
       </c>
-      <c r="C46" s="136" t="s">
+      <c r="C46" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="D46" s="136"/>
-      <c r="E46" s="137"/>
+      <c r="D46" s="137"/>
+      <c r="E46" s="138"/>
       <c r="G46" s="8">
         <f>Comparatifs!B22+B54</f>
         <v>0</v>
       </c>
-      <c r="H46" s="136" t="s">
+      <c r="H46" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="I46" s="136"/>
-      <c r="J46" s="137"/>
+      <c r="I46" s="137"/>
+      <c r="J46" s="138"/>
       <c r="L46" s="8">
         <f>Comparatifs!B23+G53</f>
         <v>0</v>
       </c>
-      <c r="M46" s="136" t="s">
+      <c r="M46" s="137" t="s">
         <v>45</v>
       </c>
-      <c r="N46" s="136"/>
-      <c r="O46" s="137"/>
+      <c r="N46" s="137"/>
+      <c r="O46" s="138"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B47" s="10">
@@ -9720,29 +10522,29 @@
         <f>Comparatifs!B24</f>
         <v>5</v>
       </c>
-      <c r="C57" s="136" t="s">
+      <c r="C57" s="137" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="136"/>
-      <c r="E57" s="137"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="138"/>
       <c r="G57" s="8">
         <f>Comparatifs!B25+B65</f>
         <v>5</v>
       </c>
-      <c r="H57" s="136" t="s">
+      <c r="H57" s="137" t="s">
         <v>59</v>
       </c>
-      <c r="I57" s="136"/>
-      <c r="J57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="138"/>
       <c r="L57" s="8">
         <f>Comparatifs!B26+G64</f>
         <v>5</v>
       </c>
-      <c r="M57" s="136" t="s">
+      <c r="M57" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="N57" s="136"/>
-      <c r="O57" s="137"/>
+      <c r="N57" s="137"/>
+      <c r="O57" s="138"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="10">
@@ -10109,29 +10911,29 @@
         <f>Comparatifs!B30</f>
         <v>5</v>
       </c>
-      <c r="C68" s="136" t="s">
+      <c r="C68" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="D68" s="136"/>
-      <c r="E68" s="137"/>
+      <c r="D68" s="137"/>
+      <c r="E68" s="138"/>
       <c r="G68" s="8">
         <f>Comparatifs!B31+B76</f>
         <v>5</v>
       </c>
-      <c r="H68" s="136" t="s">
+      <c r="H68" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="I68" s="136"/>
-      <c r="J68" s="137"/>
+      <c r="I68" s="137"/>
+      <c r="J68" s="138"/>
       <c r="L68" s="8">
         <f>Comparatifs!B32+G75</f>
         <v>5</v>
       </c>
-      <c r="M68" s="136" t="s">
+      <c r="M68" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="N68" s="136"/>
-      <c r="O68" s="137"/>
+      <c r="N68" s="137"/>
+      <c r="O68" s="138"/>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="10">
@@ -10498,29 +11300,29 @@
         <f>Comparatifs!B33</f>
         <v>5</v>
       </c>
-      <c r="C79" s="136" t="s">
+      <c r="C79" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="D79" s="136"/>
-      <c r="E79" s="137"/>
+      <c r="D79" s="137"/>
+      <c r="E79" s="138"/>
       <c r="G79" s="8">
         <f>Comparatifs!B34+B87</f>
         <v>5</v>
       </c>
-      <c r="H79" s="136" t="s">
+      <c r="H79" s="137" t="s">
         <v>114</v>
       </c>
-      <c r="I79" s="136"/>
-      <c r="J79" s="137"/>
+      <c r="I79" s="137"/>
+      <c r="J79" s="138"/>
       <c r="L79" s="8">
         <f>Comparatifs!B35+G86</f>
         <v>5</v>
       </c>
-      <c r="M79" s="136" t="s">
+      <c r="M79" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="N79" s="136"/>
-      <c r="O79" s="137"/>
+      <c r="N79" s="137"/>
+      <c r="O79" s="138"/>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B80" s="10">
@@ -10887,29 +11689,29 @@
         <f>Comparatifs!B36</f>
         <v>0</v>
       </c>
-      <c r="C90" s="136" t="s">
+      <c r="C90" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="D90" s="136"/>
-      <c r="E90" s="137"/>
+      <c r="D90" s="137"/>
+      <c r="E90" s="138"/>
       <c r="G90" s="8">
         <f>Comparatifs!B37+B98</f>
         <v>0</v>
       </c>
-      <c r="H90" s="136" t="s">
+      <c r="H90" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="I90" s="136"/>
-      <c r="J90" s="137"/>
+      <c r="I90" s="137"/>
+      <c r="J90" s="138"/>
       <c r="L90" s="8">
         <f>Comparatifs!B38+G97</f>
         <v>0</v>
       </c>
-      <c r="M90" s="136" t="s">
+      <c r="M90" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="N90" s="136"/>
-      <c r="O90" s="137"/>
+      <c r="N90" s="137"/>
+      <c r="O90" s="138"/>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B91" s="10">
@@ -11372,16 +12174,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="139" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -12604,25 +13406,25 @@
         <f>'Comparatifs Idoles'!B12</f>
         <v>1</v>
       </c>
-      <c r="C2" s="136" t="s">
+      <c r="C2" s="137" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="136"/>
-      <c r="E2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
       <c r="G2" s="8">
         <f>'Comparatifs Idoles'!B13</f>
         <v>0</v>
       </c>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="137"/>
+      <c r="H2" s="137"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
       <c r="L2" s="8">
         <f>Comparatifs!B13+G9</f>
         <v>0</v>
       </c>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="137"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="138"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="10">
@@ -12946,16 +13748,16 @@
       <c r="D7" s="40"/>
     </row>
     <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="141"/>
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="39"/>
@@ -13172,11 +13974,11 @@
       <c r="B9" s="8">
         <v>0</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="136"/>
-      <c r="E9" s="141"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="142"/>
       <c r="F9" s="48"/>
       <c r="H9" t="s">
         <v>8</v>
@@ -13381,11 +14183,11 @@
         <f>G11</f>
         <v>1</v>
       </c>
-      <c r="C20" s="136" t="s">
+      <c r="C20" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="136"/>
-      <c r="E20" s="141"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="142"/>
       <c r="F20" s="48"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -13751,8 +14553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13822,54 +14624,54 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>8795</v>
+        <v>8980</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>8795</v>
+        <v>8980</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>26385</v>
+        <v>26940</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>79155</v>
+        <v>80820</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>31422</v>
+        <v>32875</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>88723</v>
+        <v>89988</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>4722.78</v>
+        <v>5606.25</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.16030169944624784</v>
+        <v>0.18053231939163494</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>0.17899488345650938</v>
+        <v>0.20810133630289532</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>8680.77</v>
+        <v>8268.1200000000008</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>0.10966799317794201</v>
+        <v>0.10230289532293987</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>0.10784125874914063</v>
+        <v>0.10188025070009332</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13878,54 +14680,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>12399</v>
+        <v>13688</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>12399</v>
+        <v>13688</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>37197</v>
+        <v>41064</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>111591</v>
+        <v>123192</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>47955</v>
+        <v>44849</v>
       </c>
       <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>119998</v>
+        <v>149994</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>10278.450000000001</v>
+        <v>3336.51</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>0.22433531435720988</v>
+        <v>8.4394300876273753E-2</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>0.27632470360512945</v>
+        <v>8.1251461133839867E-2</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>7207.02</v>
+        <v>25302.06</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>6.4584240664569734E-2</v>
+        <v>0.20538720046756284</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>7.0059500991683232E-2</v>
+        <v>0.17868714748589942</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13934,54 +14736,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>3894</v>
+        <v>4399</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>3894</v>
+        <v>4399</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>11682</v>
+        <v>13197</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>35046</v>
+        <v>39591</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>13994</v>
+        <v>16697</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>43992</v>
+        <v>44596</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>2172.06</v>
+        <v>3333.03</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>0.16521366299842788</v>
+        <v>0.20961849434030067</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>0.18593220338983049</v>
+        <v>0.25255967265287566</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>8506.08</v>
+        <v>4559.04</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>0.24271186440677966</v>
+        <v>0.11515344396453739</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>0.20335515548281502</v>
+        <v>0.11222979639429542</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -13990,54 +14792,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>5897</v>
+        <v>5994</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>5897</v>
+        <v>5994</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>17691</v>
+        <v>17982</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>53073</v>
+        <v>53946</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>19876</v>
+        <v>19863</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>62999</v>
+        <v>69899</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>1986.24</v>
+        <v>1682.37</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>0.10993157576977264</v>
+        <v>9.4698685999093812E-2</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>0.11227403764626082</v>
+        <v>9.3558558558558547E-2</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>9296.01</v>
+        <v>15254.01</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>0.17515516364253012</v>
+        <v>0.28276443109776445</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>0.15755805647708698</v>
+        <v>0.22822930227900251</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14046,54 +14848,54 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>11789</v>
+        <v>10000</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>11789</v>
+        <v>10000</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>35367</v>
+        <v>30000</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>106101</v>
+        <v>90000</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>34490</v>
+        <v>44995</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>138680</v>
+        <v>136899</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>-1221.9000000000001</v>
+        <v>14545.05</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>-2.5427660191359891E-2</v>
+        <v>0.333259251027892</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>-3.4549155992874718E-2</v>
+        <v>0.48483499999999996</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>31192.2</v>
+        <v>45530.01</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>0.29398591907710581</v>
+        <v>0.50588900000000003</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>0.23492212287280068</v>
+        <v>0.34258102688843595</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14102,54 +14904,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>16488</v>
+        <v>18493</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>16488</v>
+        <v>18493</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>49464</v>
+        <v>55479</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>148392</v>
+        <v>166437</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>52109</v>
+        <v>54500</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>162818</v>
+        <v>169111</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>2123.91</v>
+        <v>-1524</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>5.0758985971713133E-2</v>
+        <v>-1.7963302752293631E-2</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>4.2938500727802038E-2</v>
+        <v>-2.7469853458065213E-2</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>12797.82</v>
+        <v>982.88999999999987</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>8.6243328481319742E-2</v>
+        <v>5.9054777483372083E-3</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>8.860199732216345E-2</v>
+        <v>1.5812099745137864E-2</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14158,54 +14960,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>11989</v>
+        <v>11993</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>11989</v>
+        <v>11993</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>35967</v>
+        <v>35979</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>107901</v>
+        <v>107937</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>41932</v>
+        <v>40989</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>104986</v>
+        <v>103995</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>5545.68</v>
+        <v>4600.1099999999997</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>0.14225412572736817</v>
+        <v>0.12222791480641149</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>0.15418800567186589</v>
+        <v>0.1278554156591345</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-3964.86</v>
+        <v>-4981.95</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>-3.6745349904078739E-2</v>
+        <v>-4.6156091053114315E-2</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>-2.7765606842817148E-2</v>
+        <v>-3.7905668541756921E-2</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14214,54 +15016,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>26597</v>
+        <v>26995</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>26597</v>
+        <v>26995</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>79791</v>
+        <v>80985</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>239373</v>
+        <v>242955</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>99395</v>
+        <v>94984</v>
       </c>
       <c r="J11" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>279979</v>
+        <v>279991</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>18610.05</v>
+        <v>13049.16</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>0.19723326123044416</v>
+        <v>0.14738271708919393</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>0.23323495131029814</v>
+        <v>0.16113057973698833</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>37806.21</v>
+        <v>34236.089999999997</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>0.15793848930330487</v>
+        <v>0.14091535469531394</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>0.14503230599437811</v>
+        <v>0.13227568028972359</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -14270,36 +15072,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>43933</v>
+        <v>43986</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>199</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>43933</v>
+        <v>43986</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>131799</v>
+        <v>131958</v>
       </c>
       <c r="H12" s="74"/>
-      <c r="I12" s="91">
+      <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>122222</v>
+        <v>247982</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>-10799.22</v>
+        <v>113544.18</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>-7.8357415195300373E-2</v>
+        <v>0.46787266817752904</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>-8.1937040493478705E-2</v>
+        <v>0.86045696357932067</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -14311,36 +15113,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>107537</v>
+        <v>99794</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>107537</v>
+        <v>99794</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>322611</v>
+        <v>299382</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>372437</v>
+        <v>293981</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>46101.63</v>
+        <v>-8340.81</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>0.13378370033052567</v>
+        <v>-1.8371935601280365E-2</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>0.14290160595887927</v>
+        <v>-2.7860091789085516E-2</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -14352,36 +15154,36 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>170831</v>
+        <v>99890</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>170831</v>
+        <v>99890</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>512493</v>
+        <v>299670</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>449980</v>
+        <v>384993</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>-67012.800000000003</v>
+        <v>81473.070000000007</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>-0.13892395217565223</v>
+        <v>0.22162221131293292</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>-0.13075846889616055</v>
+        <v>0.27187596355991595</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -14393,36 +15195,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>112492</v>
+        <v>107994</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>112492</v>
+        <v>107994</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>337476</v>
+        <v>323982</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>368800</v>
+        <v>299993</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>27636</v>
+        <v>-26988.93</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>8.4934924078091112E-2</v>
+        <v>-7.9965199187981062E-2</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>8.18902677523735E-2</v>
+        <v>-8.3303794655258626E-2</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -14434,36 +15236,36 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>68362</v>
+        <v>94791</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>68362</v>
+        <v>94791</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>205086</v>
+        <v>284373</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>235283</v>
+        <v>220000</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>27844.17</v>
+        <v>-66573</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>0.12834331422159695</v>
+        <v>-0.29260454545454539</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>0.13576826307012668</v>
+        <v>-0.23410450359211318</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -14476,27 +15278,27 @@
       </c>
       <c r="F17" s="73" t="str">
         <f>C13</f>
-        <v>107537</v>
+        <v>99794</v>
       </c>
       <c r="G17" s="74">
         <f>F17*3/10</f>
-        <v>32261.1</v>
+        <v>29938.2</v>
       </c>
       <c r="I17" s="91">
         <f>Raw!D70</f>
-        <v>38852</v>
+        <v>0</v>
       </c>
       <c r="K17" s="21">
         <f>(I17-G17-(I17*0.01))*10</f>
-        <v>62023.80000000001</v>
-      </c>
-      <c r="L17" s="104">
+        <v>-299382</v>
+      </c>
+      <c r="L17" s="104" t="e">
         <f>1-(G17/I17)</f>
-        <v>0.16964120251209724</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M17" s="104">
         <f>(K17/G17)/10</f>
-        <v>0.19225568873968962</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -14505,34 +15307,34 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>31422</v>
+        <v>32875</v>
       </c>
       <c r="E18" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="73" t="str">
         <f t="shared" ref="F18:F20" si="12">C14</f>
-        <v>170831</v>
+        <v>99890</v>
       </c>
       <c r="G18" s="74">
         <f t="shared" ref="G18:G20" si="13">F18*3/10</f>
-        <v>51249.3</v>
+        <v>29967</v>
       </c>
       <c r="I18" s="91">
         <f>Raw!D72</f>
-        <v>44997</v>
+        <v>0</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" ref="K18:K20" si="14">(I18-G18-(I18*0.01))*10</f>
-        <v>-67022.700000000026</v>
-      </c>
-      <c r="L18" s="104">
+        <v>-299670</v>
+      </c>
+      <c r="L18" s="104" t="e">
         <f>1-(G18/I18)</f>
-        <v>-0.13894926328421908</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M18" s="104">
         <f t="shared" ref="M18:M20" si="15">(K18/G18)/10</f>
-        <v>-0.13077778623317787</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -14541,34 +15343,34 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>47955</v>
+        <v>44849</v>
       </c>
       <c r="E19" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F19" s="73" t="str">
         <f t="shared" si="12"/>
-        <v>112492</v>
+        <v>107994</v>
       </c>
       <c r="G19" s="74">
         <f t="shared" si="13"/>
-        <v>33747.599999999999</v>
+        <v>32398.2</v>
       </c>
       <c r="I19" s="91">
         <f>Raw!D74</f>
-        <v>36983</v>
+        <v>0</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" si="14"/>
-        <v>28655.700000000015</v>
-      </c>
-      <c r="L19" s="104">
+        <v>-323982</v>
+      </c>
+      <c r="L19" s="104" t="e">
         <f t="shared" ref="L19:L20" si="16">1-(G19/I19)</f>
-        <v>8.7483438336533048E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M19" s="104">
         <f t="shared" si="15"/>
-        <v>8.4911815951356592E-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -14577,34 +15379,34 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>13994</v>
+        <v>16697</v>
       </c>
       <c r="E20" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F20" s="73" t="str">
         <f t="shared" si="12"/>
-        <v>68362</v>
+        <v>94791</v>
       </c>
       <c r="G20" s="74">
         <f t="shared" si="13"/>
-        <v>20508.599999999999</v>
+        <v>28437.3</v>
       </c>
       <c r="I20" s="91">
         <f>Raw!D76</f>
-        <v>23305</v>
+        <v>0</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="14"/>
-        <v>25633.500000000015</v>
-      </c>
-      <c r="L20" s="104">
+        <v>-284373</v>
+      </c>
+      <c r="L20" s="104" t="e">
         <f t="shared" si="16"/>
-        <v>0.11999141815061154</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="M20" s="104">
         <f t="shared" si="15"/>
-        <v>0.12498902899271533</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -14613,7 +15415,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>19876</v>
+        <v>19863</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -14622,7 +15424,7 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>34490</v>
+        <v>44995</v>
       </c>
       <c r="E22" t="s">
         <v>797</v>
@@ -14640,7 +15442,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>52109</v>
+        <v>54500</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -14658,7 +15460,7 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>41932</v>
+        <v>40989</v>
       </c>
       <c r="F24">
         <f>SUM(F22:F23)</f>
@@ -14674,7 +15476,7 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>99395</v>
+        <v>94984</v>
       </c>
       <c r="E25" t="s">
         <v>797</v>
@@ -14687,9 +15489,9 @@
       <c r="B26" s="76" t="s">
         <v>198</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>122222</v>
+        <v>247982</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -14705,7 +15507,7 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>372437</v>
+        <v>293981</v>
       </c>
       <c r="F27">
         <f>SUM(F25:F26)</f>
@@ -14718,7 +15520,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>449980</v>
+        <v>384993</v>
       </c>
       <c r="E28" t="s">
         <v>798</v>
@@ -14734,7 +15536,7 @@
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>368800</v>
+        <v>299993</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14743,7 +15545,7 @@
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>235283</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14755,7 +15557,7 @@
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>88723</v>
+        <v>89988</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -14764,7 +15566,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>119998</v>
+        <v>149994</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -14773,7 +15575,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>43992</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -14782,7 +15584,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>62999</v>
+        <v>69899</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -14791,7 +15593,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>138680</v>
+        <v>136899</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -14800,7 +15602,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>162818</v>
+        <v>169111</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -14809,7 +15611,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>104986</v>
+        <v>103995</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14818,7 +15620,7 @@
       </c>
       <c r="C39" s="22" t="str">
         <f>Raw!D68</f>
-        <v>279979</v>
+        <v>279991</v>
       </c>
     </row>
   </sheetData>
@@ -14889,26 +15691,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY76"/>
+  <dimension ref="A1:BC76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="51" width="15.7109375" customWidth="1"/>
+    <col min="11" max="55" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1408</v>
+        <v>1542</v>
       </c>
       <c r="K2" t="s">
         <v>219</v>
@@ -15033,15 +15835,27 @@
       <c r="AY2" t="s">
         <v>1378</v>
       </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>1473</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>1409</v>
+        <v>1543</v>
       </c>
       <c r="K4" t="s">
         <v>220</v>
@@ -15166,15 +15980,27 @@
       <c r="AY4" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ4" t="s">
+        <v>1409</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>1474</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>1410</v>
+        <v>1544</v>
       </c>
       <c r="K6" t="s">
         <v>221</v>
@@ -15299,15 +16125,27 @@
       <c r="AY6" t="s">
         <v>1380</v>
       </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ6" t="s">
+        <v>1410</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>1444</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>513</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>1411</v>
+        <v>1545</v>
       </c>
       <c r="K8" t="s">
         <v>222</v>
@@ -15432,15 +16270,27 @@
       <c r="AY8" t="s">
         <v>1381</v>
       </c>
-    </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ8" t="s">
+        <v>1411</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>1445</v>
+      </c>
+      <c r="BB8">
+        <v>5299</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>1412</v>
+        <v>423</v>
       </c>
       <c r="K10" t="s">
         <v>209</v>
@@ -15565,15 +16415,27 @@
       <c r="AY10" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>1446</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>1475</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>1413</v>
+        <v>1546</v>
       </c>
       <c r="K12" t="s">
         <v>223</v>
@@ -15698,15 +16560,27 @@
       <c r="AY12" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ12" t="s">
+        <v>1413</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>1476</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>1414</v>
+        <v>646</v>
       </c>
       <c r="K14" t="s">
         <v>224</v>
@@ -15831,15 +16705,27 @@
       <c r="AY14" t="s">
         <v>1384</v>
       </c>
-    </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ14" t="s">
+        <v>1414</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>1448</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>1415</v>
+        <v>1547</v>
       </c>
       <c r="K16" t="s">
         <v>225</v>
@@ -15964,15 +16850,27 @@
       <c r="AY16" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ16" t="s">
+        <v>1415</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>684</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>1478</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>1416</v>
+        <v>1548</v>
       </c>
       <c r="K18" t="s">
         <v>210</v>
@@ -16097,15 +16995,27 @@
       <c r="AY18" t="s">
         <v>1386</v>
       </c>
-    </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ18" t="s">
+        <v>1416</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>1449</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>1479</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>1417</v>
+        <v>844</v>
       </c>
       <c r="K20" t="s">
         <v>226</v>
@@ -16230,15 +17140,27 @@
       <c r="AY20" t="s">
         <v>1387</v>
       </c>
-    </row>
-    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ20" t="s">
+        <v>1417</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>1450</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>1480</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>1418</v>
+        <v>414</v>
       </c>
       <c r="K22" t="s">
         <v>227</v>
@@ -16363,15 +17285,27 @@
       <c r="AY22" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ22" t="s">
+        <v>1418</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>1451</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>1481</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1419</v>
+        <v>1549</v>
       </c>
       <c r="K24" t="s">
         <v>228</v>
@@ -16496,15 +17430,27 @@
       <c r="AY24" t="s">
         <v>1388</v>
       </c>
-    </row>
-    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ24" t="s">
+        <v>1419</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>1452</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>1482</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>1420</v>
+        <v>1550</v>
       </c>
       <c r="K26" t="s">
         <v>229</v>
@@ -16629,15 +17575,27 @@
       <c r="AY26" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ26" t="s">
+        <v>1420</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>1453</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>1483</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>1421</v>
+        <v>1551</v>
       </c>
       <c r="K28" t="s">
         <v>230</v>
@@ -16762,15 +17720,27 @@
       <c r="AY28" t="s">
         <v>1390</v>
       </c>
-    </row>
-    <row r="29" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ28" t="s">
+        <v>1421</v>
+      </c>
+      <c r="BA28" t="s">
+        <v>1454</v>
+      </c>
+      <c r="BB28" t="s">
+        <v>1484</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>1422</v>
+        <v>1552</v>
       </c>
       <c r="K30" t="s">
         <v>231</v>
@@ -16895,15 +17865,27 @@
       <c r="AY30" t="s">
         <v>1391</v>
       </c>
-    </row>
-    <row r="31" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ30" t="s">
+        <v>1422</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>1455</v>
+      </c>
+      <c r="BB30" t="s">
+        <v>1485</v>
+      </c>
+      <c r="BC30" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>1423</v>
+        <v>1553</v>
       </c>
       <c r="K32" t="s">
         <v>211</v>
@@ -17028,15 +18010,27 @@
       <c r="AY32" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ32" t="s">
+        <v>1423</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>1456</v>
+      </c>
+      <c r="BB32" t="s">
+        <v>1486</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>1424</v>
+        <v>1554</v>
       </c>
       <c r="K34" t="s">
         <v>232</v>
@@ -17161,15 +18155,27 @@
       <c r="AY34" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ34" t="s">
+        <v>1424</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>1457</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>1487</v>
+      </c>
+      <c r="BC34" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>1425</v>
+        <v>1555</v>
       </c>
       <c r="K36" t="s">
         <v>208</v>
@@ -17294,15 +18300,27 @@
       <c r="AY36" t="s">
         <v>1393</v>
       </c>
-    </row>
-    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ36" t="s">
+        <v>1425</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>850</v>
+      </c>
+      <c r="BB36" t="s">
+        <v>1488</v>
+      </c>
+      <c r="BC36">
+        <v>56400</v>
+      </c>
+    </row>
+    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1426</v>
+        <v>1556</v>
       </c>
       <c r="K38" t="s">
         <v>212</v>
@@ -17427,15 +18445,27 @@
       <c r="AY38" t="s">
         <v>1394</v>
       </c>
-    </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ38" t="s">
+        <v>1426</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>1458</v>
+      </c>
+      <c r="BB38" t="s">
+        <v>1489</v>
+      </c>
+      <c r="BC38" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1427</v>
+        <v>1557</v>
       </c>
       <c r="K40" t="s">
         <v>213</v>
@@ -17560,15 +18590,27 @@
       <c r="AY40" t="s">
         <v>1395</v>
       </c>
-    </row>
-    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ40" t="s">
+        <v>1427</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>1459</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>1490</v>
+      </c>
+      <c r="BC40" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>1428</v>
+        <v>1558</v>
       </c>
       <c r="K42" t="s">
         <v>233</v>
@@ -17693,15 +18735,27 @@
       <c r="AY42" t="s">
         <v>1137</v>
       </c>
-    </row>
-    <row r="43" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ42" t="s">
+        <v>1428</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>1460</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>1491</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="D44">
-        <v>122222</v>
+    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>1559</v>
       </c>
       <c r="K44" t="s">
         <v>214</v>
@@ -17826,15 +18880,27 @@
       <c r="AY44">
         <v>122222</v>
       </c>
-    </row>
-    <row r="45" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ44">
+        <v>122222</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>1461</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>1492</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>1429</v>
+        <v>1560</v>
       </c>
       <c r="K46" t="s">
         <v>234</v>
@@ -17959,15 +19025,27 @@
       <c r="AY46" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ46" t="s">
+        <v>1429</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>1462</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>1493</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>1430</v>
+        <v>1561</v>
       </c>
       <c r="K48" t="s">
         <v>215</v>
@@ -18092,15 +19170,27 @@
       <c r="AY48" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ48" t="s">
+        <v>1430</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>1463</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>1494</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>1431</v>
+        <v>1562</v>
       </c>
       <c r="K50" t="s">
         <v>216</v>
@@ -18225,15 +19315,27 @@
       <c r="AY50" t="s">
         <v>1398</v>
       </c>
-    </row>
-    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ50" t="s">
+        <v>1431</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>1464</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>1495</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>1432</v>
+        <v>1563</v>
       </c>
       <c r="K52" t="s">
         <v>217</v>
@@ -18358,15 +19460,27 @@
       <c r="AY52" t="s">
         <v>1399</v>
       </c>
-    </row>
-    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ52" t="s">
+        <v>1432</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>1465</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>1496</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>1433</v>
+        <v>1564</v>
       </c>
       <c r="K54" t="s">
         <v>235</v>
@@ -18491,15 +19605,27 @@
       <c r="AY54" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ54" t="s">
+        <v>1433</v>
+      </c>
+      <c r="BA54" t="s">
+        <v>1466</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>1497</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>1434</v>
+        <v>1565</v>
       </c>
       <c r="K56" t="s">
         <v>218</v>
@@ -18624,15 +19750,27 @@
       <c r="AY56" t="s">
         <v>1401</v>
       </c>
-    </row>
-    <row r="57" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ56" t="s">
+        <v>1434</v>
+      </c>
+      <c r="BA56" t="s">
+        <v>1467</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>1498</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>676</v>
+        <v>1566</v>
       </c>
       <c r="K58" t="s">
         <v>236</v>
@@ -18757,15 +19895,27 @@
       <c r="AY58" t="s">
         <v>1402</v>
       </c>
-    </row>
-    <row r="59" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ58" t="s">
+        <v>676</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>1468</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>1499</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1435</v>
+        <v>1567</v>
       </c>
       <c r="K60" t="s">
         <v>237</v>
@@ -18890,15 +20040,27 @@
       <c r="AY60" t="s">
         <v>1403</v>
       </c>
-    </row>
-    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ60" t="s">
+        <v>1435</v>
+      </c>
+      <c r="BA60" t="s">
+        <v>1051</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>1500</v>
+      </c>
+      <c r="BC60" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>1436</v>
+        <v>1568</v>
       </c>
       <c r="K62" t="s">
         <v>207</v>
@@ -19023,15 +20185,27 @@
       <c r="AY62" t="s">
         <v>1404</v>
       </c>
-    </row>
-    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ62" t="s">
+        <v>1436</v>
+      </c>
+      <c r="BA62" t="s">
+        <v>1469</v>
+      </c>
+      <c r="BB62" t="s">
+        <v>1501</v>
+      </c>
+      <c r="BC62" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>1437</v>
+        <v>1569</v>
       </c>
       <c r="K64" t="s">
         <v>238</v>
@@ -19156,15 +20330,27 @@
       <c r="AY64" t="s">
         <v>1405</v>
       </c>
-    </row>
-    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ64" t="s">
+        <v>1437</v>
+      </c>
+      <c r="BA64" t="s">
+        <v>1470</v>
+      </c>
+      <c r="BB64" t="s">
+        <v>1502</v>
+      </c>
+      <c r="BC64" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>1438</v>
+        <v>1570</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -19289,15 +20475,27 @@
       <c r="AY66" t="s">
         <v>1406</v>
       </c>
-    </row>
-    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ66" t="s">
+        <v>1438</v>
+      </c>
+      <c r="BA66" t="s">
+        <v>1471</v>
+      </c>
+      <c r="BB66" t="s">
+        <v>1503</v>
+      </c>
+      <c r="BC66" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>1439</v>
+        <v>1571</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -19422,69 +20620,105 @@
       <c r="AY68" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ68" t="s">
+        <v>1439</v>
+      </c>
+      <c r="BA68" t="s">
+        <v>1472</v>
+      </c>
+      <c r="BB68" t="s">
+        <v>1504</v>
+      </c>
+      <c r="BC68" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="D70">
-        <v>38852</v>
-      </c>
+    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW70">
         <v>39793</v>
       </c>
       <c r="AX70">
         <v>39785</v>
       </c>
-    </row>
-    <row r="71" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ70">
+        <v>38852</v>
+      </c>
+      <c r="BB70">
+        <v>31335</v>
+      </c>
+      <c r="BC70">
+        <v>31329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="D72">
-        <v>44997</v>
-      </c>
+    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW72">
         <v>53484</v>
       </c>
       <c r="AX72">
         <v>53481</v>
       </c>
-    </row>
-    <row r="73" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ72">
+        <v>44997</v>
+      </c>
+      <c r="BB72">
+        <v>43322</v>
+      </c>
+      <c r="BC72">
+        <v>39768</v>
+      </c>
+    </row>
+    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="D74">
-        <v>36983</v>
-      </c>
+    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW74">
         <v>40994</v>
       </c>
       <c r="AX74">
         <v>40991</v>
       </c>
-    </row>
-    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="AZ74">
+        <v>36983</v>
+      </c>
+      <c r="BB74">
+        <v>32980</v>
+      </c>
+      <c r="BC74">
+        <v>32952</v>
+      </c>
+    </row>
+    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="D76">
-        <v>23305</v>
-      </c>
+    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AW76">
         <v>23977</v>
       </c>
       <c r="AX76">
         <v>23545</v>
+      </c>
+      <c r="AZ76">
+        <v>23305</v>
+      </c>
+      <c r="BB76">
+        <v>22338</v>
+      </c>
+      <c r="BC76">
+        <v>22293</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,16 @@
     <sheet name="rose" sheetId="11" r:id="rId10"/>
     <sheet name="Feuil1" sheetId="13" r:id="rId11"/>
     <sheet name="prix fm" sheetId="14" r:id="rId12"/>
+    <sheet name="exo res" sheetId="16" r:id="rId13"/>
+    <sheet name="Poid rune" sheetId="15" r:id="rId14"/>
+    <sheet name="exemple" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="1572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1758">
   <si>
     <t>Ardonite</t>
   </si>
@@ -4741,6 +4744,564 @@
   </si>
   <si>
     <t>279991</t>
+  </si>
+  <si>
+    <t>8444</t>
+  </si>
+  <si>
+    <t>12684</t>
+  </si>
+  <si>
+    <t>4613</t>
+  </si>
+  <si>
+    <t>6497</t>
+  </si>
+  <si>
+    <t>11979</t>
+  </si>
+  <si>
+    <t>17780</t>
+  </si>
+  <si>
+    <t>12593</t>
+  </si>
+  <si>
+    <t>28986</t>
+  </si>
+  <si>
+    <t>55896</t>
+  </si>
+  <si>
+    <t>98886</t>
+  </si>
+  <si>
+    <t>119947</t>
+  </si>
+  <si>
+    <t>107488</t>
+  </si>
+  <si>
+    <t>74997</t>
+  </si>
+  <si>
+    <t>35900</t>
+  </si>
+  <si>
+    <t>19857</t>
+  </si>
+  <si>
+    <t>44887</t>
+  </si>
+  <si>
+    <t>56120</t>
+  </si>
+  <si>
+    <t>38800</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>293979</t>
+  </si>
+  <si>
+    <t>343979</t>
+  </si>
+  <si>
+    <t>299891</t>
+  </si>
+  <si>
+    <t>223288</t>
+  </si>
+  <si>
+    <t>129999</t>
+  </si>
+  <si>
+    <t>44199</t>
+  </si>
+  <si>
+    <t>67872</t>
+  </si>
+  <si>
+    <t>136791</t>
+  </si>
+  <si>
+    <t>164684</t>
+  </si>
+  <si>
+    <t>104982</t>
+  </si>
+  <si>
+    <t>279879</t>
+  </si>
+  <si>
+    <t>7870</t>
+  </si>
+  <si>
+    <t>11850</t>
+  </si>
+  <si>
+    <t>3996</t>
+  </si>
+  <si>
+    <t>5668</t>
+  </si>
+  <si>
+    <t>16441</t>
+  </si>
+  <si>
+    <t>10843</t>
+  </si>
+  <si>
+    <t>33488</t>
+  </si>
+  <si>
+    <t>39861</t>
+  </si>
+  <si>
+    <t>107551</t>
+  </si>
+  <si>
+    <t>118997</t>
+  </si>
+  <si>
+    <t>95996</t>
+  </si>
+  <si>
+    <t>74221</t>
+  </si>
+  <si>
+    <t>31755</t>
+  </si>
+  <si>
+    <t>42999</t>
+  </si>
+  <si>
+    <t>11895</t>
+  </si>
+  <si>
+    <t>19993</t>
+  </si>
+  <si>
+    <t>39998</t>
+  </si>
+  <si>
+    <t>56097</t>
+  </si>
+  <si>
+    <t>38533</t>
+  </si>
+  <si>
+    <t>112857</t>
+  </si>
+  <si>
+    <t>199995</t>
+  </si>
+  <si>
+    <t>343997</t>
+  </si>
+  <si>
+    <t>433333</t>
+  </si>
+  <si>
+    <t>299890</t>
+  </si>
+  <si>
+    <t>223287</t>
+  </si>
+  <si>
+    <t>88999</t>
+  </si>
+  <si>
+    <t>42985</t>
+  </si>
+  <si>
+    <t>66997</t>
+  </si>
+  <si>
+    <t>133999</t>
+  </si>
+  <si>
+    <t>164993</t>
+  </si>
+  <si>
+    <t>105890</t>
+  </si>
+  <si>
+    <t>250000</t>
+  </si>
+  <si>
+    <t>7949</t>
+  </si>
+  <si>
+    <t>10987</t>
+  </si>
+  <si>
+    <t>3890</t>
+  </si>
+  <si>
+    <t>5790</t>
+  </si>
+  <si>
+    <t>10989</t>
+  </si>
+  <si>
+    <t>16299</t>
+  </si>
+  <si>
+    <t>10850</t>
+  </si>
+  <si>
+    <t>33266</t>
+  </si>
+  <si>
+    <t>39818</t>
+  </si>
+  <si>
+    <t>101950</t>
+  </si>
+  <si>
+    <t>98217</t>
+  </si>
+  <si>
+    <t>74186</t>
+  </si>
+  <si>
+    <t>31696</t>
+  </si>
+  <si>
+    <t>44211</t>
+  </si>
+  <si>
+    <t>12098</t>
+  </si>
+  <si>
+    <t>19498</t>
+  </si>
+  <si>
+    <t>39995</t>
+  </si>
+  <si>
+    <t>55986</t>
+  </si>
+  <si>
+    <t>38089</t>
+  </si>
+  <si>
+    <t>112854</t>
+  </si>
+  <si>
+    <t>198998</t>
+  </si>
+  <si>
+    <t>340999</t>
+  </si>
+  <si>
+    <t>439990</t>
+  </si>
+  <si>
+    <t>298997</t>
+  </si>
+  <si>
+    <t>223285</t>
+  </si>
+  <si>
+    <t>89990</t>
+  </si>
+  <si>
+    <t>141544</t>
+  </si>
+  <si>
+    <t>42896</t>
+  </si>
+  <si>
+    <t>67861</t>
+  </si>
+  <si>
+    <t>133995</t>
+  </si>
+  <si>
+    <t>187994</t>
+  </si>
+  <si>
+    <t>105894</t>
+  </si>
+  <si>
+    <t>10930</t>
+  </si>
+  <si>
+    <t>12442</t>
+  </si>
+  <si>
+    <t>7088</t>
+  </si>
+  <si>
+    <t>8699</t>
+  </si>
+  <si>
+    <t>10772</t>
+  </si>
+  <si>
+    <t>29997</t>
+  </si>
+  <si>
+    <t>106996</t>
+  </si>
+  <si>
+    <t>114989</t>
+  </si>
+  <si>
+    <t>106396</t>
+  </si>
+  <si>
+    <t>70999</t>
+  </si>
+  <si>
+    <t>31751</t>
+  </si>
+  <si>
+    <t>41999</t>
+  </si>
+  <si>
+    <t>13596</t>
+  </si>
+  <si>
+    <t>30492</t>
+  </si>
+  <si>
+    <t>39945</t>
+  </si>
+  <si>
+    <t>56985</t>
+  </si>
+  <si>
+    <t>34599</t>
+  </si>
+  <si>
+    <t>111996</t>
+  </si>
+  <si>
+    <t>340974</t>
+  </si>
+  <si>
+    <t>394893</t>
+  </si>
+  <si>
+    <t>275000</t>
+  </si>
+  <si>
+    <t>222211</t>
+  </si>
+  <si>
+    <t>99950</t>
+  </si>
+  <si>
+    <t>137554</t>
+  </si>
+  <si>
+    <t>40958</t>
+  </si>
+  <si>
+    <t>66999</t>
+  </si>
+  <si>
+    <t>132984</t>
+  </si>
+  <si>
+    <t>171221</t>
+  </si>
+  <si>
+    <t>102999</t>
+  </si>
+  <si>
+    <t>249500</t>
+  </si>
+  <si>
+    <t>25 000</t>
+  </si>
+  <si>
+    <t>80 000</t>
+  </si>
+  <si>
+    <t>94 000</t>
+  </si>
+  <si>
+    <t>90 000</t>
+  </si>
+  <si>
+    <t>50 000</t>
+  </si>
+  <si>
+    <t>26 000</t>
+  </si>
+  <si>
+    <t>78 000</t>
+  </si>
+  <si>
+    <t>Brisage rentable:</t>
+  </si>
+  <si>
+    <t>Kaiser</t>
+  </si>
+  <si>
+    <t>masque du harpirate</t>
+  </si>
+  <si>
+    <t>dague rafeuse</t>
+  </si>
+  <si>
+    <t>baguette affeulante</t>
+  </si>
+  <si>
+    <t>340 000</t>
+  </si>
+  <si>
+    <t>95 000</t>
+  </si>
+  <si>
+    <t>127 999</t>
+  </si>
+  <si>
+    <t>115 000</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>Cout: 2,6M</t>
+  </si>
+  <si>
+    <t>V: 2,5M</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t>1,7M - 1,4M</t>
+  </si>
+  <si>
+    <t>450 000</t>
+  </si>
+  <si>
+    <t>125 000</t>
+  </si>
+  <si>
+    <t>100 000</t>
+  </si>
+  <si>
+    <t>78 998</t>
+  </si>
+  <si>
+    <t>65 000</t>
+  </si>
+  <si>
+    <t>85 000</t>
+  </si>
+  <si>
+    <t>200 000</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>220 000</t>
+  </si>
+  <si>
+    <t>184 000</t>
+  </si>
+  <si>
+    <t>74 997</t>
+  </si>
+  <si>
+    <t>7994</t>
+  </si>
+  <si>
+    <t>11799</t>
+  </si>
+  <si>
+    <t>3800</t>
+  </si>
+  <si>
+    <t>6479</t>
+  </si>
+  <si>
+    <t>16499</t>
+  </si>
+  <si>
+    <t>7997</t>
+  </si>
+  <si>
+    <t>18849</t>
+  </si>
+  <si>
+    <t>39783</t>
+  </si>
+  <si>
+    <t>91105</t>
+  </si>
+  <si>
+    <t>103893</t>
+  </si>
+  <si>
+    <t>94195</t>
+  </si>
+  <si>
+    <t>27968</t>
+  </si>
+  <si>
+    <t>36983</t>
+  </si>
+  <si>
+    <t>10444</t>
+  </si>
+  <si>
+    <t>39900</t>
+  </si>
+  <si>
+    <t>55899</t>
+  </si>
+  <si>
+    <t>29102</t>
+  </si>
+  <si>
+    <t>64997</t>
+  </si>
+  <si>
+    <t>129769</t>
+  </si>
+  <si>
+    <t>273996</t>
+  </si>
+  <si>
+    <t>349964</t>
+  </si>
+  <si>
+    <t>274996</t>
+  </si>
+  <si>
+    <t>207977</t>
+  </si>
+  <si>
+    <t>78981</t>
+  </si>
+  <si>
+    <t>123985</t>
+  </si>
+  <si>
+    <t>69787</t>
+  </si>
+  <si>
+    <t>132790</t>
+  </si>
+  <si>
+    <t>166553</t>
+  </si>
+  <si>
+    <t>72540</t>
+  </si>
+  <si>
+    <t>199977</t>
   </si>
 </sst>
 </file>
@@ -6653,6 +7214,1385 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143214</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Image 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="4381500"/>
+          <a:ext cx="2429214" cy="3534269"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57477</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76663</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Image 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="952500"/>
+          <a:ext cx="2343477" cy="3315163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609898</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>114742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Image 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="4572000"/>
+          <a:ext cx="2133898" cy="3162742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>305162</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>48111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858625" y="952500"/>
+          <a:ext cx="2591162" cy="3477111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28898</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152953</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Image 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858625" y="4762500"/>
+          <a:ext cx="2314898" cy="3962953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>143214</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14906625" y="952500"/>
+          <a:ext cx="2429214" cy="3010320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>705055</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Image 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14906625" y="4381500"/>
+          <a:ext cx="1467055" cy="2648320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209852</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38558</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="6477000"/>
+          <a:ext cx="2162477" cy="3277058"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409845</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="6477000"/>
+          <a:ext cx="1933845" cy="1143160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>543214</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>48190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="8001000"/>
+          <a:ext cx="2067214" cy="4048690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619424</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>76796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="8191500"/>
+          <a:ext cx="2143424" cy="4267796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9846</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>48004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14906625" y="7429500"/>
+          <a:ext cx="2295846" cy="2715004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>447954</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>19505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11830050" y="9144000"/>
+          <a:ext cx="2000529" cy="3258005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>181273</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="10096500"/>
+          <a:ext cx="2133898" cy="1276528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>362213</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>47818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14906625" y="10477500"/>
+          <a:ext cx="1886213" cy="1381318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466956</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>86003</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="11811000"/>
+          <a:ext cx="1657581" cy="1991003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209899</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>124321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="12382500"/>
+          <a:ext cx="2495899" cy="3553321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>267056</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="8001000"/>
+          <a:ext cx="2553056" cy="3829585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276583</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>19611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Image 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="12192000"/>
+          <a:ext cx="2562583" cy="4020111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>343161</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>38265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858625" y="12763500"/>
+          <a:ext cx="1867161" cy="1181265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266950</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>19212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Image 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858625" y="14287500"/>
+          <a:ext cx="1790950" cy="1162212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>400319</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>57318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858625" y="15811500"/>
+          <a:ext cx="1924319" cy="1200318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>333634</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>123975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11858625" y="17335500"/>
+          <a:ext cx="1857634" cy="1076475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638528</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>171979</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6162675" y="12763500"/>
+          <a:ext cx="2524478" cy="3791479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228951</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>181506</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14906625" y="12192000"/>
+          <a:ext cx="2514951" cy="3801006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>362320</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>114821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14906625" y="16192500"/>
+          <a:ext cx="2648320" cy="3734321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152741</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="16573500"/>
+          <a:ext cx="2438741" cy="2114845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467109</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>133821</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3476625" y="16192500"/>
+          <a:ext cx="2753109" cy="3372321"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9846</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="571500"/>
+          <a:ext cx="2295846" cy="3115110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>751302</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="190500"/>
+          <a:ext cx="6085302" cy="10058400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>286428</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="381000"/>
+          <a:ext cx="4858428" cy="5963483"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7897,7 +9837,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7949,16 +9889,16 @@
         <v>183</v>
       </c>
       <c r="C3" s="85">
-        <v>8000</v>
+        <v>6338</v>
       </c>
       <c r="D3" s="2">
         <v>8979</v>
       </c>
       <c r="E3" s="2">
-        <v>17499</v>
+        <v>15986</v>
       </c>
       <c r="F3" s="2">
-        <v>49949</v>
+        <v>39980</v>
       </c>
       <c r="G3" s="2">
         <v>61500</v>
@@ -7983,35 +9923,35 @@
       <c r="C4" s="7"/>
       <c r="D4" s="7">
         <f>D3-C3</f>
-        <v>979</v>
+        <v>2641</v>
       </c>
       <c r="E4" s="7">
         <f>E3-C3*2</f>
-        <v>1499</v>
+        <v>3310</v>
       </c>
       <c r="F4" s="7">
         <f>F3-C3*5-(C3*5*0.01)</f>
-        <v>9549</v>
+        <v>7973.1</v>
       </c>
       <c r="G4" s="7">
         <f>G3-5*C3</f>
-        <v>21500</v>
+        <v>29810</v>
       </c>
       <c r="H4" s="7">
         <f>H3-C3*10</f>
-        <v>119998</v>
+        <v>136618</v>
       </c>
       <c r="I4" s="7">
         <f>I3-C3/10</f>
-        <v>2489</v>
+        <v>2655.2</v>
       </c>
       <c r="J4" s="130">
         <f>J3-C3</f>
-        <v>24992</v>
+        <v>26654</v>
       </c>
       <c r="K4" s="133">
         <f>K3-(C3/10*25)</f>
-        <v>29997</v>
+        <v>34152</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
@@ -8019,31 +9959,31 @@
       <c r="C5" s="47"/>
       <c r="D5" s="84">
         <f t="shared" ref="D5:I5" si="0">(D4/D3)</f>
-        <v>0.10903218621227308</v>
+        <v>0.29413074952667334</v>
       </c>
       <c r="E5" s="84">
         <f t="shared" si="0"/>
-        <v>8.5662037830733187E-2</v>
+        <v>0.20705617415238334</v>
       </c>
       <c r="F5" s="84">
         <f t="shared" si="0"/>
-        <v>0.19117499849846845</v>
+        <v>0.19942721360680341</v>
       </c>
       <c r="G5" s="84">
         <f t="shared" si="0"/>
-        <v>0.34959349593495936</v>
+        <v>0.48471544715447157</v>
       </c>
       <c r="H5" s="84">
         <f t="shared" si="0"/>
-        <v>0.59999599995999964</v>
+        <v>0.68309683096830964</v>
       </c>
       <c r="I5" s="84">
         <f t="shared" si="0"/>
-        <v>0.75676497415627852</v>
+        <v>0.80729705077531155</v>
       </c>
       <c r="J5" s="84">
         <f>(J4/J3)</f>
-        <v>0.75751697381183314</v>
+        <v>0.80789282250242478</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -8052,12 +9992,12 @@
       </c>
       <c r="C6" s="47">
         <f>C3/100</f>
-        <v>80</v>
+        <v>63.38</v>
       </c>
       <c r="D6" s="47"/>
       <c r="E6" s="47">
         <f>E3/200</f>
-        <v>87.495000000000005</v>
+        <v>79.930000000000007</v>
       </c>
       <c r="F6" s="47"/>
       <c r="G6" s="47"/>
@@ -8106,10 +10046,10 @@
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="86">
-        <v>26287</v>
+        <v>25664</v>
       </c>
       <c r="D9" s="18">
-        <v>277880</v>
+        <v>277695</v>
       </c>
       <c r="E9" s="18">
         <v>1379988</v>
@@ -8133,27 +10073,27 @@
       <c r="C10" s="6"/>
       <c r="D10" s="7">
         <f>D9-10*C9-(10*C9*0.01)</f>
-        <v>12381.3</v>
+        <v>18488.599999999999</v>
       </c>
       <c r="E10" s="7">
         <f>E9-50*C9</f>
-        <v>65638</v>
+        <v>96788</v>
       </c>
       <c r="F10" s="7">
         <f>F9-50*C9</f>
-        <v>-114353</v>
+        <v>-83203</v>
       </c>
       <c r="G10" s="7">
         <f>G9-50*C9</f>
-        <v>-214352</v>
+        <v>-183202</v>
       </c>
       <c r="H10" s="7">
         <f>H9-50*C9</f>
-        <v>35650</v>
+        <v>66800</v>
       </c>
       <c r="I10" s="4">
         <f>I9-200*C9</f>
-        <v>1242599</v>
+        <v>1367199</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -8257,7 +10197,7 @@
       </c>
       <c r="M20" s="3">
         <f>L20*F3</f>
-        <v>1948011</v>
+        <v>1559220</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8265,7 +10205,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="135">
         <f>M20-M19</f>
-        <v>182031</v>
+        <v>-206760</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -8484,10 +10424,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H26"/>
+  <dimension ref="B2:T91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8495,7 +10435,7 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1023</v>
       </c>
@@ -8506,46 +10446,257 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="136" t="s">
         <v>1540</v>
       </c>
       <c r="E4" s="136" t="s">
         <v>1441</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="136" t="s">
         <v>1505</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L5" s="136">
+        <v>80000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1712</v>
+      </c>
+      <c r="P5" s="136" t="s">
+        <v>1697</v>
+      </c>
+      <c r="T5" s="136">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E12" s="136" t="s">
         <v>1507</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="H14" s="136" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="136" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H23" s="136" t="s">
+        <v>1697</v>
+      </c>
+      <c r="T23" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L24" s="136" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E25" s="136">
         <v>7500</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="P25" s="136" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="136" t="s">
         <v>1440</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="136" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E34" s="136" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T39" s="136" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>1697</v>
+      </c>
+      <c r="L42" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P48" s="136" t="s">
+        <v>1709</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B53" s="136" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="T55" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B62" s="136" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L64" t="s">
+        <v>1717</v>
+      </c>
+      <c r="T64" s="136" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>1722</v>
+      </c>
+      <c r="P67" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1704</v>
+      </c>
+      <c r="P75" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="83" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="P83" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="85" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>1727</v>
+      </c>
+      <c r="T85" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="87" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="L87" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="91" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="P91" t="s">
+        <v>1721</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14554,7 +16705,7 @@
   <dimension ref="B1:P39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14624,54 +16775,54 @@
       </c>
       <c r="C4" s="12" t="str">
         <f>Raw!D2</f>
-        <v>8980</v>
+        <v>7994</v>
       </c>
       <c r="E4" s="75" t="s">
         <v>164</v>
       </c>
       <c r="F4" s="71" t="str">
         <f>C4</f>
-        <v>8980</v>
+        <v>7994</v>
       </c>
       <c r="G4" s="72">
         <f>F4*3</f>
-        <v>26940</v>
+        <v>23982</v>
       </c>
       <c r="H4" s="72">
         <f>G4*3</f>
-        <v>80820</v>
+        <v>71946</v>
       </c>
       <c r="I4" s="93" t="str">
         <f t="shared" ref="I4:I12" si="0">C18</f>
-        <v>32875</v>
+        <v>27968</v>
       </c>
       <c r="J4" s="101" t="str">
         <f>C32</f>
-        <v>89988</v>
+        <v>78981</v>
       </c>
       <c r="K4" s="20">
         <f>I4-G4-(I4*0.01)</f>
-        <v>5606.25</v>
+        <v>3706.32</v>
       </c>
       <c r="L4" s="103">
         <f t="shared" ref="L4:L14" si="1">1-(G4/I4)</f>
-        <v>0.18053231939163494</v>
+        <v>0.14252002288329524</v>
       </c>
       <c r="M4" s="105">
         <f>K4/G4</f>
-        <v>0.20810133630289532</v>
+        <v>0.15454590943207405</v>
       </c>
       <c r="N4" s="20">
         <f>J4-H4-(J4*0.01)</f>
-        <v>8268.1200000000008</v>
+        <v>6245.19</v>
       </c>
       <c r="O4" s="103">
         <f>N4/H4</f>
-        <v>0.10230289532293987</v>
+        <v>8.6803852889667243E-2</v>
       </c>
       <c r="P4" s="69">
         <f>1-(H4/J4)</f>
-        <v>0.10188025070009332</v>
+        <v>8.907205530444029E-2</v>
       </c>
     </row>
     <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14680,54 +16831,54 @@
       </c>
       <c r="C5" s="3" t="str">
         <f>Raw!D4</f>
-        <v>13688</v>
+        <v>11799</v>
       </c>
       <c r="E5" s="76" t="s">
         <v>165</v>
       </c>
       <c r="F5" s="73" t="str">
         <f>C5</f>
-        <v>13688</v>
+        <v>11799</v>
       </c>
       <c r="G5" s="74">
         <f t="shared" ref="G5:H16" si="2">F5*3</f>
-        <v>41064</v>
+        <v>35397</v>
       </c>
       <c r="H5" s="74">
         <f t="shared" si="2"/>
-        <v>123192</v>
+        <v>106191</v>
       </c>
       <c r="I5" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>44849</v>
+        <v>36983</v>
       </c>
       <c r="J5" s="102" t="str">
         <f t="shared" ref="J5:J11" si="3">C33</f>
-        <v>149994</v>
+        <v>123985</v>
       </c>
       <c r="K5" s="21">
         <f t="shared" ref="K5:K16" si="4">I5-G5-(I5*0.01)</f>
-        <v>3336.51</v>
+        <v>1216.17</v>
       </c>
       <c r="L5" s="104">
         <f t="shared" si="1"/>
-        <v>8.4394300876273753E-2</v>
+        <v>4.2884568585566329E-2</v>
       </c>
       <c r="M5" s="106">
         <f t="shared" ref="M5:M7" si="5">K5/G5</f>
-        <v>8.1251461133839867E-2</v>
+        <v>3.4357996440376307E-2</v>
       </c>
       <c r="N5" s="21">
         <f t="shared" ref="N5:N11" si="6">J5-H5-(J5*0.01)</f>
-        <v>25302.06</v>
+        <v>16554.150000000001</v>
       </c>
       <c r="O5" s="103">
         <f t="shared" ref="O5:O11" si="7">N5/H5</f>
-        <v>0.20538720046756284</v>
+        <v>0.15589032968895669</v>
       </c>
       <c r="P5" s="70">
         <f t="shared" ref="P5:P11" si="8">1-(H5/J5)</f>
-        <v>0.17868714748589942</v>
+        <v>0.14351736097108525</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14736,54 +16887,54 @@
       </c>
       <c r="C6" s="3" t="str">
         <f>Raw!D6</f>
-        <v>4399</v>
+        <v>3800</v>
       </c>
       <c r="E6" s="76" t="s">
         <v>166</v>
       </c>
       <c r="F6" s="73" t="str">
         <f t="shared" ref="F6:F16" si="9">C6</f>
-        <v>4399</v>
+        <v>3800</v>
       </c>
       <c r="G6" s="74">
         <f t="shared" si="2"/>
-        <v>13197</v>
+        <v>11400</v>
       </c>
       <c r="H6" s="74">
         <f t="shared" si="2"/>
-        <v>39591</v>
+        <v>34200</v>
       </c>
       <c r="I6" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>16697</v>
+        <v>10444</v>
       </c>
       <c r="J6" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>44596</v>
+        <v>29550</v>
       </c>
       <c r="K6" s="21">
         <f t="shared" si="4"/>
-        <v>3333.03</v>
+        <v>-1060.44</v>
       </c>
       <c r="L6" s="104">
         <f t="shared" si="1"/>
-        <v>0.20961849434030067</v>
+        <v>-9.1535810034469645E-2</v>
       </c>
       <c r="M6" s="106">
         <f t="shared" si="5"/>
-        <v>0.25255967265287566</v>
+        <v>-9.3021052631578949E-2</v>
       </c>
       <c r="N6" s="21">
         <f t="shared" si="6"/>
-        <v>4559.04</v>
+        <v>-4945.5</v>
       </c>
       <c r="O6" s="103">
         <f t="shared" si="7"/>
-        <v>0.11515344396453739</v>
+        <v>-0.14460526315789474</v>
       </c>
       <c r="P6" s="70">
         <f t="shared" si="8"/>
-        <v>0.11222979639429542</v>
+        <v>-0.15736040609137047</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14792,54 +16943,54 @@
       </c>
       <c r="C7" s="3" t="str">
         <f>Raw!D8</f>
-        <v>5994</v>
+        <v>6479</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>167</v>
       </c>
       <c r="F7" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>5994</v>
+        <v>6479</v>
       </c>
       <c r="G7" s="74">
         <f t="shared" si="2"/>
-        <v>17982</v>
+        <v>19437</v>
       </c>
       <c r="H7" s="74">
         <f t="shared" si="2"/>
-        <v>53946</v>
+        <v>58311</v>
       </c>
       <c r="I7" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>19863</v>
+        <v>19969</v>
       </c>
       <c r="J7" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>69899</v>
+        <v>69787</v>
       </c>
       <c r="K7" s="21">
         <f t="shared" si="4"/>
-        <v>1682.37</v>
+        <v>332.31</v>
       </c>
       <c r="L7" s="104">
         <f t="shared" si="1"/>
-        <v>9.4698685999093812E-2</v>
+        <v>2.6641294005708804E-2</v>
       </c>
       <c r="M7" s="106">
         <f t="shared" si="5"/>
-        <v>9.3558558558558547E-2</v>
+        <v>1.7096774193548388E-2</v>
       </c>
       <c r="N7" s="21">
         <f t="shared" si="6"/>
-        <v>15254.01</v>
+        <v>10778.13</v>
       </c>
       <c r="O7" s="103">
         <f t="shared" si="7"/>
-        <v>0.28276443109776445</v>
+        <v>0.18483870967741933</v>
       </c>
       <c r="P7" s="70">
         <f t="shared" si="8"/>
-        <v>0.22822930227900251</v>
+        <v>0.16444323441328612</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14848,54 +16999,54 @@
       </c>
       <c r="C8" s="3" t="str">
         <f>Raw!D10</f>
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>168</v>
       </c>
       <c r="F8" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>10000</v>
+        <v>11500</v>
       </c>
       <c r="G8" s="74">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>34500</v>
       </c>
       <c r="H8" s="74">
         <f t="shared" si="2"/>
-        <v>90000</v>
+        <v>103500</v>
       </c>
       <c r="I8" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>44995</v>
+        <v>39900</v>
       </c>
       <c r="J8" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>136899</v>
+        <v>132790</v>
       </c>
       <c r="K8" s="21">
         <f t="shared" si="4"/>
-        <v>14545.05</v>
+        <v>5001</v>
       </c>
       <c r="L8" s="104">
         <f t="shared" si="1"/>
-        <v>0.333259251027892</v>
+        <v>0.13533834586466165</v>
       </c>
       <c r="M8" s="106">
         <f>K8/G8</f>
-        <v>0.48483499999999996</v>
+        <v>0.14495652173913043</v>
       </c>
       <c r="N8" s="21">
         <f t="shared" si="6"/>
-        <v>45530.01</v>
+        <v>27962.1</v>
       </c>
       <c r="O8" s="103">
         <f t="shared" si="7"/>
-        <v>0.50588900000000003</v>
+        <v>0.27016521739130434</v>
       </c>
       <c r="P8" s="70">
         <f t="shared" si="8"/>
-        <v>0.34258102688843595</v>
+        <v>0.22057383839144518</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14904,54 +17055,54 @@
       </c>
       <c r="C9" s="3" t="str">
         <f>Raw!D12</f>
-        <v>18493</v>
+        <v>16499</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>169</v>
       </c>
       <c r="F9" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>18493</v>
+        <v>16499</v>
       </c>
       <c r="G9" s="74">
         <f t="shared" si="2"/>
-        <v>55479</v>
+        <v>49497</v>
       </c>
       <c r="H9" s="74">
         <f t="shared" si="2"/>
-        <v>166437</v>
+        <v>148491</v>
       </c>
       <c r="I9" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>54500</v>
+        <v>55899</v>
       </c>
       <c r="J9" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>169111</v>
+        <v>166553</v>
       </c>
       <c r="K9" s="21">
         <f t="shared" si="4"/>
-        <v>-1524</v>
+        <v>5843.01</v>
       </c>
       <c r="L9" s="104">
         <f t="shared" si="1"/>
-        <v>-1.7963302752293631E-2</v>
+        <v>0.11452798797831809</v>
       </c>
       <c r="M9" s="106">
         <f>K9/G9</f>
-        <v>-2.7469853458065213E-2</v>
+        <v>0.11804776047033154</v>
       </c>
       <c r="N9" s="21">
         <f t="shared" si="6"/>
-        <v>982.88999999999987</v>
+        <v>16396.47</v>
       </c>
       <c r="O9" s="103">
         <f t="shared" si="7"/>
-        <v>5.9054777483372083E-3</v>
+        <v>0.11042063155342749</v>
       </c>
       <c r="P9" s="70">
         <f t="shared" si="8"/>
-        <v>1.5812099745137864E-2</v>
+        <v>0.10844596014481878</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14960,54 +17111,54 @@
       </c>
       <c r="C10" s="3" t="str">
         <f>Raw!D14</f>
-        <v>11993</v>
+        <v>7997</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>170</v>
       </c>
       <c r="F10" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>11993</v>
+        <v>7997</v>
       </c>
       <c r="G10" s="74">
         <f t="shared" si="2"/>
-        <v>35979</v>
+        <v>23991</v>
       </c>
       <c r="H10" s="74">
         <f t="shared" si="2"/>
-        <v>107937</v>
+        <v>71973</v>
       </c>
       <c r="I10" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>40989</v>
+        <v>29102</v>
       </c>
       <c r="J10" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>103995</v>
+        <v>72540</v>
       </c>
       <c r="K10" s="21">
         <f t="shared" si="4"/>
-        <v>4600.1099999999997</v>
+        <v>4819.9799999999996</v>
       </c>
       <c r="L10" s="104">
         <f t="shared" si="1"/>
-        <v>0.12222791480641149</v>
+        <v>0.17562366847639332</v>
       </c>
       <c r="M10" s="106">
         <f t="shared" ref="M10:M16" si="10">K10/G10</f>
-        <v>0.1278554156591345</v>
+        <v>0.20090784044016505</v>
       </c>
       <c r="N10" s="21">
         <f t="shared" si="6"/>
-        <v>-4981.95</v>
+        <v>-158.39999999999998</v>
       </c>
       <c r="O10" s="103">
         <f t="shared" si="7"/>
-        <v>-4.6156091053114315E-2</v>
+        <v>-2.2008253094910587E-3</v>
       </c>
       <c r="P10" s="70">
         <f t="shared" si="8"/>
-        <v>-3.7905668541756921E-2</v>
+        <v>7.8163771712158603E-3</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15016,54 +17167,54 @@
       </c>
       <c r="C11" s="3" t="str">
         <f>Raw!D16</f>
-        <v>26995</v>
+        <v>18849</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>171</v>
       </c>
       <c r="F11" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>26995</v>
+        <v>18849</v>
       </c>
       <c r="G11" s="74">
         <f t="shared" si="2"/>
-        <v>80985</v>
+        <v>56547</v>
       </c>
       <c r="H11" s="74">
         <f t="shared" si="2"/>
-        <v>242955</v>
+        <v>169641</v>
       </c>
       <c r="I11" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>94984</v>
+        <v>64997</v>
       </c>
       <c r="J11" s="102" t="str">
         <f t="shared" si="3"/>
-        <v>279991</v>
+        <v>199977</v>
       </c>
       <c r="K11" s="21">
         <f t="shared" si="4"/>
-        <v>13049.16</v>
+        <v>7800.03</v>
       </c>
       <c r="L11" s="104">
         <f t="shared" si="1"/>
-        <v>0.14738271708919393</v>
+        <v>0.13000600027693587</v>
       </c>
       <c r="M11" s="106">
         <f t="shared" si="10"/>
-        <v>0.16113057973698833</v>
+        <v>0.13793888269934745</v>
       </c>
       <c r="N11" s="22">
         <f t="shared" si="6"/>
-        <v>34236.089999999997</v>
+        <v>28336.23</v>
       </c>
       <c r="O11" s="103">
         <f t="shared" si="7"/>
-        <v>0.14091535469531394</v>
+        <v>0.16703644755689956</v>
       </c>
       <c r="P11" s="70">
         <f t="shared" si="8"/>
-        <v>0.13227568028972359</v>
+        <v>0.15169744520619877</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -15072,36 +17223,36 @@
       </c>
       <c r="C12" s="3" t="str">
         <f>Raw!D18</f>
-        <v>43986</v>
+        <v>39783</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>199</v>
       </c>
       <c r="F12" s="73" t="str">
         <f>C12</f>
-        <v>43986</v>
+        <v>39783</v>
       </c>
       <c r="G12" s="74">
         <f t="shared" si="2"/>
-        <v>131958</v>
+        <v>119349</v>
       </c>
       <c r="H12" s="74"/>
       <c r="I12" s="91" t="str">
         <f t="shared" si="0"/>
-        <v>247982</v>
+        <v>129769</v>
       </c>
       <c r="J12" s="102"/>
       <c r="K12" s="21">
         <f t="shared" si="4"/>
-        <v>113544.18</v>
+        <v>9122.31</v>
       </c>
       <c r="L12" s="104">
         <f t="shared" si="1"/>
-        <v>0.46787266817752904</v>
+        <v>8.0296526905501264E-2</v>
       </c>
       <c r="M12" s="92">
         <f t="shared" si="10"/>
-        <v>0.86045696357932067</v>
+        <v>7.6433903928813815E-2</v>
       </c>
       <c r="N12" s="18"/>
       <c r="O12" s="100"/>
@@ -15113,36 +17264,36 @@
       </c>
       <c r="C13" s="3" t="str">
         <f>Raw!D20</f>
-        <v>99794</v>
+        <v>91105</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>172</v>
       </c>
       <c r="F13" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>99794</v>
+        <v>91105</v>
       </c>
       <c r="G13" s="74">
         <f t="shared" si="2"/>
-        <v>299382</v>
+        <v>273315</v>
       </c>
       <c r="H13" s="74"/>
       <c r="I13" s="91" t="str">
         <f t="shared" ref="I13:I16" si="11">C27</f>
-        <v>293981</v>
+        <v>273996</v>
       </c>
       <c r="J13" s="102"/>
       <c r="K13" s="21">
         <f t="shared" si="4"/>
-        <v>-8340.81</v>
+        <v>-2058.96</v>
       </c>
       <c r="L13" s="104">
         <f t="shared" si="1"/>
-        <v>-1.8371935601280365E-2</v>
+        <v>2.4854377436166475E-3</v>
       </c>
       <c r="M13" s="92">
         <f t="shared" si="10"/>
-        <v>-2.7860091789085516E-2</v>
+        <v>-7.533285769167444E-3</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="100"/>
@@ -15154,36 +17305,36 @@
       </c>
       <c r="C14" s="3" t="str">
         <f>Raw!D22</f>
-        <v>99890</v>
+        <v>103893</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F14" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>99890</v>
+        <v>103893</v>
       </c>
       <c r="G14" s="74">
         <f t="shared" si="2"/>
-        <v>299670</v>
+        <v>311679</v>
       </c>
       <c r="H14" s="74"/>
       <c r="I14" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>384993</v>
+        <v>349964</v>
       </c>
       <c r="J14" s="102"/>
       <c r="K14" s="21">
         <f t="shared" si="4"/>
-        <v>81473.070000000007</v>
+        <v>34785.360000000001</v>
       </c>
       <c r="L14" s="104">
         <f t="shared" si="1"/>
-        <v>0.22162221131293292</v>
+        <v>0.10939696654513031</v>
       </c>
       <c r="M14" s="92">
         <f t="shared" si="10"/>
-        <v>0.27187596355991595</v>
+        <v>0.11160636424013168</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="100"/>
@@ -15195,36 +17346,36 @@
       </c>
       <c r="C15" s="3" t="str">
         <f>Raw!D24</f>
-        <v>107994</v>
+        <v>94195</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F15" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>107994</v>
+        <v>94195</v>
       </c>
       <c r="G15" s="74">
         <f t="shared" si="2"/>
-        <v>323982</v>
+        <v>282585</v>
       </c>
       <c r="H15" s="74"/>
       <c r="I15" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>299993</v>
+        <v>274996</v>
       </c>
       <c r="J15" s="102"/>
       <c r="K15" s="21">
         <f t="shared" si="4"/>
-        <v>-26988.93</v>
+        <v>-10338.959999999999</v>
       </c>
       <c r="L15" s="104">
         <f>1-(G15/I15)</f>
-        <v>-7.9965199187981062E-2</v>
+        <v>-2.7596765043855109E-2</v>
       </c>
       <c r="M15" s="92">
         <f t="shared" si="10"/>
-        <v>-8.3303794655258626E-2</v>
+        <v>-3.6587079993630235E-2</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="100"/>
@@ -15236,36 +17387,36 @@
       </c>
       <c r="C16" s="4" t="str">
         <f>Raw!D26</f>
-        <v>94791</v>
+        <v>54994</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F16" s="73" t="str">
         <f t="shared" si="9"/>
-        <v>94791</v>
+        <v>54994</v>
       </c>
       <c r="G16" s="74">
         <f t="shared" si="2"/>
-        <v>284373</v>
+        <v>164982</v>
       </c>
       <c r="H16" s="74"/>
       <c r="I16" s="91" t="str">
         <f t="shared" si="11"/>
-        <v>220000</v>
+        <v>207977</v>
       </c>
       <c r="J16" s="102"/>
       <c r="K16" s="22">
         <f t="shared" si="4"/>
-        <v>-66573</v>
+        <v>40915.230000000003</v>
       </c>
       <c r="L16" s="104">
         <f>1-(G16/I16)</f>
-        <v>-0.29260454545454539</v>
+        <v>0.20672959029123417</v>
       </c>
       <c r="M16" s="92">
         <f t="shared" si="10"/>
-        <v>-0.23410450359211318</v>
+        <v>0.24799814525220934</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="100"/>
@@ -15278,27 +17429,27 @@
       </c>
       <c r="F17" s="73" t="str">
         <f>C13</f>
-        <v>99794</v>
+        <v>91105</v>
       </c>
       <c r="G17" s="74">
         <f>F17*3/10</f>
-        <v>29938.2</v>
+        <v>27331.5</v>
       </c>
       <c r="I17" s="91">
         <f>Raw!D70</f>
-        <v>0</v>
+        <v>29979</v>
       </c>
       <c r="K17" s="21">
         <f>(I17-G17-(I17*0.01))*10</f>
-        <v>-299382</v>
-      </c>
-      <c r="L17" s="104" t="e">
+        <v>23477.1</v>
+      </c>
+      <c r="L17" s="104">
         <f>1-(G17/I17)</f>
-        <v>#DIV/0!</v>
+        <v>8.8311818272790998E-2</v>
       </c>
       <c r="M17" s="104">
         <f>(K17/G17)/10</f>
-        <v>-1</v>
+        <v>8.5897590692058615E-2</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -15307,34 +17458,34 @@
       </c>
       <c r="C18" s="20" t="str">
         <f>Raw!D28</f>
-        <v>32875</v>
+        <v>27968</v>
       </c>
       <c r="E18" s="76" t="s">
         <v>173</v>
       </c>
       <c r="F18" s="73" t="str">
         <f t="shared" ref="F18:F20" si="12">C14</f>
-        <v>99890</v>
+        <v>103893</v>
       </c>
       <c r="G18" s="74">
         <f t="shared" ref="G18:G20" si="13">F18*3/10</f>
-        <v>29967</v>
+        <v>31167.9</v>
       </c>
       <c r="I18" s="91">
         <f>Raw!D72</f>
-        <v>0</v>
+        <v>34870</v>
       </c>
       <c r="K18" s="21">
         <f t="shared" ref="K18:K20" si="14">(I18-G18-(I18*0.01))*10</f>
-        <v>-299670</v>
-      </c>
-      <c r="L18" s="104" t="e">
+        <v>33533.999999999985</v>
+      </c>
+      <c r="L18" s="104">
         <f>1-(G18/I18)</f>
-        <v>#DIV/0!</v>
+        <v>0.10616862632635504</v>
       </c>
       <c r="M18" s="104">
         <f t="shared" ref="M18:M20" si="15">(K18/G18)/10</f>
-        <v>-1</v>
+        <v>0.10759146429499575</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -15343,34 +17494,34 @@
       </c>
       <c r="C19" s="21" t="str">
         <f>Raw!D30</f>
-        <v>44849</v>
+        <v>36983</v>
       </c>
       <c r="E19" s="76" t="s">
         <v>174</v>
       </c>
       <c r="F19" s="73" t="str">
         <f t="shared" si="12"/>
-        <v>107994</v>
+        <v>94195</v>
       </c>
       <c r="G19" s="74">
         <f t="shared" si="13"/>
-        <v>32398.2</v>
+        <v>28258.5</v>
       </c>
       <c r="I19" s="91">
         <f>Raw!D74</f>
-        <v>0</v>
+        <v>29389</v>
       </c>
       <c r="K19" s="21">
         <f t="shared" si="14"/>
-        <v>-323982</v>
-      </c>
-      <c r="L19" s="104" t="e">
+        <v>8366.1</v>
+      </c>
+      <c r="L19" s="104">
         <f t="shared" ref="L19:L20" si="16">1-(G19/I19)</f>
-        <v>#DIV/0!</v>
+        <v>3.8466773282520683E-2</v>
       </c>
       <c r="M19" s="104">
         <f t="shared" si="15"/>
-        <v>-1</v>
+        <v>2.9605605393067575E-2</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
@@ -15379,34 +17530,34 @@
       </c>
       <c r="C20" s="21" t="str">
         <f>Raw!D32</f>
-        <v>16697</v>
+        <v>10444</v>
       </c>
       <c r="E20" s="76" t="s">
         <v>175</v>
       </c>
       <c r="F20" s="73" t="str">
         <f t="shared" si="12"/>
-        <v>94791</v>
+        <v>54994</v>
       </c>
       <c r="G20" s="74">
         <f t="shared" si="13"/>
-        <v>28437.3</v>
+        <v>16498.2</v>
       </c>
       <c r="I20" s="91">
         <f>Raw!D76</f>
-        <v>0</v>
+        <v>18977</v>
       </c>
       <c r="K20" s="21">
         <f t="shared" si="14"/>
-        <v>-284373</v>
-      </c>
-      <c r="L20" s="104" t="e">
+        <v>22890.299999999992</v>
+      </c>
+      <c r="L20" s="104">
         <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
+        <v>0.13062127838962956</v>
       </c>
       <c r="M20" s="104">
         <f t="shared" si="15"/>
-        <v>-1</v>
+        <v>0.13874422664290645</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
@@ -15415,7 +17566,7 @@
       </c>
       <c r="C21" s="21" t="str">
         <f>Raw!D34</f>
-        <v>19863</v>
+        <v>19969</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
@@ -15424,7 +17575,7 @@
       </c>
       <c r="C22" s="21" t="str">
         <f>Raw!D36</f>
-        <v>44995</v>
+        <v>39900</v>
       </c>
       <c r="E22" t="s">
         <v>797</v>
@@ -15442,7 +17593,7 @@
       </c>
       <c r="C23" s="21" t="str">
         <f>Raw!D38</f>
-        <v>54500</v>
+        <v>55899</v>
       </c>
       <c r="E23" t="s">
         <v>10</v>
@@ -15460,7 +17611,7 @@
       </c>
       <c r="C24" s="21" t="str">
         <f>Raw!D40</f>
-        <v>40989</v>
+        <v>29102</v>
       </c>
       <c r="F24">
         <f>SUM(F22:F23)</f>
@@ -15476,7 +17627,7 @@
       </c>
       <c r="C25" s="21" t="str">
         <f>Raw!D42</f>
-        <v>94984</v>
+        <v>64997</v>
       </c>
       <c r="E25" t="s">
         <v>797</v>
@@ -15491,7 +17642,7 @@
       </c>
       <c r="C26" s="21" t="str">
         <f>Raw!D44</f>
-        <v>247982</v>
+        <v>129769</v>
       </c>
       <c r="E26" t="s">
         <v>10</v>
@@ -15507,7 +17658,7 @@
       </c>
       <c r="C27" s="21" t="str">
         <f>Raw!D46</f>
-        <v>293981</v>
+        <v>273996</v>
       </c>
       <c r="F27">
         <f>SUM(F25:F26)</f>
@@ -15520,7 +17671,7 @@
       </c>
       <c r="C28" s="21" t="str">
         <f>Raw!D48</f>
-        <v>384993</v>
+        <v>349964</v>
       </c>
       <c r="E28" t="s">
         <v>798</v>
@@ -15536,7 +17687,7 @@
       </c>
       <c r="C29" s="21" t="str">
         <f>Raw!D50</f>
-        <v>299993</v>
+        <v>274996</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15545,7 +17696,7 @@
       </c>
       <c r="C30" s="22" t="str">
         <f>Raw!D52</f>
-        <v>220000</v>
+        <v>207977</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15557,7 +17708,7 @@
       </c>
       <c r="C32" s="20" t="str">
         <f>Raw!D54</f>
-        <v>89988</v>
+        <v>78981</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
@@ -15566,7 +17717,7 @@
       </c>
       <c r="C33" s="21" t="str">
         <f>Raw!D56</f>
-        <v>149994</v>
+        <v>123985</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
@@ -15575,7 +17726,7 @@
       </c>
       <c r="C34" s="21" t="str">
         <f>Raw!D58</f>
-        <v>44596</v>
+        <v>29550</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
@@ -15584,7 +17735,7 @@
       </c>
       <c r="C35" s="21" t="str">
         <f>Raw!D60</f>
-        <v>69899</v>
+        <v>69787</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
@@ -15593,7 +17744,7 @@
       </c>
       <c r="C36" s="21" t="str">
         <f>Raw!D62</f>
-        <v>136899</v>
+        <v>132790</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
@@ -15602,7 +17753,7 @@
       </c>
       <c r="C37" s="21" t="str">
         <f>Raw!D64</f>
-        <v>169111</v>
+        <v>166553</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
@@ -15611,7 +17762,7 @@
       </c>
       <c r="C38" s="21" t="str">
         <f>Raw!D66</f>
-        <v>103995</v>
+        <v>72540</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -15620,7 +17771,7 @@
       </c>
       <c r="C39" s="22" t="str">
         <f>Raw!D68</f>
-        <v>279991</v>
+        <v>199977</v>
       </c>
     </row>
   </sheetData>
@@ -15691,26 +17842,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC76"/>
+  <dimension ref="A1:BH76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="11" max="55" width="15.7109375" customWidth="1"/>
+    <col min="11" max="60" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1542</v>
+        <v>1728</v>
       </c>
       <c r="K2" t="s">
         <v>219</v>
@@ -15847,15 +17998,30 @@
       <c r="BC2" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD2" t="s">
+        <v>1542</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>1572</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>1602</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>1543</v>
+        <v>1729</v>
       </c>
       <c r="K4" t="s">
         <v>220</v>
@@ -15992,15 +18158,30 @@
       <c r="BC4" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD4" t="s">
+        <v>1543</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>1603</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>1635</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>1544</v>
+        <v>1730</v>
       </c>
       <c r="K6" t="s">
         <v>221</v>
@@ -16137,15 +18318,30 @@
       <c r="BC6" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>1574</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>1604</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>1636</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>1545</v>
+        <v>1731</v>
       </c>
       <c r="K8" t="s">
         <v>222</v>
@@ -16282,15 +18478,30 @@
       <c r="BC8" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD8" t="s">
+        <v>1545</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>1575</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>423</v>
+        <v>318</v>
       </c>
       <c r="K10" t="s">
         <v>209</v>
@@ -16427,15 +18638,30 @@
       <c r="BC10" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD10" t="s">
+        <v>423</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>1576</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>1148</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>1638</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>1546</v>
+        <v>1732</v>
       </c>
       <c r="K12" t="s">
         <v>223</v>
@@ -16572,15 +18798,30 @@
       <c r="BC12" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD12" t="s">
+        <v>1546</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>1577</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>1606</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>1639</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>646</v>
+        <v>1733</v>
       </c>
       <c r="K14" t="s">
         <v>224</v>
@@ -16717,15 +18958,30 @@
       <c r="BC14" t="s">
         <v>1514</v>
       </c>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD14" t="s">
+        <v>646</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>1578</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>1607</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>1640</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>1547</v>
+        <v>1734</v>
       </c>
       <c r="K16" t="s">
         <v>225</v>
@@ -16862,15 +19118,30 @@
       <c r="BC16" t="s">
         <v>1515</v>
       </c>
-    </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD16" t="s">
+        <v>1547</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>1579</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>1608</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>1641</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>1548</v>
+        <v>1735</v>
       </c>
       <c r="K18" t="s">
         <v>210</v>
@@ -17007,15 +19278,30 @@
       <c r="BC18" t="s">
         <v>1516</v>
       </c>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD18" t="s">
+        <v>1548</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>1580</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>1609</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>1642</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>844</v>
+        <v>1736</v>
       </c>
       <c r="K20" t="s">
         <v>226</v>
@@ -17152,15 +19438,30 @@
       <c r="BC20" t="s">
         <v>1517</v>
       </c>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD20" t="s">
+        <v>844</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>1581</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>1610</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>1643</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>414</v>
+        <v>1737</v>
       </c>
       <c r="K22" t="s">
         <v>227</v>
@@ -17297,15 +19598,30 @@
       <c r="BC22" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD22" t="s">
+        <v>414</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>1582</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>1611</v>
+      </c>
+      <c r="BG22">
+        <v>117929</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1549</v>
+        <v>1738</v>
       </c>
       <c r="K24" t="s">
         <v>228</v>
@@ -17442,15 +19758,30 @@
       <c r="BC24" t="s">
         <v>1519</v>
       </c>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD24" t="s">
+        <v>1549</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>1583</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>1612</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>1644</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>1550</v>
+        <v>1172</v>
       </c>
       <c r="K26" t="s">
         <v>229</v>
@@ -17587,15 +19918,30 @@
       <c r="BC26" t="s">
         <v>1520</v>
       </c>
-    </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD26" t="s">
+        <v>1550</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>1584</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>1613</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>1645</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>1551</v>
+        <v>1739</v>
       </c>
       <c r="K28" t="s">
         <v>230</v>
@@ -17732,15 +20078,30 @@
       <c r="BC28" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD28" t="s">
+        <v>1551</v>
+      </c>
+      <c r="BE28" t="s">
+        <v>623</v>
+      </c>
+      <c r="BF28" t="s">
+        <v>1614</v>
+      </c>
+      <c r="BG28" t="s">
+        <v>1646</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>1552</v>
+        <v>1740</v>
       </c>
       <c r="K30" t="s">
         <v>231</v>
@@ -17877,15 +20238,30 @@
       <c r="BC30" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="31" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD30" t="s">
+        <v>1552</v>
+      </c>
+      <c r="BE30" t="s">
+        <v>1585</v>
+      </c>
+      <c r="BF30" t="s">
+        <v>1615</v>
+      </c>
+      <c r="BG30" t="s">
+        <v>1647</v>
+      </c>
+      <c r="BH30" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="31" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>1553</v>
+        <v>1741</v>
       </c>
       <c r="K32" t="s">
         <v>211</v>
@@ -18022,15 +20398,30 @@
       <c r="BC32" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="33" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD32" t="s">
+        <v>1553</v>
+      </c>
+      <c r="BE32" t="s">
+        <v>1149</v>
+      </c>
+      <c r="BF32" t="s">
+        <v>1616</v>
+      </c>
+      <c r="BG32" t="s">
+        <v>1648</v>
+      </c>
+      <c r="BH32" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="33" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="34" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>1554</v>
+        <v>817</v>
       </c>
       <c r="K34" t="s">
         <v>232</v>
@@ -18167,15 +20558,30 @@
       <c r="BC34" t="s">
         <v>1524</v>
       </c>
-    </row>
-    <row r="35" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD34" t="s">
+        <v>1554</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>1586</v>
+      </c>
+      <c r="BF34" t="s">
+        <v>1617</v>
+      </c>
+      <c r="BG34" t="s">
+        <v>1649</v>
+      </c>
+      <c r="BH34" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="35" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="36" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>1555</v>
+        <v>1742</v>
       </c>
       <c r="K36" t="s">
         <v>208</v>
@@ -18312,15 +20718,30 @@
       <c r="BC36">
         <v>56400</v>
       </c>
-    </row>
-    <row r="37" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD36" t="s">
+        <v>1555</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>1587</v>
+      </c>
+      <c r="BF36" t="s">
+        <v>1618</v>
+      </c>
+      <c r="BG36" t="s">
+        <v>1650</v>
+      </c>
+      <c r="BH36" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="37" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1556</v>
+        <v>1743</v>
       </c>
       <c r="K38" t="s">
         <v>212</v>
@@ -18457,15 +20878,30 @@
       <c r="BC38" t="s">
         <v>1525</v>
       </c>
-    </row>
-    <row r="39" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD38" t="s">
+        <v>1556</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>1588</v>
+      </c>
+      <c r="BF38" t="s">
+        <v>1619</v>
+      </c>
+      <c r="BG38" t="s">
+        <v>1651</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1557</v>
+        <v>1744</v>
       </c>
       <c r="K40" t="s">
         <v>213</v>
@@ -18602,15 +21038,30 @@
       <c r="BC40" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="41" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD40" t="s">
+        <v>1557</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>1589</v>
+      </c>
+      <c r="BF40" t="s">
+        <v>1620</v>
+      </c>
+      <c r="BG40" t="s">
+        <v>1652</v>
+      </c>
+      <c r="BH40" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="41" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>1558</v>
+        <v>1745</v>
       </c>
       <c r="K42" t="s">
         <v>233</v>
@@ -18747,15 +21198,30 @@
       <c r="BC42" t="s">
         <v>1527</v>
       </c>
-    </row>
-    <row r="43" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD42" t="s">
+        <v>1558</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>1049</v>
+      </c>
+      <c r="BF42" t="s">
+        <v>1621</v>
+      </c>
+      <c r="BG42" t="s">
+        <v>1653</v>
+      </c>
+      <c r="BH42" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="43" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>1559</v>
+        <v>1746</v>
       </c>
       <c r="K44" t="s">
         <v>214</v>
@@ -18892,15 +21358,30 @@
       <c r="BC44" t="s">
         <v>1528</v>
       </c>
-    </row>
-    <row r="45" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD44" t="s">
+        <v>1559</v>
+      </c>
+      <c r="BE44" t="s">
+        <v>1590</v>
+      </c>
+      <c r="BF44" t="s">
+        <v>1622</v>
+      </c>
+      <c r="BG44" t="s">
+        <v>1654</v>
+      </c>
+      <c r="BH44" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="46" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>1560</v>
+        <v>1747</v>
       </c>
       <c r="K46" t="s">
         <v>234</v>
@@ -19037,15 +21518,30 @@
       <c r="BC46" t="s">
         <v>1529</v>
       </c>
-    </row>
-    <row r="47" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD46" t="s">
+        <v>1560</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>1591</v>
+      </c>
+      <c r="BF46" t="s">
+        <v>1623</v>
+      </c>
+      <c r="BG46" t="s">
+        <v>1655</v>
+      </c>
+      <c r="BH46" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>1561</v>
+        <v>1748</v>
       </c>
       <c r="K48" t="s">
         <v>215</v>
@@ -19182,15 +21678,30 @@
       <c r="BC48" t="s">
         <v>1530</v>
       </c>
-    </row>
-    <row r="49" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD48" t="s">
+        <v>1561</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>1592</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>1624</v>
+      </c>
+      <c r="BG48" t="s">
+        <v>1656</v>
+      </c>
+      <c r="BH48" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="49" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="50" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>1562</v>
+        <v>1749</v>
       </c>
       <c r="K50" t="s">
         <v>216</v>
@@ -19327,15 +21838,30 @@
       <c r="BC50" t="s">
         <v>1531</v>
       </c>
-    </row>
-    <row r="51" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD50" t="s">
+        <v>1562</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>1593</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>1625</v>
+      </c>
+      <c r="BG50" t="s">
+        <v>1657</v>
+      </c>
+      <c r="BH50" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="51" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>1563</v>
+        <v>1750</v>
       </c>
       <c r="K52" t="s">
         <v>217</v>
@@ -19472,15 +21998,30 @@
       <c r="BC52" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="53" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD52" t="s">
+        <v>1563</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>1594</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>1626</v>
+      </c>
+      <c r="BG52" t="s">
+        <v>1658</v>
+      </c>
+      <c r="BH52" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="53" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>1564</v>
+        <v>1751</v>
       </c>
       <c r="K54" t="s">
         <v>235</v>
@@ -19617,15 +22158,30 @@
       <c r="BC54" t="s">
         <v>1533</v>
       </c>
-    </row>
-    <row r="55" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD54" t="s">
+        <v>1564</v>
+      </c>
+      <c r="BE54">
+        <v>80799</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>1627</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>1659</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="56" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>1565</v>
+        <v>1752</v>
       </c>
       <c r="K56" t="s">
         <v>218</v>
@@ -19762,15 +22318,30 @@
       <c r="BC56" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="57" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD56" t="s">
+        <v>1565</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>1595</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>1139</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>1660</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="57" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>1566</v>
+        <v>1358</v>
       </c>
       <c r="K58" t="s">
         <v>236</v>
@@ -19907,15 +22478,30 @@
       <c r="BC58" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="59" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD58" t="s">
+        <v>1566</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>1596</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>1628</v>
+      </c>
+      <c r="BG58" t="s">
+        <v>1661</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="59" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1567</v>
+        <v>1753</v>
       </c>
       <c r="K60" t="s">
         <v>237</v>
@@ -20052,15 +22638,30 @@
       <c r="BC60" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="61" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD60" t="s">
+        <v>1567</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>1597</v>
+      </c>
+      <c r="BF60" t="s">
+        <v>1629</v>
+      </c>
+      <c r="BG60" t="s">
+        <v>1662</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="61" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="62" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>1568</v>
+        <v>1754</v>
       </c>
       <c r="K62" t="s">
         <v>207</v>
@@ -20197,15 +22798,30 @@
       <c r="BC62" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="63" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD62" t="s">
+        <v>1568</v>
+      </c>
+      <c r="BE62" t="s">
+        <v>1598</v>
+      </c>
+      <c r="BF62" t="s">
+        <v>1630</v>
+      </c>
+      <c r="BG62" t="s">
+        <v>1663</v>
+      </c>
+      <c r="BH62" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="63" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>1569</v>
+        <v>1755</v>
       </c>
       <c r="K64" t="s">
         <v>238</v>
@@ -20342,15 +22958,30 @@
       <c r="BC64" t="s">
         <v>1538</v>
       </c>
-    </row>
-    <row r="65" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD64" t="s">
+        <v>1569</v>
+      </c>
+      <c r="BE64" t="s">
+        <v>1599</v>
+      </c>
+      <c r="BF64" t="s">
+        <v>1631</v>
+      </c>
+      <c r="BG64" t="s">
+        <v>1664</v>
+      </c>
+      <c r="BH64" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="65" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>1570</v>
+        <v>1756</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -20487,15 +23118,30 @@
       <c r="BC66" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="67" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD66" t="s">
+        <v>1570</v>
+      </c>
+      <c r="BE66" t="s">
+        <v>1600</v>
+      </c>
+      <c r="BF66" t="s">
+        <v>1632</v>
+      </c>
+      <c r="BG66" t="s">
+        <v>1665</v>
+      </c>
+      <c r="BH66" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="67" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="68" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>1571</v>
+        <v>1757</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -20632,13 +23278,31 @@
       <c r="BC68" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="69" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD68" t="s">
+        <v>1571</v>
+      </c>
+      <c r="BE68" t="s">
+        <v>1601</v>
+      </c>
+      <c r="BF68" t="s">
+        <v>1633</v>
+      </c>
+      <c r="BG68" t="s">
+        <v>1633</v>
+      </c>
+      <c r="BH68" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>29979</v>
+      </c>
       <c r="AW70">
         <v>39793</v>
       </c>
@@ -20654,13 +23318,25 @@
       <c r="BC70">
         <v>31329</v>
       </c>
-    </row>
-    <row r="71" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BF70">
+        <v>30987</v>
+      </c>
+      <c r="BG70">
+        <v>30997</v>
+      </c>
+      <c r="BH70">
+        <v>31999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>34870</v>
+      </c>
       <c r="AW72">
         <v>53484</v>
       </c>
@@ -20676,13 +23352,25 @@
       <c r="BC72">
         <v>39768</v>
       </c>
-    </row>
-    <row r="73" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BF72">
+        <v>33995</v>
+      </c>
+      <c r="BG72">
+        <v>34996</v>
+      </c>
+      <c r="BH72">
+        <v>37989</v>
+      </c>
+    </row>
+    <row r="73" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>29389</v>
+      </c>
       <c r="AW74">
         <v>40994</v>
       </c>
@@ -20698,13 +23386,25 @@
       <c r="BC74">
         <v>32952</v>
       </c>
-    </row>
-    <row r="75" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BF74">
+        <v>27999</v>
+      </c>
+      <c r="BG74">
+        <v>27990</v>
+      </c>
+      <c r="BH74">
+        <v>27984</v>
+      </c>
+    </row>
+    <row r="75" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="76" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>18977</v>
+      </c>
       <c r="AW76">
         <v>23977</v>
       </c>
@@ -20719,6 +23419,15 @@
       </c>
       <c r="BC76">
         <v>22293</v>
+      </c>
+      <c r="BF76">
+        <v>22468</v>
+      </c>
+      <c r="BG76">
+        <v>22468</v>
+      </c>
+      <c r="BH76">
+        <v>22386</v>
       </c>
     </row>
   </sheetData>

--- a/façonneur.xlsx
+++ b/façonneur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="24915" windowHeight="12270" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Ressources" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="1758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="1765">
   <si>
     <t>Ardonite</t>
   </si>
@@ -5172,15 +5172,9 @@
     <t>Cout: 2,6M</t>
   </si>
   <si>
-    <t>V: 2,5M</t>
-  </si>
-  <si>
     <t>9M</t>
   </si>
   <si>
-    <t>1,7M - 1,4M</t>
-  </si>
-  <si>
     <t>450 000</t>
   </si>
   <si>
@@ -5302,6 +5296,33 @@
   </si>
   <si>
     <t>199977</t>
+  </si>
+  <si>
+    <t>1,5M - 1,4M</t>
+  </si>
+  <si>
+    <t>V: 2,3M</t>
+  </si>
+  <si>
+    <t>180 000</t>
+  </si>
+  <si>
+    <t>2,5M - 1,9M</t>
+  </si>
+  <si>
+    <t>3,5M</t>
+  </si>
+  <si>
+    <t>5 350 000 - 4 650 158</t>
+  </si>
+  <si>
+    <t>109 999</t>
+  </si>
+  <si>
+    <t>V: 3 450 000</t>
+  </si>
+  <si>
+    <t>cout 2,1M</t>
   </si>
 </sst>
 </file>
@@ -8446,6 +8467,182 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381326</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>124082</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="15240000"/>
+          <a:ext cx="2333951" cy="1838582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19372</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>67137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Image 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6524625" y="16954500"/>
+          <a:ext cx="2305372" cy="3305637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>505168</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>29005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="17526000"/>
+          <a:ext cx="2457793" cy="3077005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276536</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>86189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="20955000"/>
+          <a:ext cx="2229161" cy="3324689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8487,6 +8684,50 @@
         <a:xfrm>
           <a:off x="762000" y="571500"/>
           <a:ext cx="2295846" cy="3115110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9846</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>86216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="571500"/>
+          <a:ext cx="2295846" cy="3515216"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8552,15 +8793,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>286428</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57983</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>329115</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8583,8 +8824,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762000" y="381000"/>
-          <a:ext cx="4858428" cy="5963483"/>
+          <a:off x="762001" y="381000"/>
+          <a:ext cx="2615114" cy="3209925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>143212</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>10004</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829050" y="390525"/>
+          <a:ext cx="2410162" cy="3429479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10424,10 +10709,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T91"/>
+  <dimension ref="B2:T110"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10519,6 +10804,9 @@
       <c r="E34" s="136" t="s">
         <v>1702</v>
       </c>
+      <c r="F34" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="T39" s="136" t="s">
@@ -10543,7 +10831,7 @@
         <v>1709</v>
       </c>
       <c r="Q48" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.25">
@@ -10563,23 +10851,23 @@
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L64" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="T64" s="136" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E65" t="s">
-        <v>1716</v>
+      <c r="E65" s="136" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="I67" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="P67" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
@@ -10590,7 +10878,7 @@
         <v>1704</v>
       </c>
       <c r="P75" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
@@ -10608,27 +10896,50 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="83" spans="5:20" x14ac:dyDescent="0.25">
-      <c r="P83" t="s">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="85" spans="5:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P83" s="136" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>1727</v>
-      </c>
-      <c r="T85" t="s">
         <v>1725</v>
       </c>
-    </row>
-    <row r="87" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="T85" s="136" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
       <c r="L87" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="91" spans="5:20" x14ac:dyDescent="0.25">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
       <c r="P91" t="s">
-        <v>1721</v>
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="136" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1712</v>
       </c>
     </row>
   </sheetData>
@@ -10640,22 +10951,28 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>1713</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>1714</v>
+      <c r="F2" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="136" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1763</v>
       </c>
     </row>
   </sheetData>
@@ -10681,17 +10998,20 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>1715</v>
+        <v>1714</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1760</v>
       </c>
     </row>
   </sheetData>
@@ -14225,6 +14545,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="M79:O79"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="M46:O46"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="M68:O68"/>
     <mergeCell ref="C90:E90"/>
     <mergeCell ref="H90:J90"/>
     <mergeCell ref="M90:O90"/>
@@ -14241,17 +14572,6 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="M24:O24"/>
     <mergeCell ref="C35:E35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="M79:O79"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="M46:O46"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="M68:O68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -16704,8 +17024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17861,7 +18181,7 @@
     </row>
     <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="K2" t="s">
         <v>219</v>
@@ -18021,7 +18341,7 @@
     </row>
     <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="K4" t="s">
         <v>220</v>
@@ -18181,7 +18501,7 @@
     </row>
     <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="K6" t="s">
         <v>221</v>
@@ -18341,7 +18661,7 @@
     </row>
     <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="K8" t="s">
         <v>222</v>
@@ -18661,7 +18981,7 @@
     </row>
     <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="K12" t="s">
         <v>223</v>
@@ -18821,7 +19141,7 @@
     </row>
     <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="K14" t="s">
         <v>224</v>
@@ -18981,7 +19301,7 @@
     </row>
     <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="K16" t="s">
         <v>225</v>
@@ -19141,7 +19461,7 @@
     </row>
     <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="K18" t="s">
         <v>210</v>
@@ -19301,7 +19621,7 @@
     </row>
     <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="K20" t="s">
         <v>226</v>
@@ -19461,7 +19781,7 @@
     </row>
     <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="K22" t="s">
         <v>227</v>
@@ -19621,7 +19941,7 @@
     </row>
     <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="K24" t="s">
         <v>228</v>
@@ -19941,7 +20261,7 @@
     </row>
     <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="K28" t="s">
         <v>230</v>
@@ -20101,7 +20421,7 @@
     </row>
     <row r="30" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="K30" t="s">
         <v>231</v>
@@ -20261,7 +20581,7 @@
     </row>
     <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="K32" t="s">
         <v>211</v>
@@ -20581,7 +20901,7 @@
     </row>
     <row r="36" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="K36" t="s">
         <v>208</v>
@@ -20741,7 +21061,7 @@
     </row>
     <row r="38" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="K38" t="s">
         <v>212</v>
@@ -20901,7 +21221,7 @@
     </row>
     <row r="40" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="K40" t="s">
         <v>213</v>
@@ -21061,7 +21381,7 @@
     </row>
     <row r="42" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="K42" t="s">
         <v>233</v>
@@ -21221,7 +21541,7 @@
     </row>
     <row r="44" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="K44" t="s">
         <v>214</v>
@@ -21381,7 +21701,7 @@
     </row>
     <row r="46" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="K46" t="s">
         <v>234</v>
@@ -21541,7 +21861,7 @@
     </row>
     <row r="48" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="K48" t="s">
         <v>215</v>
@@ -21701,7 +22021,7 @@
     </row>
     <row r="50" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="K50" t="s">
         <v>216</v>
@@ -21861,7 +22181,7 @@
     </row>
     <row r="52" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="K52" t="s">
         <v>217</v>
@@ -22021,7 +22341,7 @@
     </row>
     <row r="54" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="K54" t="s">
         <v>235</v>
@@ -22181,7 +22501,7 @@
     </row>
     <row r="56" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="K56" t="s">
         <v>218</v>
@@ -22501,7 +22821,7 @@
     </row>
     <row r="60" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="K60" t="s">
         <v>237</v>
@@ -22661,7 +22981,7 @@
     </row>
     <row r="62" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="K62" t="s">
         <v>207</v>
@@ -22821,7 +23141,7 @@
     </row>
     <row r="64" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="K64" t="s">
         <v>238</v>
@@ -22981,7 +23301,7 @@
     </row>
     <row r="66" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="K66">
         <v>99948</v>
@@ -23141,7 +23461,7 @@
     </row>
     <row r="68" spans="1:60" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="K68">
         <v>1</v>
